--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永远不要选自己觉得会出的号码     n+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忘记数据可视化图形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,34 @@
   </si>
   <si>
     <t>永远不要选择自己想要的行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远不要选自己觉得会出的号码     n+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +357,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +539,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -839,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V71" sqref="V71"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -4751,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q39" s="7">
         <v>7</v>
@@ -5428,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="7">
         <v>5</v>
@@ -5625,7 +5643,7 @@
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" s="7">
         <v>1</v>
@@ -5739,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="R49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" s="7">
         <v>2</v>
@@ -5748,19 +5766,19 @@
         <v>0</v>
       </c>
       <c r="U49" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V49" s="7">
         <v>2</v>
       </c>
       <c r="W49" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X49" s="42">
         <v>16</v>
       </c>
       <c r="Y49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49" s="7">
         <v>4</v>
@@ -5775,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="AD49" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49" s="7">
         <v>1</v>
@@ -5789,7 +5807,7 @@
     </row>
     <row r="50" spans="1:33" s="3" customFormat="1">
       <c r="A50" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
@@ -5866,7 +5884,9 @@
       <c r="AF50" s="7">
         <v>0</v>
       </c>
-      <c r="AG50" s="7"/>
+      <c r="AG50" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:33" s="3" customFormat="1">
       <c r="A51" s="7"/>
@@ -5903,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="N51" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O51" s="7">
         <v>2</v>
@@ -5914,7 +5934,7 @@
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="7">
         <v>15</v>
@@ -5932,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51" s="26">
         <v>1</v>
@@ -6011,7 +6031,7 @@
         <v>6</v>
       </c>
       <c r="AC52" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD52" s="25"/>
       <c r="AE52" s="7"/>
@@ -6025,7 +6045,9 @@
       <c r="B53" s="26">
         <v>1</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
       <c r="D53" s="26">
         <v>5</v>
       </c>
@@ -6039,7 +6061,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="7">
         <v>6</v>
@@ -6062,7 +6084,9 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
+      <c r="T53" s="7">
+        <v>0</v>
+      </c>
       <c r="U53" s="7"/>
       <c r="V53" s="7">
         <v>0</v>
@@ -6107,12 +6131,12 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M54" s="26">
         <v>0</v>
@@ -6209,7 +6233,7 @@
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG55" s="7"/>
     </row>
@@ -6226,10 +6250,10 @@
         <v>6</v>
       </c>
       <c r="F56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -6349,7 +6373,7 @@
       </c>
       <c r="N58" s="7"/>
       <c r="O58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="7">
@@ -6364,7 +6388,7 @@
       </c>
       <c r="W58" s="7"/>
       <c r="X58" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y58" s="28"/>
       <c r="Z58" s="7">
@@ -6398,6 +6422,9 @@
       <c r="Q59" s="7">
         <v>2</v>
       </c>
+      <c r="V59" s="7">
+        <v>0</v>
+      </c>
       <c r="Y59" s="26"/>
       <c r="Z59" s="7">
         <v>2</v>
@@ -6435,7 +6462,9 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="B61" s="7">
+        <v>0</v>
+      </c>
       <c r="C61" s="26"/>
       <c r="D61" s="7">
         <v>0</v>
@@ -6457,7 +6486,7 @@
       <c r="O61" s="3"/>
       <c r="P61" s="26"/>
       <c r="Q61" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R61" s="7"/>
       <c r="T61" s="7"/>
@@ -6467,11 +6496,11 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA61" s="7"/>
       <c r="AB61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC61" s="7"/>
       <c r="AE61" s="7"/>
@@ -6483,7 +6512,7 @@
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
@@ -6524,7 +6553,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="7"/>
@@ -6532,7 +6561,9 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="7"/>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
       <c r="N63" s="26"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -6633,8 +6664,76 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
     </row>
-    <row r="67" spans="1:33" s="45" customFormat="1"/>
-    <row r="68" spans="1:33" s="43" customFormat="1"/>
+    <row r="67" spans="1:33" s="45" customFormat="1">
+      <c r="A67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="R67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="V67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="X67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z67" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF67" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" s="43" customFormat="1">
+      <c r="C68" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="U68" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="W68" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB68" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE68" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG68" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="69" spans="1:33" s="47" customFormat="1"/>
     <row r="70" spans="1:33">
       <c r="C70" s="5"/>
@@ -7361,8 +7460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD976"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V132" sqref="V132"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U132" sqref="U132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -14715,7 +14814,7 @@
       <c r="S98" s="19">
         <v>4</v>
       </c>
-      <c r="T98" s="61">
+      <c r="T98" s="19">
         <v>27</v>
       </c>
       <c r="U98" s="19">
@@ -14870,7 +14969,7 @@
         <v>4</v>
       </c>
       <c r="T100" s="20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U100" s="19">
         <v>1</v>
@@ -15641,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="U110" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V110" s="22">
         <v>5</v>
@@ -16018,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="S115" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T115" s="22">
         <v>2</v>
@@ -16093,7 +16192,7 @@
         <v>2</v>
       </c>
       <c r="S116" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T116" s="22">
         <v>2</v>
@@ -16165,13 +16264,13 @@
         <v>6</v>
       </c>
       <c r="R117" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S117" s="22">
         <v>2</v>
       </c>
       <c r="T117" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U117" s="22">
         <v>3</v>
@@ -16249,7 +16348,7 @@
       <c r="U118" s="22">
         <v>0</v>
       </c>
-      <c r="V118" s="60">
+      <c r="V118" s="22">
         <v>7</v>
       </c>
       <c r="W118" s="23"/>
@@ -16316,17 +16415,17 @@
       <c r="R119" s="22">
         <v>2</v>
       </c>
-      <c r="S119" s="23">
+      <c r="S119" s="22">
         <v>7</v>
       </c>
-      <c r="T119" s="23">
+      <c r="T119" s="22">
         <v>7</v>
       </c>
       <c r="U119" s="22">
         <v>2</v>
       </c>
       <c r="V119" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W119" s="23"/>
       <c r="X119" s="21">
@@ -16338,8 +16437,12 @@
       <c r="Z119" s="21">
         <v>2</v>
       </c>
-      <c r="AA119" s="41"/>
-      <c r="AB119" s="41"/>
+      <c r="AA119" s="21">
+        <v>7</v>
+      </c>
+      <c r="AB119" s="21">
+        <v>7</v>
+      </c>
       <c r="AC119" s="41"/>
     </row>
     <row r="120" spans="1:30" s="21" customFormat="1">
@@ -16395,7 +16498,7 @@
       <c r="U120" s="22">
         <v>3</v>
       </c>
-      <c r="V120" s="60">
+      <c r="V120" s="22">
         <v>5</v>
       </c>
       <c r="W120" s="23"/>
@@ -16460,7 +16563,7 @@
         <v>3</v>
       </c>
       <c r="R121" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S121" s="22">
         <v>1</v>
@@ -16531,21 +16634,21 @@
       </c>
       <c r="P122" s="22"/>
       <c r="Q122" s="23">
-        <v>4</v>
-      </c>
-      <c r="R122" s="60">
-        <v>3</v>
-      </c>
-      <c r="S122" s="23">
+        <v>5</v>
+      </c>
+      <c r="R122" s="22">
+        <v>3</v>
+      </c>
+      <c r="S122" s="22">
         <v>4</v>
       </c>
       <c r="T122" s="22">
         <v>1</v>
       </c>
       <c r="U122" s="23">
-        <v>4</v>
-      </c>
-      <c r="V122" s="60">
+        <v>5</v>
+      </c>
+      <c r="V122" s="22">
         <v>3</v>
       </c>
       <c r="W122" s="23"/>
@@ -16558,7 +16661,9 @@
       <c r="Z122" s="21">
         <v>3</v>
       </c>
-      <c r="AA122" s="41"/>
+      <c r="AA122" s="21">
+        <v>4</v>
+      </c>
       <c r="AB122" s="41"/>
       <c r="AC122" s="41"/>
     </row>
@@ -16599,20 +16704,21 @@
       <c r="N123" s="21">
         <v>10</v>
       </c>
+      <c r="P123" s="22"/>
       <c r="Q123" s="23">
-        <v>3</v>
-      </c>
-      <c r="R123" s="23">
+        <v>4</v>
+      </c>
+      <c r="R123" s="22">
         <v>3</v>
       </c>
       <c r="S123" s="22">
         <v>1</v>
       </c>
       <c r="T123" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U123" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V123" s="22">
         <v>0</v>
@@ -16624,7 +16730,9 @@
       <c r="Y123" s="21">
         <v>1</v>
       </c>
-      <c r="Z123" s="41"/>
+      <c r="Z123" s="21">
+        <v>3</v>
+      </c>
       <c r="AA123" s="41"/>
       <c r="AB123" s="41"/>
       <c r="AC123" s="41"/>
@@ -16667,29 +16775,31 @@
         <v>17</v>
       </c>
       <c r="P124" s="22"/>
-      <c r="Q124" s="23">
+      <c r="Q124" s="22">
         <v>2</v>
       </c>
       <c r="R124" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S124" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T124" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U124" s="22">
         <v>0</v>
       </c>
       <c r="V124" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W124" s="41"/>
       <c r="X124" s="21">
         <v>0</v>
       </c>
-      <c r="Y124" s="41"/>
+      <c r="Y124" s="21">
+        <v>2</v>
+      </c>
       <c r="Z124" s="41"/>
       <c r="AA124" s="41"/>
       <c r="AB124" s="41"/>
@@ -16732,23 +16842,24 @@
       <c r="N125" s="21">
         <v>16</v>
       </c>
-      <c r="Q125" s="60">
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22">
         <v>0</v>
       </c>
       <c r="R125" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S125" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T125" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U125" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V125" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W125" s="23"/>
       <c r="X125" s="21">
@@ -16799,25 +16910,27 @@
       </c>
       <c r="P126" s="22"/>
       <c r="Q126" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S126" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T126" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U126" s="23">
-        <v>0</v>
-      </c>
-      <c r="V126" s="23">
+        <v>1</v>
+      </c>
+      <c r="V126" s="22">
         <v>0</v>
       </c>
       <c r="W126" s="41"/>
-      <c r="X126" s="41"/>
+      <c r="X126" s="21">
+        <v>0</v>
+      </c>
       <c r="Y126" s="41"/>
       <c r="Z126" s="41"/>
       <c r="AA126" s="41"/>
@@ -16826,13 +16939,61 @@
       <c r="AD126" s="41"/>
     </row>
     <row r="127" spans="1:30" s="21" customFormat="1">
+      <c r="A127" s="21">
+        <v>3</v>
+      </c>
+      <c r="B127" s="21">
+        <v>2</v>
+      </c>
+      <c r="C127" s="21">
+        <v>4</v>
+      </c>
+      <c r="D127" s="21">
+        <v>7</v>
+      </c>
+      <c r="E127" s="21">
+        <v>7</v>
+      </c>
+      <c r="F127" s="21">
+        <v>0</v>
+      </c>
+      <c r="I127" s="21">
+        <v>0</v>
+      </c>
+      <c r="J127" s="21">
+        <v>2</v>
+      </c>
+      <c r="K127" s="21">
+        <v>3</v>
+      </c>
+      <c r="L127" s="21">
+        <v>4</v>
+      </c>
+      <c r="M127" s="21">
+        <v>7</v>
+      </c>
+      <c r="N127" s="21">
+        <v>7</v>
+      </c>
       <c r="P127" s="22"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23"/>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
+      <c r="Q127" s="23">
+        <v>0</v>
+      </c>
+      <c r="R127" s="23">
+        <v>0</v>
+      </c>
+      <c r="S127" s="23">
+        <v>0</v>
+      </c>
+      <c r="T127" s="23">
+        <v>0</v>
+      </c>
+      <c r="U127" s="23">
+        <v>0</v>
+      </c>
+      <c r="V127" s="23">
+        <v>0</v>
+      </c>
       <c r="W127" s="41"/>
       <c r="X127" s="41"/>
       <c r="Y127" s="41"/>
@@ -17124,7 +17285,7 @@
       <c r="AC144" s="41"/>
       <c r="AD144" s="41"/>
     </row>
-    <row r="145" spans="9:30" s="21" customFormat="1">
+    <row r="145" spans="16:30" s="21" customFormat="1">
       <c r="P145" s="22"/>
       <c r="Q145" s="23"/>
       <c r="R145" s="23"/>
@@ -17141,7 +17302,7 @@
       <c r="AC145" s="41"/>
       <c r="AD145" s="41"/>
     </row>
-    <row r="146" spans="9:30" s="21" customFormat="1">
+    <row r="146" spans="16:30" s="21" customFormat="1">
       <c r="P146" s="22"/>
       <c r="Q146" s="23"/>
       <c r="R146" s="23"/>
@@ -17158,7 +17319,7 @@
       <c r="AC146" s="41"/>
       <c r="AD146" s="41"/>
     </row>
-    <row r="147" spans="9:30" s="21" customFormat="1">
+    <row r="147" spans="16:30" s="21" customFormat="1">
       <c r="P147" s="22"/>
       <c r="Q147" s="23"/>
       <c r="R147" s="23"/>
@@ -17175,7 +17336,7 @@
       <c r="AC147" s="23"/>
       <c r="AD147" s="41"/>
     </row>
-    <row r="148" spans="9:30" s="21" customFormat="1">
+    <row r="148" spans="16:30" s="21" customFormat="1">
       <c r="P148" s="22"/>
       <c r="Q148" s="23"/>
       <c r="R148" s="23"/>
@@ -17192,25 +17353,7 @@
       <c r="AC148" s="41"/>
       <c r="AD148" s="41"/>
     </row>
-    <row r="149" spans="9:30" s="21" customFormat="1">
-      <c r="I149" s="21">
-        <v>0</v>
-      </c>
-      <c r="J149" s="21">
-        <v>3</v>
-      </c>
-      <c r="K149" s="21">
-        <v>3</v>
-      </c>
-      <c r="L149" s="21">
-        <v>6</v>
-      </c>
-      <c r="M149" s="21">
-        <v>8</v>
-      </c>
-      <c r="N149" s="21">
-        <v>15</v>
-      </c>
+    <row r="149" spans="16:30" s="21" customFormat="1">
       <c r="P149" s="22"/>
       <c r="Q149" s="23"/>
       <c r="R149" s="23"/>
@@ -17227,7 +17370,7 @@
       <c r="AC149" s="41"/>
       <c r="AD149" s="41"/>
     </row>
-    <row r="150" spans="9:30" s="21" customFormat="1">
+    <row r="150" spans="16:30" s="21" customFormat="1">
       <c r="P150" s="22"/>
       <c r="Q150" s="23"/>
       <c r="R150" s="23"/>
@@ -17244,7 +17387,7 @@
       <c r="AC150" s="23"/>
       <c r="AD150" s="41"/>
     </row>
-    <row r="151" spans="9:30" s="21" customFormat="1">
+    <row r="151" spans="16:30" s="21" customFormat="1">
       <c r="P151" s="22"/>
       <c r="Q151" s="23"/>
       <c r="R151" s="23"/>
@@ -17261,25 +17404,7 @@
       <c r="AC151" s="41"/>
       <c r="AD151" s="41"/>
     </row>
-    <row r="152" spans="9:30" s="21" customFormat="1">
-      <c r="I152" s="21">
-        <v>0</v>
-      </c>
-      <c r="J152" s="21">
-        <v>0</v>
-      </c>
-      <c r="K152" s="21">
-        <v>0</v>
-      </c>
-      <c r="L152" s="21">
-        <v>1</v>
-      </c>
-      <c r="M152" s="21">
-        <v>3</v>
-      </c>
-      <c r="N152" s="21">
-        <v>15</v>
-      </c>
+    <row r="152" spans="16:30" s="21" customFormat="1">
       <c r="P152" s="22"/>
       <c r="Q152" s="23"/>
       <c r="R152" s="23"/>
@@ -17296,7 +17421,7 @@
       <c r="AC152" s="41"/>
       <c r="AD152" s="41"/>
     </row>
-    <row r="153" spans="9:30" s="21" customFormat="1">
+    <row r="153" spans="16:30" s="21" customFormat="1">
       <c r="Q153" s="23"/>
       <c r="R153" s="23"/>
       <c r="S153" s="23"/>
@@ -17312,25 +17437,7 @@
       <c r="AC153" s="41"/>
       <c r="AD153" s="41"/>
     </row>
-    <row r="154" spans="9:30" s="21" customFormat="1">
-      <c r="I154" s="21">
-        <v>0</v>
-      </c>
-      <c r="J154" s="21">
-        <v>1</v>
-      </c>
-      <c r="K154" s="21">
-        <v>3</v>
-      </c>
-      <c r="L154" s="21">
-        <v>3</v>
-      </c>
-      <c r="M154" s="21">
-        <v>6</v>
-      </c>
-      <c r="N154" s="21">
-        <v>25</v>
-      </c>
+    <row r="154" spans="16:30" s="21" customFormat="1">
       <c r="P154" s="22"/>
       <c r="Q154" s="23"/>
       <c r="R154" s="23"/>
@@ -17347,7 +17454,7 @@
       <c r="AC154" s="41"/>
       <c r="AD154" s="41"/>
     </row>
-    <row r="155" spans="9:30" s="21" customFormat="1">
+    <row r="155" spans="16:30" s="21" customFormat="1">
       <c r="Q155" s="23"/>
       <c r="R155" s="23"/>
       <c r="S155" s="23"/>
@@ -17363,22 +17470,7 @@
       <c r="AC155" s="23"/>
       <c r="AD155" s="41"/>
     </row>
-    <row r="156" spans="9:30" s="21" customFormat="1">
-      <c r="I156" s="21">
-        <v>1</v>
-      </c>
-      <c r="J156" s="21">
-        <v>3</v>
-      </c>
-      <c r="K156" s="21">
-        <v>3</v>
-      </c>
-      <c r="L156" s="21">
-        <v>6</v>
-      </c>
-      <c r="M156" s="21">
-        <v>25</v>
-      </c>
+    <row r="156" spans="16:30" s="21" customFormat="1">
       <c r="P156" s="22"/>
       <c r="Q156" s="23"/>
       <c r="R156" s="23"/>
@@ -17395,7 +17487,7 @@
       <c r="AC156" s="41"/>
       <c r="AD156" s="41"/>
     </row>
-    <row r="157" spans="9:30" s="21" customFormat="1">
+    <row r="157" spans="16:30" s="21" customFormat="1">
       <c r="Q157" s="23"/>
       <c r="R157" s="23"/>
       <c r="S157" s="23"/>
@@ -17411,25 +17503,7 @@
       <c r="AC157" s="23"/>
       <c r="AD157" s="41"/>
     </row>
-    <row r="158" spans="9:30" s="21" customFormat="1">
-      <c r="I158" s="21">
-        <v>1</v>
-      </c>
-      <c r="J158" s="21">
-        <v>3</v>
-      </c>
-      <c r="K158" s="21">
-        <v>3</v>
-      </c>
-      <c r="L158" s="21">
-        <v>5</v>
-      </c>
-      <c r="M158" s="21">
-        <v>6</v>
-      </c>
-      <c r="N158" s="21">
-        <v>25</v>
-      </c>
+    <row r="158" spans="16:30" s="21" customFormat="1">
       <c r="Q158" s="23"/>
       <c r="R158" s="23"/>
       <c r="S158" s="23"/>
@@ -17445,7 +17519,7 @@
       <c r="AC158" s="23"/>
       <c r="AD158" s="41"/>
     </row>
-    <row r="159" spans="9:30" s="21" customFormat="1">
+    <row r="159" spans="16:30" s="21" customFormat="1">
       <c r="P159" s="22"/>
       <c r="Q159" s="23"/>
       <c r="R159" s="23"/>
@@ -17462,25 +17536,7 @@
       <c r="AC159" s="41"/>
       <c r="AD159" s="41"/>
     </row>
-    <row r="160" spans="9:30" s="21" customFormat="1">
-      <c r="I160" s="21">
-        <v>1</v>
-      </c>
-      <c r="J160" s="21">
-        <v>2</v>
-      </c>
-      <c r="K160" s="21">
-        <v>6</v>
-      </c>
-      <c r="L160" s="21">
-        <v>6</v>
-      </c>
-      <c r="M160" s="21">
-        <v>8</v>
-      </c>
-      <c r="N160" s="21">
-        <v>8</v>
-      </c>
+    <row r="160" spans="16:30" s="21" customFormat="1">
       <c r="Q160" s="23"/>
       <c r="R160" s="23"/>
       <c r="S160" s="23"/>
@@ -30034,10 +30090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO183"/>
+  <dimension ref="A1:AO184"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -32582,10 +32638,10 @@
       </c>
     </row>
     <row r="126" spans="1:41">
-      <c r="A126" s="10"/>
-      <c r="B126" s="9">
-        <v>1</v>
-      </c>
+      <c r="A126" s="9">
+        <v>1</v>
+      </c>
+      <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="11">
         <v>2</v>
@@ -32612,16 +32668,39 @@
       </c>
     </row>
     <row r="127" spans="1:41">
-      <c r="A127" s="10"/>
+      <c r="A127" s="9">
+        <v>1</v>
+      </c>
       <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
+      <c r="C127" s="9">
+        <v>1</v>
+      </c>
+      <c r="D127" s="9">
+        <v>1</v>
+      </c>
+      <c r="E127" s="9">
+        <v>1</v>
+      </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
+      <c r="H127" s="11">
+        <v>2</v>
+      </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
       <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="18"/>
+      <c r="T127" s="18"/>
+      <c r="U127" s="18"/>
+      <c r="V127" s="18"/>
+      <c r="W127" s="18"/>
+      <c r="X127" s="18"/>
+      <c r="Y127" s="18"/>
+      <c r="Z127" s="18"/>
+      <c r="AA127" s="10"/>
     </row>
     <row r="128" spans="1:41">
       <c r="A128" s="10"/>
@@ -32631,9 +32710,10 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
       <c r="J128" s="10"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -32641,8 +32721,9 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -32650,7 +32731,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -32658,7 +32739,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -32666,7 +32747,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -32674,7 +32755,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -32682,7 +32763,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -32690,7 +32771,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -32698,7 +32779,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -32706,7 +32787,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -32714,7 +32795,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -32722,7 +32803,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -32730,7 +32811,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -32738,7 +32819,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -32746,7 +32827,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -32754,7 +32835,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -32783,6 +32864,7 @@
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:6">
@@ -32790,6 +32872,7 @@
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
       <c r="F148" s="10"/>
     </row>
     <row r="149" spans="1:6">
@@ -32864,6 +32947,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="F159" s="10"/>
@@ -32959,30 +33043,38 @@
     <row r="175" spans="1:6">
       <c r="A175" s="10"/>
       <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
     </row>
     <row r="176" spans="1:6">
+      <c r="A176" s="10"/>
       <c r="C176" s="10"/>
-    </row>
-    <row r="177" spans="3:3">
+      <c r="D176" s="10"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="10"/>
       <c r="C177" s="10"/>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="1:3">
+      <c r="A178" s="10"/>
       <c r="C178" s="10"/>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="1:3">
       <c r="C179" s="10"/>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="1:3">
       <c r="C180" s="10"/>
     </row>
-    <row r="181" spans="3:3">
+    <row r="181" spans="1:3">
       <c r="C181" s="10"/>
     </row>
-    <row r="182" spans="3:3">
+    <row r="182" spans="1:3">
       <c r="C182" s="10"/>
     </row>
-    <row r="183" spans="3:3">
+    <row r="183" spans="1:3">
       <c r="C183" s="10"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="C184" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32993,10 +33085,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S183"/>
+  <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35210,88 +35302,169 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
-    </row>
-    <row r="146" spans="6:19">
-      <c r="N146" s="18"/>
-      <c r="O146" s="18"/>
-      <c r="P146" s="18"/>
-      <c r="Q146" s="18"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="18"/>
-    </row>
-    <row r="152" spans="6:19">
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-    </row>
-    <row r="153" spans="6:19">
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-    </row>
-    <row r="161" spans="1:19">
-      <c r="A161" s="37"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-    </row>
-    <row r="168" spans="1:19">
-      <c r="N168" s="18"/>
-      <c r="O168" s="18"/>
-      <c r="P168" s="18"/>
-      <c r="Q168" s="18"/>
-      <c r="R168" s="18"/>
-      <c r="S168" s="18"/>
-    </row>
-    <row r="181" spans="14:19">
-      <c r="N181" s="18"/>
-      <c r="O181" s="18"/>
-      <c r="P181" s="18"/>
-      <c r="Q181" s="18"/>
-      <c r="R181" s="18"/>
-      <c r="S181" s="18"/>
-    </row>
-    <row r="183" spans="14:19">
-      <c r="N183" s="18"/>
-      <c r="O183" s="18"/>
-      <c r="P183" s="18"/>
-      <c r="Q183" s="18"/>
-      <c r="R183" s="18"/>
-      <c r="S183" s="18"/>
+    <row r="127" spans="1:19">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>1</v>
+      </c>
+      <c r="N127" s="18">
+        <v>0</v>
+      </c>
+      <c r="O127" s="18">
+        <v>1</v>
+      </c>
+      <c r="P127" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q127" s="18">
+        <v>5</v>
+      </c>
+      <c r="R127" s="18">
+        <v>7</v>
+      </c>
+      <c r="S127" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="37"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="37"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="18"/>
+      <c r="R141" s="18"/>
+      <c r="S141" s="18"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="B149" s="1">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="B150" s="1">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="37"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="37"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="37"/>
+    </row>
+    <row r="164" spans="6:19">
+      <c r="N164" s="18"/>
+      <c r="O164" s="18"/>
+      <c r="P164" s="18"/>
+      <c r="Q164" s="18"/>
+      <c r="R164" s="18"/>
+      <c r="S164" s="18"/>
+    </row>
+    <row r="170" spans="6:19">
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+    </row>
+    <row r="171" spans="6:19">
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" s="37"/>
+      <c r="B179" s="37"/>
+      <c r="C179" s="37"/>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="N186" s="18"/>
+      <c r="O186" s="18"/>
+      <c r="P186" s="18"/>
+      <c r="Q186" s="18"/>
+      <c r="R186" s="18"/>
+      <c r="S186" s="18"/>
+    </row>
+    <row r="199" spans="14:19">
+      <c r="N199" s="18"/>
+      <c r="O199" s="18"/>
+      <c r="P199" s="18"/>
+      <c r="Q199" s="18"/>
+      <c r="R199" s="18"/>
+      <c r="S199" s="18"/>
+    </row>
+    <row r="201" spans="14:19">
+      <c r="N201" s="18"/>
+      <c r="O201" s="18"/>
+      <c r="P201" s="18"/>
+      <c r="Q201" s="18"/>
+      <c r="R201" s="18"/>
+      <c r="S201" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35302,10 +35475,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AR128"/>
+  <dimension ref="A100:AR129"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36900,13 +37073,45 @@
       </c>
     </row>
     <row r="127" spans="1:44">
-      <c r="A127" s="10"/>
+      <c r="A127" s="9">
+        <v>1</v>
+      </c>
+      <c r="C127" s="11">
+        <v>2</v>
+      </c>
+      <c r="D127" s="11">
+        <v>3</v>
+      </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="J127" s="10"/>
+      <c r="P127" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="16">
+        <v>2</v>
+      </c>
+      <c r="R127" s="16">
+        <v>2</v>
+      </c>
+      <c r="S127" s="16">
+        <v>3</v>
+      </c>
+      <c r="T127" s="16">
+        <v>3</v>
+      </c>
+      <c r="U127" s="16">
+        <v>3</v>
+      </c>
+      <c r="W127" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="128" spans="1:44">
       <c r="A128" s="10"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36919,15 +37124,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="6.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="59" customWidth="1"/>
-    <col min="7" max="16" width="6.625" style="18" customWidth="1"/>
+    <col min="1" max="4" width="6.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="18" customWidth="1"/>
+    <col min="8" max="10" width="6.625" style="60" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="18" customWidth="1"/>
+    <col min="12" max="13" width="6.625" style="60" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="6.625" style="60" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -36943,37 +37155,37 @@
       <c r="D1" s="18">
         <v>47</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="60">
         <v>41</v>
       </c>
-      <c r="F1" s="59">
+      <c r="F1" s="61">
         <v>17</v>
       </c>
       <c r="G1" s="18">
         <v>23</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="60">
         <v>10</v>
       </c>
-      <c r="I1" s="18">
-        <v>3</v>
-      </c>
-      <c r="J1" s="18">
+      <c r="I1" s="60">
+        <v>3</v>
+      </c>
+      <c r="J1" s="60">
         <v>40</v>
       </c>
       <c r="K1" s="18">
         <v>38</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="60">
         <v>16</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="60">
         <v>21</v>
       </c>
       <c r="N1" s="18">
         <v>52</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="60">
         <v>15</v>
       </c>
       <c r="P1" s="18">
@@ -36991,39 +37203,39 @@
         <v>0</v>
       </c>
       <c r="D2" s="18">
-        <v>78</v>
-      </c>
-      <c r="E2" s="18">
-        <v>1</v>
-      </c>
-      <c r="F2" s="59">
+        <v>79</v>
+      </c>
+      <c r="E2" s="60">
+        <v>1</v>
+      </c>
+      <c r="F2" s="61">
         <v>10</v>
       </c>
       <c r="G2" s="18">
         <v>43</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="60">
         <v>64</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="60">
         <v>6</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="60">
         <v>50</v>
       </c>
       <c r="K2" s="18">
         <v>4</v>
       </c>
-      <c r="L2" s="18">
-        <v>1</v>
-      </c>
-      <c r="M2" s="18">
+      <c r="L2" s="60">
+        <v>1</v>
+      </c>
+      <c r="M2" s="60">
         <v>7</v>
       </c>
       <c r="N2" s="18">
         <v>11</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="60">
         <v>6</v>
       </c>
       <c r="P2" s="18">
@@ -37040,37 +37252,37 @@
       <c r="C3" s="18">
         <v>9</v>
       </c>
-      <c r="E3" s="18">
-        <v>4</v>
-      </c>
-      <c r="F3" s="59">
+      <c r="E3" s="60">
+        <v>4</v>
+      </c>
+      <c r="F3" s="61">
         <v>8</v>
       </c>
       <c r="G3" s="18">
         <v>27</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="60">
         <v>18</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="60">
         <v>9</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="60">
         <v>3</v>
       </c>
       <c r="K3" s="18">
         <v>11</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="60">
         <v>15</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="60">
         <v>15</v>
       </c>
       <c r="N3" s="18">
         <v>3</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="60">
         <v>44</v>
       </c>
       <c r="P3" s="18">
@@ -37079,7 +37291,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="18">
         <v>2</v>
@@ -37087,37 +37299,37 @@
       <c r="C4" s="18">
         <v>7</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="60">
         <v>17</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="61">
         <v>4</v>
       </c>
       <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="18">
-        <v>5</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="H4" s="60">
+        <v>5</v>
+      </c>
+      <c r="I4" s="60">
         <v>24</v>
       </c>
-      <c r="J4" s="18">
-        <v>31</v>
+      <c r="J4" s="60">
+        <v>32</v>
       </c>
       <c r="K4" s="18">
         <v>34</v>
       </c>
-      <c r="L4" s="18">
-        <v>1</v>
-      </c>
-      <c r="M4" s="18">
+      <c r="L4" s="60">
+        <v>1</v>
+      </c>
+      <c r="M4" s="60">
         <v>26</v>
       </c>
       <c r="N4" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="60">
         <v>17</v>
       </c>
       <c r="P4" s="18">
@@ -37131,34 +37343,34 @@
       <c r="C5" s="18">
         <v>23</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="60">
         <v>15</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="61">
         <v>1</v>
       </c>
       <c r="G5" s="18">
         <v>5</v>
       </c>
-      <c r="H5" s="18">
-        <v>11</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="H5" s="60">
+        <v>12</v>
+      </c>
+      <c r="I5" s="60">
         <v>11</v>
       </c>
       <c r="K5" s="18">
         <v>12</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="60">
         <v>13</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="60">
         <v>1</v>
       </c>
       <c r="N5" s="18">
         <v>20</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="60">
         <v>17</v>
       </c>
       <c r="P5" s="18">
@@ -37167,37 +37379,37 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="59">
+      <c r="E6" s="60">
+        <v>0</v>
+      </c>
+      <c r="F6" s="61">
         <v>8</v>
       </c>
       <c r="G6" s="18">
         <v>8</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="60">
         <v>0</v>
       </c>
       <c r="K6" s="18">
         <v>13</v>
       </c>
-      <c r="L6" s="18">
-        <v>1</v>
-      </c>
-      <c r="M6" s="18">
+      <c r="L6" s="60">
+        <v>1</v>
+      </c>
+      <c r="M6" s="60">
         <v>7</v>
       </c>
       <c r="N6" s="18">
         <v>12</v>
       </c>
-      <c r="O6" s="18">
-        <v>30</v>
+      <c r="O6" s="60">
+        <v>31</v>
       </c>
       <c r="P6" s="18">
         <v>0</v>
@@ -37207,25 +37419,25 @@
       <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="60">
         <v>28</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="61">
         <v>11</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="60">
         <v>10</v>
       </c>
       <c r="K7" s="18">
         <v>3</v>
       </c>
-      <c r="L7" s="18">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
+      <c r="L7" s="60">
+        <v>0</v>
+      </c>
+      <c r="M7" s="60">
         <v>20</v>
       </c>
       <c r="N7" s="18">
@@ -37239,25 +37451,25 @@
       <c r="C8" s="18">
         <v>6</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="60">
         <v>20</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="61">
         <v>0</v>
       </c>
       <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="60">
         <v>21</v>
       </c>
       <c r="K8" s="18">
         <v>2</v>
       </c>
-      <c r="L8" s="18">
-        <v>62</v>
-      </c>
-      <c r="M8" s="18">
+      <c r="L8" s="60">
+        <v>63</v>
+      </c>
+      <c r="M8" s="60">
         <v>0</v>
       </c>
       <c r="N8" s="18">
@@ -37271,78 +37483,81 @@
       <c r="C9" s="18">
         <v>14</v>
       </c>
-      <c r="E9" s="18">
-        <v>18</v>
-      </c>
-      <c r="F9" s="59">
+      <c r="E9" s="60">
+        <v>19</v>
+      </c>
+      <c r="F9" s="61">
         <v>0</v>
       </c>
       <c r="G9" s="18">
         <v>4</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="60">
         <v>7</v>
       </c>
       <c r="K9" s="18">
         <v>12</v>
       </c>
-      <c r="M9" s="18">
-        <v>15</v>
+      <c r="M9" s="60">
+        <v>16</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="C10" s="18">
         <v>2</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="61">
         <v>0</v>
       </c>
       <c r="G10" s="18">
         <v>2</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="60">
         <v>5</v>
       </c>
       <c r="K10" s="18">
         <v>1</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="18">
-        <v>24</v>
-      </c>
-      <c r="F11" s="59">
+        <v>25</v>
+      </c>
+      <c r="F11" s="61">
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>2</v>
-      </c>
-      <c r="I11" s="18">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="I11" s="60">
+        <v>8</v>
       </c>
       <c r="K11" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="F12" s="59">
+      <c r="F12" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="F13" s="59">
+      <c r="F13" s="61">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="F14" s="59">
-        <v>20</v>
+      <c r="F14" s="61">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -37356,7 +37571,7 @@
   <dimension ref="A2:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37488,7 +37703,7 @@
     <row r="13" spans="5:13" ht="14.25" customHeight="1"/>
     <row r="14" spans="5:13" s="44" customFormat="1" ht="36" customHeight="1">
       <c r="E14" s="57" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="5:13" ht="36" customHeight="1">
@@ -37576,7 +37791,7 @@
   <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -37587,38 +37802,38 @@
   <sheetData>
     <row r="3" spans="1:2" ht="33" customHeight="1">
       <c r="B3" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.75" customHeight="1">
       <c r="B6" s="51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="25.5" customHeight="1">
       <c r="B9" s="51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75" customHeight="1">
       <c r="B12" s="51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.5" customHeight="1">
       <c r="A15" s="50"/>
       <c r="B15" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="24.75" customHeight="1">
       <c r="B18" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="33.75" customHeight="1">
-      <c r="B21" s="51" t="s">
-        <v>18</v>
+      <c r="B21" s="59" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>关注大趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +409,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,9 +559,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -875,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG61" sqref="AG61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y72" sqref="Y72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5089,7 +5084,9 @@
       <c r="O42" s="7">
         <v>0</v>
       </c>
-      <c r="P42" s="25"/>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
       <c r="Q42" s="7">
         <v>0</v>
       </c>
@@ -5567,7 +5564,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K47" s="7">
         <v>9</v>
@@ -5667,7 +5664,7 @@
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L48" s="7">
         <v>1</v>
@@ -5817,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE49" s="7">
         <v>1</v>
@@ -5885,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="U50" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V50" s="7">
         <v>5</v>
@@ -5969,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S51" s="7">
         <v>1</v>
@@ -6010,12 +6007,12 @@
         <v>0</v>
       </c>
       <c r="AG51" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="3" customFormat="1">
       <c r="A52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="7">
         <v>0</v>
@@ -6071,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
@@ -6121,7 +6118,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="7">
         <v>6</v>
@@ -6135,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" s="7">
         <v>5</v>
@@ -6176,7 +6173,7 @@
       </c>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF53" s="7">
         <v>1</v>
@@ -6189,7 +6186,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -6228,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7">
@@ -6239,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z54" s="7">
         <v>5</v>
@@ -6251,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="AC54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
@@ -6280,7 +6277,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6315,7 +6312,9 @@
       <c r="Z55" s="7">
         <v>0</v>
       </c>
-      <c r="AA55" s="7"/>
+      <c r="AA55" s="7">
+        <v>0</v>
+      </c>
       <c r="AB55" s="7">
         <v>3</v>
       </c>
@@ -6323,7 +6322,7 @@
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG55" s="7"/>
     </row>
@@ -6350,7 +6349,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -6365,7 +6364,7 @@
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -6463,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="G58" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -6518,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -6558,6 +6557,9 @@
       </c>
       <c r="M60" s="7">
         <v>2</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
       </c>
       <c r="Q60" s="7">
         <v>4</v>
@@ -6580,7 +6582,7 @@
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="7">
@@ -6609,10 +6611,12 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W61" s="7"/>
-      <c r="X61" s="3"/>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7">
         <v>8</v>
@@ -6664,7 +6668,9 @@
         <v>4</v>
       </c>
       <c r="AA62" s="26"/>
-      <c r="AB62" s="7"/>
+      <c r="AB62" s="7">
+        <v>0</v>
+      </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="3"/>
@@ -6704,7 +6710,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA63" s="26"/>
       <c r="AB63" s="7"/>
@@ -6718,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="26"/>
       <c r="H64" s="4"/>
@@ -6726,7 +6732,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -6765,7 +6771,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -6811,77 +6817,78 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="38"/>
     </row>
-    <row r="67" spans="1:33" s="45" customFormat="1"/>
-    <row r="68" spans="1:33" s="43" customFormat="1"/>
-    <row r="69" spans="1:33" s="47" customFormat="1"/>
-    <row r="70" spans="1:33">
-      <c r="C70" s="5"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="7"/>
-      <c r="H70" s="4"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AB70" s="7"/>
-      <c r="AD70" s="7"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
-      <c r="AG70" s="5"/>
-    </row>
-    <row r="71" spans="1:33">
-      <c r="D71" s="3"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AB71" s="12"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="5"/>
-    </row>
+    <row r="67" spans="1:33">
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AB67" s="12"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="5"/>
+    </row>
+    <row r="68" spans="1:33">
+      <c r="D68" s="3"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AB68" s="12"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="5"/>
+    </row>
+    <row r="69" spans="1:33" s="45" customFormat="1"/>
+    <row r="70" spans="1:33" s="43" customFormat="1"/>
+    <row r="71" spans="1:33" s="47" customFormat="1"/>
     <row r="72" spans="1:33">
+      <c r="C72" s="5"/>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="7"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="N72" s="26"/>
       <c r="O72" s="4"/>
-      <c r="Q72" s="38"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="3"/>
@@ -6889,11 +6896,12 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
-      <c r="AB72" s="12"/>
-      <c r="AD72" s="4"/>
+      <c r="AB72" s="7"/>
+      <c r="AD72" s="7"/>
       <c r="AE72" s="3"/>
-      <c r="AF72" s="39"/>
+      <c r="AF72" s="3"/>
       <c r="AG72" s="5"/>
     </row>
     <row r="73" spans="1:33">
@@ -7537,10 +7545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ978"/>
+  <dimension ref="A1:AT978"/>
   <sheetViews>
-    <sheetView topLeftCell="N112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA143" sqref="AA143"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O145" sqref="O145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -16549,7 +16557,7 @@
         <v>2</v>
       </c>
       <c r="V119" s="23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W119" s="23"/>
       <c r="X119" s="22">
@@ -16853,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="T123" s="23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U123" s="22">
         <v>4</v>
@@ -16956,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="V124" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W124" s="23"/>
       <c r="X124" s="22">
@@ -17050,7 +17058,7 @@
         <v>3</v>
       </c>
       <c r="S125" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T125" s="22">
         <v>8</v>
@@ -17058,7 +17066,7 @@
       <c r="U125" s="22">
         <v>2</v>
       </c>
-      <c r="V125" s="23">
+      <c r="V125" s="63">
         <v>12</v>
       </c>
       <c r="W125" s="23"/>
@@ -17074,7 +17082,9 @@
       <c r="AA125" s="22">
         <v>8</v>
       </c>
-      <c r="AB125" s="23"/>
+      <c r="AB125" s="22">
+        <v>12</v>
+      </c>
       <c r="AC125" s="23"/>
       <c r="AD125" s="22"/>
       <c r="AF125" s="22"/>
@@ -17247,7 +17257,7 @@
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R127" s="22">
         <v>2</v>
@@ -17350,7 +17360,7 @@
         <v>4</v>
       </c>
       <c r="R128" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S128" s="22">
         <v>2</v>
@@ -17408,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:43" s="21" customFormat="1">
+    <row r="129" spans="1:46" s="21" customFormat="1">
       <c r="A129" s="21">
         <v>7</v>
       </c>
@@ -17447,13 +17457,13 @@
       </c>
       <c r="P129" s="22"/>
       <c r="Q129" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R129" s="22">
         <v>1</v>
       </c>
       <c r="S129" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T129" s="22">
         <v>6</v>
@@ -17506,7 +17516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:43" s="21" customFormat="1">
+    <row r="130" spans="1:46" s="21" customFormat="1">
       <c r="A130" s="21">
         <v>6</v>
       </c>
@@ -17548,11 +17558,11 @@
         <v>3</v>
       </c>
       <c r="R130" s="23">
+        <v>8</v>
+      </c>
+      <c r="S130" s="63">
         <v>7</v>
       </c>
-      <c r="S130" s="23">
-        <v>7</v>
-      </c>
       <c r="T130" s="22">
         <v>5</v>
       </c>
@@ -17560,7 +17570,7 @@
         <v>4</v>
       </c>
       <c r="V130" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W130" s="23"/>
       <c r="X130" s="22">
@@ -17572,7 +17582,9 @@
       <c r="Z130" s="22">
         <v>5</v>
       </c>
-      <c r="AA130" s="23"/>
+      <c r="AA130" s="22">
+        <v>7</v>
+      </c>
       <c r="AB130" s="23"/>
       <c r="AC130" s="23"/>
       <c r="AD130" s="23"/>
@@ -17602,7 +17614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:43" s="21" customFormat="1">
+    <row r="131" spans="1:46" s="21" customFormat="1">
       <c r="A131" s="21">
         <v>4</v>
       </c>
@@ -17704,7 +17716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:43" s="21" customFormat="1">
+    <row r="132" spans="1:46" s="21" customFormat="1">
       <c r="A132" s="21">
         <v>4</v>
       </c>
@@ -17743,10 +17755,10 @@
       </c>
       <c r="P132" s="22"/>
       <c r="Q132" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R132" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S132" s="22">
         <v>0</v>
@@ -17757,7 +17769,7 @@
       <c r="U132" s="22">
         <v>0</v>
       </c>
-      <c r="V132" s="63">
+      <c r="V132" s="22">
         <v>4</v>
       </c>
       <c r="W132" s="23"/>
@@ -17802,7 +17814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:43" s="21" customFormat="1">
+    <row r="133" spans="1:46" s="21" customFormat="1">
       <c r="A133" s="21">
         <v>1</v>
       </c>
@@ -17844,16 +17856,16 @@
         <v>2</v>
       </c>
       <c r="R133" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S133" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T133" s="22">
         <v>0</v>
       </c>
       <c r="U133" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V133" s="22">
         <v>0</v>
@@ -17892,7 +17904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:43" s="21" customFormat="1">
+    <row r="134" spans="1:46" s="21" customFormat="1">
       <c r="A134" s="21">
         <v>3</v>
       </c>
@@ -17931,15 +17943,15 @@
       </c>
       <c r="P134" s="22"/>
       <c r="Q134" s="23">
-        <v>3</v>
-      </c>
-      <c r="R134" s="63">
+        <v>4</v>
+      </c>
+      <c r="R134" s="22">
         <v>2</v>
       </c>
       <c r="S134" s="22">
         <v>1</v>
       </c>
-      <c r="T134" s="63">
+      <c r="T134" s="22">
         <v>2</v>
       </c>
       <c r="U134" s="22">
@@ -17992,7 +18004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:43" s="21" customFormat="1">
+    <row r="135" spans="1:46" s="21" customFormat="1">
       <c r="A135" s="21">
         <v>10</v>
       </c>
@@ -18031,22 +18043,22 @@
       </c>
       <c r="P135" s="22"/>
       <c r="Q135" s="23">
-        <v>2</v>
-      </c>
-      <c r="R135" s="63">
-        <v>1</v>
-      </c>
-      <c r="S135" s="63">
+        <v>3</v>
+      </c>
+      <c r="R135" s="22">
+        <v>1</v>
+      </c>
+      <c r="S135" s="22">
         <v>1</v>
       </c>
       <c r="T135" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U135" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V135" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W135" s="23"/>
       <c r="X135" s="21">
@@ -18086,7 +18098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:43" s="21" customFormat="1">
+    <row r="136" spans="1:46" s="21" customFormat="1">
       <c r="A136" s="21">
         <v>2</v>
       </c>
@@ -18124,33 +18136,35 @@
         <v>6</v>
       </c>
       <c r="P136" s="22"/>
-      <c r="Q136" s="63">
+      <c r="Q136" s="22">
         <v>0</v>
       </c>
       <c r="R136" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S136" s="23">
-        <v>1</v>
-      </c>
-      <c r="T136" s="23">
+        <v>2</v>
+      </c>
+      <c r="T136" s="63">
         <v>1</v>
       </c>
       <c r="U136" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V136" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W136" s="23"/>
       <c r="X136" s="21">
         <v>0</v>
       </c>
-      <c r="Y136" s="41"/>
+      <c r="Y136" s="21">
+        <v>1</v>
+      </c>
       <c r="Z136" s="41"/>
-      <c r="AA136" s="41"/>
-      <c r="AB136" s="41"/>
-      <c r="AC136" s="41"/>
+      <c r="AA136" s="23"/>
+      <c r="AB136" s="23"/>
+      <c r="AC136" s="23"/>
       <c r="AD136" s="41"/>
       <c r="AF136" s="41"/>
       <c r="AH136" s="21">
@@ -18178,7 +18192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:43" s="21" customFormat="1">
+    <row r="137" spans="1:46" s="21" customFormat="1">
       <c r="A137" s="21">
         <v>0</v>
       </c>
@@ -18216,31 +18230,37 @@
         <v>4</v>
       </c>
       <c r="P137" s="22"/>
-      <c r="Q137" s="23">
+      <c r="Q137" s="63">
         <v>0</v>
       </c>
       <c r="R137" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S137" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137" s="23">
-        <v>0</v>
-      </c>
-      <c r="U137" s="23">
-        <v>0</v>
-      </c>
-      <c r="V137" s="23">
+        <v>1</v>
+      </c>
+      <c r="U137" s="63">
+        <v>0</v>
+      </c>
+      <c r="V137" s="63">
         <v>0</v>
       </c>
       <c r="W137" s="23"/>
-      <c r="X137" s="41"/>
-      <c r="Y137" s="41"/>
-      <c r="Z137" s="41"/>
-      <c r="AA137" s="41"/>
-      <c r="AB137" s="41"/>
-      <c r="AC137" s="41"/>
+      <c r="X137" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="23"/>
+      <c r="AB137" s="23"/>
+      <c r="AC137" s="23"/>
       <c r="AD137" s="41"/>
       <c r="AF137" s="41"/>
       <c r="AH137" s="21">
@@ -18264,854 +18284,857 @@
       <c r="AQ137" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:43" s="21" customFormat="1">
-      <c r="P138" s="22"/>
-      <c r="Q138" s="23"/>
-      <c r="R138" s="23"/>
-      <c r="S138" s="23"/>
-      <c r="T138" s="23"/>
-      <c r="U138" s="23"/>
-      <c r="V138" s="23"/>
-      <c r="W138" s="23"/>
-      <c r="X138" s="41"/>
-      <c r="Y138" s="41"/>
-      <c r="Z138" s="23"/>
-      <c r="AA138" s="23"/>
-      <c r="AB138" s="23"/>
-      <c r="AC138" s="23"/>
-      <c r="AD138" s="41"/>
-      <c r="AF138" s="41"/>
-    </row>
-    <row r="139" spans="1:43" s="21" customFormat="1">
+      <c r="AT137" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:46">
+      <c r="A138" s="1">
+        <v>0</v>
+      </c>
+      <c r="B138" s="1">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>12</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>1</v>
+      </c>
+      <c r="M138" s="1">
+        <v>7</v>
+      </c>
+      <c r="N138" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q138" s="15">
+        <v>0</v>
+      </c>
+      <c r="R138" s="15">
+        <v>0</v>
+      </c>
+      <c r="S138" s="15">
+        <v>0</v>
+      </c>
+      <c r="T138" s="15">
+        <v>0</v>
+      </c>
+      <c r="U138" s="15">
+        <v>0</v>
+      </c>
+      <c r="V138" s="15">
+        <v>0</v>
+      </c>
+      <c r="W138" s="15"/>
+      <c r="X138" s="15"/>
+      <c r="Y138" s="15"/>
+      <c r="Z138" s="15"/>
+      <c r="AA138" s="15"/>
+      <c r="AB138" s="15"/>
+      <c r="AC138" s="15"/>
+      <c r="AD138" s="15"/>
+    </row>
+    <row r="139" spans="1:46" s="21" customFormat="1">
       <c r="P139" s="22"/>
-      <c r="Q139" s="23"/>
-      <c r="R139" s="23"/>
-      <c r="S139" s="23"/>
-      <c r="T139" s="23"/>
-      <c r="U139" s="23"/>
-      <c r="V139" s="23"/>
-      <c r="W139" s="23"/>
-      <c r="X139" s="41"/>
-      <c r="Y139" s="41"/>
-      <c r="Z139" s="41"/>
-      <c r="AA139" s="41"/>
-      <c r="AB139" s="41"/>
-      <c r="AC139" s="41"/>
-      <c r="AD139" s="41"/>
+      <c r="Q139" s="20"/>
+      <c r="R139" s="20"/>
+      <c r="S139" s="20"/>
+      <c r="T139" s="20"/>
+      <c r="U139" s="20"/>
+      <c r="V139" s="20"/>
+      <c r="W139" s="20"/>
+      <c r="X139" s="15"/>
+      <c r="Y139" s="15"/>
+      <c r="Z139" s="15"/>
+      <c r="AA139" s="20"/>
+      <c r="AB139" s="20"/>
+      <c r="AC139" s="20"/>
+      <c r="AD139" s="15"/>
       <c r="AF139" s="41"/>
     </row>
-    <row r="140" spans="1:43" s="21" customFormat="1">
+    <row r="140" spans="1:46" s="21" customFormat="1">
       <c r="P140" s="22"/>
-      <c r="Q140" s="23"/>
-      <c r="R140" s="23"/>
-      <c r="S140" s="23"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="23"/>
-      <c r="V140" s="23"/>
-      <c r="W140" s="23"/>
-      <c r="X140" s="41"/>
-      <c r="Y140" s="41"/>
-      <c r="Z140" s="41"/>
-      <c r="AA140" s="41"/>
-      <c r="AB140" s="41"/>
-      <c r="AC140" s="41"/>
-      <c r="AD140" s="41"/>
+      <c r="Q140" s="20"/>
+      <c r="R140" s="20"/>
+      <c r="S140" s="20"/>
+      <c r="T140" s="20"/>
+      <c r="U140" s="20"/>
+      <c r="V140" s="20"/>
+      <c r="W140" s="20"/>
+      <c r="X140" s="15"/>
+      <c r="Y140" s="15"/>
+      <c r="Z140" s="15"/>
+      <c r="AA140" s="15"/>
+      <c r="AB140" s="15"/>
+      <c r="AC140" s="15"/>
+      <c r="AD140" s="15"/>
       <c r="AF140" s="41"/>
     </row>
-    <row r="141" spans="1:43" s="21" customFormat="1">
+    <row r="141" spans="1:46" s="21" customFormat="1">
       <c r="P141" s="22"/>
-      <c r="Q141" s="23"/>
-      <c r="R141" s="23"/>
-      <c r="S141" s="23"/>
-      <c r="T141" s="23"/>
-      <c r="U141" s="23"/>
-      <c r="V141" s="23"/>
-      <c r="W141" s="23"/>
-      <c r="X141" s="41"/>
-      <c r="Y141" s="41"/>
-      <c r="Z141" s="41"/>
-      <c r="AA141" s="41"/>
-      <c r="AB141" s="41"/>
-      <c r="AC141" s="41"/>
-      <c r="AD141" s="41"/>
+      <c r="Q141" s="20"/>
+      <c r="R141" s="20"/>
+      <c r="S141" s="20"/>
+      <c r="T141" s="20"/>
+      <c r="U141" s="20"/>
+      <c r="V141" s="20"/>
+      <c r="W141" s="20"/>
+      <c r="X141" s="15"/>
+      <c r="Y141" s="15"/>
+      <c r="Z141" s="15"/>
+      <c r="AA141" s="15"/>
+      <c r="AB141" s="15"/>
+      <c r="AC141" s="15"/>
+      <c r="AD141" s="15"/>
       <c r="AF141" s="41"/>
     </row>
-    <row r="142" spans="1:43" s="21" customFormat="1">
+    <row r="142" spans="1:46" s="21" customFormat="1">
       <c r="P142" s="22"/>
-      <c r="Q142" s="23"/>
-      <c r="R142" s="23"/>
-      <c r="S142" s="23"/>
-      <c r="T142" s="23"/>
-      <c r="U142" s="23"/>
-      <c r="V142" s="23"/>
-      <c r="W142" s="23"/>
-      <c r="X142" s="41"/>
-      <c r="Y142" s="41"/>
-      <c r="Z142" s="23"/>
-      <c r="AA142" s="23"/>
-      <c r="AB142" s="23"/>
-      <c r="AC142" s="23"/>
-      <c r="AD142" s="41"/>
+      <c r="Q142" s="20"/>
+      <c r="R142" s="20"/>
+      <c r="S142" s="20"/>
+      <c r="T142" s="20"/>
+      <c r="U142" s="20"/>
+      <c r="V142" s="20"/>
+      <c r="W142" s="20"/>
+      <c r="X142" s="15"/>
+      <c r="Y142" s="15"/>
+      <c r="Z142" s="20"/>
+      <c r="AA142" s="20"/>
+      <c r="AB142" s="20"/>
+      <c r="AC142" s="20"/>
+      <c r="AD142" s="15"/>
       <c r="AF142" s="41"/>
     </row>
-    <row r="143" spans="1:43" s="21" customFormat="1">
+    <row r="143" spans="1:46" s="21" customFormat="1">
       <c r="P143" s="22"/>
-      <c r="Q143" s="23"/>
-      <c r="R143" s="23"/>
-      <c r="S143" s="23"/>
-      <c r="T143" s="23"/>
-      <c r="U143" s="23"/>
-      <c r="V143" s="23"/>
-      <c r="W143" s="41"/>
-      <c r="X143" s="41"/>
-      <c r="Y143" s="41"/>
-      <c r="Z143" s="41"/>
-      <c r="AA143" s="41"/>
-      <c r="AB143" s="41"/>
-      <c r="AC143" s="41"/>
-      <c r="AD143" s="41"/>
+      <c r="Q143" s="20"/>
+      <c r="R143" s="20"/>
+      <c r="S143" s="20"/>
+      <c r="T143" s="20"/>
+      <c r="U143" s="20"/>
+      <c r="V143" s="20"/>
+      <c r="W143" s="15"/>
+      <c r="X143" s="15"/>
+      <c r="Y143" s="15"/>
+      <c r="Z143" s="15"/>
+      <c r="AA143" s="15"/>
+      <c r="AB143" s="15"/>
+      <c r="AC143" s="15"/>
+      <c r="AD143" s="15"/>
       <c r="AF143" s="41"/>
     </row>
-    <row r="144" spans="1:43" s="21" customFormat="1">
-      <c r="Q144" s="23"/>
-      <c r="R144" s="23"/>
-      <c r="S144" s="23"/>
-      <c r="T144" s="23"/>
-      <c r="U144" s="23"/>
-      <c r="V144" s="23"/>
-      <c r="W144" s="41"/>
-      <c r="X144" s="41"/>
-      <c r="Y144" s="41"/>
-      <c r="Z144" s="41"/>
-      <c r="AA144" s="41"/>
-      <c r="AB144" s="41"/>
-      <c r="AC144" s="41"/>
-      <c r="AD144" s="41"/>
+    <row r="144" spans="1:46" s="21" customFormat="1">
+      <c r="P144" s="22"/>
+      <c r="Q144" s="20"/>
+      <c r="R144" s="20"/>
+      <c r="S144" s="20"/>
+      <c r="T144" s="20"/>
+      <c r="U144" s="20"/>
+      <c r="V144" s="20"/>
+      <c r="W144" s="20"/>
+      <c r="X144" s="15"/>
+      <c r="Y144" s="15"/>
+      <c r="Z144" s="20"/>
+      <c r="AA144" s="20"/>
+      <c r="AB144" s="20"/>
+      <c r="AC144" s="20"/>
+      <c r="AD144" s="15"/>
       <c r="AF144" s="41"/>
+      <c r="AO144" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP144" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ144" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="16:32" s="21" customFormat="1">
       <c r="P145" s="22"/>
-      <c r="Q145" s="23"/>
-      <c r="R145" s="23"/>
-      <c r="S145" s="23"/>
-      <c r="T145" s="23"/>
-      <c r="U145" s="23"/>
-      <c r="V145" s="23"/>
-      <c r="W145" s="23"/>
-      <c r="X145" s="23"/>
-      <c r="Y145" s="23"/>
-      <c r="Z145" s="23"/>
-      <c r="AA145" s="23"/>
-      <c r="AB145" s="23"/>
-      <c r="AC145" s="23"/>
-      <c r="AD145" s="23"/>
+      <c r="Q145" s="20"/>
+      <c r="R145" s="20"/>
+      <c r="S145" s="20"/>
+      <c r="T145" s="20"/>
+      <c r="U145" s="20"/>
+      <c r="V145" s="20"/>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
+      <c r="AA145" s="20"/>
+      <c r="AB145" s="20"/>
+      <c r="AC145" s="20"/>
+      <c r="AD145" s="20"/>
       <c r="AF145" s="23"/>
     </row>
     <row r="146" spans="16:32" s="21" customFormat="1">
-      <c r="Q146" s="23"/>
-      <c r="R146" s="23"/>
-      <c r="S146" s="23"/>
-      <c r="T146" s="23"/>
-      <c r="U146" s="23"/>
-      <c r="V146" s="23"/>
-      <c r="W146" s="41"/>
-      <c r="X146" s="41"/>
-      <c r="Y146" s="23"/>
-      <c r="Z146" s="23"/>
-      <c r="AA146" s="23"/>
-      <c r="AB146" s="23"/>
-      <c r="AC146" s="23"/>
-      <c r="AD146" s="41"/>
+      <c r="Q146" s="20"/>
+      <c r="R146" s="20"/>
+      <c r="S146" s="20"/>
+      <c r="T146" s="20"/>
+      <c r="U146" s="20"/>
+      <c r="V146" s="20"/>
+      <c r="W146" s="15"/>
+      <c r="X146" s="15"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+      <c r="AA146" s="20"/>
+      <c r="AB146" s="20"/>
+      <c r="AC146" s="20"/>
+      <c r="AD146" s="15"/>
       <c r="AF146" s="41"/>
     </row>
     <row r="147" spans="16:32" s="21" customFormat="1">
-      <c r="Q147" s="23"/>
-      <c r="R147" s="23"/>
-      <c r="S147" s="23"/>
-      <c r="T147" s="23"/>
-      <c r="U147" s="23"/>
-      <c r="V147" s="23"/>
-      <c r="W147" s="41"/>
-      <c r="X147" s="41"/>
-      <c r="Y147" s="41"/>
-      <c r="Z147" s="41"/>
-      <c r="AA147" s="41"/>
-      <c r="AB147" s="41"/>
-      <c r="AC147" s="41"/>
-      <c r="AD147" s="41"/>
+      <c r="Q147" s="20"/>
+      <c r="R147" s="20"/>
+      <c r="S147" s="20"/>
+      <c r="T147" s="20"/>
+      <c r="U147" s="20"/>
+      <c r="V147" s="20"/>
+      <c r="W147" s="15"/>
+      <c r="X147" s="15"/>
+      <c r="Y147" s="15"/>
+      <c r="Z147" s="15"/>
+      <c r="AA147" s="15"/>
+      <c r="AB147" s="15"/>
+      <c r="AC147" s="15"/>
+      <c r="AD147" s="15"/>
       <c r="AF147" s="41"/>
     </row>
     <row r="148" spans="16:32" s="21" customFormat="1">
       <c r="P148" s="22"/>
-      <c r="Q148" s="23"/>
-      <c r="R148" s="23"/>
-      <c r="S148" s="23"/>
-      <c r="T148" s="23"/>
-      <c r="U148" s="23"/>
-      <c r="V148" s="23"/>
-      <c r="W148" s="23"/>
-      <c r="X148" s="41"/>
-      <c r="Y148" s="41"/>
-      <c r="Z148" s="41"/>
-      <c r="AA148" s="41"/>
-      <c r="AB148" s="41"/>
-      <c r="AC148" s="41"/>
-      <c r="AD148" s="41"/>
+      <c r="Q148" s="20"/>
+      <c r="R148" s="20"/>
+      <c r="S148" s="20"/>
+      <c r="T148" s="20"/>
+      <c r="U148" s="20"/>
+      <c r="V148" s="20"/>
+      <c r="W148" s="20"/>
+      <c r="X148" s="15"/>
+      <c r="Y148" s="15"/>
+      <c r="Z148" s="15"/>
+      <c r="AA148" s="15"/>
+      <c r="AB148" s="15"/>
+      <c r="AC148" s="15"/>
+      <c r="AD148" s="15"/>
       <c r="AF148" s="41"/>
     </row>
     <row r="149" spans="16:32" s="21" customFormat="1">
-      <c r="Q149" s="23"/>
-      <c r="R149" s="23"/>
-      <c r="S149" s="23"/>
-      <c r="T149" s="23"/>
-      <c r="U149" s="23"/>
-      <c r="V149" s="23"/>
-      <c r="W149" s="41"/>
-      <c r="X149" s="41"/>
-      <c r="Y149" s="41"/>
-      <c r="Z149" s="41"/>
-      <c r="AA149" s="41"/>
-      <c r="AB149" s="41"/>
-      <c r="AC149" s="41"/>
-      <c r="AD149" s="41"/>
+      <c r="Q149" s="20"/>
+      <c r="R149" s="20"/>
+      <c r="S149" s="20"/>
+      <c r="T149" s="20"/>
+      <c r="U149" s="20"/>
+      <c r="V149" s="20"/>
+      <c r="W149" s="15"/>
+      <c r="X149" s="15"/>
+      <c r="Y149" s="15"/>
+      <c r="Z149" s="15"/>
+      <c r="AA149" s="15"/>
+      <c r="AB149" s="15"/>
+      <c r="AC149" s="15"/>
+      <c r="AD149" s="15"/>
       <c r="AF149" s="41"/>
     </row>
     <row r="150" spans="16:32" s="21" customFormat="1">
-      <c r="Q150" s="23"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="23"/>
-      <c r="T150" s="23"/>
-      <c r="U150" s="23"/>
-      <c r="V150" s="23"/>
-      <c r="W150" s="23"/>
-      <c r="X150" s="41"/>
-      <c r="Y150" s="41"/>
-      <c r="Z150" s="23"/>
-      <c r="AA150" s="23"/>
-      <c r="AB150" s="23"/>
-      <c r="AC150" s="23"/>
-      <c r="AD150" s="41"/>
+      <c r="Q150" s="20"/>
+      <c r="R150" s="20"/>
+      <c r="S150" s="20"/>
+      <c r="T150" s="20"/>
+      <c r="U150" s="20"/>
+      <c r="V150" s="20"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="15"/>
+      <c r="Y150" s="15"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
+      <c r="AD150" s="15"/>
       <c r="AF150" s="41"/>
     </row>
     <row r="151" spans="16:32" s="21" customFormat="1">
-      <c r="Q151" s="23"/>
-      <c r="R151" s="23"/>
-      <c r="S151" s="23"/>
-      <c r="T151" s="23"/>
-      <c r="U151" s="23"/>
-      <c r="V151" s="23"/>
-      <c r="W151" s="23"/>
-      <c r="X151" s="41"/>
-      <c r="Y151" s="41"/>
-      <c r="Z151" s="23"/>
-      <c r="AA151" s="23"/>
-      <c r="AB151" s="23"/>
-      <c r="AC151" s="23"/>
-      <c r="AD151" s="41"/>
+      <c r="Q151" s="20"/>
+      <c r="R151" s="20"/>
+      <c r="S151" s="20"/>
+      <c r="T151" s="20"/>
+      <c r="U151" s="20"/>
+      <c r="V151" s="20"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="15"/>
+      <c r="Y151" s="15"/>
+      <c r="Z151" s="20"/>
+      <c r="AA151" s="20"/>
+      <c r="AB151" s="20"/>
+      <c r="AC151" s="20"/>
+      <c r="AD151" s="15"/>
       <c r="AF151" s="41"/>
     </row>
     <row r="152" spans="16:32" s="21" customFormat="1">
       <c r="P152" s="22"/>
-      <c r="Q152" s="23"/>
-      <c r="R152" s="23"/>
-      <c r="S152" s="23"/>
-      <c r="T152" s="23"/>
-      <c r="U152" s="23"/>
-      <c r="V152" s="23"/>
-      <c r="W152" s="41"/>
-      <c r="X152" s="41"/>
-      <c r="Y152" s="41"/>
-      <c r="Z152" s="41"/>
-      <c r="AA152" s="41"/>
-      <c r="AB152" s="41"/>
-      <c r="AC152" s="41"/>
-      <c r="AD152" s="41"/>
+      <c r="Q152" s="20"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="20"/>
+      <c r="T152" s="20"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="20"/>
+      <c r="W152" s="15"/>
+      <c r="X152" s="15"/>
+      <c r="Y152" s="15"/>
+      <c r="Z152" s="15"/>
+      <c r="AA152" s="15"/>
+      <c r="AB152" s="15"/>
+      <c r="AC152" s="15"/>
+      <c r="AD152" s="15"/>
       <c r="AF152" s="41"/>
     </row>
     <row r="153" spans="16:32" s="21" customFormat="1">
-      <c r="Q153" s="23"/>
-      <c r="R153" s="23"/>
-      <c r="S153" s="23"/>
-      <c r="T153" s="23"/>
-      <c r="U153" s="23"/>
-      <c r="V153" s="23"/>
-      <c r="W153" s="23"/>
-      <c r="X153" s="41"/>
-      <c r="Y153" s="41"/>
-      <c r="Z153" s="23"/>
-      <c r="AA153" s="23"/>
-      <c r="AB153" s="23"/>
-      <c r="AC153" s="23"/>
-      <c r="AD153" s="41"/>
+      <c r="Q153" s="20"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+      <c r="T153" s="20"/>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="15"/>
+      <c r="Y153" s="15"/>
+      <c r="Z153" s="20"/>
+      <c r="AA153" s="20"/>
+      <c r="AB153" s="20"/>
+      <c r="AC153" s="20"/>
+      <c r="AD153" s="15"/>
       <c r="AF153" s="41"/>
     </row>
     <row r="154" spans="16:32" s="21" customFormat="1">
-      <c r="Q154" s="23"/>
-      <c r="R154" s="23"/>
-      <c r="S154" s="23"/>
-      <c r="T154" s="23"/>
-      <c r="U154" s="23"/>
-      <c r="V154" s="23"/>
-      <c r="W154" s="23"/>
-      <c r="X154" s="23"/>
-      <c r="Y154" s="23"/>
-      <c r="Z154" s="23"/>
-      <c r="AA154" s="23"/>
-      <c r="AB154" s="23"/>
-      <c r="AC154" s="23"/>
-      <c r="AD154" s="23"/>
+      <c r="Q154" s="20"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+      <c r="T154" s="20"/>
+      <c r="U154" s="20"/>
+      <c r="V154" s="20"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="20"/>
+      <c r="AC154" s="20"/>
+      <c r="AD154" s="20"/>
       <c r="AF154" s="23"/>
     </row>
     <row r="155" spans="16:32" s="21" customFormat="1">
-      <c r="Q155" s="23"/>
-      <c r="R155" s="23"/>
-      <c r="S155" s="23"/>
-      <c r="T155" s="23"/>
-      <c r="U155" s="23"/>
-      <c r="V155" s="23"/>
-      <c r="W155" s="41"/>
-      <c r="X155" s="41"/>
-      <c r="Y155" s="23"/>
-      <c r="Z155" s="23"/>
-      <c r="AA155" s="23"/>
-      <c r="AB155" s="23"/>
-      <c r="AC155" s="23"/>
-      <c r="AD155" s="41"/>
+      <c r="Q155" s="20"/>
+      <c r="R155" s="20"/>
+      <c r="S155" s="20"/>
+      <c r="T155" s="20"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="20"/>
+      <c r="W155" s="15"/>
+      <c r="X155" s="15"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="15"/>
       <c r="AF155" s="41"/>
     </row>
     <row r="156" spans="16:32" s="21" customFormat="1">
-      <c r="Q156" s="23"/>
-      <c r="R156" s="23"/>
-      <c r="S156" s="23"/>
-      <c r="T156" s="23"/>
-      <c r="U156" s="23"/>
-      <c r="V156" s="23"/>
-      <c r="W156" s="41"/>
-      <c r="X156" s="41"/>
-      <c r="Y156" s="41"/>
-      <c r="Z156" s="41"/>
-      <c r="AA156" s="41"/>
-      <c r="AB156" s="41"/>
-      <c r="AC156" s="41"/>
-      <c r="AD156" s="41"/>
+      <c r="Q156" s="20"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+      <c r="T156" s="20"/>
+      <c r="U156" s="20"/>
+      <c r="V156" s="20"/>
+      <c r="W156" s="15"/>
+      <c r="X156" s="15"/>
+      <c r="Y156" s="15"/>
+      <c r="Z156" s="15"/>
+      <c r="AA156" s="15"/>
+      <c r="AB156" s="15"/>
+      <c r="AC156" s="15"/>
+      <c r="AD156" s="15"/>
       <c r="AF156" s="41"/>
     </row>
     <row r="157" spans="16:32" s="21" customFormat="1">
       <c r="P157" s="22"/>
-      <c r="Q157" s="23"/>
-      <c r="R157" s="23"/>
-      <c r="S157" s="23"/>
-      <c r="T157" s="23"/>
-      <c r="U157" s="23"/>
-      <c r="V157" s="23"/>
-      <c r="W157" s="41"/>
-      <c r="X157" s="41"/>
-      <c r="Y157" s="41"/>
-      <c r="Z157" s="41"/>
-      <c r="AA157" s="41"/>
-      <c r="AB157" s="41"/>
-      <c r="AC157" s="41"/>
-      <c r="AD157" s="41"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+      <c r="T157" s="20"/>
+      <c r="U157" s="20"/>
+      <c r="V157" s="20"/>
+      <c r="W157" s="15"/>
+      <c r="X157" s="15"/>
+      <c r="Y157" s="15"/>
+      <c r="Z157" s="15"/>
+      <c r="AA157" s="15"/>
+      <c r="AB157" s="15"/>
+      <c r="AC157" s="15"/>
+      <c r="AD157" s="15"/>
       <c r="AF157" s="41"/>
     </row>
     <row r="158" spans="16:32" s="21" customFormat="1">
-      <c r="Q158" s="23"/>
-      <c r="R158" s="23"/>
-      <c r="S158" s="23"/>
-      <c r="T158" s="23"/>
-      <c r="U158" s="23"/>
-      <c r="V158" s="23"/>
-      <c r="W158" s="41"/>
-      <c r="X158" s="41"/>
-      <c r="Y158" s="41"/>
-      <c r="Z158" s="41"/>
-      <c r="AA158" s="41"/>
-      <c r="AB158" s="41"/>
-      <c r="AC158" s="41"/>
-      <c r="AD158" s="41"/>
+      <c r="Q158" s="20"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="20"/>
+      <c r="T158" s="20"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="20"/>
+      <c r="W158" s="15"/>
+      <c r="X158" s="15"/>
+      <c r="Y158" s="15"/>
+      <c r="Z158" s="15"/>
+      <c r="AA158" s="15"/>
+      <c r="AB158" s="15"/>
+      <c r="AC158" s="15"/>
+      <c r="AD158" s="15"/>
       <c r="AF158" s="41"/>
     </row>
     <row r="159" spans="16:32" s="21" customFormat="1">
       <c r="P159" s="22"/>
-      <c r="Q159" s="23"/>
-      <c r="R159" s="23"/>
-      <c r="S159" s="23"/>
-      <c r="T159" s="23"/>
-      <c r="U159" s="23"/>
-      <c r="V159" s="23"/>
-      <c r="W159" s="41"/>
-      <c r="X159" s="41"/>
-      <c r="Y159" s="41"/>
-      <c r="Z159" s="41"/>
-      <c r="AA159" s="41"/>
-      <c r="AB159" s="41"/>
-      <c r="AC159" s="41"/>
-      <c r="AD159" s="41"/>
+      <c r="Q159" s="20"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="20"/>
+      <c r="T159" s="20"/>
+      <c r="U159" s="20"/>
+      <c r="V159" s="20"/>
+      <c r="W159" s="15"/>
+      <c r="X159" s="15"/>
+      <c r="Y159" s="15"/>
+      <c r="Z159" s="15"/>
+      <c r="AA159" s="15"/>
+      <c r="AB159" s="15"/>
+      <c r="AC159" s="15"/>
+      <c r="AD159" s="15"/>
       <c r="AF159" s="41"/>
     </row>
-    <row r="161" spans="9:32" s="21" customFormat="1">
+    <row r="160" spans="16:32">
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
+      <c r="S160" s="15"/>
+      <c r="T160" s="15"/>
+      <c r="U160" s="15"/>
+      <c r="V160" s="15"/>
+      <c r="W160" s="15"/>
+      <c r="X160" s="15"/>
+      <c r="Y160" s="15"/>
+      <c r="Z160" s="15"/>
+      <c r="AA160" s="15"/>
+      <c r="AB160" s="15"/>
+      <c r="AC160" s="15"/>
+      <c r="AD160" s="15"/>
+    </row>
+    <row r="161" spans="16:32" s="21" customFormat="1">
       <c r="P161" s="22"/>
-      <c r="Q161" s="23"/>
-      <c r="R161" s="23"/>
-      <c r="S161" s="23"/>
-      <c r="T161" s="23"/>
-      <c r="U161" s="23"/>
-      <c r="V161" s="23"/>
-      <c r="W161" s="23"/>
-      <c r="X161" s="41"/>
-      <c r="Y161" s="41"/>
-      <c r="Z161" s="23"/>
-      <c r="AA161" s="23"/>
-      <c r="AB161" s="23"/>
-      <c r="AC161" s="23"/>
-      <c r="AD161" s="41"/>
+      <c r="Q161" s="20"/>
+      <c r="R161" s="20"/>
+      <c r="S161" s="20"/>
+      <c r="T161" s="20"/>
+      <c r="U161" s="20"/>
+      <c r="V161" s="20"/>
+      <c r="W161" s="20"/>
+      <c r="X161" s="15"/>
+      <c r="Y161" s="15"/>
+      <c r="Z161" s="20"/>
+      <c r="AA161" s="20"/>
+      <c r="AB161" s="20"/>
+      <c r="AC161" s="20"/>
+      <c r="AD161" s="15"/>
       <c r="AF161" s="41"/>
     </row>
-    <row r="162" spans="9:32" s="21" customFormat="1">
+    <row r="162" spans="16:32" s="21" customFormat="1">
       <c r="P162" s="22"/>
-      <c r="Q162" s="23"/>
-      <c r="R162" s="23"/>
-      <c r="S162" s="23"/>
-      <c r="T162" s="23"/>
-      <c r="U162" s="23"/>
-      <c r="V162" s="23"/>
-      <c r="W162" s="23"/>
-      <c r="X162" s="23"/>
-      <c r="Y162" s="23"/>
-      <c r="Z162" s="23"/>
-      <c r="AA162" s="23"/>
-      <c r="AB162" s="23"/>
-      <c r="AC162" s="23"/>
-      <c r="AD162" s="41"/>
+      <c r="Q162" s="20"/>
+      <c r="R162" s="20"/>
+      <c r="S162" s="20"/>
+      <c r="T162" s="20"/>
+      <c r="U162" s="20"/>
+      <c r="V162" s="20"/>
+      <c r="W162" s="20"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
+      <c r="AD162" s="15"/>
       <c r="AF162" s="41"/>
     </row>
-    <row r="163" spans="9:32" s="21" customFormat="1">
-      <c r="I163" s="21">
-        <v>0</v>
-      </c>
-      <c r="J163" s="21">
-        <v>1</v>
-      </c>
-      <c r="K163" s="21">
-        <v>3</v>
-      </c>
-      <c r="L163" s="21">
-        <v>3</v>
-      </c>
-      <c r="M163" s="21">
-        <v>4</v>
-      </c>
-      <c r="N163" s="21">
-        <v>9</v>
-      </c>
-      <c r="Q163" s="23"/>
-      <c r="R163" s="23"/>
-      <c r="S163" s="23"/>
-      <c r="T163" s="23"/>
-      <c r="U163" s="23"/>
-      <c r="V163" s="23"/>
-      <c r="W163" s="23"/>
-      <c r="X163" s="23"/>
-      <c r="Y163" s="23"/>
-      <c r="Z163" s="23"/>
-      <c r="AA163" s="23"/>
-      <c r="AB163" s="23"/>
-      <c r="AC163" s="23"/>
-      <c r="AD163" s="41"/>
+    <row r="163" spans="16:32" s="21" customFormat="1">
+      <c r="Q163" s="20"/>
+      <c r="R163" s="20"/>
+      <c r="S163" s="20"/>
+      <c r="T163" s="20"/>
+      <c r="U163" s="20"/>
+      <c r="V163" s="20"/>
+      <c r="W163" s="20"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
+      <c r="Z163" s="20"/>
+      <c r="AA163" s="20"/>
+      <c r="AB163" s="20"/>
+      <c r="AC163" s="20"/>
+      <c r="AD163" s="15"/>
       <c r="AF163" s="41"/>
     </row>
-    <row r="164" spans="9:32" s="21" customFormat="1">
+    <row r="164" spans="16:32" s="21" customFormat="1">
       <c r="P164" s="22"/>
-      <c r="Q164" s="23"/>
-      <c r="R164" s="23"/>
-      <c r="S164" s="23"/>
-      <c r="T164" s="23"/>
-      <c r="U164" s="23"/>
-      <c r="V164" s="23"/>
-      <c r="W164" s="23"/>
-      <c r="X164" s="41"/>
-      <c r="Y164" s="41"/>
-      <c r="Z164" s="41"/>
-      <c r="AA164" s="41"/>
-      <c r="AB164" s="41"/>
-      <c r="AC164" s="41"/>
-      <c r="AD164" s="41"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="20"/>
+      <c r="U164" s="20"/>
+      <c r="V164" s="20"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="15"/>
+      <c r="Y164" s="15"/>
+      <c r="Z164" s="15"/>
+      <c r="AA164" s="15"/>
+      <c r="AB164" s="15"/>
+      <c r="AC164" s="15"/>
+      <c r="AD164" s="15"/>
       <c r="AF164" s="41"/>
     </row>
-    <row r="165" spans="9:32" s="21" customFormat="1">
+    <row r="165" spans="16:32" s="21" customFormat="1">
       <c r="P165" s="22"/>
-      <c r="Q165" s="23"/>
-      <c r="R165" s="23"/>
-      <c r="S165" s="23"/>
-      <c r="T165" s="23"/>
-      <c r="U165" s="23"/>
-      <c r="V165" s="23"/>
-      <c r="W165" s="23"/>
-      <c r="X165" s="41"/>
-      <c r="Y165" s="41"/>
-      <c r="Z165" s="23"/>
-      <c r="AA165" s="23"/>
-      <c r="AB165" s="23"/>
-      <c r="AC165" s="23"/>
-      <c r="AD165" s="41"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="20"/>
+      <c r="U165" s="20"/>
+      <c r="V165" s="20"/>
+      <c r="W165" s="20"/>
+      <c r="X165" s="15"/>
+      <c r="Y165" s="15"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="15"/>
       <c r="AF165" s="41"/>
     </row>
-    <row r="166" spans="9:32" s="21" customFormat="1">
+    <row r="166" spans="16:32" s="21" customFormat="1">
       <c r="P166" s="22"/>
-      <c r="Q166" s="23"/>
-      <c r="R166" s="23"/>
-      <c r="S166" s="23"/>
-      <c r="T166" s="23"/>
-      <c r="U166" s="23"/>
-      <c r="V166" s="23"/>
-      <c r="W166" s="23"/>
-      <c r="X166" s="23"/>
-      <c r="Y166" s="23"/>
-      <c r="Z166" s="23"/>
-      <c r="AA166" s="23"/>
-      <c r="AB166" s="23"/>
-      <c r="AC166" s="23"/>
-      <c r="AD166" s="41"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+      <c r="T166" s="20"/>
+      <c r="U166" s="20"/>
+      <c r="V166" s="20"/>
+      <c r="W166" s="20"/>
+      <c r="X166" s="20"/>
+      <c r="Y166" s="20"/>
+      <c r="Z166" s="20"/>
+      <c r="AA166" s="20"/>
+      <c r="AB166" s="20"/>
+      <c r="AC166" s="20"/>
+      <c r="AD166" s="15"/>
       <c r="AF166" s="41"/>
     </row>
-    <row r="167" spans="9:32" s="21" customFormat="1">
-      <c r="I167" s="21">
-        <v>1</v>
-      </c>
-      <c r="J167" s="21">
-        <v>3</v>
-      </c>
-      <c r="K167" s="21">
-        <v>3</v>
-      </c>
-      <c r="L167" s="21">
-        <v>4</v>
-      </c>
-      <c r="M167" s="21">
-        <v>6</v>
-      </c>
-      <c r="N167" s="21">
-        <v>7</v>
-      </c>
+    <row r="167" spans="16:32" s="21" customFormat="1">
       <c r="P167" s="22"/>
-      <c r="Q167" s="23"/>
-      <c r="R167" s="23"/>
-      <c r="S167" s="23"/>
-      <c r="T167" s="23"/>
-      <c r="U167" s="23"/>
-      <c r="V167" s="23"/>
-      <c r="W167" s="23"/>
-      <c r="X167" s="41"/>
-      <c r="Y167" s="41"/>
-      <c r="Z167" s="41"/>
-      <c r="AA167" s="41"/>
-      <c r="AB167" s="41"/>
-      <c r="AC167" s="41"/>
-      <c r="AD167" s="41"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="15"/>
+      <c r="Y167" s="15"/>
+      <c r="Z167" s="15"/>
+      <c r="AA167" s="15"/>
+      <c r="AB167" s="15"/>
+      <c r="AC167" s="15"/>
+      <c r="AD167" s="15"/>
       <c r="AF167" s="41"/>
     </row>
-    <row r="168" spans="9:32" s="21" customFormat="1">
-      <c r="I168" s="21">
-        <v>0</v>
-      </c>
-      <c r="J168" s="21">
-        <v>0</v>
-      </c>
-      <c r="K168" s="21">
-        <v>1</v>
-      </c>
-      <c r="L168" s="21">
-        <v>3</v>
-      </c>
-      <c r="M168" s="21">
-        <v>4</v>
-      </c>
-      <c r="N168" s="21">
-        <v>7</v>
-      </c>
+    <row r="168" spans="16:32" s="21" customFormat="1">
       <c r="P168" s="22"/>
-      <c r="Q168" s="23"/>
-      <c r="R168" s="23"/>
-      <c r="S168" s="23"/>
-      <c r="T168" s="23"/>
-      <c r="U168" s="23"/>
-      <c r="V168" s="23"/>
-      <c r="W168" s="23"/>
-      <c r="X168" s="41"/>
-      <c r="Y168" s="41"/>
-      <c r="Z168" s="41"/>
-      <c r="AA168" s="41"/>
-      <c r="AB168" s="41"/>
-      <c r="AC168" s="41"/>
-      <c r="AD168" s="41"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="15"/>
+      <c r="Y168" s="15"/>
+      <c r="Z168" s="15"/>
+      <c r="AA168" s="15"/>
+      <c r="AB168" s="15"/>
+      <c r="AC168" s="15"/>
+      <c r="AD168" s="15"/>
       <c r="AF168" s="41"/>
     </row>
-    <row r="169" spans="9:32" s="21" customFormat="1">
-      <c r="I169" s="21">
-        <v>0</v>
-      </c>
-      <c r="J169" s="21">
-        <v>0</v>
-      </c>
-      <c r="K169" s="21">
-        <v>1</v>
-      </c>
-      <c r="L169" s="21">
-        <v>3</v>
-      </c>
-      <c r="M169" s="21">
-        <v>4</v>
-      </c>
-      <c r="N169" s="21">
-        <v>6</v>
-      </c>
+    <row r="169" spans="16:32" s="21" customFormat="1">
       <c r="P169" s="22"/>
-      <c r="Q169" s="23"/>
-      <c r="R169" s="23"/>
-      <c r="S169" s="23"/>
-      <c r="T169" s="23"/>
-      <c r="U169" s="23"/>
-      <c r="V169" s="23"/>
-      <c r="W169" s="23"/>
-      <c r="X169" s="41"/>
-      <c r="Y169" s="41"/>
-      <c r="Z169" s="41"/>
-      <c r="AA169" s="41"/>
-      <c r="AB169" s="41"/>
-      <c r="AC169" s="41"/>
-      <c r="AD169" s="41"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+      <c r="T169" s="20"/>
+      <c r="U169" s="20"/>
+      <c r="V169" s="20"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="15"/>
+      <c r="Y169" s="15"/>
+      <c r="Z169" s="15"/>
+      <c r="AA169" s="15"/>
+      <c r="AB169" s="15"/>
+      <c r="AC169" s="15"/>
+      <c r="AD169" s="15"/>
       <c r="AF169" s="41"/>
     </row>
-    <row r="170" spans="9:32" s="21" customFormat="1">
+    <row r="170" spans="16:32" s="21" customFormat="1">
       <c r="P170" s="22"/>
-      <c r="Q170" s="23"/>
-      <c r="R170" s="23"/>
-      <c r="S170" s="23"/>
-      <c r="T170" s="23"/>
-      <c r="U170" s="23"/>
-      <c r="V170" s="23"/>
-      <c r="W170" s="41"/>
-      <c r="X170" s="41"/>
-      <c r="Y170" s="41"/>
-      <c r="Z170" s="41"/>
-      <c r="AA170" s="41"/>
-      <c r="AB170" s="41"/>
-      <c r="AC170" s="41"/>
-      <c r="AD170" s="41"/>
+      <c r="Q170" s="20"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="20"/>
+      <c r="T170" s="20"/>
+      <c r="U170" s="20"/>
+      <c r="V170" s="20"/>
+      <c r="W170" s="15"/>
+      <c r="X170" s="15"/>
+      <c r="Y170" s="15"/>
+      <c r="Z170" s="15"/>
+      <c r="AA170" s="15"/>
+      <c r="AB170" s="15"/>
+      <c r="AC170" s="15"/>
+      <c r="AD170" s="15"/>
       <c r="AF170" s="41"/>
     </row>
-    <row r="171" spans="9:32" s="21" customFormat="1">
-      <c r="Q171" s="23"/>
-      <c r="R171" s="23"/>
-      <c r="S171" s="23"/>
-      <c r="T171" s="23"/>
-      <c r="U171" s="23"/>
-      <c r="V171" s="23"/>
-      <c r="W171" s="23"/>
-      <c r="X171" s="41"/>
-      <c r="Y171" s="41"/>
-      <c r="Z171" s="23"/>
-      <c r="AA171" s="23"/>
-      <c r="AB171" s="23"/>
-      <c r="AC171" s="23"/>
-      <c r="AD171" s="41"/>
+    <row r="171" spans="16:32" s="21" customFormat="1">
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+      <c r="T171" s="20"/>
+      <c r="U171" s="20"/>
+      <c r="V171" s="20"/>
+      <c r="W171" s="20"/>
+      <c r="X171" s="15"/>
+      <c r="Y171" s="15"/>
+      <c r="Z171" s="20"/>
+      <c r="AA171" s="20"/>
+      <c r="AB171" s="20"/>
+      <c r="AC171" s="20"/>
+      <c r="AD171" s="15"/>
       <c r="AF171" s="41"/>
     </row>
-    <row r="172" spans="9:32" s="21" customFormat="1">
+    <row r="172" spans="16:32" s="21" customFormat="1">
       <c r="P172" s="22"/>
-      <c r="Q172" s="23"/>
-      <c r="R172" s="23"/>
-      <c r="S172" s="23"/>
-      <c r="T172" s="23"/>
-      <c r="U172" s="23"/>
-      <c r="V172" s="23"/>
-      <c r="W172" s="41"/>
-      <c r="X172" s="41"/>
-      <c r="Y172" s="41"/>
-      <c r="Z172" s="41"/>
-      <c r="AA172" s="41"/>
-      <c r="AB172" s="41"/>
-      <c r="AC172" s="41"/>
-      <c r="AD172" s="41"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+      <c r="T172" s="20"/>
+      <c r="U172" s="20"/>
+      <c r="V172" s="20"/>
+      <c r="W172" s="15"/>
+      <c r="X172" s="15"/>
+      <c r="Y172" s="15"/>
+      <c r="Z172" s="15"/>
+      <c r="AA172" s="15"/>
+      <c r="AB172" s="15"/>
+      <c r="AC172" s="15"/>
+      <c r="AD172" s="15"/>
       <c r="AF172" s="41"/>
     </row>
-    <row r="173" spans="9:32" s="21" customFormat="1">
+    <row r="173" spans="16:32" s="21" customFormat="1">
       <c r="P173" s="22"/>
-      <c r="Q173" s="23"/>
-      <c r="R173" s="23"/>
-      <c r="S173" s="23"/>
-      <c r="T173" s="23"/>
-      <c r="U173" s="23"/>
-      <c r="V173" s="23"/>
-      <c r="W173" s="23"/>
-      <c r="X173" s="23"/>
-      <c r="Y173" s="23"/>
-      <c r="Z173" s="23"/>
-      <c r="AA173" s="23"/>
-      <c r="AB173" s="23"/>
-      <c r="AC173" s="23"/>
-      <c r="AD173" s="41"/>
+      <c r="Q173" s="20"/>
+      <c r="R173" s="20"/>
+      <c r="S173" s="20"/>
+      <c r="T173" s="20"/>
+      <c r="U173" s="20"/>
+      <c r="V173" s="20"/>
+      <c r="W173" s="20"/>
+      <c r="X173" s="20"/>
+      <c r="Y173" s="20"/>
+      <c r="Z173" s="20"/>
+      <c r="AA173" s="20"/>
+      <c r="AB173" s="20"/>
+      <c r="AC173" s="20"/>
+      <c r="AD173" s="15"/>
       <c r="AF173" s="41"/>
     </row>
-    <row r="174" spans="9:32" s="21" customFormat="1">
+    <row r="174" spans="16:32" s="21" customFormat="1">
       <c r="P174" s="22"/>
-      <c r="Q174" s="23"/>
-      <c r="R174" s="23"/>
-      <c r="S174" s="23"/>
-      <c r="T174" s="23"/>
-      <c r="U174" s="23"/>
-      <c r="V174" s="23"/>
-      <c r="W174" s="23"/>
-      <c r="X174" s="23"/>
-      <c r="Y174" s="23"/>
-      <c r="Z174" s="23"/>
-      <c r="AA174" s="23"/>
-      <c r="AB174" s="23"/>
-      <c r="AC174" s="23"/>
-      <c r="AD174" s="41"/>
+      <c r="Q174" s="20"/>
+      <c r="R174" s="20"/>
+      <c r="S174" s="20"/>
+      <c r="T174" s="20"/>
+      <c r="U174" s="20"/>
+      <c r="V174" s="20"/>
+      <c r="W174" s="20"/>
+      <c r="X174" s="20"/>
+      <c r="Y174" s="20"/>
+      <c r="Z174" s="20"/>
+      <c r="AA174" s="20"/>
+      <c r="AB174" s="20"/>
+      <c r="AC174" s="20"/>
+      <c r="AD174" s="15"/>
       <c r="AF174" s="41"/>
     </row>
-    <row r="175" spans="9:32" s="21" customFormat="1">
+    <row r="175" spans="16:32" s="21" customFormat="1">
       <c r="P175" s="22"/>
-      <c r="Q175" s="23"/>
-      <c r="R175" s="23"/>
-      <c r="S175" s="23"/>
-      <c r="T175" s="23"/>
-      <c r="U175" s="23"/>
-      <c r="V175" s="23"/>
-      <c r="W175" s="23"/>
-      <c r="X175" s="41"/>
-      <c r="Y175" s="41"/>
-      <c r="Z175" s="41"/>
-      <c r="AA175" s="41"/>
-      <c r="AB175" s="41"/>
-      <c r="AC175" s="41"/>
-      <c r="AD175" s="41"/>
+      <c r="Q175" s="20"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="20"/>
+      <c r="T175" s="20"/>
+      <c r="U175" s="20"/>
+      <c r="V175" s="20"/>
+      <c r="W175" s="20"/>
+      <c r="X175" s="15"/>
+      <c r="Y175" s="15"/>
+      <c r="Z175" s="15"/>
+      <c r="AA175" s="15"/>
+      <c r="AB175" s="15"/>
+      <c r="AC175" s="15"/>
+      <c r="AD175" s="15"/>
       <c r="AF175" s="41"/>
     </row>
-    <row r="176" spans="9:32" s="21" customFormat="1">
+    <row r="176" spans="16:32" s="21" customFormat="1">
       <c r="P176" s="22"/>
-      <c r="Q176" s="23"/>
-      <c r="R176" s="23"/>
-      <c r="S176" s="23"/>
-      <c r="T176" s="23"/>
-      <c r="U176" s="23"/>
-      <c r="V176" s="23"/>
-      <c r="W176" s="41"/>
-      <c r="X176" s="41"/>
-      <c r="Y176" s="41"/>
-      <c r="Z176" s="41"/>
-      <c r="AA176" s="41"/>
-      <c r="AB176" s="41"/>
-      <c r="AC176" s="41"/>
-      <c r="AD176" s="41"/>
+      <c r="Q176" s="20"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="20"/>
+      <c r="T176" s="20"/>
+      <c r="U176" s="20"/>
+      <c r="V176" s="20"/>
+      <c r="W176" s="15"/>
+      <c r="X176" s="15"/>
+      <c r="Y176" s="15"/>
+      <c r="Z176" s="15"/>
+      <c r="AA176" s="15"/>
+      <c r="AB176" s="15"/>
+      <c r="AC176" s="15"/>
+      <c r="AD176" s="15"/>
       <c r="AF176" s="41"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
-      <c r="Q177" s="23"/>
-      <c r="R177" s="23"/>
-      <c r="S177" s="23"/>
-      <c r="T177" s="23"/>
-      <c r="U177" s="23"/>
-      <c r="V177" s="23"/>
-      <c r="W177" s="41"/>
-      <c r="X177" s="41"/>
-      <c r="Y177" s="41"/>
-      <c r="Z177" s="41"/>
-      <c r="AA177" s="41"/>
-      <c r="AB177" s="41"/>
-      <c r="AC177" s="41"/>
-      <c r="AD177" s="41"/>
+      <c r="Q177" s="20"/>
+      <c r="R177" s="20"/>
+      <c r="S177" s="20"/>
+      <c r="T177" s="20"/>
+      <c r="U177" s="20"/>
+      <c r="V177" s="20"/>
+      <c r="W177" s="15"/>
+      <c r="X177" s="15"/>
+      <c r="Y177" s="15"/>
+      <c r="Z177" s="15"/>
+      <c r="AA177" s="15"/>
+      <c r="AB177" s="15"/>
+      <c r="AC177" s="15"/>
+      <c r="AD177" s="15"/>
       <c r="AF177" s="41"/>
     </row>
     <row r="178" spans="16:32" s="21" customFormat="1">
       <c r="P178" s="22"/>
-      <c r="Q178" s="23"/>
-      <c r="R178" s="23"/>
-      <c r="S178" s="23"/>
-      <c r="T178" s="23"/>
-      <c r="U178" s="23"/>
-      <c r="V178" s="23"/>
-      <c r="W178" s="41"/>
-      <c r="X178" s="41"/>
-      <c r="Y178" s="41"/>
-      <c r="Z178" s="41"/>
-      <c r="AA178" s="41"/>
-      <c r="AB178" s="41"/>
-      <c r="AC178" s="41"/>
-      <c r="AD178" s="41"/>
+      <c r="Q178" s="20"/>
+      <c r="R178" s="20"/>
+      <c r="S178" s="20"/>
+      <c r="T178" s="20"/>
+      <c r="U178" s="20"/>
+      <c r="V178" s="20"/>
+      <c r="W178" s="15"/>
+      <c r="X178" s="15"/>
+      <c r="Y178" s="15"/>
+      <c r="Z178" s="15"/>
+      <c r="AA178" s="15"/>
+      <c r="AB178" s="15"/>
+      <c r="AC178" s="15"/>
+      <c r="AD178" s="15"/>
       <c r="AF178" s="41"/>
     </row>
     <row r="179" spans="16:32" s="21" customFormat="1">
       <c r="P179" s="22"/>
-      <c r="Q179" s="23"/>
-      <c r="R179" s="23"/>
-      <c r="S179" s="23"/>
-      <c r="T179" s="23"/>
-      <c r="U179" s="23"/>
-      <c r="V179" s="23"/>
-      <c r="W179" s="23"/>
-      <c r="X179" s="23"/>
-      <c r="Y179" s="23"/>
-      <c r="Z179" s="23"/>
-      <c r="AA179" s="23"/>
-      <c r="AB179" s="23"/>
-      <c r="AC179" s="23"/>
-      <c r="AD179" s="41"/>
+      <c r="Q179" s="20"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+      <c r="T179" s="20"/>
+      <c r="U179" s="20"/>
+      <c r="V179" s="20"/>
+      <c r="W179" s="20"/>
+      <c r="X179" s="20"/>
+      <c r="Y179" s="20"/>
+      <c r="Z179" s="20"/>
+      <c r="AA179" s="20"/>
+      <c r="AB179" s="20"/>
+      <c r="AC179" s="20"/>
+      <c r="AD179" s="15"/>
       <c r="AF179" s="41"/>
     </row>
     <row r="180" spans="16:32" s="21" customFormat="1">
-      <c r="Q180" s="23"/>
-      <c r="R180" s="23"/>
-      <c r="S180" s="23"/>
-      <c r="T180" s="23"/>
-      <c r="U180" s="23"/>
-      <c r="V180" s="23"/>
-      <c r="W180" s="23"/>
-      <c r="X180" s="41"/>
-      <c r="Y180" s="41"/>
-      <c r="Z180" s="23"/>
-      <c r="AA180" s="23"/>
-      <c r="AB180" s="23"/>
-      <c r="AC180" s="23"/>
-      <c r="AD180" s="41"/>
+      <c r="Q180" s="20"/>
+      <c r="R180" s="20"/>
+      <c r="S180" s="20"/>
+      <c r="T180" s="20"/>
+      <c r="U180" s="20"/>
+      <c r="V180" s="20"/>
+      <c r="W180" s="20"/>
+      <c r="X180" s="15"/>
+      <c r="Y180" s="15"/>
+      <c r="Z180" s="20"/>
+      <c r="AA180" s="20"/>
+      <c r="AB180" s="20"/>
+      <c r="AC180" s="20"/>
+      <c r="AD180" s="15"/>
       <c r="AF180" s="41"/>
     </row>
     <row r="181" spans="16:32" s="21" customFormat="1">
       <c r="P181" s="22"/>
-      <c r="Q181" s="23"/>
-      <c r="R181" s="23"/>
-      <c r="S181" s="23"/>
-      <c r="T181" s="23"/>
-      <c r="U181" s="23"/>
-      <c r="V181" s="23"/>
-      <c r="W181" s="23"/>
-      <c r="X181" s="41"/>
-      <c r="Y181" s="41"/>
-      <c r="Z181" s="23"/>
-      <c r="AA181" s="23"/>
-      <c r="AB181" s="23"/>
-      <c r="AC181" s="23"/>
-      <c r="AD181" s="41"/>
+      <c r="Q181" s="20"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+      <c r="T181" s="20"/>
+      <c r="U181" s="20"/>
+      <c r="V181" s="20"/>
+      <c r="W181" s="20"/>
+      <c r="X181" s="15"/>
+      <c r="Y181" s="15"/>
+      <c r="Z181" s="20"/>
+      <c r="AA181" s="20"/>
+      <c r="AB181" s="20"/>
+      <c r="AC181" s="20"/>
+      <c r="AD181" s="15"/>
       <c r="AF181" s="41"/>
     </row>
     <row r="182" spans="16:32" s="21" customFormat="1">
       <c r="P182" s="22"/>
-      <c r="Q182" s="23"/>
-      <c r="R182" s="23"/>
-      <c r="S182" s="23"/>
-      <c r="T182" s="23"/>
-      <c r="U182" s="23"/>
-      <c r="V182" s="23"/>
-      <c r="W182" s="23"/>
-      <c r="X182" s="41"/>
-      <c r="Y182" s="41"/>
-      <c r="Z182" s="41"/>
-      <c r="AA182" s="41"/>
-      <c r="AB182" s="41"/>
-      <c r="AC182" s="41"/>
-      <c r="AD182" s="41"/>
+      <c r="Q182" s="20"/>
+      <c r="R182" s="20"/>
+      <c r="S182" s="20"/>
+      <c r="T182" s="20"/>
+      <c r="U182" s="20"/>
+      <c r="V182" s="20"/>
+      <c r="W182" s="20"/>
+      <c r="X182" s="15"/>
+      <c r="Y182" s="15"/>
+      <c r="Z182" s="15"/>
+      <c r="AA182" s="15"/>
+      <c r="AB182" s="15"/>
+      <c r="AC182" s="15"/>
+      <c r="AD182" s="15"/>
       <c r="AF182" s="41"/>
     </row>
     <row r="183" spans="16:32" s="21" customFormat="1">
@@ -31461,10 +31484,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO204"/>
+  <dimension ref="A1:AO205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K142" sqref="K142"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M145" sqref="M145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -34307,15 +34330,25 @@
       <c r="L137" s="10"/>
     </row>
     <row r="138" spans="1:29">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
+      <c r="A138" s="11">
+        <v>3</v>
+      </c>
+      <c r="B138" s="9">
+        <v>1</v>
+      </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
+      <c r="H138" s="9">
+        <v>1</v>
+      </c>
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
+      <c r="M138" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:29">
       <c r="A139" s="10"/>
@@ -34325,6 +34358,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:29">
       <c r="A140" s="10"/>
@@ -34601,6 +34635,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="F175" s="10"/>
@@ -34645,33 +34680,37 @@
       <c r="A182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
-      <c r="F182" s="18"/>
+      <c r="F182" s="10"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
-      <c r="F183" s="18"/>
+      <c r="F183" s="10"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
+      <c r="F184" s="10"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
+      <c r="F185" s="10"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
+      <c r="F186" s="18"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
+      <c r="F187" s="18"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="10"/>
@@ -34686,6 +34725,7 @@
     <row r="190" spans="1:6">
       <c r="A190" s="10"/>
       <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="10"/>
@@ -34712,12 +34752,15 @@
       <c r="C196" s="10"/>
     </row>
     <row r="197" spans="1:3">
+      <c r="A197" s="10"/>
       <c r="C197" s="10"/>
     </row>
     <row r="198" spans="1:3">
+      <c r="A198" s="10"/>
       <c r="C198" s="10"/>
     </row>
     <row r="199" spans="1:3">
+      <c r="A199" s="10"/>
       <c r="C199" s="10"/>
     </row>
     <row r="200" spans="1:3">
@@ -34734,6 +34777,9 @@
     </row>
     <row r="204" spans="1:3">
       <c r="C204" s="10"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="C205" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34747,7 +34793,7 @@
   <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37485,13 +37531,52 @@
       </c>
     </row>
     <row r="138" spans="1:21">
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
+      <c r="A138" s="1">
+        <v>3</v>
+      </c>
+      <c r="B138" s="1">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="18">
+        <v>1</v>
+      </c>
+      <c r="G138" s="18">
+        <v>0</v>
+      </c>
+      <c r="H138" s="18">
+        <v>1</v>
+      </c>
+      <c r="I138" s="18">
+        <v>1</v>
+      </c>
+      <c r="J138" s="18">
+        <v>1</v>
+      </c>
+      <c r="K138" s="18">
+        <v>2</v>
+      </c>
       <c r="L138" s="18"/>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>1</v>
+      </c>
+      <c r="P138" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>5</v>
+      </c>
+      <c r="R138" s="1">
+        <v>5</v>
+      </c>
+      <c r="S138" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="139" spans="1:21">
       <c r="F139" s="18"/>
@@ -37596,10 +37681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN137"/>
+  <dimension ref="A100:AN138"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="P144" sqref="P144"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39679,6 +39764,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="138" spans="1:23">
+      <c r="D138" s="11">
+        <v>2</v>
+      </c>
+      <c r="E138" s="9">
+        <v>1</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1</v>
+      </c>
+      <c r="H138" s="9">
+        <v>1</v>
+      </c>
+      <c r="L138" s="16">
+        <v>4</v>
+      </c>
+      <c r="M138" s="16">
+        <v>4</v>
+      </c>
+      <c r="N138" s="16">
+        <v>5</v>
+      </c>
+      <c r="O138" s="16">
+        <v>6</v>
+      </c>
+      <c r="P138" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q138" s="16">
+        <v>8</v>
+      </c>
+      <c r="S138" s="16">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39691,20 +39814,16 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="6.625" style="18" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.625" style="18" customWidth="1"/>
     <col min="6" max="6" width="6.625" style="19" customWidth="1"/>
-    <col min="7" max="10" width="6.625" style="18" customWidth="1"/>
-    <col min="11" max="13" width="6.625" style="64" customWidth="1"/>
-    <col min="14" max="14" width="6.625" style="18" customWidth="1"/>
-    <col min="15" max="16" width="6.625" style="64" customWidth="1"/>
+    <col min="7" max="16" width="6.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -39720,7 +39839,7 @@
       <c r="D1" s="18">
         <v>47</v>
       </c>
-      <c r="E1" s="64">
+      <c r="E1" s="18">
         <v>41</v>
       </c>
       <c r="F1" s="19">
@@ -39738,22 +39857,22 @@
       <c r="J1" s="18">
         <v>40</v>
       </c>
-      <c r="K1" s="64">
+      <c r="K1" s="18">
         <v>38</v>
       </c>
-      <c r="L1" s="64">
+      <c r="L1" s="18">
         <v>16</v>
       </c>
-      <c r="M1" s="64">
+      <c r="M1" s="18">
         <v>21</v>
       </c>
       <c r="N1" s="18">
         <v>52</v>
       </c>
-      <c r="O1" s="64">
+      <c r="O1" s="18">
         <v>15</v>
       </c>
-      <c r="P1" s="64">
+      <c r="P1" s="18">
         <v>61</v>
       </c>
     </row>
@@ -39768,9 +39887,9 @@
         <v>0</v>
       </c>
       <c r="D2" s="18">
-        <v>89</v>
-      </c>
-      <c r="E2" s="64">
+        <v>90</v>
+      </c>
+      <c r="E2" s="18">
         <v>1</v>
       </c>
       <c r="F2" s="19">
@@ -39788,22 +39907,22 @@
       <c r="J2" s="18">
         <v>50</v>
       </c>
-      <c r="K2" s="64">
-        <v>4</v>
-      </c>
-      <c r="L2" s="64">
-        <v>1</v>
-      </c>
-      <c r="M2" s="64">
+      <c r="K2" s="18">
+        <v>4</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18">
         <v>7</v>
       </c>
       <c r="N2" s="18">
         <v>11</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="18">
         <v>6</v>
       </c>
-      <c r="P2" s="64">
+      <c r="P2" s="18">
         <v>12</v>
       </c>
     </row>
@@ -39817,7 +39936,7 @@
       <c r="C3" s="19">
         <v>9</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="18">
         <v>4</v>
       </c>
       <c r="F3" s="19">
@@ -39835,22 +39954,22 @@
       <c r="J3" s="18">
         <v>3</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="18">
         <v>11</v>
       </c>
-      <c r="L3" s="64">
+      <c r="L3" s="18">
         <v>15</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="18">
         <v>15</v>
       </c>
       <c r="N3" s="18">
         <v>3</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="18">
         <v>44</v>
       </c>
-      <c r="P3" s="64">
+      <c r="P3" s="18">
         <v>23</v>
       </c>
     </row>
@@ -39864,7 +39983,7 @@
       <c r="C4" s="19">
         <v>7</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="18">
         <v>17</v>
       </c>
       <c r="F4" s="19">
@@ -39882,28 +40001,28 @@
       <c r="J4" s="18">
         <v>38</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="18">
         <v>34</v>
       </c>
-      <c r="L4" s="64">
-        <v>1</v>
-      </c>
-      <c r="M4" s="64">
+      <c r="L4" s="18">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
         <v>26</v>
       </c>
       <c r="N4" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="18">
         <v>17</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="18">
         <v>57</v>
@@ -39911,7 +40030,7 @@
       <c r="C5" s="19">
         <v>23</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="18">
         <v>15</v>
       </c>
       <c r="F5" s="19">
@@ -39929,33 +40048,33 @@
       <c r="J5" s="18">
         <v>2</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="18">
         <v>12</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="18">
         <v>13</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="18">
         <v>1</v>
       </c>
       <c r="N5" s="18">
         <v>20</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="18">
         <v>17</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="18">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
       <c r="F6" s="19">
@@ -39971,24 +40090,24 @@
         <v>0</v>
       </c>
       <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="64">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
         <v>13</v>
       </c>
-      <c r="L6" s="64">
-        <v>1</v>
-      </c>
-      <c r="M6" s="64">
+      <c r="L6" s="18">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18">
         <v>7</v>
       </c>
       <c r="N6" s="18">
         <v>12</v>
       </c>
-      <c r="O6" s="64">
-        <v>41</v>
-      </c>
-      <c r="P6" s="64">
+      <c r="O6" s="18">
+        <v>42</v>
+      </c>
+      <c r="P6" s="18">
         <v>0</v>
       </c>
     </row>
@@ -39996,7 +40115,7 @@
       <c r="C7" s="19">
         <v>0</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="18">
         <v>28</v>
       </c>
       <c r="F7" s="19">
@@ -40006,24 +40125,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="18">
         <v>10</v>
       </c>
-      <c r="K7" s="64">
-        <v>3</v>
-      </c>
-      <c r="L7" s="64">
-        <v>0</v>
-      </c>
-      <c r="M7" s="64">
+      <c r="K7" s="18">
+        <v>3</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
         <v>20</v>
       </c>
       <c r="N7" s="18">
         <v>4</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="18">
         <v>6</v>
       </c>
     </row>
@@ -40031,7 +40150,7 @@
       <c r="C8" s="19">
         <v>6</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="18">
         <v>20</v>
       </c>
       <c r="F8" s="19">
@@ -40043,19 +40162,19 @@
       <c r="I8" s="18">
         <v>21</v>
       </c>
-      <c r="K8" s="64">
-        <v>2</v>
-      </c>
-      <c r="L8" s="64">
+      <c r="K8" s="18">
+        <v>2</v>
+      </c>
+      <c r="L8" s="18">
         <v>67</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="18">
         <v>0</v>
       </c>
       <c r="N8" s="18">
         <v>4</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="18">
         <v>0</v>
       </c>
     </row>
@@ -40063,8 +40182,8 @@
       <c r="C9" s="19">
         <v>14</v>
       </c>
-      <c r="E9" s="64">
-        <v>29</v>
+      <c r="E9" s="18">
+        <v>30</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -40075,20 +40194,20 @@
       <c r="I9" s="18">
         <v>7</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="18">
         <v>12</v>
       </c>
-      <c r="L9" s="64">
-        <v>2</v>
-      </c>
-      <c r="M9" s="64">
-        <v>26</v>
+      <c r="L9" s="18">
+        <v>2</v>
+      </c>
+      <c r="M9" s="18">
+        <v>27</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
-      <c r="P9" s="64">
-        <v>11</v>
+      <c r="P9" s="18">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -40104,11 +40223,11 @@
       <c r="I10" s="18">
         <v>5</v>
       </c>
-      <c r="K10" s="64">
-        <v>1</v>
-      </c>
-      <c r="L10" s="64">
-        <v>2</v>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18">
+        <v>3</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -40122,24 +40241,27 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
-      <c r="K11" s="64">
-        <v>15</v>
+      <c r="K11" s="18">
+        <v>16</v>
       </c>
       <c r="N11" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:16">
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -40154,7 +40276,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>关注大趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,12 +407,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -422,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,9 +555,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y72" sqref="Y72"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y71" sqref="Y71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5085,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="7">
         <v>0</v>
@@ -5564,7 +5559,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K47" s="7">
         <v>9</v>
@@ -5760,7 +5755,9 @@
         <v>2</v>
       </c>
       <c r="J49" s="7"/>
-      <c r="K49" s="25"/>
+      <c r="K49" s="7">
+        <v>0</v>
+      </c>
       <c r="L49" s="7">
         <v>3</v>
       </c>
@@ -5814,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE49" s="7">
         <v>1</v>
@@ -5966,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S51" s="7">
         <v>1</v>
@@ -5974,7 +5971,9 @@
       <c r="T51" s="7">
         <v>15</v>
       </c>
-      <c r="U51" s="25"/>
+      <c r="U51" s="7">
+        <v>0</v>
+      </c>
       <c r="V51" s="7">
         <v>5</v>
       </c>
@@ -6007,12 +6006,12 @@
         <v>0</v>
       </c>
       <c r="AG51" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="3" customFormat="1">
       <c r="A52" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="7">
         <v>0</v>
@@ -6068,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
@@ -6132,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O53" s="7">
         <v>5</v>
@@ -6173,7 +6172,7 @@
       </c>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF53" s="7">
         <v>1</v>
@@ -6186,7 +6185,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -6200,7 +6199,9 @@
       <c r="G54" s="7">
         <v>7</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
       <c r="I54" s="7">
         <v>10</v>
       </c>
@@ -6225,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7">
@@ -6236,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z54" s="7">
         <v>5</v>
@@ -6248,7 +6249,7 @@
         <v>3</v>
       </c>
       <c r="AC54" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
@@ -6277,7 +6278,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6322,7 +6323,7 @@
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG55" s="7"/>
     </row>
@@ -6349,7 +6350,7 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -6364,7 +6365,7 @@
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -6379,7 +6380,9 @@
       <c r="Z56" s="7">
         <v>4</v>
       </c>
-      <c r="AA56" s="7"/>
+      <c r="AA56" s="7">
+        <v>0</v>
+      </c>
       <c r="AB56" s="7">
         <v>0</v>
       </c>
@@ -6517,7 +6520,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -6559,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="7">
         <v>4</v>
@@ -6582,7 +6588,7 @@
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="7">
@@ -6611,11 +6617,11 @@
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W61" s="7"/>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7">
@@ -6669,7 +6675,7 @@
       </c>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -6710,7 +6716,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA63" s="26"/>
       <c r="AB63" s="7"/>
@@ -6724,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" s="26"/>
       <c r="H64" s="4"/>
@@ -6766,12 +6772,14 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
       <c r="N65" s="26"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -6819,7 +6827,7 @@
     </row>
     <row r="67" spans="1:33">
       <c r="D67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="4"/>
@@ -6872,8 +6880,16 @@
       <c r="AF68" s="39"/>
       <c r="AG68" s="5"/>
     </row>
-    <row r="69" spans="1:33" s="45" customFormat="1"/>
-    <row r="70" spans="1:33" s="43" customFormat="1"/>
+    <row r="69" spans="1:33" s="45" customFormat="1">
+      <c r="M69" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" s="43" customFormat="1">
+      <c r="E70" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="71" spans="1:33" s="47" customFormat="1"/>
     <row r="72" spans="1:33">
       <c r="C72" s="5"/>
@@ -7547,8 +7563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT978"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O145" sqref="O145"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S136" sqref="S136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -16557,7 +16573,7 @@
         <v>2</v>
       </c>
       <c r="V119" s="23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W119" s="23"/>
       <c r="X119" s="22">
@@ -16860,7 +16876,7 @@
       <c r="S123" s="22">
         <v>1</v>
       </c>
-      <c r="T123" s="23">
+      <c r="T123" s="22">
         <v>15</v>
       </c>
       <c r="U123" s="22">
@@ -16885,7 +16901,9 @@
       <c r="AB123" s="22">
         <v>6</v>
       </c>
-      <c r="AC123" s="23"/>
+      <c r="AC123" s="19">
+        <v>15</v>
+      </c>
       <c r="AD123" s="22"/>
       <c r="AF123" s="22"/>
       <c r="AH123" s="21">
@@ -16964,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="V124" s="23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W124" s="23"/>
       <c r="X124" s="22">
@@ -17057,7 +17075,7 @@
       <c r="R125" s="22">
         <v>3</v>
       </c>
-      <c r="S125" s="23">
+      <c r="S125" s="22">
         <v>13</v>
       </c>
       <c r="T125" s="22">
@@ -17066,7 +17084,7 @@
       <c r="U125" s="22">
         <v>2</v>
       </c>
-      <c r="V125" s="63">
+      <c r="V125" s="22">
         <v>12</v>
       </c>
       <c r="W125" s="23"/>
@@ -17085,7 +17103,9 @@
       <c r="AB125" s="22">
         <v>12</v>
       </c>
-      <c r="AC125" s="23"/>
+      <c r="AC125" s="19">
+        <v>13</v>
+      </c>
       <c r="AD125" s="22"/>
       <c r="AF125" s="22"/>
       <c r="AH125" s="21">
@@ -17257,7 +17277,7 @@
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R127" s="22">
         <v>2</v>
@@ -17359,7 +17379,7 @@
       <c r="Q128" s="22">
         <v>4</v>
       </c>
-      <c r="R128" s="23">
+      <c r="R128" s="22">
         <v>10</v>
       </c>
       <c r="S128" s="22">
@@ -17390,7 +17410,9 @@
       <c r="AB128" s="22">
         <v>4</v>
       </c>
-      <c r="AC128" s="23"/>
+      <c r="AC128" s="19">
+        <v>10</v>
+      </c>
       <c r="AD128" s="23"/>
       <c r="AF128" s="23"/>
       <c r="AH128" s="21">
@@ -17457,13 +17479,13 @@
       </c>
       <c r="P129" s="22"/>
       <c r="Q129" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R129" s="22">
         <v>1</v>
       </c>
       <c r="S129" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T129" s="22">
         <v>6</v>
@@ -17558,9 +17580,9 @@
         <v>3</v>
       </c>
       <c r="R130" s="23">
-        <v>8</v>
-      </c>
-      <c r="S130" s="63">
+        <v>9</v>
+      </c>
+      <c r="S130" s="22">
         <v>7</v>
       </c>
       <c r="T130" s="22">
@@ -17570,7 +17592,7 @@
         <v>4</v>
       </c>
       <c r="V130" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W130" s="23"/>
       <c r="X130" s="22">
@@ -17755,9 +17777,9 @@
       </c>
       <c r="P132" s="22"/>
       <c r="Q132" s="23">
-        <v>6</v>
-      </c>
-      <c r="R132" s="23">
+        <v>7</v>
+      </c>
+      <c r="R132" s="22">
         <v>6</v>
       </c>
       <c r="S132" s="22">
@@ -17785,7 +17807,9 @@
       <c r="AA132" s="22">
         <v>4</v>
       </c>
-      <c r="AB132" s="23"/>
+      <c r="AB132" s="19">
+        <v>6</v>
+      </c>
       <c r="AC132" s="23"/>
       <c r="AD132" s="23"/>
       <c r="AF132" s="23"/>
@@ -17855,17 +17879,17 @@
       <c r="Q133" s="22">
         <v>2</v>
       </c>
-      <c r="R133" s="23">
+      <c r="R133" s="22">
         <v>5</v>
       </c>
       <c r="S133" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T133" s="22">
         <v>0</v>
       </c>
       <c r="U133" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V133" s="22">
         <v>0</v>
@@ -17880,7 +17904,9 @@
       <c r="Z133" s="21">
         <v>2</v>
       </c>
-      <c r="AA133" s="23"/>
+      <c r="AA133" s="19">
+        <v>5</v>
+      </c>
       <c r="AB133" s="23"/>
       <c r="AC133" s="23"/>
       <c r="AD133" s="41"/>
@@ -17943,7 +17969,7 @@
       </c>
       <c r="P134" s="22"/>
       <c r="Q134" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R134" s="22">
         <v>2</v>
@@ -18043,7 +18069,7 @@
       </c>
       <c r="P135" s="22"/>
       <c r="Q135" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R135" s="22">
         <v>1</v>
@@ -18052,13 +18078,13 @@
         <v>1</v>
       </c>
       <c r="T135" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U135" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V135" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W135" s="23"/>
       <c r="X135" s="21">
@@ -18140,19 +18166,19 @@
         <v>0</v>
       </c>
       <c r="R136" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S136" s="23">
-        <v>2</v>
-      </c>
-      <c r="T136" s="63">
+        <v>3</v>
+      </c>
+      <c r="T136" s="22">
         <v>1</v>
       </c>
       <c r="U136" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V136" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W136" s="23"/>
       <c r="X136" s="21">
@@ -18230,22 +18256,22 @@
         <v>4</v>
       </c>
       <c r="P137" s="22"/>
-      <c r="Q137" s="63">
+      <c r="Q137" s="22">
         <v>0</v>
       </c>
       <c r="R137" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S137" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T137" s="23">
-        <v>1</v>
-      </c>
-      <c r="U137" s="63">
-        <v>0</v>
-      </c>
-      <c r="V137" s="63">
+        <v>2</v>
+      </c>
+      <c r="U137" s="22">
+        <v>0</v>
+      </c>
+      <c r="V137" s="22">
         <v>0</v>
       </c>
       <c r="W137" s="23"/>
@@ -18325,41 +18351,112 @@
       <c r="N138" s="1">
         <v>12</v>
       </c>
-      <c r="Q138" s="15">
-        <v>0</v>
-      </c>
-      <c r="R138" s="15">
-        <v>0</v>
-      </c>
-      <c r="S138" s="15">
-        <v>0</v>
-      </c>
-      <c r="T138" s="15">
-        <v>0</v>
-      </c>
-      <c r="U138" s="15">
-        <v>0</v>
-      </c>
-      <c r="V138" s="15">
-        <v>0</v>
+      <c r="Q138" s="20">
+        <v>1</v>
+      </c>
+      <c r="R138" s="20">
+        <v>1</v>
+      </c>
+      <c r="S138" s="20">
+        <v>1</v>
+      </c>
+      <c r="T138" s="20">
+        <v>1</v>
+      </c>
+      <c r="U138" s="19">
+        <v>0</v>
+      </c>
+      <c r="V138" s="20">
+        <v>1</v>
       </c>
       <c r="W138" s="15"/>
-      <c r="X138" s="15"/>
+      <c r="X138" s="16">
+        <v>0</v>
+      </c>
       <c r="Y138" s="15"/>
       <c r="Z138" s="15"/>
       <c r="AA138" s="15"/>
       <c r="AB138" s="15"/>
       <c r="AC138" s="15"/>
       <c r="AD138" s="15"/>
+      <c r="AH138" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK138" s="1">
+        <v>12</v>
+      </c>
+      <c r="AO138" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP138" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ138" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="139" spans="1:46" s="21" customFormat="1">
+      <c r="A139" s="21">
+        <v>5</v>
+      </c>
+      <c r="B139" s="21">
+        <v>13</v>
+      </c>
+      <c r="C139" s="21">
+        <v>15</v>
+      </c>
+      <c r="D139" s="21">
+        <v>10</v>
+      </c>
+      <c r="E139" s="21">
+        <v>6</v>
+      </c>
+      <c r="F139" s="21">
+        <v>0</v>
+      </c>
+      <c r="I139" s="21">
+        <v>0</v>
+      </c>
+      <c r="J139" s="21">
+        <v>5</v>
+      </c>
+      <c r="K139" s="21">
+        <v>6</v>
+      </c>
+      <c r="L139" s="21">
+        <v>10</v>
+      </c>
+      <c r="M139" s="21">
+        <v>13</v>
+      </c>
+      <c r="N139" s="21">
+        <v>15</v>
+      </c>
       <c r="P139" s="22"/>
-      <c r="Q139" s="20"/>
-      <c r="R139" s="20"/>
-      <c r="S139" s="20"/>
-      <c r="T139" s="20"/>
-      <c r="U139" s="20"/>
-      <c r="V139" s="20"/>
+      <c r="Q139" s="20">
+        <v>0</v>
+      </c>
+      <c r="R139" s="20">
+        <v>0</v>
+      </c>
+      <c r="S139" s="20">
+        <v>0</v>
+      </c>
+      <c r="T139" s="20">
+        <v>0</v>
+      </c>
+      <c r="U139" s="20">
+        <v>0</v>
+      </c>
+      <c r="V139" s="20">
+        <v>0</v>
+      </c>
       <c r="W139" s="20"/>
       <c r="X139" s="15"/>
       <c r="Y139" s="15"/>
@@ -18369,6 +18466,33 @@
       <c r="AC139" s="20"/>
       <c r="AD139" s="15"/>
       <c r="AF139" s="41"/>
+      <c r="AH139" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI139" s="21">
+        <v>5</v>
+      </c>
+      <c r="AJ139" s="21">
+        <v>6</v>
+      </c>
+      <c r="AK139" s="21">
+        <v>10</v>
+      </c>
+      <c r="AL139" s="21">
+        <v>13</v>
+      </c>
+      <c r="AM139" s="21">
+        <v>15</v>
+      </c>
+      <c r="AO139" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP139" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ139" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:46" s="21" customFormat="1">
       <c r="P140" s="22"/>
@@ -18459,15 +18583,6 @@
       <c r="AC144" s="20"/>
       <c r="AD144" s="15"/>
       <c r="AF144" s="41"/>
-      <c r="AO144" s="21">
-        <v>3</v>
-      </c>
-      <c r="AP144" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ144" s="21">
-        <v>1</v>
-      </c>
     </row>
     <row r="145" spans="16:32" s="21" customFormat="1">
       <c r="P145" s="22"/>
@@ -31486,8 +31601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO205"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M145" sqref="M145"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N143" sqref="N143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -34351,14 +34466,29 @@
       </c>
     </row>
     <row r="139" spans="1:29">
-      <c r="A139" s="10"/>
+      <c r="A139" s="9">
+        <v>1</v>
+      </c>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="F139" s="9">
+        <v>1</v>
+      </c>
+      <c r="G139" s="9">
+        <v>1</v>
+      </c>
       <c r="H139" s="10"/>
+      <c r="K139" s="9">
+        <v>1</v>
+      </c>
+      <c r="N139" s="9">
+        <v>1</v>
+      </c>
+      <c r="P139" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:29">
       <c r="A140" s="10"/>
@@ -34385,6 +34515,7 @@
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
     </row>
     <row r="143" spans="1:29">
       <c r="A143" s="10"/>
@@ -34704,7 +34835,7 @@
       <c r="A186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
-      <c r="F186" s="18"/>
+      <c r="F186" s="10"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="10"/>
@@ -34716,6 +34847,7 @@
       <c r="A188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
+      <c r="F188" s="18"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="10"/>
@@ -34764,6 +34896,7 @@
       <c r="C199" s="10"/>
     </row>
     <row r="200" spans="1:3">
+      <c r="A200" s="10"/>
       <c r="C200" s="10"/>
     </row>
     <row r="201" spans="1:3">
@@ -34793,7 +34926,7 @@
   <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+      <selection activeCell="R143" sqref="R143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37579,13 +37712,52 @@
       </c>
     </row>
     <row r="139" spans="1:21">
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>5</v>
+      </c>
+      <c r="F139" s="18">
+        <v>0</v>
+      </c>
+      <c r="G139" s="18">
+        <v>3</v>
+      </c>
+      <c r="H139" s="18">
+        <v>1</v>
+      </c>
+      <c r="I139" s="18">
+        <v>1</v>
+      </c>
+      <c r="J139" s="18">
+        <v>1</v>
+      </c>
+      <c r="K139" s="18">
+        <v>0</v>
+      </c>
       <c r="L139" s="18"/>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0</v>
+      </c>
+      <c r="P139" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>9</v>
+      </c>
+      <c r="R139" s="1">
+        <v>13</v>
+      </c>
+      <c r="S139" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="147" spans="1:19">
       <c r="A147" s="37"/>
@@ -37681,10 +37853,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN138"/>
+  <dimension ref="A100:AN139"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="O141" sqref="O141"/>
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39802,6 +39974,41 @@
         <v>3</v>
       </c>
     </row>
+    <row r="139" spans="1:23">
+      <c r="A139" s="11">
+        <v>2</v>
+      </c>
+      <c r="C139" s="9">
+        <v>1</v>
+      </c>
+      <c r="G139" s="11">
+        <v>2</v>
+      </c>
+      <c r="H139" s="9">
+        <v>1</v>
+      </c>
+      <c r="L139" s="16">
+        <v>1</v>
+      </c>
+      <c r="M139" s="16">
+        <v>1</v>
+      </c>
+      <c r="N139" s="16">
+        <v>3</v>
+      </c>
+      <c r="O139" s="16">
+        <v>7</v>
+      </c>
+      <c r="P139" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q139" s="16">
+        <v>8</v>
+      </c>
+      <c r="S139" s="16">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39814,7 +40021,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39887,7 +40094,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="18">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
@@ -40022,7 +40229,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="18">
         <v>57</v>
@@ -40069,7 +40276,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -40090,7 +40297,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="18">
         <v>13</v>
@@ -40105,7 +40312,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" s="18">
         <v>0</v>
@@ -40159,6 +40366,9 @@
       <c r="G8" s="18">
         <v>1</v>
       </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
       <c r="I8" s="18">
         <v>21</v>
       </c>
@@ -40183,7 +40393,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -40201,13 +40411,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -40227,7 +40437,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -40241,27 +40451,27 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="K11" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N11" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -40276,7 +40486,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>关注大趋势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,7 +360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,6 +557,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y71" sqref="Y71"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5080,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="7">
         <v>0</v>
@@ -5559,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K47" s="7">
         <v>9</v>
@@ -5756,7 +5764,7 @@
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="7">
         <v>3</v>
@@ -5811,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE49" s="7">
         <v>1</v>
@@ -5963,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S51" s="7">
         <v>1</v>
@@ -6006,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="3" customFormat="1">
@@ -6062,12 +6070,14 @@
       <c r="T52" s="7">
         <v>7</v>
       </c>
-      <c r="U52" s="7"/>
+      <c r="U52" s="7">
+        <v>0</v>
+      </c>
       <c r="V52" s="7">
         <v>1</v>
       </c>
       <c r="W52" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
@@ -6097,7 +6107,9 @@
       <c r="AG52" s="7"/>
     </row>
     <row r="53" spans="1:33" s="3" customFormat="1">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7">
+        <v>0</v>
+      </c>
       <c r="B53" s="7">
         <v>1</v>
       </c>
@@ -6131,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O53" s="7">
         <v>5</v>
@@ -6172,7 +6184,7 @@
       </c>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF53" s="7">
         <v>1</v>
@@ -6185,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -6226,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7">
@@ -6237,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z54" s="7">
         <v>5</v>
@@ -6249,7 +6261,7 @@
         <v>3</v>
       </c>
       <c r="AC54" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
@@ -6278,7 +6290,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6323,7 +6335,7 @@
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG55" s="7"/>
     </row>
@@ -6365,7 +6377,7 @@
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -6381,7 +6393,7 @@
         <v>4</v>
       </c>
       <c r="AA56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56" s="7">
         <v>0</v>
@@ -6413,7 +6425,9 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
       <c r="M57" s="7">
         <v>15</v>
       </c>
@@ -6520,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -6565,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="7">
         <v>4</v>
@@ -6588,7 +6602,7 @@
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="7">
@@ -6621,7 +6635,7 @@
       </c>
       <c r="W61" s="7"/>
       <c r="X61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7">
@@ -6666,7 +6680,9 @@
       <c r="S62" s="4"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
+      <c r="V62" s="7">
+        <v>0</v>
+      </c>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
@@ -6675,7 +6691,7 @@
       </c>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -6716,7 +6732,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA63" s="26"/>
       <c r="AB63" s="7"/>
@@ -6766,7 +6782,9 @@
       <c r="D65" s="3">
         <v>0</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
       <c r="F65" s="7"/>
       <c r="H65" s="4"/>
       <c r="J65" s="3"/>
@@ -6779,7 +6797,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -6806,7 +6824,9 @@
       <c r="I66" s="4"/>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="Q66" s="4"/>
@@ -6827,7 +6847,7 @@
     </row>
     <row r="67" spans="1:33">
       <c r="D67" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="4"/>
@@ -6880,16 +6900,8 @@
       <c r="AF68" s="39"/>
       <c r="AG68" s="5"/>
     </row>
-    <row r="69" spans="1:33" s="45" customFormat="1">
-      <c r="M69" s="45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" s="43" customFormat="1">
-      <c r="E70" s="43" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="69" spans="1:33" s="45" customFormat="1"/>
+    <row r="70" spans="1:33" s="43" customFormat="1"/>
     <row r="71" spans="1:33" s="47" customFormat="1"/>
     <row r="72" spans="1:33">
       <c r="C72" s="5"/>
@@ -7563,8 +7575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S136" sqref="S136"/>
+    <sheetView topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -16573,7 +16585,7 @@
         <v>2</v>
       </c>
       <c r="V119" s="23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W119" s="23"/>
       <c r="X119" s="22">
@@ -16982,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="V124" s="23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W124" s="23"/>
       <c r="X124" s="22">
@@ -17277,7 +17289,7 @@
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R127" s="22">
         <v>2</v>
@@ -17478,14 +17490,14 @@
         <v>28</v>
       </c>
       <c r="P129" s="22"/>
-      <c r="Q129" s="23">
+      <c r="Q129" s="64">
         <v>10</v>
       </c>
       <c r="R129" s="22">
         <v>1</v>
       </c>
       <c r="S129" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T129" s="22">
         <v>6</v>
@@ -17509,7 +17521,9 @@
       <c r="AA129" s="22">
         <v>6</v>
       </c>
-      <c r="AB129" s="23"/>
+      <c r="AB129" s="19">
+        <v>10</v>
+      </c>
       <c r="AC129" s="23"/>
       <c r="AD129" s="23"/>
       <c r="AF129" s="23"/>
@@ -17580,7 +17594,7 @@
         <v>3</v>
       </c>
       <c r="R130" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S130" s="22">
         <v>7</v>
@@ -17592,7 +17606,7 @@
         <v>4</v>
       </c>
       <c r="V130" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W130" s="23"/>
       <c r="X130" s="22">
@@ -17777,7 +17791,7 @@
       </c>
       <c r="P132" s="22"/>
       <c r="Q132" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R132" s="22">
         <v>6</v>
@@ -17882,13 +17896,13 @@
       <c r="R133" s="22">
         <v>5</v>
       </c>
-      <c r="S133" s="23">
+      <c r="S133" s="64">
         <v>6</v>
       </c>
       <c r="T133" s="22">
         <v>0</v>
       </c>
-      <c r="U133" s="23">
+      <c r="U133" s="64">
         <v>6</v>
       </c>
       <c r="V133" s="22">
@@ -17907,8 +17921,12 @@
       <c r="AA133" s="19">
         <v>5</v>
       </c>
-      <c r="AB133" s="23"/>
-      <c r="AC133" s="23"/>
+      <c r="AB133" s="19">
+        <v>6</v>
+      </c>
+      <c r="AC133" s="19">
+        <v>6</v>
+      </c>
       <c r="AD133" s="41"/>
       <c r="AF133" s="41"/>
       <c r="AH133" s="21">
@@ -17968,7 +17986,7 @@
         <v>23</v>
       </c>
       <c r="P134" s="22"/>
-      <c r="Q134" s="23">
+      <c r="Q134" s="64">
         <v>5</v>
       </c>
       <c r="R134" s="22">
@@ -18002,7 +18020,9 @@
       <c r="AB134" s="22">
         <v>2</v>
       </c>
-      <c r="AC134" s="23"/>
+      <c r="AC134" s="19">
+        <v>5</v>
+      </c>
       <c r="AD134" s="41"/>
       <c r="AF134" s="41"/>
       <c r="AH134" s="21">
@@ -18069,7 +18089,7 @@
       </c>
       <c r="P135" s="22"/>
       <c r="Q135" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R135" s="22">
         <v>1</v>
@@ -18078,13 +18098,13 @@
         <v>1</v>
       </c>
       <c r="T135" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U135" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V135" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W135" s="23"/>
       <c r="X135" s="21">
@@ -18166,19 +18186,19 @@
         <v>0</v>
       </c>
       <c r="R136" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S136" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T136" s="22">
         <v>1</v>
       </c>
       <c r="U136" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V136" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W136" s="23"/>
       <c r="X136" s="21">
@@ -18260,13 +18280,13 @@
         <v>0</v>
       </c>
       <c r="R137" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S137" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T137" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U137" s="22">
         <v>0</v>
@@ -18352,22 +18372,22 @@
         <v>12</v>
       </c>
       <c r="Q138" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R138" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S138" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T138" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U138" s="19">
         <v>0</v>
       </c>
       <c r="V138" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W138" s="15"/>
       <c r="X138" s="16">
@@ -18440,26 +18460,30 @@
       </c>
       <c r="P139" s="22"/>
       <c r="Q139" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S139" s="20">
-        <v>0</v>
-      </c>
-      <c r="T139" s="20">
-        <v>0</v>
-      </c>
-      <c r="U139" s="20">
+        <v>1</v>
+      </c>
+      <c r="T139" s="63">
+        <v>0</v>
+      </c>
+      <c r="U139" s="63">
         <v>0</v>
       </c>
       <c r="V139" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W139" s="20"/>
-      <c r="X139" s="15"/>
-      <c r="Y139" s="15"/>
+      <c r="X139" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="16">
+        <v>0</v>
+      </c>
       <c r="Z139" s="15"/>
       <c r="AA139" s="20"/>
       <c r="AB139" s="20"/>
@@ -18495,13 +18519,61 @@
       </c>
     </row>
     <row r="140" spans="1:46" s="21" customFormat="1">
+      <c r="A140" s="21">
+        <v>5</v>
+      </c>
+      <c r="B140" s="21">
+        <v>10</v>
+      </c>
+      <c r="C140" s="21">
+        <v>6</v>
+      </c>
+      <c r="D140" s="21">
+        <v>0</v>
+      </c>
+      <c r="E140" s="21">
+        <v>0</v>
+      </c>
+      <c r="F140" s="21">
+        <v>6</v>
+      </c>
+      <c r="I140" s="21">
+        <v>0</v>
+      </c>
+      <c r="J140" s="21">
+        <v>0</v>
+      </c>
+      <c r="K140" s="21">
+        <v>5</v>
+      </c>
+      <c r="L140" s="21">
+        <v>6</v>
+      </c>
+      <c r="M140" s="21">
+        <v>6</v>
+      </c>
+      <c r="N140" s="21">
+        <v>10</v>
+      </c>
       <c r="P140" s="22"/>
-      <c r="Q140" s="20"/>
-      <c r="R140" s="20"/>
-      <c r="S140" s="20"/>
-      <c r="T140" s="20"/>
-      <c r="U140" s="20"/>
-      <c r="V140" s="20"/>
+      <c r="Q140" s="20">
+        <v>0</v>
+      </c>
+      <c r="R140" s="20">
+        <v>0</v>
+      </c>
+      <c r="S140" s="20">
+        <v>0</v>
+      </c>
+      <c r="T140" s="20">
+        <v>0</v>
+      </c>
+      <c r="U140" s="20">
+        <v>0</v>
+      </c>
+      <c r="V140" s="20">
+        <v>0</v>
+      </c>
       <c r="W140" s="20"/>
       <c r="X140" s="15"/>
       <c r="Y140" s="15"/>
@@ -18511,6 +18583,27 @@
       <c r="AC140" s="15"/>
       <c r="AD140" s="15"/>
       <c r="AF140" s="41"/>
+      <c r="AH140" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI140" s="21">
+        <v>5</v>
+      </c>
+      <c r="AJ140" s="21">
+        <v>6</v>
+      </c>
+      <c r="AK140" s="21">
+        <v>10</v>
+      </c>
+      <c r="AO140" s="21">
+        <v>4</v>
+      </c>
+      <c r="AP140" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ140" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:46" s="21" customFormat="1">
       <c r="P141" s="22"/>
@@ -31602,7 +31695,7 @@
   <dimension ref="A1:AO205"/>
   <sheetViews>
     <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N143" sqref="N143"/>
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -34491,13 +34584,22 @@
       </c>
     </row>
     <row r="140" spans="1:29">
-      <c r="A140" s="10"/>
+      <c r="A140" s="11">
+        <v>2</v>
+      </c>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="F140" s="9">
+        <v>1</v>
+      </c>
+      <c r="G140" s="11">
+        <v>2</v>
+      </c>
+      <c r="K140" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:29">
       <c r="A141" s="10"/>
@@ -34926,7 +35028,7 @@
   <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="R143" sqref="R143"/>
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37759,6 +37861,53 @@
         <v>15</v>
       </c>
     </row>
+    <row r="140" spans="1:21">
+      <c r="A140" s="1">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1</v>
+      </c>
+      <c r="J140" s="1">
+        <v>2</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>6</v>
+      </c>
+      <c r="R140" s="1">
+        <v>7</v>
+      </c>
+      <c r="S140" s="1">
+        <v>10</v>
+      </c>
+    </row>
     <row r="147" spans="1:19">
       <c r="A147" s="37"/>
       <c r="B147" s="37"/>
@@ -37853,10 +38002,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN139"/>
+  <dimension ref="A100:AN140"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40009,6 +40158,41 @@
         <v>8</v>
       </c>
     </row>
+    <row r="140" spans="1:23">
+      <c r="A140" s="11">
+        <v>2</v>
+      </c>
+      <c r="B140" s="11">
+        <v>2</v>
+      </c>
+      <c r="C140" s="9">
+        <v>1</v>
+      </c>
+      <c r="E140" s="9">
+        <v>1</v>
+      </c>
+      <c r="L140" s="16">
+        <v>1</v>
+      </c>
+      <c r="M140" s="16">
+        <v>1</v>
+      </c>
+      <c r="N140" s="16">
+        <v>2</v>
+      </c>
+      <c r="O140" s="16">
+        <v>2</v>
+      </c>
+      <c r="P140" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q140" s="16">
+        <v>5</v>
+      </c>
+      <c r="S140" s="16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40021,7 +40205,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40094,7 +40278,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="18">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
@@ -40229,7 +40413,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="18">
         <v>57</v>
@@ -40276,7 +40460,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -40312,7 +40496,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" s="18">
         <v>0</v>
@@ -40336,6 +40520,9 @@
       </c>
       <c r="I7" s="18">
         <v>10</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
       </c>
       <c r="K7" s="18">
         <v>3</v>
@@ -40367,7 +40554,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="18">
         <v>21</v>
@@ -40393,7 +40580,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -40411,13 +40598,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -40437,7 +40624,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -40451,27 +40638,27 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="K11" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N11" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -40486,7 +40673,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,12 +403,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -422,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,12 +551,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5088,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="7">
         <v>0</v>
@@ -5567,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K47" s="7">
         <v>9</v>
@@ -5764,7 +5752,7 @@
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="7">
         <v>3</v>
@@ -5913,7 +5901,9 @@
       <c r="AC50" s="7">
         <v>12</v>
       </c>
-      <c r="AD50" s="25"/>
+      <c r="AD50" s="7">
+        <v>0</v>
+      </c>
       <c r="AE50" s="7">
         <v>0</v>
       </c>
@@ -5971,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" s="7">
         <v>1</v>
@@ -6014,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="3" customFormat="1">
@@ -6071,13 +6061,13 @@
         <v>7</v>
       </c>
       <c r="U52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="7">
         <v>1</v>
       </c>
       <c r="W52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
@@ -6108,7 +6098,7 @@
     </row>
     <row r="53" spans="1:33" s="3" customFormat="1">
       <c r="A53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="7">
         <v>1</v>
@@ -6143,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O53" s="7">
         <v>5</v>
@@ -6212,7 +6202,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" s="7">
         <v>10</v>
@@ -6238,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7">
@@ -6261,10 +6251,12 @@
         <v>3</v>
       </c>
       <c r="AC54" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
+      <c r="AE54" s="7">
+        <v>0</v>
+      </c>
       <c r="AF54" s="7">
         <v>0</v>
       </c>
@@ -6275,7 +6267,9 @@
       <c r="B55" s="7">
         <v>0</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
       <c r="D55" s="7">
         <v>0</v>
       </c>
@@ -6290,7 +6284,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6321,7 +6315,9 @@
       <c r="X55" s="7">
         <v>17</v>
       </c>
-      <c r="Y55" s="7"/>
+      <c r="Y55" s="7">
+        <v>0</v>
+      </c>
       <c r="Z55" s="7">
         <v>0</v>
       </c>
@@ -6335,7 +6331,7 @@
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG55" s="7"/>
     </row>
@@ -6372,12 +6368,12 @@
         <v>2</v>
       </c>
       <c r="P56" s="7"/>
-      <c r="Q56" s="7">
+      <c r="Q56" s="26">
         <v>2</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -6393,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="AA56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB56" s="7">
         <v>0</v>
@@ -6426,7 +6422,7 @@
       <c r="I57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="7">
         <v>15</v>
@@ -6436,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="7">
+      <c r="Q57" s="26">
         <v>0</v>
       </c>
       <c r="R57" s="7"/>
@@ -6494,7 +6490,7 @@
         <v>5</v>
       </c>
       <c r="P58" s="7"/>
-      <c r="Q58" s="7">
+      <c r="Q58" s="26">
         <v>0</v>
       </c>
       <c r="R58" s="7"/>
@@ -6534,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -6546,7 +6542,7 @@
         <v>7</v>
       </c>
       <c r="P59" s="3"/>
-      <c r="Q59" s="7">
+      <c r="Q59" s="26">
         <v>2</v>
       </c>
       <c r="V59" s="7">
@@ -6579,7 +6575,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="7">
         <v>4</v>
@@ -6602,7 +6598,7 @@
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="7">
@@ -6635,7 +6631,7 @@
       </c>
       <c r="W61" s="7"/>
       <c r="X61" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7">
@@ -6681,7 +6677,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
@@ -6691,7 +6687,7 @@
       </c>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -6732,7 +6728,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA63" s="26"/>
       <c r="AB63" s="7"/>
@@ -6797,7 +6793,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -6818,14 +6814,16 @@
       <c r="D66" s="3">
         <v>0</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -6875,7 +6873,9 @@
       <c r="AG67" s="5"/>
     </row>
     <row r="68" spans="1:33">
-      <c r="D68" s="3"/>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="H68" s="4"/>
@@ -6900,91 +6900,91 @@
       <c r="AF68" s="39"/>
       <c r="AG68" s="5"/>
     </row>
-    <row r="69" spans="1:33" s="45" customFormat="1"/>
-    <row r="70" spans="1:33" s="43" customFormat="1"/>
-    <row r="71" spans="1:33" s="47" customFormat="1"/>
-    <row r="72" spans="1:33">
-      <c r="C72" s="5"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="7"/>
-      <c r="H72" s="4"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AB72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="5"/>
-    </row>
-    <row r="73" spans="1:33">
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="3"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AB73" s="12"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-    </row>
-    <row r="74" spans="1:33">
-      <c r="D74" s="3"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="3"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AB74" s="12"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="38"/>
-    </row>
+    <row r="69" spans="1:33">
+      <c r="D69" s="3"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="3"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AB69" s="12"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+    </row>
+    <row r="70" spans="1:33">
+      <c r="C70" s="5"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="7"/>
+      <c r="H70" s="4"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AB70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="5"/>
+    </row>
+    <row r="71" spans="1:33">
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="3"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AB71" s="12"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="38"/>
+    </row>
+    <row r="72" spans="1:33" s="45" customFormat="1"/>
+    <row r="73" spans="1:33" s="43" customFormat="1"/>
+    <row r="74" spans="1:33" s="47" customFormat="1"/>
     <row r="75" spans="1:33">
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
@@ -7575,8 +7575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT978"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T144" sqref="T144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -16585,7 +16585,7 @@
         <v>2</v>
       </c>
       <c r="V119" s="23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W119" s="23"/>
       <c r="X119" s="22">
@@ -16993,7 +16993,7 @@
       <c r="U124" s="22">
         <v>0</v>
       </c>
-      <c r="V124" s="23">
+      <c r="V124" s="22">
         <v>16</v>
       </c>
       <c r="W124" s="23"/>
@@ -17012,7 +17012,9 @@
       <c r="AB124" s="22">
         <v>10</v>
       </c>
-      <c r="AC124" s="23"/>
+      <c r="AC124" s="22">
+        <v>16</v>
+      </c>
       <c r="AD124" s="22"/>
       <c r="AF124" s="22"/>
       <c r="AH124" s="21">
@@ -17289,7 +17291,7 @@
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R127" s="22">
         <v>2</v>
@@ -17490,14 +17492,14 @@
         <v>28</v>
       </c>
       <c r="P129" s="22"/>
-      <c r="Q129" s="64">
+      <c r="Q129" s="22">
         <v>10</v>
       </c>
       <c r="R129" s="22">
         <v>1</v>
       </c>
       <c r="S129" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T129" s="22">
         <v>6</v>
@@ -17593,7 +17595,7 @@
       <c r="Q130" s="22">
         <v>3</v>
       </c>
-      <c r="R130" s="23">
+      <c r="R130" s="22">
         <v>10</v>
       </c>
       <c r="S130" s="22">
@@ -17606,7 +17608,7 @@
         <v>4</v>
       </c>
       <c r="V130" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W130" s="23"/>
       <c r="X130" s="22">
@@ -17621,7 +17623,9 @@
       <c r="AA130" s="22">
         <v>7</v>
       </c>
-      <c r="AB130" s="23"/>
+      <c r="AB130" s="22">
+        <v>10</v>
+      </c>
       <c r="AC130" s="23"/>
       <c r="AD130" s="23"/>
       <c r="AF130" s="23"/>
@@ -17791,7 +17795,7 @@
       </c>
       <c r="P132" s="22"/>
       <c r="Q132" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R132" s="22">
         <v>6</v>
@@ -17896,13 +17900,13 @@
       <c r="R133" s="22">
         <v>5</v>
       </c>
-      <c r="S133" s="64">
+      <c r="S133" s="22">
         <v>6</v>
       </c>
       <c r="T133" s="22">
         <v>0</v>
       </c>
-      <c r="U133" s="64">
+      <c r="U133" s="22">
         <v>6</v>
       </c>
       <c r="V133" s="22">
@@ -17986,7 +17990,7 @@
         <v>23</v>
       </c>
       <c r="P134" s="22"/>
-      <c r="Q134" s="64">
+      <c r="Q134" s="22">
         <v>5</v>
       </c>
       <c r="R134" s="22">
@@ -18089,7 +18093,7 @@
       </c>
       <c r="P135" s="22"/>
       <c r="Q135" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R135" s="22">
         <v>1</v>
@@ -18097,13 +18101,13 @@
       <c r="S135" s="22">
         <v>1</v>
       </c>
-      <c r="T135" s="23">
+      <c r="T135" s="22">
         <v>5</v>
       </c>
       <c r="U135" s="23">
-        <v>5</v>
-      </c>
-      <c r="V135" s="23">
+        <v>6</v>
+      </c>
+      <c r="V135" s="22">
         <v>5</v>
       </c>
       <c r="W135" s="23"/>
@@ -18113,8 +18117,12 @@
       <c r="Y135" s="21">
         <v>1</v>
       </c>
-      <c r="Z135" s="23"/>
-      <c r="AA135" s="23"/>
+      <c r="Z135" s="22">
+        <v>5</v>
+      </c>
+      <c r="AA135" s="22">
+        <v>5</v>
+      </c>
       <c r="AB135" s="23"/>
       <c r="AC135" s="23"/>
       <c r="AD135" s="41"/>
@@ -18186,19 +18194,19 @@
         <v>0</v>
       </c>
       <c r="R136" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S136" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T136" s="22">
         <v>1</v>
       </c>
       <c r="U136" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V136" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W136" s="23"/>
       <c r="X136" s="21">
@@ -18280,13 +18288,13 @@
         <v>0</v>
       </c>
       <c r="R137" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S137" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T137" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U137" s="22">
         <v>0</v>
@@ -18371,29 +18379,32 @@
       <c r="N138" s="1">
         <v>12</v>
       </c>
-      <c r="Q138" s="20">
+      <c r="P138" s="18"/>
+      <c r="Q138" s="19">
         <v>2</v>
       </c>
       <c r="R138" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S138" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T138" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U138" s="19">
         <v>0</v>
       </c>
       <c r="V138" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W138" s="15"/>
       <c r="X138" s="16">
         <v>0</v>
       </c>
-      <c r="Y138" s="15"/>
+      <c r="Y138" s="22">
+        <v>2</v>
+      </c>
       <c r="Z138" s="15"/>
       <c r="AA138" s="15"/>
       <c r="AB138" s="15"/>
@@ -18460,22 +18471,22 @@
       </c>
       <c r="P139" s="22"/>
       <c r="Q139" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R139" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S139" s="20">
-        <v>1</v>
-      </c>
-      <c r="T139" s="63">
-        <v>0</v>
-      </c>
-      <c r="U139" s="63">
+        <v>2</v>
+      </c>
+      <c r="T139" s="19">
+        <v>0</v>
+      </c>
+      <c r="U139" s="19">
         <v>0</v>
       </c>
       <c r="V139" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W139" s="20"/>
       <c r="X139" s="16">
@@ -18557,25 +18568,27 @@
       </c>
       <c r="P140" s="22"/>
       <c r="Q140" s="20">
-        <v>0</v>
-      </c>
-      <c r="R140" s="20">
+        <v>1</v>
+      </c>
+      <c r="R140" s="19">
         <v>0</v>
       </c>
       <c r="S140" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U140" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V140" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W140" s="20"/>
-      <c r="X140" s="15"/>
+      <c r="X140" s="22">
+        <v>0</v>
+      </c>
       <c r="Y140" s="15"/>
       <c r="Z140" s="15"/>
       <c r="AA140" s="15"/>
@@ -18606,13 +18619,61 @@
       </c>
     </row>
     <row r="141" spans="1:46" s="21" customFormat="1">
+      <c r="A141" s="21">
+        <v>10</v>
+      </c>
+      <c r="B141" s="21">
+        <v>2</v>
+      </c>
+      <c r="C141" s="21">
+        <v>0</v>
+      </c>
+      <c r="D141" s="21">
+        <v>5</v>
+      </c>
+      <c r="E141" s="21">
+        <v>16</v>
+      </c>
+      <c r="F141" s="21">
+        <v>5</v>
+      </c>
+      <c r="I141" s="21">
+        <v>0</v>
+      </c>
+      <c r="J141" s="21">
+        <v>2</v>
+      </c>
+      <c r="K141" s="21">
+        <v>5</v>
+      </c>
+      <c r="L141" s="21">
+        <v>5</v>
+      </c>
+      <c r="M141" s="21">
+        <v>10</v>
+      </c>
+      <c r="N141" s="21">
+        <v>16</v>
+      </c>
       <c r="P141" s="22"/>
-      <c r="Q141" s="20"/>
-      <c r="R141" s="20"/>
-      <c r="S141" s="20"/>
-      <c r="T141" s="20"/>
-      <c r="U141" s="20"/>
-      <c r="V141" s="20"/>
+      <c r="Q141" s="20">
+        <v>0</v>
+      </c>
+      <c r="R141" s="20">
+        <v>0</v>
+      </c>
+      <c r="S141" s="20">
+        <v>0</v>
+      </c>
+      <c r="T141" s="20">
+        <v>0</v>
+      </c>
+      <c r="U141" s="20">
+        <v>0</v>
+      </c>
+      <c r="V141" s="20">
+        <v>0</v>
+      </c>
       <c r="W141" s="20"/>
       <c r="X141" s="15"/>
       <c r="Y141" s="15"/>
@@ -31692,10 +31753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO205"/>
+  <dimension ref="A1:AO206"/>
   <sheetViews>
     <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L144" sqref="L144"/>
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -34602,13 +34663,27 @@
       </c>
     </row>
     <row r="141" spans="1:29">
-      <c r="A141" s="10"/>
+      <c r="A141" s="9">
+        <v>1</v>
+      </c>
       <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
+      <c r="C141" s="9">
+        <v>1</v>
+      </c>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
+      <c r="F141" s="11">
+        <v>2</v>
+      </c>
       <c r="G141" s="10"/>
+      <c r="K141" s="9">
+        <v>1</v>
+      </c>
+      <c r="N141" s="10"/>
+      <c r="Q141" s="9">
+        <v>1</v>
+      </c>
+      <c r="V141" s="10"/>
     </row>
     <row r="142" spans="1:29">
       <c r="A142" s="10"/>
@@ -34808,6 +34883,7 @@
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
     <row r="167" spans="1:6">
@@ -34875,6 +34951,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="F176" s="10"/>
@@ -34943,7 +35020,7 @@
       <c r="A187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
-      <c r="F187" s="18"/>
+      <c r="F187" s="10"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="10"/>
@@ -34955,6 +35032,7 @@
       <c r="A189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
+      <c r="F189" s="18"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="10"/>
@@ -35002,6 +35080,7 @@
       <c r="C200" s="10"/>
     </row>
     <row r="201" spans="1:3">
+      <c r="A201" s="10"/>
       <c r="C201" s="10"/>
     </row>
     <row r="202" spans="1:3">
@@ -35015,6 +35094,9 @@
     </row>
     <row r="205" spans="1:3">
       <c r="C205" s="10"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="C206" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35027,8 +35109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37908,6 +37990,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="141" spans="1:21">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>2</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>2</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>4</v>
+      </c>
+      <c r="R141" s="1">
+        <v>10</v>
+      </c>
+      <c r="S141" s="1">
+        <v>17</v>
+      </c>
+    </row>
     <row r="147" spans="1:19">
       <c r="A147" s="37"/>
       <c r="B147" s="37"/>
@@ -38002,10 +38131,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN140"/>
+  <dimension ref="A100:AN141"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40193,6 +40322,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="141" spans="1:23">
+      <c r="A141" s="9">
+        <v>1</v>
+      </c>
+      <c r="C141" s="9">
+        <v>1</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="11">
+        <v>2</v>
+      </c>
+      <c r="J141" s="9">
+        <v>1</v>
+      </c>
+      <c r="L141" s="16">
+        <v>0</v>
+      </c>
+      <c r="M141" s="16">
+        <v>1</v>
+      </c>
+      <c r="N141" s="16">
+        <v>3</v>
+      </c>
+      <c r="O141" s="16">
+        <v>4</v>
+      </c>
+      <c r="P141" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q141" s="16">
+        <v>5</v>
+      </c>
+      <c r="S141" s="16">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40205,7 +40372,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40327,6 +40494,9 @@
       <c r="C3" s="19">
         <v>9</v>
       </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
       <c r="E3" s="18">
         <v>4</v>
       </c>
@@ -40413,7 +40583,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="18">
         <v>57</v>
@@ -40460,7 +40630,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -40496,7 +40666,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="18">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="18">
         <v>0</v>
@@ -40522,7 +40692,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="18">
         <v>3</v>
@@ -40554,7 +40724,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="18">
         <v>21</v>
@@ -40580,7 +40750,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -40598,13 +40768,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -40624,7 +40794,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -40638,27 +40808,27 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="K11" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N11" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -40673,7 +40843,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE65" sqref="AE65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="7">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" s="7">
         <v>9</v>
@@ -5848,7 +5848,9 @@
         <v>0</v>
       </c>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
       <c r="L50" s="7">
         <v>22</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>12</v>
       </c>
       <c r="AD50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="7">
         <v>0</v>
@@ -5961,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S51" s="7">
         <v>1</v>
@@ -6004,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="3" customFormat="1">
@@ -6061,13 +6063,13 @@
         <v>7</v>
       </c>
       <c r="U52" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" s="7">
         <v>1</v>
       </c>
       <c r="W52" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
@@ -6098,7 +6100,7 @@
     </row>
     <row r="53" spans="1:33" s="3" customFormat="1">
       <c r="A53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="7">
         <v>1</v>
@@ -6202,7 +6204,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" s="7">
         <v>10</v>
@@ -6215,7 +6217,9 @@
       <c r="M54" s="7">
         <v>0</v>
       </c>
-      <c r="N54" s="25"/>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
       <c r="O54" s="7">
         <v>5</v>
       </c>
@@ -6255,7 +6259,7 @@
       </c>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54" s="7">
         <v>0</v>
@@ -6268,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6284,7 +6288,7 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6306,7 +6310,9 @@
       <c r="S55" s="7">
         <v>2</v>
       </c>
-      <c r="T55" s="7"/>
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
       <c r="U55" s="7"/>
       <c r="V55" s="7">
         <v>3</v>
@@ -6316,7 +6322,7 @@
         <v>17</v>
       </c>
       <c r="Y55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55" s="7">
         <v>0</v>
@@ -6327,11 +6333,13 @@
       <c r="AB55" s="7">
         <v>3</v>
       </c>
-      <c r="AC55" s="7"/>
+      <c r="AC55" s="7">
+        <v>0</v>
+      </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
       <c r="AF55" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG55" s="7"/>
     </row>
@@ -6373,7 +6381,7 @@
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
@@ -6389,7 +6397,7 @@
         <v>4</v>
       </c>
       <c r="AA56" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB56" s="7">
         <v>0</v>
@@ -6481,7 +6489,9 @@
       <c r="I58" s="7"/>
       <c r="J58" s="26"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
       <c r="M58" s="7">
         <v>8</v>
       </c>
@@ -6530,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59" s="7">
         <v>4</v>
@@ -6575,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="7">
         <v>4</v>
@@ -6598,7 +6608,7 @@
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="7">
@@ -6631,7 +6641,7 @@
       </c>
       <c r="W61" s="7"/>
       <c r="X61" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7">
@@ -6687,7 +6697,7 @@
       </c>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -6723,12 +6733,14 @@
       <c r="S63" s="4"/>
       <c r="T63" s="3"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
+      <c r="V63" s="4">
+        <v>0</v>
+      </c>
       <c r="W63" s="7"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA63" s="26"/>
       <c r="AB63" s="7"/>
@@ -6793,7 +6805,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -6815,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4"/>
       <c r="H66" s="4"/>
@@ -6823,7 +6835,7 @@
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -6874,7 +6886,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="D68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -7575,8 +7587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T144" sqref="T144"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA148" sqref="AA148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -16585,7 +16597,7 @@
         <v>2</v>
       </c>
       <c r="V119" s="23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W119" s="23"/>
       <c r="X119" s="22">
@@ -17291,7 +17303,7 @@
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R127" s="22">
         <v>2</v>
@@ -17499,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="S129" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T129" s="22">
         <v>6</v>
@@ -17608,7 +17620,7 @@
         <v>4</v>
       </c>
       <c r="V130" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W130" s="23"/>
       <c r="X130" s="22">
@@ -17794,7 +17806,7 @@
         <v>15</v>
       </c>
       <c r="P132" s="22"/>
-      <c r="Q132" s="23">
+      <c r="Q132" s="22">
         <v>9</v>
       </c>
       <c r="R132" s="22">
@@ -17828,7 +17840,9 @@
       <c r="AB132" s="19">
         <v>6</v>
       </c>
-      <c r="AC132" s="23"/>
+      <c r="AC132" s="19">
+        <v>9</v>
+      </c>
       <c r="AD132" s="23"/>
       <c r="AF132" s="23"/>
       <c r="AH132" s="21">
@@ -17913,13 +17927,13 @@
         <v>0</v>
       </c>
       <c r="W133" s="23"/>
-      <c r="X133" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y133" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z133" s="21">
+      <c r="X133" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="22">
         <v>2</v>
       </c>
       <c r="AA133" s="19">
@@ -17931,7 +17945,7 @@
       <c r="AC133" s="19">
         <v>6</v>
       </c>
-      <c r="AD133" s="41"/>
+      <c r="AD133" s="23"/>
       <c r="AF133" s="41"/>
       <c r="AH133" s="21">
         <v>0</v>
@@ -18009,13 +18023,13 @@
         <v>0</v>
       </c>
       <c r="W134" s="23"/>
-      <c r="X134" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z134" s="21">
+      <c r="X134" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="22">
         <v>1</v>
       </c>
       <c r="AA134" s="22">
@@ -18027,7 +18041,7 @@
       <c r="AC134" s="19">
         <v>5</v>
       </c>
-      <c r="AD134" s="41"/>
+      <c r="AD134" s="23"/>
       <c r="AF134" s="41"/>
       <c r="AH134" s="21">
         <v>0</v>
@@ -18093,39 +18107,41 @@
       </c>
       <c r="P135" s="22"/>
       <c r="Q135" s="23">
+        <v>7</v>
+      </c>
+      <c r="R135" s="22">
+        <v>1</v>
+      </c>
+      <c r="S135" s="22">
+        <v>1</v>
+      </c>
+      <c r="T135" s="22">
+        <v>5</v>
+      </c>
+      <c r="U135" s="22">
         <v>6</v>
       </c>
-      <c r="R135" s="22">
-        <v>1</v>
-      </c>
-      <c r="S135" s="22">
-        <v>1</v>
-      </c>
-      <c r="T135" s="22">
-        <v>5</v>
-      </c>
-      <c r="U135" s="23">
+      <c r="V135" s="22">
+        <v>5</v>
+      </c>
+      <c r="W135" s="23"/>
+      <c r="X135" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y135" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z135" s="22">
+        <v>5</v>
+      </c>
+      <c r="AA135" s="22">
+        <v>5</v>
+      </c>
+      <c r="AB135" s="19">
         <v>6</v>
       </c>
-      <c r="V135" s="22">
-        <v>5</v>
-      </c>
-      <c r="W135" s="23"/>
-      <c r="X135" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y135" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z135" s="22">
-        <v>5</v>
-      </c>
-      <c r="AA135" s="22">
-        <v>5</v>
-      </c>
-      <c r="AB135" s="23"/>
       <c r="AC135" s="23"/>
-      <c r="AD135" s="41"/>
+      <c r="AD135" s="23"/>
       <c r="AF135" s="41"/>
       <c r="AH135" s="21">
         <v>0</v>
@@ -18194,32 +18210,34 @@
         <v>0</v>
       </c>
       <c r="R136" s="23">
-        <v>5</v>
-      </c>
-      <c r="S136" s="23">
+        <v>6</v>
+      </c>
+      <c r="S136" s="22">
         <v>5</v>
       </c>
       <c r="T136" s="22">
         <v>1</v>
       </c>
       <c r="U136" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V136" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W136" s="23"/>
-      <c r="X136" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z136" s="41"/>
+      <c r="X136" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="19">
+        <v>5</v>
+      </c>
       <c r="AA136" s="23"/>
       <c r="AB136" s="23"/>
       <c r="AC136" s="23"/>
-      <c r="AD136" s="41"/>
+      <c r="AD136" s="23"/>
       <c r="AF136" s="41"/>
       <c r="AH136" s="21">
         <v>1</v>
@@ -18288,13 +18306,13 @@
         <v>0</v>
       </c>
       <c r="R137" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S137" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T137" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U137" s="22">
         <v>0</v>
@@ -18303,19 +18321,19 @@
         <v>0</v>
       </c>
       <c r="W137" s="23"/>
-      <c r="X137" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y137" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z137" s="21">
+      <c r="X137" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="22">
         <v>0</v>
       </c>
       <c r="AA137" s="23"/>
       <c r="AB137" s="23"/>
       <c r="AC137" s="23"/>
-      <c r="AD137" s="41"/>
+      <c r="AD137" s="23"/>
       <c r="AF137" s="41"/>
       <c r="AH137" s="21">
         <v>0</v>
@@ -18384,32 +18402,32 @@
         <v>2</v>
       </c>
       <c r="R138" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S138" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T138" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U138" s="19">
         <v>0</v>
       </c>
       <c r="V138" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W138" s="15"/>
-      <c r="X138" s="16">
+      <c r="X138" s="19">
         <v>0</v>
       </c>
       <c r="Y138" s="22">
         <v>2</v>
       </c>
-      <c r="Z138" s="15"/>
-      <c r="AA138" s="15"/>
-      <c r="AB138" s="15"/>
-      <c r="AC138" s="15"/>
-      <c r="AD138" s="15"/>
+      <c r="Z138" s="20"/>
+      <c r="AA138" s="20"/>
+      <c r="AB138" s="20"/>
+      <c r="AC138" s="20"/>
+      <c r="AD138" s="20"/>
       <c r="AH138" s="1">
         <v>0</v>
       </c>
@@ -18471,12 +18489,12 @@
       </c>
       <c r="P139" s="22"/>
       <c r="Q139" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R139" s="20">
-        <v>2</v>
-      </c>
-      <c r="S139" s="20">
+        <v>3</v>
+      </c>
+      <c r="S139" s="19">
         <v>2</v>
       </c>
       <c r="T139" s="19">
@@ -18486,20 +18504,22 @@
         <v>0</v>
       </c>
       <c r="V139" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W139" s="20"/>
-      <c r="X139" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y139" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z139" s="15"/>
+      <c r="X139" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="19">
+        <v>2</v>
+      </c>
       <c r="AA139" s="20"/>
       <c r="AB139" s="20"/>
       <c r="AC139" s="20"/>
-      <c r="AD139" s="15"/>
+      <c r="AD139" s="20"/>
       <c r="AF139" s="41"/>
       <c r="AH139" s="21">
         <v>0</v>
@@ -18568,33 +18588,37 @@
       </c>
       <c r="P140" s="22"/>
       <c r="Q140" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R140" s="19">
         <v>0</v>
       </c>
-      <c r="S140" s="20">
+      <c r="S140" s="19">
         <v>1</v>
       </c>
       <c r="T140" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U140" s="20">
-        <v>1</v>
-      </c>
-      <c r="V140" s="20">
+        <v>2</v>
+      </c>
+      <c r="V140" s="19">
         <v>1</v>
       </c>
       <c r="W140" s="20"/>
       <c r="X140" s="22">
         <v>0</v>
       </c>
-      <c r="Y140" s="15"/>
-      <c r="Z140" s="15"/>
-      <c r="AA140" s="15"/>
-      <c r="AB140" s="15"/>
-      <c r="AC140" s="15"/>
-      <c r="AD140" s="15"/>
+      <c r="Y140" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z140" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA140" s="20"/>
+      <c r="AB140" s="20"/>
+      <c r="AC140" s="20"/>
+      <c r="AD140" s="20"/>
       <c r="AF140" s="41"/>
       <c r="AH140" s="21">
         <v>0</v>
@@ -18657,49 +18681,121 @@
       </c>
       <c r="P141" s="22"/>
       <c r="Q141" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V141" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W141" s="20"/>
-      <c r="X141" s="15"/>
-      <c r="Y141" s="15"/>
-      <c r="Z141" s="15"/>
-      <c r="AA141" s="15"/>
-      <c r="AB141" s="15"/>
-      <c r="AC141" s="15"/>
-      <c r="AD141" s="15"/>
+      <c r="X141" s="20"/>
+      <c r="Y141" s="20"/>
+      <c r="Z141" s="20"/>
+      <c r="AA141" s="20"/>
+      <c r="AB141" s="20"/>
+      <c r="AC141" s="20"/>
+      <c r="AD141" s="20"/>
       <c r="AF141" s="41"/>
+      <c r="AH141" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI141" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ141" s="21">
+        <v>5</v>
+      </c>
+      <c r="AK141" s="21">
+        <v>10</v>
+      </c>
+      <c r="AL141" s="21">
+        <v>16</v>
+      </c>
+      <c r="AO141" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP141" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ141" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="142" spans="1:46" s="21" customFormat="1">
+      <c r="A142" s="21">
+        <v>2</v>
+      </c>
+      <c r="B142" s="21">
+        <v>1</v>
+      </c>
+      <c r="C142" s="21">
+        <v>5</v>
+      </c>
+      <c r="D142" s="21">
+        <v>9</v>
+      </c>
+      <c r="E142" s="21">
+        <v>1</v>
+      </c>
+      <c r="F142" s="21">
+        <v>6</v>
+      </c>
+      <c r="I142" s="21">
+        <v>1</v>
+      </c>
+      <c r="J142" s="21">
+        <v>1</v>
+      </c>
+      <c r="K142" s="21">
+        <v>2</v>
+      </c>
+      <c r="L142" s="21">
+        <v>5</v>
+      </c>
+      <c r="M142" s="21">
+        <v>6</v>
+      </c>
+      <c r="N142" s="21">
+        <v>9</v>
+      </c>
       <c r="P142" s="22"/>
-      <c r="Q142" s="20"/>
-      <c r="R142" s="20"/>
-      <c r="S142" s="20"/>
-      <c r="T142" s="20"/>
-      <c r="U142" s="20"/>
-      <c r="V142" s="20"/>
+      <c r="Q142" s="20">
+        <v>0</v>
+      </c>
+      <c r="R142" s="20">
+        <v>0</v>
+      </c>
+      <c r="S142" s="20">
+        <v>0</v>
+      </c>
+      <c r="T142" s="20">
+        <v>0</v>
+      </c>
+      <c r="U142" s="20">
+        <v>0</v>
+      </c>
+      <c r="V142" s="20">
+        <v>0</v>
+      </c>
       <c r="W142" s="20"/>
-      <c r="X142" s="15"/>
-      <c r="Y142" s="15"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="20"/>
       <c r="Z142" s="20"/>
       <c r="AA142" s="20"/>
       <c r="AB142" s="20"/>
       <c r="AC142" s="20"/>
-      <c r="AD142" s="15"/>
+      <c r="AD142" s="20"/>
       <c r="AF142" s="41"/>
     </row>
     <row r="143" spans="1:46" s="21" customFormat="1">
@@ -18711,13 +18807,13 @@
       <c r="U143" s="20"/>
       <c r="V143" s="20"/>
       <c r="W143" s="15"/>
-      <c r="X143" s="15"/>
-      <c r="Y143" s="15"/>
-      <c r="Z143" s="15"/>
-      <c r="AA143" s="15"/>
-      <c r="AB143" s="15"/>
-      <c r="AC143" s="15"/>
-      <c r="AD143" s="15"/>
+      <c r="X143" s="20"/>
+      <c r="Y143" s="20"/>
+      <c r="Z143" s="20"/>
+      <c r="AA143" s="20"/>
+      <c r="AB143" s="20"/>
+      <c r="AC143" s="20"/>
+      <c r="AD143" s="20"/>
       <c r="AF143" s="41"/>
     </row>
     <row r="144" spans="1:46" s="21" customFormat="1">
@@ -31753,10 +31849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO206"/>
+  <dimension ref="A1:AO207"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -34687,12 +34783,24 @@
     </row>
     <row r="142" spans="1:29">
       <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
+      <c r="B142" s="11">
+        <v>2</v>
+      </c>
+      <c r="C142" s="9">
+        <v>1</v>
+      </c>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="F142" s="9">
+        <v>1</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="J142" s="9">
+        <v>1</v>
+      </c>
+      <c r="M142" s="10"/>
     </row>
     <row r="143" spans="1:29">
       <c r="A143" s="10"/>
@@ -34701,6 +34809,7 @@
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
     </row>
     <row r="144" spans="1:29">
       <c r="A144" s="10"/>
@@ -34709,6 +34818,7 @@
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="10"/>
@@ -34891,6 +35001,7 @@
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6">
@@ -34958,6 +35069,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="F177" s="10"/>
@@ -35026,7 +35138,7 @@
       <c r="A188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
-      <c r="F188" s="18"/>
+      <c r="F188" s="10"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="10"/>
@@ -35038,10 +35150,12 @@
       <c r="A190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
+      <c r="F190" s="18"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="10"/>
       <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="10"/>
@@ -35084,6 +35198,7 @@
       <c r="C201" s="10"/>
     </row>
     <row r="202" spans="1:3">
+      <c r="A202" s="10"/>
       <c r="C202" s="10"/>
     </row>
     <row r="203" spans="1:3">
@@ -35097,6 +35212,9 @@
     </row>
     <row r="206" spans="1:3">
       <c r="C206" s="10"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="C207" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35110,7 +35228,7 @@
   <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+      <selection activeCell="L146" sqref="L146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -38037,6 +38155,53 @@
         <v>17</v>
       </c>
     </row>
+    <row r="142" spans="1:21">
+      <c r="A142" s="1">
+        <v>0</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>3</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>1</v>
+      </c>
+      <c r="K142" s="1">
+        <v>1</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>4</v>
+      </c>
+      <c r="P142" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>6</v>
+      </c>
+      <c r="R142" s="1">
+        <v>6</v>
+      </c>
+      <c r="S142" s="1">
+        <v>15</v>
+      </c>
+    </row>
     <row r="147" spans="1:19">
       <c r="A147" s="37"/>
       <c r="B147" s="37"/>
@@ -38131,10 +38296,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN141"/>
+  <dimension ref="A100:AN142"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+      <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40360,6 +40525,44 @@
         <v>4</v>
       </c>
     </row>
+    <row r="142" spans="1:23">
+      <c r="A142" s="9">
+        <v>1</v>
+      </c>
+      <c r="B142" s="11">
+        <v>2</v>
+      </c>
+      <c r="D142" s="9">
+        <v>1</v>
+      </c>
+      <c r="I142" s="9">
+        <v>1</v>
+      </c>
+      <c r="J142" s="9">
+        <v>1</v>
+      </c>
+      <c r="L142" s="16">
+        <v>0</v>
+      </c>
+      <c r="M142" s="16">
+        <v>1</v>
+      </c>
+      <c r="N142" s="16">
+        <v>2</v>
+      </c>
+      <c r="O142" s="16">
+        <v>2</v>
+      </c>
+      <c r="P142" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q142" s="16">
+        <v>9</v>
+      </c>
+      <c r="S142" s="16">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40372,7 +40575,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40495,7 +40698,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -40583,7 +40786,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="18">
         <v>57</v>
@@ -40630,7 +40833,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -40666,7 +40869,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="18">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="18">
         <v>0</v>
@@ -40692,7 +40895,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="18">
         <v>3</v>
@@ -40724,7 +40927,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="18">
         <v>21</v>
@@ -40750,7 +40953,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -40768,13 +40971,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -40794,7 +40997,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -40808,13 +41011,13 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
       </c>
       <c r="K11" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11" s="18">
         <v>12</v>
@@ -40822,13 +41025,16 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -40843,7 +41049,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,14 +100,6 @@
   </si>
   <si>
     <t>关注大趋势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -869,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE65" sqref="AE65"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5084,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="7">
         <v>0</v>
@@ -5184,7 +5176,9 @@
       <c r="O43" s="7">
         <v>2</v>
       </c>
-      <c r="P43" s="25"/>
+      <c r="P43" s="7">
+        <v>1</v>
+      </c>
       <c r="Q43" s="7">
         <v>1</v>
       </c>
@@ -5563,7 +5557,7 @@
         <v>12</v>
       </c>
       <c r="J47" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K47" s="7">
         <v>9</v>
@@ -5661,7 +5655,9 @@
       <c r="I48" s="7">
         <v>1</v>
       </c>
-      <c r="J48" s="7"/>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
       <c r="K48" s="7">
         <v>15</v>
       </c>
@@ -5857,7 +5853,7 @@
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L50" s="7">
         <v>22</v>
@@ -5912,7 +5908,7 @@
         <v>12</v>
       </c>
       <c r="AD50" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE50" s="7">
         <v>0</v>
@@ -6006,7 +6002,9 @@
       <c r="AC51" s="7">
         <v>0</v>
       </c>
-      <c r="AD51" s="25"/>
+      <c r="AD51" s="7">
+        <v>0</v>
+      </c>
       <c r="AE51" s="7">
         <v>0</v>
       </c>
@@ -6014,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="3" customFormat="1">
@@ -6064,7 +6062,7 @@
         <v>17</v>
       </c>
       <c r="R52" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S52" s="7">
         <v>2</v>
@@ -6079,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X52" s="7">
         <v>0</v>
@@ -6106,11 +6104,13 @@
       <c r="AF52" s="26">
         <v>5</v>
       </c>
-      <c r="AG52" s="7"/>
+      <c r="AG52" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:33" s="3" customFormat="1">
       <c r="A53" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B53" s="7">
         <v>1</v>
@@ -6162,12 +6162,14 @@
         <v>4</v>
       </c>
       <c r="U53" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V53" s="7">
         <v>0</v>
       </c>
-      <c r="W53" s="25"/>
+      <c r="W53" s="7">
+        <v>1</v>
+      </c>
       <c r="X53" s="7">
         <v>1</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I54" s="7">
         <v>10</v>
@@ -6230,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O54" s="7">
         <v>5</v>
@@ -6284,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6298,9 +6300,11 @@
       <c r="G55" s="7">
         <v>0</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
       <c r="I55" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6323,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="T55" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U55" s="7"/>
       <c r="V55" s="7">
@@ -6334,7 +6338,7 @@
         <v>17</v>
       </c>
       <c r="Y55" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z55" s="7">
         <v>0</v>
@@ -6346,10 +6350,12 @@
         <v>3</v>
       </c>
       <c r="AC55" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
+      <c r="AE55" s="7">
+        <v>2</v>
+      </c>
       <c r="AF55" s="7">
         <v>23</v>
       </c>
@@ -6395,7 +6401,9 @@
       <c r="S56" s="7">
         <v>6</v>
       </c>
-      <c r="T56" s="7"/>
+      <c r="T56" s="7">
+        <v>0</v>
+      </c>
       <c r="U56" s="7"/>
       <c r="V56" s="7">
         <v>5</v>
@@ -6404,7 +6412,9 @@
       <c r="X56" s="7">
         <v>3</v>
       </c>
-      <c r="Y56" s="7"/>
+      <c r="Y56" s="7">
+        <v>0</v>
+      </c>
       <c r="Z56" s="7">
         <v>4</v>
       </c>
@@ -6418,7 +6428,7 @@
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG56" s="7"/>
     </row>
@@ -6437,7 +6447,7 @@
       <c r="F57" s="7">
         <v>1</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="26">
         <v>4</v>
       </c>
       <c r="H57" s="7"/>
@@ -6458,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
+      <c r="S57" s="7">
+        <v>2</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7">
@@ -6481,7 +6493,9 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
+      <c r="AF57" s="7">
+        <v>0</v>
+      </c>
       <c r="AG57" s="7"/>
     </row>
     <row r="58" spans="1:33" s="3" customFormat="1">
@@ -6498,7 +6512,7 @@
       <c r="F58" s="7">
         <v>4</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="26">
         <v>5</v>
       </c>
       <c r="H58" s="7"/>
@@ -6534,7 +6548,9 @@
       <c r="Z58" s="7">
         <v>16</v>
       </c>
-      <c r="AA58" s="7"/>
+      <c r="AA58" s="7">
+        <v>2</v>
+      </c>
       <c r="AB58" s="7">
         <v>2</v>
       </c>
@@ -6556,9 +6572,9 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <v>7</v>
-      </c>
-      <c r="G59" s="7">
+        <v>8</v>
+      </c>
+      <c r="G59" s="26">
         <v>4</v>
       </c>
       <c r="L59" s="7">
@@ -6600,11 +6616,20 @@
       <c r="E60" s="7">
         <v>16</v>
       </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7">
+        <v>2</v>
+      </c>
+      <c r="L60" s="7">
+        <v>2</v>
+      </c>
       <c r="M60" s="7">
         <v>2</v>
       </c>
       <c r="O60" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q60" s="7">
         <v>4</v>
@@ -6627,7 +6652,7 @@
     <row r="61" spans="1:33" s="14" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="7">
@@ -6660,7 +6685,7 @@
       </c>
       <c r="W61" s="7"/>
       <c r="X61" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7">
@@ -6709,14 +6734,16 @@
         <v>1</v>
       </c>
       <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
+      <c r="X62" s="7">
+        <v>1</v>
+      </c>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7">
         <v>4</v>
       </c>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -6759,7 +6786,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA63" s="26"/>
       <c r="AB63" s="7"/>
@@ -6794,7 +6821,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="40"/>
       <c r="V64" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -6826,7 +6853,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
@@ -6856,7 +6883,7 @@
       <c r="J66" s="3"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -6880,13 +6907,17 @@
       <c r="D67" s="3">
         <v>2</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="14">
+        <v>2</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="K67" s="3"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="4">
+        <v>1</v>
+      </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -6907,7 +6938,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="D68" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -7015,35 +7046,7 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="38"/>
     </row>
-    <row r="72" spans="1:33" s="45" customFormat="1">
-      <c r="H72" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="O72" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="R72" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="X72" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z72" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB72" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC72" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF72" s="45" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="72" spans="1:33" s="45" customFormat="1"/>
     <row r="73" spans="1:33" s="43" customFormat="1"/>
     <row r="74" spans="1:33" s="47" customFormat="1"/>
     <row r="75" spans="1:33">
@@ -7636,8 +7639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT976"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M151" sqref="M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -17354,7 +17357,7 @@
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R127" s="22">
         <v>2</v>
@@ -17561,8 +17564,8 @@
       <c r="R129" s="22">
         <v>1</v>
       </c>
-      <c r="S129" s="23">
-        <v>14</v>
+      <c r="S129" s="19">
+        <v>15</v>
       </c>
       <c r="T129" s="22">
         <v>6</v>
@@ -17589,7 +17592,9 @@
       <c r="AB129" s="19">
         <v>10</v>
       </c>
-      <c r="AC129" s="23"/>
+      <c r="AC129" s="19">
+        <v>15</v>
+      </c>
       <c r="AD129" s="23"/>
       <c r="AF129" s="23"/>
       <c r="AH129" s="21">
@@ -17670,8 +17675,8 @@
       <c r="U130" s="22">
         <v>4</v>
       </c>
-      <c r="V130" s="23">
-        <v>13</v>
+      <c r="V130" s="22">
+        <v>15</v>
       </c>
       <c r="W130" s="23"/>
       <c r="X130" s="22">
@@ -17689,7 +17694,9 @@
       <c r="AB130" s="22">
         <v>10</v>
       </c>
-      <c r="AC130" s="23"/>
+      <c r="AC130" s="19">
+        <v>15</v>
+      </c>
       <c r="AD130" s="23"/>
       <c r="AF130" s="23"/>
       <c r="AH130" s="21">
@@ -18158,7 +18165,7 @@
       </c>
       <c r="P135" s="22"/>
       <c r="Q135" s="23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R135" s="22">
         <v>1</v>
@@ -18260,8 +18267,8 @@
       <c r="Q136" s="22">
         <v>0</v>
       </c>
-      <c r="R136" s="23">
-        <v>7</v>
+      <c r="R136" s="19">
+        <v>8</v>
       </c>
       <c r="S136" s="22">
         <v>5</v>
@@ -18273,7 +18280,7 @@
         <v>6</v>
       </c>
       <c r="V136" s="23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W136" s="23"/>
       <c r="X136" s="22">
@@ -18288,7 +18295,9 @@
       <c r="AA136" s="19">
         <v>6</v>
       </c>
-      <c r="AB136" s="23"/>
+      <c r="AB136" s="19">
+        <v>8</v>
+      </c>
       <c r="AC136" s="23"/>
       <c r="AD136" s="23"/>
       <c r="AF136" s="41"/>
@@ -18359,13 +18368,13 @@
         <v>0</v>
       </c>
       <c r="R137" s="23">
+        <v>9</v>
+      </c>
+      <c r="S137" s="19">
         <v>6</v>
       </c>
-      <c r="S137" s="23">
-        <v>6</v>
-      </c>
-      <c r="T137" s="23">
-        <v>6</v>
+      <c r="T137" s="19">
+        <v>7</v>
       </c>
       <c r="U137" s="22">
         <v>0</v>
@@ -18383,8 +18392,12 @@
       <c r="Z137" s="22">
         <v>0</v>
       </c>
-      <c r="AA137" s="23"/>
-      <c r="AB137" s="23"/>
+      <c r="AA137" s="19">
+        <v>6</v>
+      </c>
+      <c r="AB137" s="19">
+        <v>7</v>
+      </c>
       <c r="AC137" s="23"/>
       <c r="AD137" s="23"/>
       <c r="AF137" s="41"/>
@@ -18455,29 +18468,33 @@
         <v>2</v>
       </c>
       <c r="R138" s="20">
-        <v>5</v>
-      </c>
-      <c r="S138" s="20">
-        <v>5</v>
-      </c>
-      <c r="T138" s="20">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="S138" s="19">
+        <v>6</v>
+      </c>
+      <c r="T138" s="19">
+        <v>6</v>
       </c>
       <c r="U138" s="19">
         <v>0</v>
       </c>
       <c r="V138" s="20">
-        <v>5</v>
-      </c>
-      <c r="W138" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="W138" s="20"/>
       <c r="X138" s="19">
         <v>0</v>
       </c>
       <c r="Y138" s="22">
         <v>2</v>
       </c>
-      <c r="Z138" s="20"/>
-      <c r="AA138" s="20"/>
+      <c r="Z138" s="19">
+        <v>6</v>
+      </c>
+      <c r="AA138" s="19">
+        <v>6</v>
+      </c>
       <c r="AB138" s="20"/>
       <c r="AC138" s="20"/>
       <c r="AD138" s="20"/>
@@ -18541,11 +18558,11 @@
         <v>15</v>
       </c>
       <c r="P139" s="22"/>
-      <c r="Q139" s="20">
-        <v>4</v>
-      </c>
-      <c r="R139" s="20">
-        <v>4</v>
+      <c r="Q139" s="19">
+        <v>4</v>
+      </c>
+      <c r="R139" s="19">
+        <v>6</v>
       </c>
       <c r="S139" s="19">
         <v>2</v>
@@ -18572,8 +18589,12 @@
       <c r="AA139" s="19">
         <v>3</v>
       </c>
-      <c r="AB139" s="20"/>
-      <c r="AC139" s="20"/>
+      <c r="AB139" s="19">
+        <v>4</v>
+      </c>
+      <c r="AC139" s="19">
+        <v>6</v>
+      </c>
       <c r="AD139" s="20"/>
       <c r="AF139" s="41"/>
       <c r="AH139" s="21">
@@ -18643,7 +18664,7 @@
       </c>
       <c r="P140" s="22"/>
       <c r="Q140" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R140" s="19">
         <v>0</v>
@@ -18651,8 +18672,8 @@
       <c r="S140" s="19">
         <v>1</v>
       </c>
-      <c r="T140" s="20">
-        <v>3</v>
+      <c r="T140" s="19">
+        <v>4</v>
       </c>
       <c r="U140" s="19">
         <v>2</v>
@@ -18673,7 +18694,9 @@
       <c r="AA140" s="19">
         <v>2</v>
       </c>
-      <c r="AB140" s="20"/>
+      <c r="AB140" s="19">
+        <v>4</v>
+      </c>
       <c r="AC140" s="20"/>
       <c r="AD140" s="20"/>
       <c r="AF140" s="41"/>
@@ -18738,28 +18761,36 @@
       </c>
       <c r="P141" s="22"/>
       <c r="Q141" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R141" s="20">
-        <v>2</v>
-      </c>
-      <c r="S141" s="20">
-        <v>2</v>
-      </c>
-      <c r="T141" s="20">
-        <v>2</v>
-      </c>
-      <c r="U141" s="20">
-        <v>2</v>
-      </c>
-      <c r="V141" s="20">
+        <v>5</v>
+      </c>
+      <c r="S141" s="19">
+        <v>2</v>
+      </c>
+      <c r="T141" s="19">
+        <v>4</v>
+      </c>
+      <c r="U141" s="19">
+        <v>4</v>
+      </c>
+      <c r="V141" s="19">
         <v>2</v>
       </c>
       <c r="W141" s="20"/>
-      <c r="X141" s="20"/>
-      <c r="Y141" s="20"/>
-      <c r="Z141" s="20"/>
-      <c r="AA141" s="20"/>
+      <c r="X141" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y141" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z141" s="19">
+        <v>4</v>
+      </c>
+      <c r="AA141" s="19">
+        <v>4</v>
+      </c>
       <c r="AB141" s="20"/>
       <c r="AC141" s="20"/>
       <c r="AD141" s="20"/>
@@ -18828,22 +18859,22 @@
       </c>
       <c r="P142" s="22"/>
       <c r="Q142" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R142" s="19">
         <v>0</v>
       </c>
       <c r="S142" s="20">
-        <v>1</v>
-      </c>
-      <c r="T142" s="20">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="T142" s="19">
+        <v>3</v>
       </c>
       <c r="U142" s="19">
         <v>0</v>
       </c>
       <c r="V142" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W142" s="20"/>
       <c r="X142" s="19">
@@ -18852,7 +18883,9 @@
       <c r="Y142" s="19">
         <v>0</v>
       </c>
-      <c r="Z142" s="20"/>
+      <c r="Z142" s="19">
+        <v>3</v>
+      </c>
       <c r="AA142" s="20"/>
       <c r="AB142" s="20"/>
       <c r="AC142" s="20"/>
@@ -18921,106 +18954,351 @@
         <v>23</v>
       </c>
       <c r="P143" s="22"/>
-      <c r="Q143" s="20">
+      <c r="Q143" s="19">
         <v>0</v>
       </c>
       <c r="R143" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S143" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T143" s="20">
-        <v>0</v>
-      </c>
-      <c r="U143" s="20">
-        <v>0</v>
-      </c>
-      <c r="V143" s="20">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="U143" s="19">
+        <v>0</v>
+      </c>
+      <c r="V143" s="19">
+        <v>2</v>
       </c>
       <c r="W143" s="20"/>
-      <c r="X143" s="20"/>
-      <c r="Y143" s="20"/>
-      <c r="Z143" s="20"/>
+      <c r="X143" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="19">
+        <v>2</v>
+      </c>
       <c r="AA143" s="20"/>
       <c r="AB143" s="20"/>
       <c r="AC143" s="20"/>
       <c r="AD143" s="20"/>
       <c r="AF143" s="23"/>
+      <c r="AH143" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI143" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ143" s="21">
+        <v>3</v>
+      </c>
+      <c r="AK143" s="21">
+        <v>6</v>
+      </c>
+      <c r="AL143" s="21">
+        <v>23</v>
+      </c>
+      <c r="AO143" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP143" s="21">
+        <v>2</v>
+      </c>
+      <c r="AQ143" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:46" s="21" customFormat="1">
+      <c r="A144" s="21">
+        <v>2</v>
+      </c>
+      <c r="B144" s="21">
+        <v>4</v>
+      </c>
+      <c r="C144" s="21">
+        <v>0</v>
+      </c>
+      <c r="D144" s="21">
+        <v>6</v>
+      </c>
+      <c r="E144" s="21">
+        <v>0</v>
+      </c>
+      <c r="F144" s="21">
+        <v>2</v>
+      </c>
+      <c r="I144" s="21">
+        <v>0</v>
+      </c>
+      <c r="J144" s="21">
+        <v>0</v>
+      </c>
+      <c r="K144" s="21">
+        <v>2</v>
+      </c>
+      <c r="L144" s="21">
+        <v>2</v>
+      </c>
+      <c r="M144" s="21">
+        <v>4</v>
+      </c>
+      <c r="N144" s="21">
+        <v>6</v>
+      </c>
       <c r="P144" s="22"/>
-      <c r="Q144" s="20"/>
-      <c r="R144" s="20"/>
-      <c r="S144" s="20"/>
-      <c r="T144" s="20"/>
-      <c r="U144" s="20"/>
-      <c r="V144" s="20"/>
-      <c r="W144" s="15"/>
-      <c r="X144" s="15"/>
+      <c r="Q144" s="20">
+        <v>2</v>
+      </c>
+      <c r="R144" s="20">
+        <v>2</v>
+      </c>
+      <c r="S144" s="20">
+        <v>2</v>
+      </c>
+      <c r="T144" s="20">
+        <v>2</v>
+      </c>
+      <c r="U144" s="20">
+        <v>2</v>
+      </c>
+      <c r="V144" s="20">
+        <v>2</v>
+      </c>
+      <c r="W144" s="20"/>
+      <c r="X144" s="20"/>
       <c r="Y144" s="20"/>
       <c r="Z144" s="20"/>
       <c r="AA144" s="20"/>
       <c r="AB144" s="20"/>
       <c r="AC144" s="20"/>
-      <c r="AD144" s="15"/>
+      <c r="AD144" s="20"/>
       <c r="AF144" s="41"/>
-    </row>
-    <row r="145" spans="16:32" s="21" customFormat="1">
+      <c r="AH144" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ144" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK144" s="21">
+        <v>6</v>
+      </c>
+      <c r="AO144" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP144" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ144" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:43" s="21" customFormat="1">
+      <c r="A145" s="21">
+        <v>8</v>
+      </c>
+      <c r="B145" s="21">
+        <v>15</v>
+      </c>
+      <c r="C145" s="21">
+        <v>4</v>
+      </c>
+      <c r="D145" s="21">
+        <v>6</v>
+      </c>
+      <c r="E145" s="21">
+        <v>7</v>
+      </c>
+      <c r="F145" s="21">
+        <v>6</v>
+      </c>
+      <c r="I145" s="21">
+        <v>4</v>
+      </c>
+      <c r="J145" s="21">
+        <v>6</v>
+      </c>
+      <c r="K145" s="21">
+        <v>6</v>
+      </c>
+      <c r="L145" s="21">
+        <v>7</v>
+      </c>
+      <c r="M145" s="21">
+        <v>8</v>
+      </c>
+      <c r="N145" s="21">
+        <v>15</v>
+      </c>
       <c r="P145" s="22"/>
-      <c r="Q145" s="20"/>
-      <c r="R145" s="20"/>
-      <c r="S145" s="20"/>
-      <c r="T145" s="20"/>
-      <c r="U145" s="20"/>
-      <c r="V145" s="20"/>
-      <c r="W145" s="15"/>
-      <c r="X145" s="15"/>
-      <c r="Y145" s="15"/>
-      <c r="Z145" s="15"/>
-      <c r="AA145" s="15"/>
-      <c r="AB145" s="15"/>
-      <c r="AC145" s="15"/>
-      <c r="AD145" s="15"/>
+      <c r="Q145" s="20">
+        <v>1</v>
+      </c>
+      <c r="R145" s="20">
+        <v>1</v>
+      </c>
+      <c r="S145" s="20">
+        <v>1</v>
+      </c>
+      <c r="T145" s="20">
+        <v>1</v>
+      </c>
+      <c r="U145" s="20">
+        <v>1</v>
+      </c>
+      <c r="V145" s="20">
+        <v>1</v>
+      </c>
+      <c r="W145" s="20"/>
+      <c r="X145" s="20"/>
+      <c r="Y145" s="20"/>
+      <c r="Z145" s="20"/>
+      <c r="AA145" s="20"/>
+      <c r="AB145" s="20"/>
+      <c r="AC145" s="20"/>
+      <c r="AD145" s="20"/>
       <c r="AF145" s="41"/>
-    </row>
-    <row r="146" spans="16:32" s="21" customFormat="1">
+      <c r="AH145" s="21">
+        <v>4</v>
+      </c>
+      <c r="AI145" s="21">
+        <v>6</v>
+      </c>
+      <c r="AJ145" s="21">
+        <v>7</v>
+      </c>
+      <c r="AK145" s="21">
+        <v>8</v>
+      </c>
+      <c r="AL145" s="21">
+        <v>15</v>
+      </c>
+      <c r="AO145" s="21">
+        <v>2</v>
+      </c>
+      <c r="AP145" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ145" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:43" s="21" customFormat="1">
+      <c r="A146" s="21">
+        <v>6</v>
+      </c>
+      <c r="B146" s="21">
+        <v>3</v>
+      </c>
+      <c r="C146" s="21">
+        <v>4</v>
+      </c>
+      <c r="D146" s="21">
+        <v>4</v>
+      </c>
+      <c r="E146" s="21">
+        <v>2</v>
+      </c>
+      <c r="F146" s="21">
+        <v>15</v>
+      </c>
+      <c r="I146" s="21">
+        <v>2</v>
+      </c>
+      <c r="J146" s="21">
+        <v>3</v>
+      </c>
+      <c r="K146" s="21">
+        <v>4</v>
+      </c>
+      <c r="L146" s="21">
+        <v>4</v>
+      </c>
+      <c r="M146" s="21">
+        <v>6</v>
+      </c>
+      <c r="N146" s="21">
+        <v>15</v>
+      </c>
       <c r="P146" s="22"/>
-      <c r="Q146" s="20"/>
-      <c r="R146" s="20"/>
-      <c r="S146" s="20"/>
-      <c r="T146" s="20"/>
-      <c r="U146" s="20"/>
-      <c r="V146" s="20"/>
+      <c r="Q146" s="20">
+        <v>0</v>
+      </c>
+      <c r="R146" s="20">
+        <v>0</v>
+      </c>
+      <c r="S146" s="20">
+        <v>0</v>
+      </c>
+      <c r="T146" s="20">
+        <v>0</v>
+      </c>
+      <c r="U146" s="20">
+        <v>0</v>
+      </c>
+      <c r="V146" s="20">
+        <v>0</v>
+      </c>
       <c r="W146" s="20"/>
-      <c r="X146" s="15"/>
-      <c r="Y146" s="15"/>
-      <c r="Z146" s="15"/>
-      <c r="AA146" s="15"/>
-      <c r="AB146" s="15"/>
-      <c r="AC146" s="15"/>
-      <c r="AD146" s="15"/>
+      <c r="X146" s="20"/>
+      <c r="Y146" s="20"/>
+      <c r="Z146" s="20"/>
+      <c r="AA146" s="20"/>
+      <c r="AB146" s="20"/>
+      <c r="AC146" s="20"/>
+      <c r="AD146" s="20"/>
       <c r="AF146" s="41"/>
-    </row>
-    <row r="147" spans="16:32" s="21" customFormat="1">
+      <c r="AH146" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI146" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ146" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK146" s="21">
+        <v>6</v>
+      </c>
+      <c r="AL146" s="21">
+        <v>15</v>
+      </c>
+      <c r="AO146" s="21">
+        <v>3</v>
+      </c>
+      <c r="AP146" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ146" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:43" s="21" customFormat="1">
+      <c r="P147" s="22"/>
       <c r="Q147" s="20"/>
       <c r="R147" s="20"/>
       <c r="S147" s="20"/>
       <c r="T147" s="20"/>
       <c r="U147" s="20"/>
       <c r="V147" s="20"/>
-      <c r="W147" s="15"/>
-      <c r="X147" s="15"/>
-      <c r="Y147" s="15"/>
-      <c r="Z147" s="15"/>
-      <c r="AA147" s="15"/>
-      <c r="AB147" s="15"/>
-      <c r="AC147" s="15"/>
-      <c r="AD147" s="15"/>
+      <c r="W147" s="20"/>
+      <c r="X147" s="20"/>
+      <c r="Y147" s="20"/>
+      <c r="Z147" s="20"/>
+      <c r="AA147" s="20"/>
+      <c r="AB147" s="20"/>
+      <c r="AC147" s="20"/>
+      <c r="AD147" s="20"/>
       <c r="AF147" s="41"/>
     </row>
-    <row r="148" spans="16:32" s="21" customFormat="1">
+    <row r="148" spans="1:43" s="21" customFormat="1">
+      <c r="P148" s="22"/>
       <c r="Q148" s="20"/>
       <c r="R148" s="20"/>
       <c r="S148" s="20"/>
@@ -19028,16 +19306,17 @@
       <c r="U148" s="20"/>
       <c r="V148" s="20"/>
       <c r="W148" s="20"/>
-      <c r="X148" s="15"/>
-      <c r="Y148" s="15"/>
+      <c r="X148" s="20"/>
+      <c r="Y148" s="20"/>
       <c r="Z148" s="20"/>
       <c r="AA148" s="20"/>
       <c r="AB148" s="20"/>
       <c r="AC148" s="20"/>
-      <c r="AD148" s="15"/>
-      <c r="AF148" s="41"/>
-    </row>
-    <row r="149" spans="16:32" s="21" customFormat="1">
+      <c r="AD148" s="20"/>
+      <c r="AF148" s="23"/>
+    </row>
+    <row r="149" spans="1:43" s="21" customFormat="1">
+      <c r="P149" s="22"/>
       <c r="Q149" s="20"/>
       <c r="R149" s="20"/>
       <c r="S149" s="20"/>
@@ -19045,16 +19324,16 @@
       <c r="U149" s="20"/>
       <c r="V149" s="20"/>
       <c r="W149" s="20"/>
-      <c r="X149" s="15"/>
-      <c r="Y149" s="15"/>
+      <c r="X149" s="20"/>
+      <c r="Y149" s="20"/>
       <c r="Z149" s="20"/>
       <c r="AA149" s="20"/>
       <c r="AB149" s="20"/>
       <c r="AC149" s="20"/>
-      <c r="AD149" s="15"/>
+      <c r="AD149" s="20"/>
       <c r="AF149" s="41"/>
     </row>
-    <row r="150" spans="16:32" s="21" customFormat="1">
+    <row r="150" spans="1:43" s="21" customFormat="1">
       <c r="P150" s="22"/>
       <c r="Q150" s="20"/>
       <c r="R150" s="20"/>
@@ -19062,51 +19341,52 @@
       <c r="T150" s="20"/>
       <c r="U150" s="20"/>
       <c r="V150" s="20"/>
-      <c r="W150" s="15"/>
+      <c r="W150" s="20"/>
       <c r="X150" s="15"/>
-      <c r="Y150" s="15"/>
-      <c r="Z150" s="15"/>
-      <c r="AA150" s="15"/>
-      <c r="AB150" s="15"/>
-      <c r="AC150" s="15"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
       <c r="AD150" s="15"/>
       <c r="AF150" s="41"/>
     </row>
-    <row r="151" spans="16:32" s="21" customFormat="1">
+    <row r="151" spans="1:43" s="21" customFormat="1">
       <c r="Q151" s="20"/>
       <c r="R151" s="20"/>
       <c r="S151" s="20"/>
       <c r="T151" s="20"/>
       <c r="U151" s="20"/>
       <c r="V151" s="20"/>
-      <c r="W151" s="20"/>
+      <c r="W151" s="15"/>
       <c r="X151" s="15"/>
       <c r="Y151" s="15"/>
-      <c r="Z151" s="20"/>
-      <c r="AA151" s="20"/>
-      <c r="AB151" s="20"/>
-      <c r="AC151" s="20"/>
+      <c r="Z151" s="15"/>
+      <c r="AA151" s="15"/>
+      <c r="AB151" s="15"/>
+      <c r="AC151" s="15"/>
       <c r="AD151" s="15"/>
       <c r="AF151" s="41"/>
     </row>
-    <row r="152" spans="16:32" s="21" customFormat="1">
+    <row r="152" spans="1:43" s="21" customFormat="1">
+      <c r="P152" s="22"/>
       <c r="Q152" s="20"/>
       <c r="R152" s="20"/>
       <c r="S152" s="20"/>
       <c r="T152" s="20"/>
       <c r="U152" s="20"/>
       <c r="V152" s="20"/>
-      <c r="W152" s="20"/>
-      <c r="X152" s="20"/>
-      <c r="Y152" s="20"/>
-      <c r="Z152" s="20"/>
-      <c r="AA152" s="20"/>
-      <c r="AB152" s="20"/>
-      <c r="AC152" s="20"/>
-      <c r="AD152" s="20"/>
-      <c r="AF152" s="23"/>
-    </row>
-    <row r="153" spans="16:32" s="21" customFormat="1">
+      <c r="W152" s="15"/>
+      <c r="X152" s="15"/>
+      <c r="Y152" s="15"/>
+      <c r="Z152" s="15"/>
+      <c r="AA152" s="15"/>
+      <c r="AB152" s="15"/>
+      <c r="AC152" s="15"/>
+      <c r="AD152" s="15"/>
+      <c r="AF152" s="41"/>
+    </row>
+    <row r="153" spans="1:43" s="21" customFormat="1">
       <c r="Q153" s="20"/>
       <c r="R153" s="20"/>
       <c r="S153" s="20"/>
@@ -19115,15 +19395,16 @@
       <c r="V153" s="20"/>
       <c r="W153" s="15"/>
       <c r="X153" s="15"/>
-      <c r="Y153" s="20"/>
-      <c r="Z153" s="20"/>
-      <c r="AA153" s="20"/>
-      <c r="AB153" s="20"/>
-      <c r="AC153" s="20"/>
+      <c r="Y153" s="15"/>
+      <c r="Z153" s="15"/>
+      <c r="AA153" s="15"/>
+      <c r="AB153" s="15"/>
+      <c r="AC153" s="15"/>
       <c r="AD153" s="15"/>
       <c r="AF153" s="41"/>
     </row>
-    <row r="154" spans="16:32" s="21" customFormat="1">
+    <row r="154" spans="1:43" s="21" customFormat="1">
+      <c r="P154" s="22"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="20"/>
@@ -19140,14 +19421,13 @@
       <c r="AD154" s="15"/>
       <c r="AF154" s="41"/>
     </row>
-    <row r="155" spans="16:32" s="21" customFormat="1">
-      <c r="P155" s="22"/>
-      <c r="Q155" s="20"/>
-      <c r="R155" s="20"/>
-      <c r="S155" s="20"/>
-      <c r="T155" s="20"/>
-      <c r="U155" s="20"/>
-      <c r="V155" s="20"/>
+    <row r="155" spans="1:43">
+      <c r="Q155" s="15"/>
+      <c r="R155" s="15"/>
+      <c r="S155" s="15"/>
+      <c r="T155" s="15"/>
+      <c r="U155" s="15"/>
+      <c r="V155" s="15"/>
       <c r="W155" s="15"/>
       <c r="X155" s="15"/>
       <c r="Y155" s="15"/>
@@ -19156,26 +19436,26 @@
       <c r="AB155" s="15"/>
       <c r="AC155" s="15"/>
       <c r="AD155" s="15"/>
-      <c r="AF155" s="41"/>
-    </row>
-    <row r="156" spans="16:32" s="21" customFormat="1">
+    </row>
+    <row r="156" spans="1:43" s="21" customFormat="1">
+      <c r="P156" s="22"/>
       <c r="Q156" s="20"/>
       <c r="R156" s="20"/>
       <c r="S156" s="20"/>
       <c r="T156" s="20"/>
       <c r="U156" s="20"/>
       <c r="V156" s="20"/>
-      <c r="W156" s="15"/>
+      <c r="W156" s="20"/>
       <c r="X156" s="15"/>
       <c r="Y156" s="15"/>
-      <c r="Z156" s="15"/>
-      <c r="AA156" s="15"/>
-      <c r="AB156" s="15"/>
-      <c r="AC156" s="15"/>
+      <c r="Z156" s="20"/>
+      <c r="AA156" s="20"/>
+      <c r="AB156" s="20"/>
+      <c r="AC156" s="20"/>
       <c r="AD156" s="15"/>
       <c r="AF156" s="41"/>
     </row>
-    <row r="157" spans="16:32" s="21" customFormat="1">
+    <row r="157" spans="1:43" s="21" customFormat="1">
       <c r="P157" s="22"/>
       <c r="Q157" s="20"/>
       <c r="R157" s="20"/>
@@ -19183,34 +19463,53 @@
       <c r="T157" s="20"/>
       <c r="U157" s="20"/>
       <c r="V157" s="20"/>
-      <c r="W157" s="15"/>
-      <c r="X157" s="15"/>
-      <c r="Y157" s="15"/>
-      <c r="Z157" s="15"/>
-      <c r="AA157" s="15"/>
-      <c r="AB157" s="15"/>
-      <c r="AC157" s="15"/>
+      <c r="W157" s="20"/>
+      <c r="X157" s="20"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+      <c r="AA157" s="20"/>
+      <c r="AB157" s="20"/>
+      <c r="AC157" s="20"/>
       <c r="AD157" s="15"/>
       <c r="AF157" s="41"/>
     </row>
-    <row r="158" spans="16:32">
-      <c r="Q158" s="15"/>
-      <c r="R158" s="15"/>
-      <c r="S158" s="15"/>
-      <c r="T158" s="15"/>
-      <c r="U158" s="15"/>
-      <c r="V158" s="15"/>
-      <c r="W158" s="15"/>
+    <row r="158" spans="1:43" s="21" customFormat="1">
+      <c r="I158" s="21">
+        <v>0</v>
+      </c>
+      <c r="J158" s="21">
+        <v>0</v>
+      </c>
+      <c r="K158" s="21">
+        <v>1</v>
+      </c>
+      <c r="L158" s="21">
+        <v>4</v>
+      </c>
+      <c r="M158" s="21">
+        <v>9</v>
+      </c>
+      <c r="N158" s="21">
+        <v>18</v>
+      </c>
+      <c r="P158" s="22"/>
+      <c r="Q158" s="20"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="20"/>
+      <c r="T158" s="20"/>
+      <c r="U158" s="20"/>
+      <c r="V158" s="20"/>
+      <c r="W158" s="20"/>
       <c r="X158" s="15"/>
       <c r="Y158" s="15"/>
-      <c r="Z158" s="15"/>
-      <c r="AA158" s="15"/>
-      <c r="AB158" s="15"/>
-      <c r="AC158" s="15"/>
+      <c r="Z158" s="20"/>
+      <c r="AA158" s="20"/>
+      <c r="AB158" s="20"/>
+      <c r="AC158" s="20"/>
       <c r="AD158" s="15"/>
-    </row>
-    <row r="159" spans="16:32" s="21" customFormat="1">
-      <c r="P159" s="22"/>
+      <c r="AF158" s="41"/>
+    </row>
+    <row r="159" spans="1:43" s="21" customFormat="1">
       <c r="Q159" s="20"/>
       <c r="R159" s="20"/>
       <c r="S159" s="20"/>
@@ -19218,8 +19517,8 @@
       <c r="U159" s="20"/>
       <c r="V159" s="20"/>
       <c r="W159" s="20"/>
-      <c r="X159" s="15"/>
-      <c r="Y159" s="15"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
       <c r="Z159" s="20"/>
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
@@ -19227,7 +19526,25 @@
       <c r="AD159" s="15"/>
       <c r="AF159" s="41"/>
     </row>
-    <row r="160" spans="16:32" s="21" customFormat="1">
+    <row r="160" spans="1:43" s="21" customFormat="1">
+      <c r="I160" s="21">
+        <v>0</v>
+      </c>
+      <c r="J160" s="21">
+        <v>0</v>
+      </c>
+      <c r="K160" s="21">
+        <v>1</v>
+      </c>
+      <c r="L160" s="21">
+        <v>3</v>
+      </c>
+      <c r="M160" s="21">
+        <v>5</v>
+      </c>
+      <c r="N160" s="21">
+        <v>8</v>
+      </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20"/>
       <c r="R160" s="20"/>
@@ -19236,8 +19553,8 @@
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
       <c r="W160" s="20"/>
-      <c r="X160" s="20"/>
-      <c r="Y160" s="20"/>
+      <c r="X160" s="15"/>
+      <c r="Y160" s="15"/>
       <c r="Z160" s="20"/>
       <c r="AA160" s="20"/>
       <c r="AB160" s="20"/>
@@ -19245,7 +19562,8 @@
       <c r="AD160" s="15"/>
       <c r="AF160" s="41"/>
     </row>
-    <row r="161" spans="16:32" s="21" customFormat="1">
+    <row r="161" spans="9:32" s="21" customFormat="1">
+      <c r="P161" s="22"/>
       <c r="Q161" s="20"/>
       <c r="R161" s="20"/>
       <c r="S161" s="20"/>
@@ -19253,16 +19571,34 @@
       <c r="U161" s="20"/>
       <c r="V161" s="20"/>
       <c r="W161" s="20"/>
-      <c r="X161" s="20"/>
-      <c r="Y161" s="20"/>
-      <c r="Z161" s="20"/>
-      <c r="AA161" s="20"/>
-      <c r="AB161" s="20"/>
-      <c r="AC161" s="20"/>
+      <c r="X161" s="15"/>
+      <c r="Y161" s="15"/>
+      <c r="Z161" s="15"/>
+      <c r="AA161" s="15"/>
+      <c r="AB161" s="15"/>
+      <c r="AC161" s="15"/>
       <c r="AD161" s="15"/>
       <c r="AF161" s="41"/>
     </row>
-    <row r="162" spans="16:32" s="21" customFormat="1">
+    <row r="162" spans="9:32" s="21" customFormat="1">
+      <c r="I162" s="21">
+        <v>1</v>
+      </c>
+      <c r="J162" s="21">
+        <v>3</v>
+      </c>
+      <c r="K162" s="21">
+        <v>4</v>
+      </c>
+      <c r="L162" s="21">
+        <v>5</v>
+      </c>
+      <c r="M162" s="21">
+        <v>7</v>
+      </c>
+      <c r="N162" s="21">
+        <v>7</v>
+      </c>
       <c r="P162" s="22"/>
       <c r="Q162" s="20"/>
       <c r="R162" s="20"/>
@@ -19270,17 +19606,17 @@
       <c r="T162" s="20"/>
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
-      <c r="W162" s="20"/>
-      <c r="X162" s="15"/>
-      <c r="Y162" s="15"/>
-      <c r="Z162" s="15"/>
-      <c r="AA162" s="15"/>
-      <c r="AB162" s="15"/>
-      <c r="AC162" s="15"/>
+      <c r="W162" s="15"/>
+      <c r="X162" s="20"/>
+      <c r="Y162" s="20"/>
+      <c r="Z162" s="20"/>
+      <c r="AA162" s="20"/>
+      <c r="AB162" s="20"/>
+      <c r="AC162" s="20"/>
       <c r="AD162" s="15"/>
       <c r="AF162" s="41"/>
     </row>
-    <row r="163" spans="16:32" s="21" customFormat="1">
+    <row r="163" spans="9:32" s="21" customFormat="1">
       <c r="P163" s="22"/>
       <c r="Q163" s="20"/>
       <c r="R163" s="20"/>
@@ -19298,7 +19634,7 @@
       <c r="AD163" s="15"/>
       <c r="AF163" s="41"/>
     </row>
-    <row r="164" spans="16:32" s="21" customFormat="1">
+    <row r="164" spans="9:32" s="21" customFormat="1">
       <c r="P164" s="22"/>
       <c r="Q164" s="20"/>
       <c r="R164" s="20"/>
@@ -19316,7 +19652,7 @@
       <c r="AD164" s="15"/>
       <c r="AF164" s="41"/>
     </row>
-    <row r="165" spans="16:32" s="21" customFormat="1">
+    <row r="165" spans="9:32" s="21" customFormat="1">
       <c r="P165" s="22"/>
       <c r="Q165" s="20"/>
       <c r="R165" s="20"/>
@@ -19334,7 +19670,7 @@
       <c r="AD165" s="15"/>
       <c r="AF165" s="41"/>
     </row>
-    <row r="166" spans="16:32" s="21" customFormat="1">
+    <row r="166" spans="9:32" s="21" customFormat="1">
       <c r="P166" s="22"/>
       <c r="Q166" s="20"/>
       <c r="R166" s="20"/>
@@ -19352,7 +19688,7 @@
       <c r="AD166" s="15"/>
       <c r="AF166" s="41"/>
     </row>
-    <row r="167" spans="16:32" s="21" customFormat="1">
+    <row r="167" spans="9:32" s="21" customFormat="1">
       <c r="P167" s="22"/>
       <c r="Q167" s="20"/>
       <c r="R167" s="20"/>
@@ -19370,7 +19706,7 @@
       <c r="AD167" s="15"/>
       <c r="AF167" s="41"/>
     </row>
-    <row r="168" spans="16:32" s="21" customFormat="1">
+    <row r="168" spans="9:32" s="21" customFormat="1">
       <c r="P168" s="22"/>
       <c r="Q168" s="20"/>
       <c r="R168" s="20"/>
@@ -19388,7 +19724,7 @@
       <c r="AD168" s="15"/>
       <c r="AF168" s="41"/>
     </row>
-    <row r="169" spans="16:32" s="21" customFormat="1">
+    <row r="169" spans="9:32" s="21" customFormat="1">
       <c r="Q169" s="20"/>
       <c r="R169" s="20"/>
       <c r="S169" s="20"/>
@@ -19405,7 +19741,7 @@
       <c r="AD169" s="15"/>
       <c r="AF169" s="41"/>
     </row>
-    <row r="170" spans="16:32" s="21" customFormat="1">
+    <row r="170" spans="9:32" s="21" customFormat="1">
       <c r="P170" s="22"/>
       <c r="Q170" s="20"/>
       <c r="R170" s="20"/>
@@ -19423,7 +19759,7 @@
       <c r="AD170" s="15"/>
       <c r="AF170" s="41"/>
     </row>
-    <row r="171" spans="16:32" s="21" customFormat="1">
+    <row r="171" spans="9:32" s="21" customFormat="1">
       <c r="P171" s="22"/>
       <c r="Q171" s="20"/>
       <c r="R171" s="20"/>
@@ -19441,7 +19777,7 @@
       <c r="AD171" s="15"/>
       <c r="AF171" s="41"/>
     </row>
-    <row r="172" spans="16:32" s="21" customFormat="1">
+    <row r="172" spans="9:32" s="21" customFormat="1">
       <c r="P172" s="22"/>
       <c r="Q172" s="20"/>
       <c r="R172" s="20"/>
@@ -19459,7 +19795,7 @@
       <c r="AD172" s="15"/>
       <c r="AF172" s="41"/>
     </row>
-    <row r="173" spans="16:32" s="21" customFormat="1">
+    <row r="173" spans="9:32" s="21" customFormat="1">
       <c r="P173" s="22"/>
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
@@ -19477,7 +19813,7 @@
       <c r="AD173" s="15"/>
       <c r="AF173" s="41"/>
     </row>
-    <row r="174" spans="16:32" s="21" customFormat="1">
+    <row r="174" spans="9:32" s="21" customFormat="1">
       <c r="P174" s="22"/>
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
@@ -19495,7 +19831,7 @@
       <c r="AD174" s="15"/>
       <c r="AF174" s="41"/>
     </row>
-    <row r="175" spans="16:32" s="21" customFormat="1">
+    <row r="175" spans="9:32" s="21" customFormat="1">
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
       <c r="S175" s="20"/>
@@ -19512,7 +19848,7 @@
       <c r="AD175" s="15"/>
       <c r="AF175" s="41"/>
     </row>
-    <row r="176" spans="16:32" s="21" customFormat="1">
+    <row r="176" spans="9:32" s="21" customFormat="1">
       <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
@@ -31948,10 +32284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO209"/>
+  <dimension ref="A1:AO211"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S150" sqref="S150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -34931,76 +35267,121 @@
       </c>
     </row>
     <row r="144" spans="1:29">
-      <c r="A144" s="10"/>
+      <c r="A144" s="11">
+        <v>2</v>
+      </c>
       <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
+      <c r="C144" s="11">
+        <v>2</v>
+      </c>
       <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
+      <c r="E144" s="9">
+        <v>1</v>
+      </c>
       <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
       <c r="H144" s="10"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="P144" s="10"/>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="I144" s="10"/>
+      <c r="O144" s="10"/>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
+      <c r="E145" s="9">
+        <v>1</v>
+      </c>
       <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="G145" s="11">
+        <v>2</v>
+      </c>
+      <c r="H145" s="9">
+        <v>1</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1</v>
+      </c>
+      <c r="O145" s="10"/>
+      <c r="P145" s="9">
+        <v>1</v>
+      </c>
+      <c r="R145" s="10"/>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
+      <c r="C146" s="9">
+        <v>1</v>
+      </c>
+      <c r="D146" s="9">
+        <v>1</v>
+      </c>
+      <c r="E146" s="11">
+        <v>2</v>
+      </c>
       <c r="F146" s="10"/>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="G146" s="9">
+        <v>1</v>
+      </c>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="18"/>
+      <c r="P146" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -35008,7 +35389,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:18">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -35016,7 +35397,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:18">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -35024,7 +35405,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:18">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -35032,7 +35413,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:18">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -35040,7 +35421,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:18">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -35048,7 +35429,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:18">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -35056,7 +35437,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:18">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -35064,7 +35445,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:18">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -35149,6 +35530,7 @@
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
     <row r="171" spans="1:6">
@@ -35156,6 +35538,7 @@
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
     <row r="172" spans="1:6">
@@ -35163,6 +35546,7 @@
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
     <row r="173" spans="1:6">
@@ -35170,6 +35554,7 @@
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
     <row r="174" spans="1:6">
@@ -35177,6 +35562,7 @@
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6">
@@ -35184,6 +35570,7 @@
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
     <row r="176" spans="1:6">
@@ -35191,6 +35578,7 @@
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
       <c r="F176" s="10"/>
     </row>
     <row r="177" spans="1:6">
@@ -35198,6 +35586,7 @@
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
       <c r="F177" s="10"/>
     </row>
     <row r="178" spans="1:6">
@@ -35209,30 +35598,35 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="F179" s="10"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="F180" s="10"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="F182" s="10"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="F183" s="10"/>
@@ -35277,81 +35671,98 @@
       <c r="A190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
-      <c r="F190" s="18"/>
+      <c r="F190" s="10"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
-      <c r="F191" s="18"/>
+      <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="F192" s="10"/>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="F193" s="10"/>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="10"/>
       <c r="C194" s="10"/>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="D194" s="10"/>
+      <c r="F194" s="18"/>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="10"/>
       <c r="C195" s="10"/>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="D195" s="10"/>
+      <c r="F195" s="18"/>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="10"/>
       <c r="C196" s="10"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="D196" s="10"/>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="10"/>
       <c r="C197" s="10"/>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="D197" s="10"/>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="10"/>
       <c r="C198" s="10"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:6">
       <c r="A199" s="10"/>
       <c r="C199" s="10"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:6">
       <c r="A200" s="10"/>
       <c r="C200" s="10"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:6">
       <c r="A201" s="10"/>
       <c r="C201" s="10"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:6">
       <c r="A202" s="10"/>
       <c r="C202" s="10"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:6">
       <c r="A203" s="10"/>
       <c r="C203" s="10"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:6">
+      <c r="A204" s="10"/>
       <c r="C204" s="10"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:6">
+      <c r="A205" s="10"/>
       <c r="C205" s="10"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:6">
+      <c r="A206" s="10"/>
       <c r="C206" s="10"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:6">
       <c r="C207" s="10"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:6">
       <c r="C208" s="10"/>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" s="10"/>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" s="10"/>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35365,7 +35776,7 @@
   <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="R150" sqref="R150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -38386,6 +38797,147 @@
         <v>1</v>
       </c>
     </row>
+    <row r="144" spans="1:21">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0</v>
+      </c>
+      <c r="P144" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>3</v>
+      </c>
+      <c r="R144" s="1">
+        <v>5</v>
+      </c>
+      <c r="S144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" s="1">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1">
+        <v>4</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1">
+        <v>3</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>0</v>
+      </c>
+      <c r="P145" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>1</v>
+      </c>
+      <c r="R145" s="1">
+        <v>2</v>
+      </c>
+      <c r="S145" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="1">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>5</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>2</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1">
+        <v>2</v>
+      </c>
+      <c r="N146" s="1">
+        <v>2</v>
+      </c>
+      <c r="O146" s="1">
+        <v>5</v>
+      </c>
+      <c r="P146" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>13</v>
+      </c>
+      <c r="R146" s="1">
+        <v>16</v>
+      </c>
+      <c r="S146" s="1">
+        <v>23</v>
+      </c>
+    </row>
     <row r="147" spans="1:19">
       <c r="A147" s="37"/>
       <c r="B147" s="37"/>
@@ -38480,10 +39032,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN143"/>
+  <dimension ref="A100:AN146"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="M150" sqref="M150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40782,6 +41334,117 @@
         <v>1</v>
       </c>
     </row>
+    <row r="144" spans="1:23">
+      <c r="A144" s="9">
+        <v>1</v>
+      </c>
+      <c r="B144" s="9">
+        <v>1</v>
+      </c>
+      <c r="E144" s="9">
+        <v>1</v>
+      </c>
+      <c r="G144" s="11">
+        <v>2</v>
+      </c>
+      <c r="I144" s="9">
+        <v>1</v>
+      </c>
+      <c r="L144" s="16">
+        <v>1</v>
+      </c>
+      <c r="M144" s="16">
+        <v>2</v>
+      </c>
+      <c r="N144" s="16">
+        <v>5</v>
+      </c>
+      <c r="O144" s="16">
+        <v>7</v>
+      </c>
+      <c r="P144" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q144" s="16">
+        <v>9</v>
+      </c>
+      <c r="S144" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19">
+      <c r="C145" s="11">
+        <v>2</v>
+      </c>
+      <c r="D145" s="9">
+        <v>1</v>
+      </c>
+      <c r="F145" s="11">
+        <v>2</v>
+      </c>
+      <c r="J145" s="9">
+        <v>1</v>
+      </c>
+      <c r="L145" s="16">
+        <v>0</v>
+      </c>
+      <c r="M145" s="16">
+        <v>3</v>
+      </c>
+      <c r="N145" s="16">
+        <v>3</v>
+      </c>
+      <c r="O145" s="16">
+        <v>4</v>
+      </c>
+      <c r="P145" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q145" s="16">
+        <v>6</v>
+      </c>
+      <c r="S145" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19">
+      <c r="B146" s="9">
+        <v>1</v>
+      </c>
+      <c r="C146" s="9">
+        <v>1</v>
+      </c>
+      <c r="E146" s="9">
+        <v>1</v>
+      </c>
+      <c r="H146" s="9">
+        <v>1</v>
+      </c>
+      <c r="J146" s="11">
+        <v>2</v>
+      </c>
+      <c r="L146" s="16">
+        <v>0</v>
+      </c>
+      <c r="M146" s="16">
+        <v>0</v>
+      </c>
+      <c r="N146" s="16">
+        <v>2</v>
+      </c>
+      <c r="O146" s="16">
+        <v>3</v>
+      </c>
+      <c r="P146" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q146" s="16">
+        <v>8</v>
+      </c>
+      <c r="S146" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40794,7 +41457,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -40917,7 +41580,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -41005,7 +41668,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="18">
         <v>57</v>
@@ -41051,6 +41714,9 @@
       </c>
     </row>
     <row r="6" spans="1:16">
+      <c r="A6" s="18">
+        <v>0</v>
+      </c>
       <c r="B6" s="18">
         <v>20</v>
       </c>
@@ -41088,13 +41754,16 @@
         <v>12</v>
       </c>
       <c r="O6" s="18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
       <c r="C7" s="19">
         <v>0</v>
       </c>
@@ -41114,7 +41783,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="18">
         <v>3</v>
@@ -41127,6 +41796,9 @@
       </c>
       <c r="N7" s="18">
         <v>4</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
@@ -41146,7 +41818,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8" s="18">
         <v>21</v>
@@ -41172,7 +41844,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -41190,13 +41862,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -41216,7 +41888,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -41230,7 +41902,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -41244,19 +41916,19 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -41271,7 +41943,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -41504,7 +42176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA68" sqref="AA68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5277,7 +5277,9 @@
       <c r="O44" s="7">
         <v>0</v>
       </c>
-      <c r="P44" s="25"/>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
       <c r="Q44" s="7">
         <v>3</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="7">
         <v>15</v>
@@ -5853,7 +5855,7 @@
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" s="7">
         <v>22</v>
@@ -5913,7 +5915,7 @@
       <c r="AE50" s="7">
         <v>0</v>
       </c>
-      <c r="AF50" s="26">
+      <c r="AF50" s="7">
         <v>0</v>
       </c>
       <c r="AG50" s="7">
@@ -6008,7 +6010,7 @@
       <c r="AE51" s="7">
         <v>0</v>
       </c>
-      <c r="AF51" s="26">
+      <c r="AF51" s="7">
         <v>0</v>
       </c>
       <c r="AG51" s="7">
@@ -6062,7 +6064,7 @@
         <v>17</v>
       </c>
       <c r="R52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S52" s="7">
         <v>2</v>
@@ -6097,20 +6099,22 @@
       <c r="AC52" s="7">
         <v>23</v>
       </c>
-      <c r="AD52" s="25"/>
+      <c r="AD52" s="7">
+        <v>0</v>
+      </c>
       <c r="AE52" s="7">
         <v>4</v>
       </c>
-      <c r="AF52" s="26">
+      <c r="AF52" s="7">
         <v>5</v>
       </c>
       <c r="AG52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="3" customFormat="1">
       <c r="A53" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" s="7">
         <v>1</v>
@@ -6162,13 +6166,13 @@
         <v>4</v>
       </c>
       <c r="U53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V53" s="7">
         <v>0</v>
       </c>
       <c r="W53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53" s="7">
         <v>1</v>
@@ -6192,7 +6196,7 @@
       <c r="AE53" s="7">
         <v>5</v>
       </c>
-      <c r="AF53" s="26">
+      <c r="AF53" s="7">
         <v>1</v>
       </c>
       <c r="AG53" s="7"/>
@@ -6232,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O54" s="7">
         <v>5</v>
@@ -6286,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6301,10 +6305,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -6350,11 +6354,11 @@
         <v>3</v>
       </c>
       <c r="AC55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF55" s="7">
         <v>23</v>
@@ -6394,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="P56" s="7"/>
-      <c r="Q56" s="26">
+      <c r="Q56" s="7">
         <v>2</v>
       </c>
       <c r="R56" s="7"/>
@@ -6402,7 +6406,7 @@
         <v>6</v>
       </c>
       <c r="T56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="7">
@@ -6413,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="Y56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="7">
         <v>4</v>
@@ -6447,7 +6451,7 @@
       <c r="F57" s="7">
         <v>1</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="7">
         <v>4</v>
       </c>
       <c r="H57" s="7"/>
@@ -6464,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="26">
+      <c r="Q57" s="7">
         <v>0</v>
       </c>
       <c r="R57" s="7"/>
@@ -6494,7 +6498,7 @@
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
       <c r="AF57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG57" s="7"/>
     </row>
@@ -6512,7 +6516,7 @@
       <c r="F58" s="7">
         <v>4</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="7">
         <v>5</v>
       </c>
       <c r="H58" s="7"/>
@@ -6530,11 +6534,13 @@
         <v>5</v>
       </c>
       <c r="P58" s="7"/>
-      <c r="Q58" s="26">
+      <c r="Q58" s="7">
         <v>0</v>
       </c>
       <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
+      <c r="S58" s="7">
+        <v>0</v>
+      </c>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
       <c r="V58" s="7">
@@ -6549,7 +6555,7 @@
         <v>16</v>
       </c>
       <c r="AA58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB58" s="7">
         <v>2</v>
@@ -6574,7 +6580,7 @@
       <c r="F59" s="7">
         <v>8</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="7">
         <v>4</v>
       </c>
       <c r="L59" s="7">
@@ -6587,7 +6593,7 @@
         <v>7</v>
       </c>
       <c r="P59" s="3"/>
-      <c r="Q59" s="26">
+      <c r="Q59" s="7">
         <v>2</v>
       </c>
       <c r="V59" s="7">
@@ -6617,13 +6623,13 @@
         <v>16</v>
       </c>
       <c r="F60" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -6672,7 +6678,9 @@
         <v>1</v>
       </c>
       <c r="N61" s="27"/>
-      <c r="O61" s="3"/>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
       <c r="P61" s="26"/>
       <c r="Q61" s="7">
         <v>4</v>
@@ -6702,7 +6710,9 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="B62" s="7">
+        <v>0</v>
+      </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
         <v>4</v>
@@ -6735,7 +6745,7 @@
       </c>
       <c r="W62" s="7"/>
       <c r="X62" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7">
@@ -6743,7 +6753,7 @@
       </c>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -6786,7 +6796,7 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA63" s="26"/>
       <c r="AB63" s="7"/>
@@ -6821,7 +6831,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="40"/>
       <c r="V64" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -6887,7 +6897,9 @@
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="3"/>
@@ -6908,7 +6920,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -6916,7 +6928,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -6938,7 +6950,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="D68" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -7639,8 +7651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M151" sqref="M151"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V150" sqref="P126:V150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -17356,7 +17368,7 @@
         <v>7</v>
       </c>
       <c r="P127" s="22"/>
-      <c r="Q127" s="23">
+      <c r="Q127" s="22">
         <v>19</v>
       </c>
       <c r="R127" s="22">
@@ -17390,7 +17402,9 @@
       <c r="AB127" s="22">
         <v>4</v>
       </c>
-      <c r="AC127" s="23"/>
+      <c r="AC127" s="22">
+        <v>19</v>
+      </c>
       <c r="AD127" s="23"/>
       <c r="AF127" s="23"/>
       <c r="AH127" s="21">
@@ -18165,7 +18179,7 @@
       </c>
       <c r="P135" s="22"/>
       <c r="Q135" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R135" s="22">
         <v>1</v>
@@ -18280,7 +18294,7 @@
         <v>6</v>
       </c>
       <c r="V136" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W136" s="23"/>
       <c r="X136" s="22">
@@ -18367,7 +18381,7 @@
       <c r="Q137" s="22">
         <v>0</v>
       </c>
-      <c r="R137" s="23">
+      <c r="R137" s="22">
         <v>9</v>
       </c>
       <c r="S137" s="19">
@@ -18398,7 +18412,9 @@
       <c r="AB137" s="19">
         <v>7</v>
       </c>
-      <c r="AC137" s="23"/>
+      <c r="AC137" s="22">
+        <v>9</v>
+      </c>
       <c r="AD137" s="23"/>
       <c r="AF137" s="41"/>
       <c r="AH137" s="21">
@@ -18467,7 +18483,7 @@
       <c r="Q138" s="19">
         <v>2</v>
       </c>
-      <c r="R138" s="20">
+      <c r="R138" s="19">
         <v>8</v>
       </c>
       <c r="S138" s="19">
@@ -18480,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="V138" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W138" s="20"/>
       <c r="X138" s="19">
@@ -18495,7 +18511,9 @@
       <c r="AA138" s="19">
         <v>6</v>
       </c>
-      <c r="AB138" s="20"/>
+      <c r="AB138" s="22">
+        <v>8</v>
+      </c>
       <c r="AC138" s="20"/>
       <c r="AD138" s="20"/>
       <c r="AH138" s="1">
@@ -18664,7 +18682,7 @@
       </c>
       <c r="P140" s="22"/>
       <c r="Q140" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R140" s="19">
         <v>0</v>
@@ -18761,10 +18779,10 @@
       </c>
       <c r="P141" s="22"/>
       <c r="Q141" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R141" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S141" s="19">
         <v>2</v>
@@ -18859,13 +18877,13 @@
       </c>
       <c r="P142" s="22"/>
       <c r="Q142" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R142" s="19">
         <v>0</v>
       </c>
       <c r="S142" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T142" s="19">
         <v>3</v>
@@ -18958,13 +18976,13 @@
         <v>0</v>
       </c>
       <c r="R143" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S143" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T143" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U143" s="19">
         <v>0</v>
@@ -19051,25 +19069,27 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R144" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S144" s="20">
-        <v>2</v>
-      </c>
-      <c r="T144" s="20">
+        <v>3</v>
+      </c>
+      <c r="T144" s="19">
         <v>2</v>
       </c>
       <c r="U144" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V144" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W144" s="20"/>
-      <c r="X144" s="20"/>
+      <c r="X144" s="22">
+        <v>2</v>
+      </c>
       <c r="Y144" s="20"/>
       <c r="Z144" s="20"/>
       <c r="AA144" s="20"/>
@@ -19138,25 +19158,27 @@
       </c>
       <c r="P145" s="22"/>
       <c r="Q145" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R145" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S145" s="20">
-        <v>1</v>
-      </c>
-      <c r="T145" s="20">
+        <v>2</v>
+      </c>
+      <c r="T145" s="19">
         <v>1</v>
       </c>
       <c r="U145" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V145" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W145" s="20"/>
-      <c r="X145" s="20"/>
+      <c r="X145" s="22">
+        <v>1</v>
+      </c>
       <c r="Y145" s="20"/>
       <c r="Z145" s="20"/>
       <c r="AA145" s="20"/>
@@ -19228,25 +19250,27 @@
       </c>
       <c r="P146" s="22"/>
       <c r="Q146" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R146" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S146" s="20">
-        <v>0</v>
-      </c>
-      <c r="T146" s="20">
+        <v>1</v>
+      </c>
+      <c r="T146" s="19">
         <v>0</v>
       </c>
       <c r="U146" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V146" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W146" s="20"/>
-      <c r="X146" s="20"/>
+      <c r="X146" s="22">
+        <v>0</v>
+      </c>
       <c r="Y146" s="20"/>
       <c r="Z146" s="20"/>
       <c r="AA146" s="20"/>
@@ -19280,13 +19304,61 @@
       </c>
     </row>
     <row r="147" spans="1:43" s="21" customFormat="1">
+      <c r="A147" s="21">
+        <v>19</v>
+      </c>
+      <c r="B147" s="21">
+        <v>8</v>
+      </c>
+      <c r="C147" s="21">
+        <v>1</v>
+      </c>
+      <c r="D147" s="21">
+        <v>9</v>
+      </c>
+      <c r="E147" s="21">
+        <v>2</v>
+      </c>
+      <c r="F147" s="21">
+        <v>0</v>
+      </c>
+      <c r="I147" s="21">
+        <v>0</v>
+      </c>
+      <c r="J147" s="21">
+        <v>1</v>
+      </c>
+      <c r="K147" s="21">
+        <v>2</v>
+      </c>
+      <c r="L147" s="21">
+        <v>8</v>
+      </c>
+      <c r="M147" s="21">
+        <v>9</v>
+      </c>
+      <c r="N147" s="21">
+        <v>19</v>
+      </c>
       <c r="P147" s="22"/>
-      <c r="Q147" s="20"/>
-      <c r="R147" s="20"/>
-      <c r="S147" s="20"/>
-      <c r="T147" s="20"/>
-      <c r="U147" s="20"/>
-      <c r="V147" s="20"/>
+      <c r="Q147" s="20">
+        <v>0</v>
+      </c>
+      <c r="R147" s="20">
+        <v>0</v>
+      </c>
+      <c r="S147" s="20">
+        <v>0</v>
+      </c>
+      <c r="T147" s="20">
+        <v>0</v>
+      </c>
+      <c r="U147" s="20">
+        <v>0</v>
+      </c>
+      <c r="V147" s="20">
+        <v>0</v>
+      </c>
       <c r="W147" s="20"/>
       <c r="X147" s="20"/>
       <c r="Y147" s="20"/>
@@ -19296,6 +19368,33 @@
       <c r="AC147" s="20"/>
       <c r="AD147" s="20"/>
       <c r="AF147" s="41"/>
+      <c r="AH147" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ147" s="21">
+        <v>2</v>
+      </c>
+      <c r="AK147" s="21">
+        <v>8</v>
+      </c>
+      <c r="AL147" s="21">
+        <v>9</v>
+      </c>
+      <c r="AM147" s="21">
+        <v>19</v>
+      </c>
+      <c r="AO147" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP147" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ147" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="148" spans="1:43" s="21" customFormat="1">
       <c r="P148" s="22"/>
@@ -19306,14 +19405,14 @@
       <c r="U148" s="20"/>
       <c r="V148" s="20"/>
       <c r="W148" s="20"/>
-      <c r="X148" s="20"/>
+      <c r="X148" s="15"/>
       <c r="Y148" s="20"/>
       <c r="Z148" s="20"/>
       <c r="AA148" s="20"/>
       <c r="AB148" s="20"/>
       <c r="AC148" s="20"/>
-      <c r="AD148" s="20"/>
-      <c r="AF148" s="23"/>
+      <c r="AD148" s="15"/>
+      <c r="AF148" s="41"/>
     </row>
     <row r="149" spans="1:43" s="21" customFormat="1">
       <c r="P149" s="22"/>
@@ -19323,14 +19422,14 @@
       <c r="T149" s="20"/>
       <c r="U149" s="20"/>
       <c r="V149" s="20"/>
-      <c r="W149" s="20"/>
-      <c r="X149" s="20"/>
+      <c r="W149" s="15"/>
+      <c r="X149" s="15"/>
       <c r="Y149" s="20"/>
       <c r="Z149" s="20"/>
       <c r="AA149" s="20"/>
       <c r="AB149" s="20"/>
       <c r="AC149" s="20"/>
-      <c r="AD149" s="20"/>
+      <c r="AD149" s="15"/>
       <c r="AF149" s="41"/>
     </row>
     <row r="150" spans="1:43" s="21" customFormat="1">
@@ -19341,13 +19440,13 @@
       <c r="T150" s="20"/>
       <c r="U150" s="20"/>
       <c r="V150" s="20"/>
-      <c r="W150" s="20"/>
+      <c r="W150" s="15"/>
       <c r="X150" s="15"/>
-      <c r="Y150" s="20"/>
-      <c r="Z150" s="20"/>
-      <c r="AA150" s="20"/>
-      <c r="AB150" s="20"/>
-      <c r="AC150" s="20"/>
+      <c r="Y150" s="15"/>
+      <c r="Z150" s="15"/>
+      <c r="AA150" s="15"/>
+      <c r="AB150" s="15"/>
+      <c r="AC150" s="15"/>
       <c r="AD150" s="15"/>
       <c r="AF150" s="41"/>
     </row>
@@ -19386,13 +19485,13 @@
       <c r="AD152" s="15"/>
       <c r="AF152" s="41"/>
     </row>
-    <row r="153" spans="1:43" s="21" customFormat="1">
-      <c r="Q153" s="20"/>
-      <c r="R153" s="20"/>
-      <c r="S153" s="20"/>
-      <c r="T153" s="20"/>
-      <c r="U153" s="20"/>
-      <c r="V153" s="20"/>
+    <row r="153" spans="1:43">
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="15"/>
+      <c r="T153" s="15"/>
+      <c r="U153" s="15"/>
+      <c r="V153" s="15"/>
       <c r="W153" s="15"/>
       <c r="X153" s="15"/>
       <c r="Y153" s="15"/>
@@ -19401,7 +19500,6 @@
       <c r="AB153" s="15"/>
       <c r="AC153" s="15"/>
       <c r="AD153" s="15"/>
-      <c r="AF153" s="41"/>
     </row>
     <row r="154" spans="1:43" s="21" customFormat="1">
       <c r="P154" s="22"/>
@@ -19411,31 +19509,33 @@
       <c r="T154" s="20"/>
       <c r="U154" s="20"/>
       <c r="V154" s="20"/>
-      <c r="W154" s="15"/>
+      <c r="W154" s="20"/>
       <c r="X154" s="15"/>
       <c r="Y154" s="15"/>
-      <c r="Z154" s="15"/>
-      <c r="AA154" s="15"/>
-      <c r="AB154" s="15"/>
-      <c r="AC154" s="15"/>
+      <c r="Z154" s="20"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="20"/>
+      <c r="AC154" s="20"/>
       <c r="AD154" s="15"/>
       <c r="AF154" s="41"/>
     </row>
-    <row r="155" spans="1:43">
-      <c r="Q155" s="15"/>
-      <c r="R155" s="15"/>
-      <c r="S155" s="15"/>
-      <c r="T155" s="15"/>
-      <c r="U155" s="15"/>
-      <c r="V155" s="15"/>
-      <c r="W155" s="15"/>
-      <c r="X155" s="15"/>
-      <c r="Y155" s="15"/>
-      <c r="Z155" s="15"/>
-      <c r="AA155" s="15"/>
-      <c r="AB155" s="15"/>
-      <c r="AC155" s="15"/>
+    <row r="155" spans="1:43" s="21" customFormat="1">
+      <c r="P155" s="22"/>
+      <c r="Q155" s="20"/>
+      <c r="R155" s="20"/>
+      <c r="S155" s="20"/>
+      <c r="T155" s="20"/>
+      <c r="U155" s="20"/>
+      <c r="V155" s="20"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
       <c r="AD155" s="15"/>
+      <c r="AF155" s="41"/>
     </row>
     <row r="156" spans="1:43" s="21" customFormat="1">
       <c r="P156" s="22"/>
@@ -19456,7 +19556,6 @@
       <c r="AF156" s="41"/>
     </row>
     <row r="157" spans="1:43" s="21" customFormat="1">
-      <c r="P157" s="22"/>
       <c r="Q157" s="20"/>
       <c r="R157" s="20"/>
       <c r="S157" s="20"/>
@@ -19474,24 +19573,6 @@
       <c r="AF157" s="41"/>
     </row>
     <row r="158" spans="1:43" s="21" customFormat="1">
-      <c r="I158" s="21">
-        <v>0</v>
-      </c>
-      <c r="J158" s="21">
-        <v>0</v>
-      </c>
-      <c r="K158" s="21">
-        <v>1</v>
-      </c>
-      <c r="L158" s="21">
-        <v>4</v>
-      </c>
-      <c r="M158" s="21">
-        <v>9</v>
-      </c>
-      <c r="N158" s="21">
-        <v>18</v>
-      </c>
       <c r="P158" s="22"/>
       <c r="Q158" s="20"/>
       <c r="R158" s="20"/>
@@ -19510,6 +19591,7 @@
       <c r="AF158" s="41"/>
     </row>
     <row r="159" spans="1:43" s="21" customFormat="1">
+      <c r="P159" s="22"/>
       <c r="Q159" s="20"/>
       <c r="R159" s="20"/>
       <c r="S159" s="20"/>
@@ -19517,34 +19599,16 @@
       <c r="U159" s="20"/>
       <c r="V159" s="20"/>
       <c r="W159" s="20"/>
-      <c r="X159" s="20"/>
-      <c r="Y159" s="20"/>
-      <c r="Z159" s="20"/>
-      <c r="AA159" s="20"/>
-      <c r="AB159" s="20"/>
-      <c r="AC159" s="20"/>
+      <c r="X159" s="15"/>
+      <c r="Y159" s="15"/>
+      <c r="Z159" s="15"/>
+      <c r="AA159" s="15"/>
+      <c r="AB159" s="15"/>
+      <c r="AC159" s="15"/>
       <c r="AD159" s="15"/>
       <c r="AF159" s="41"/>
     </row>
     <row r="160" spans="1:43" s="21" customFormat="1">
-      <c r="I160" s="21">
-        <v>0</v>
-      </c>
-      <c r="J160" s="21">
-        <v>0</v>
-      </c>
-      <c r="K160" s="21">
-        <v>1</v>
-      </c>
-      <c r="L160" s="21">
-        <v>3</v>
-      </c>
-      <c r="M160" s="21">
-        <v>5</v>
-      </c>
-      <c r="N160" s="21">
-        <v>8</v>
-      </c>
       <c r="P160" s="22"/>
       <c r="Q160" s="20"/>
       <c r="R160" s="20"/>
@@ -19552,9 +19616,9 @@
       <c r="T160" s="20"/>
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
-      <c r="W160" s="20"/>
-      <c r="X160" s="15"/>
-      <c r="Y160" s="15"/>
+      <c r="W160" s="15"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
       <c r="Z160" s="20"/>
       <c r="AA160" s="20"/>
       <c r="AB160" s="20"/>
@@ -19573,31 +19637,31 @@
       <c r="W161" s="20"/>
       <c r="X161" s="15"/>
       <c r="Y161" s="15"/>
-      <c r="Z161" s="15"/>
-      <c r="AA161" s="15"/>
-      <c r="AB161" s="15"/>
-      <c r="AC161" s="15"/>
+      <c r="Z161" s="20"/>
+      <c r="AA161" s="20"/>
+      <c r="AB161" s="20"/>
+      <c r="AC161" s="20"/>
       <c r="AD161" s="15"/>
       <c r="AF161" s="41"/>
     </row>
     <row r="162" spans="9:32" s="21" customFormat="1">
       <c r="I162" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K162" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L162" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M162" s="21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N162" s="21">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="P162" s="22"/>
       <c r="Q162" s="20"/>
@@ -19606,15 +19670,15 @@
       <c r="T162" s="20"/>
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
-      <c r="W162" s="15"/>
+      <c r="W162" s="20"/>
       <c r="X162" s="20"/>
       <c r="Y162" s="20"/>
       <c r="Z162" s="20"/>
       <c r="AA162" s="20"/>
       <c r="AB162" s="20"/>
       <c r="AC162" s="20"/>
-      <c r="AD162" s="15"/>
-      <c r="AF162" s="41"/>
+      <c r="AD162" s="20"/>
+      <c r="AF162" s="23"/>
     </row>
     <row r="163" spans="9:32" s="21" customFormat="1">
       <c r="P163" s="22"/>
@@ -19625,8 +19689,8 @@
       <c r="U163" s="20"/>
       <c r="V163" s="20"/>
       <c r="W163" s="20"/>
-      <c r="X163" s="15"/>
-      <c r="Y163" s="15"/>
+      <c r="X163" s="20"/>
+      <c r="Y163" s="20"/>
       <c r="Z163" s="20"/>
       <c r="AA163" s="20"/>
       <c r="AB163" s="20"/>
@@ -19635,6 +19699,24 @@
       <c r="AF163" s="41"/>
     </row>
     <row r="164" spans="9:32" s="21" customFormat="1">
+      <c r="I164" s="21">
+        <v>1</v>
+      </c>
+      <c r="J164" s="21">
+        <v>1</v>
+      </c>
+      <c r="K164" s="21">
+        <v>2</v>
+      </c>
+      <c r="L164" s="21">
+        <v>5</v>
+      </c>
+      <c r="M164" s="21">
+        <v>9</v>
+      </c>
+      <c r="N164" s="21">
+        <v>19</v>
+      </c>
       <c r="P164" s="22"/>
       <c r="Q164" s="20"/>
       <c r="R164" s="20"/>
@@ -19649,7 +19731,7 @@
       <c r="AA164" s="20"/>
       <c r="AB164" s="20"/>
       <c r="AC164" s="20"/>
-      <c r="AD164" s="15"/>
+      <c r="AD164" s="20"/>
       <c r="AF164" s="41"/>
     </row>
     <row r="165" spans="9:32" s="21" customFormat="1">
@@ -32284,10 +32366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO211"/>
+  <dimension ref="A1:AO213"/>
   <sheetViews>
     <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S150" sqref="S150"/>
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -35286,7 +35368,7 @@
       <c r="I144" s="10"/>
       <c r="O144" s="10"/>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:20">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -35310,7 +35392,7 @@
       </c>
       <c r="R145" s="10"/>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:20">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="9">
@@ -35334,18 +35416,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
+    <row r="147" spans="1:20">
+      <c r="A147" s="9">
+        <v>1</v>
+      </c>
+      <c r="B147" s="9">
+        <v>1</v>
+      </c>
+      <c r="C147" s="9">
+        <v>1</v>
+      </c>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="J147" s="10"/>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="I147" s="9">
+        <v>1</v>
+      </c>
+      <c r="J147" s="9">
+        <v>1</v>
+      </c>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="T147" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -35353,8 +35450,9 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -35363,7 +35461,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:20">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -35372,16 +35470,15 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:20">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-    </row>
-    <row r="152" spans="1:18">
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -35389,7 +35486,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:20">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -35397,7 +35494,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:20">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -35405,7 +35502,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:20">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -35413,7 +35510,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:20">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -35421,7 +35518,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:20">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -35429,7 +35526,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:20">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -35437,7 +35534,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:20">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -35445,7 +35542,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:20">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -35633,12 +35730,14 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="F184" s="10"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="F185" s="10"/>
@@ -35695,27 +35794,30 @@
       <c r="A194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
-      <c r="F194" s="18"/>
+      <c r="F194" s="10"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
-      <c r="F195" s="18"/>
+      <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
+      <c r="F196" s="18"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
+      <c r="F197" s="18"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="10"/>
       <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="10"/>
@@ -35750,6 +35852,7 @@
       <c r="C206" s="10"/>
     </row>
     <row r="207" spans="1:6">
+      <c r="A207" s="10"/>
       <c r="C207" s="10"/>
     </row>
     <row r="208" spans="1:6">
@@ -35763,6 +35866,12 @@
     </row>
     <row r="211" spans="3:3">
       <c r="C211" s="10"/>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="10"/>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35775,8 +35884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="R150" sqref="R150"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -38939,9 +39048,51 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="37"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
+      <c r="A147" s="21">
+        <v>1</v>
+      </c>
+      <c r="B147" s="21">
+        <v>1</v>
+      </c>
+      <c r="C147" s="21">
+        <v>4</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>2</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>3</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+      <c r="N147" s="1">
+        <v>2</v>
+      </c>
+      <c r="O147" s="1">
+        <v>3</v>
+      </c>
+      <c r="P147" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>6</v>
+      </c>
+      <c r="R147" s="1">
+        <v>6</v>
+      </c>
+      <c r="S147" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="37"/>
@@ -39032,10 +39183,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN146"/>
+  <dimension ref="A100:AN147"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="M150" sqref="M150"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41445,6 +41596,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="147" spans="2:19">
+      <c r="B147" s="9">
+        <v>1</v>
+      </c>
+      <c r="E147" s="9">
+        <v>1</v>
+      </c>
+      <c r="F147" s="9">
+        <v>1</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1</v>
+      </c>
+      <c r="I147" s="9">
+        <v>1</v>
+      </c>
+      <c r="J147" s="9">
+        <v>1</v>
+      </c>
+      <c r="L147" s="16">
+        <v>0</v>
+      </c>
+      <c r="M147" s="16">
+        <v>2</v>
+      </c>
+      <c r="N147" s="16">
+        <v>5</v>
+      </c>
+      <c r="O147" s="16">
+        <v>6</v>
+      </c>
+      <c r="P147" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q147" s="16">
+        <v>9</v>
+      </c>
+      <c r="S147" s="16">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41457,7 +41649,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41580,7 +41772,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -41715,7 +41907,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="18">
         <v>20</v>
@@ -41762,7 +41954,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -41783,7 +41975,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" s="18">
         <v>3</v>
@@ -41798,7 +41990,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
@@ -41844,13 +42036,16 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
       </c>
       <c r="G9" s="18">
         <v>4</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
@@ -41862,13 +42057,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -41888,7 +42083,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -41902,7 +42097,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -41916,19 +42111,19 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -41943,7 +42138,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA76" sqref="AA76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5378,7 +5378,9 @@
       <c r="O45" s="7">
         <v>7</v>
       </c>
-      <c r="P45" s="25"/>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
       <c r="Q45" s="7">
         <v>0</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" s="7">
         <v>15</v>
@@ -5952,7 +5954,7 @@
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="7">
         <v>2</v>
@@ -6111,7 +6113,7 @@
         <v>5</v>
       </c>
       <c r="AG52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="3" customFormat="1">
@@ -6161,7 +6163,7 @@
         <v>6</v>
       </c>
       <c r="R53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="7">
         <v>1</v>
@@ -6170,13 +6172,13 @@
         <v>4</v>
       </c>
       <c r="U53" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V53" s="7">
         <v>0</v>
       </c>
       <c r="W53" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X53" s="7">
         <v>1</v>
@@ -6197,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53" s="7">
         <v>5</v>
@@ -6208,7 +6210,9 @@
       <c r="AG53" s="7"/>
     </row>
     <row r="54" spans="1:33" s="28" customFormat="1">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7">
+        <v>0</v>
+      </c>
       <c r="B54" s="7">
         <v>5</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
@@ -6311,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I55" s="7">
         <v>13</v>
@@ -6325,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="N55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" s="7">
         <v>2</v>
@@ -6366,7 +6370,7 @@
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF55" s="7">
         <v>23</v>
@@ -6393,7 +6397,7 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -6416,7 +6420,7 @@
         <v>6</v>
       </c>
       <c r="T56" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="7">
@@ -6438,7 +6442,9 @@
       <c r="AB56" s="7">
         <v>0</v>
       </c>
-      <c r="AC56" s="7"/>
+      <c r="AC56" s="7">
+        <v>0</v>
+      </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
       <c r="AF56" s="7">
@@ -6551,7 +6557,7 @@
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
@@ -6562,12 +6568,14 @@
       <c r="X58" s="7">
         <v>17</v>
       </c>
-      <c r="Y58" s="28"/>
+      <c r="Y58" s="42">
+        <v>0</v>
+      </c>
       <c r="Z58" s="7">
         <v>16</v>
       </c>
       <c r="AA58" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB58" s="7">
         <v>2</v>
@@ -6576,7 +6584,7 @@
       <c r="AD58" s="28"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="7"/>
     </row>
@@ -6640,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L60" s="7">
         <v>3</v>
@@ -6682,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="26"/>
@@ -6690,7 +6698,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6729,7 +6737,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6749,7 +6757,9 @@
         <v>4</v>
       </c>
       <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
       <c r="P62" s="26"/>
       <c r="Q62" s="7">
         <v>2</v>
@@ -6763,7 +6773,7 @@
       </c>
       <c r="W62" s="7"/>
       <c r="X62" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7">
@@ -6771,7 +6781,7 @@
       </c>
       <c r="AA62" s="26"/>
       <c r="AB62" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -6890,12 +6900,14 @@
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
+      <c r="Z65" s="4">
+        <v>0</v>
+      </c>
       <c r="AB65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="3"/>
@@ -6942,7 +6954,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -6950,13 +6962,13 @@
       <c r="K67" s="3"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -6974,7 +6986,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="D68" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -7673,10 +7685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT975"/>
+  <dimension ref="A1:AT974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y157" sqref="Y157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -18524,7 +18536,7 @@
         <v>0</v>
       </c>
       <c r="V138" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W138" s="20"/>
       <c r="X138" s="19">
@@ -18709,7 +18721,7 @@
         <v>10</v>
       </c>
       <c r="P140" s="22"/>
-      <c r="Q140" s="20">
+      <c r="Q140" s="19">
         <v>9</v>
       </c>
       <c r="R140" s="19">
@@ -18743,7 +18755,9 @@
       <c r="AB140" s="19">
         <v>4</v>
       </c>
-      <c r="AC140" s="20"/>
+      <c r="AC140" s="19">
+        <v>9</v>
+      </c>
       <c r="AD140" s="20"/>
       <c r="AF140" s="41"/>
       <c r="AH140" s="21">
@@ -18807,10 +18821,10 @@
       </c>
       <c r="P141" s="22"/>
       <c r="Q141" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R141" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S141" s="19">
         <v>2</v>
@@ -18919,7 +18933,7 @@
       <c r="U142" s="19">
         <v>0</v>
       </c>
-      <c r="V142" s="20">
+      <c r="V142" s="19">
         <v>7</v>
       </c>
       <c r="W142" s="20"/>
@@ -18938,7 +18952,9 @@
       <c r="AB142" s="19">
         <v>5</v>
       </c>
-      <c r="AC142" s="20"/>
+      <c r="AC142" s="19">
+        <v>7</v>
+      </c>
       <c r="AD142" s="20"/>
       <c r="AF142" s="41"/>
       <c r="AH142" s="21">
@@ -19011,7 +19027,7 @@
         <v>5</v>
       </c>
       <c r="S143" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T143" s="19">
         <v>4</v>
@@ -19105,10 +19121,10 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R144" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S144" s="19">
         <v>3</v>
@@ -19117,10 +19133,10 @@
         <v>2</v>
       </c>
       <c r="U144" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V144" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W144" s="20"/>
       <c r="X144" s="22">
@@ -19199,19 +19215,19 @@
         <v>2</v>
       </c>
       <c r="R145" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S145" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T145" s="19">
         <v>1</v>
       </c>
       <c r="U145" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V145" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W145" s="20"/>
       <c r="X145" s="22">
@@ -19290,10 +19306,10 @@
       </c>
       <c r="P146" s="22"/>
       <c r="Q146" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R146" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S146" s="19">
         <v>2</v>
@@ -19305,7 +19321,7 @@
         <v>2</v>
       </c>
       <c r="V146" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W146" s="20"/>
       <c r="X146" s="22">
@@ -19386,19 +19402,19 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>2</v>
-      </c>
-      <c r="R147" s="20">
-        <v>2</v>
-      </c>
-      <c r="S147" s="20">
+        <v>3</v>
+      </c>
+      <c r="R147" s="19">
+        <v>2</v>
+      </c>
+      <c r="S147" s="19">
         <v>2</v>
       </c>
       <c r="T147" s="19">
         <v>0</v>
       </c>
       <c r="U147" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V147" s="19">
         <v>1</v>
@@ -19410,8 +19426,12 @@
       <c r="Y147" s="19">
         <v>1</v>
       </c>
-      <c r="Z147" s="20"/>
-      <c r="AA147" s="20"/>
+      <c r="Z147" s="19">
+        <v>2</v>
+      </c>
+      <c r="AA147" s="19">
+        <v>2</v>
+      </c>
       <c r="AB147" s="20"/>
       <c r="AC147" s="20"/>
       <c r="AD147" s="20"/>
@@ -19483,22 +19503,22 @@
       </c>
       <c r="P148" s="22"/>
       <c r="Q148" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R148" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S148" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T148" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U148" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V148" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W148" s="15"/>
       <c r="X148" s="20"/>
@@ -19573,26 +19593,30 @@
       </c>
       <c r="P149" s="22"/>
       <c r="Q149" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149" s="20">
-        <v>0</v>
-      </c>
-      <c r="S149" s="20">
-        <v>0</v>
-      </c>
-      <c r="T149" s="20">
+        <v>1</v>
+      </c>
+      <c r="S149" s="19">
+        <v>0</v>
+      </c>
+      <c r="T149" s="19">
         <v>0</v>
       </c>
       <c r="U149" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V149" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W149" s="15"/>
-      <c r="X149" s="20"/>
-      <c r="Y149" s="20"/>
+      <c r="X149" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="19">
+        <v>0</v>
+      </c>
       <c r="Z149" s="20"/>
       <c r="AA149" s="20"/>
       <c r="AB149" s="20"/>
@@ -19625,39 +19649,88 @@
       </c>
     </row>
     <row r="150" spans="1:43" s="21" customFormat="1">
+      <c r="A150" s="21">
+        <v>9</v>
+      </c>
+      <c r="B150" s="21">
+        <v>2</v>
+      </c>
+      <c r="C150" s="21">
+        <v>2</v>
+      </c>
+      <c r="D150" s="21">
+        <v>0</v>
+      </c>
+      <c r="E150" s="21">
+        <v>0</v>
+      </c>
+      <c r="F150" s="21">
+        <v>7</v>
+      </c>
+      <c r="I150" s="21">
+        <v>0</v>
+      </c>
+      <c r="J150" s="21">
+        <v>0</v>
+      </c>
+      <c r="K150" s="21">
+        <v>2</v>
+      </c>
+      <c r="L150" s="21">
+        <v>2</v>
+      </c>
+      <c r="M150" s="21">
+        <v>7</v>
+      </c>
+      <c r="N150" s="21">
+        <v>9</v>
+      </c>
       <c r="P150" s="22"/>
-      <c r="Q150" s="20"/>
-      <c r="R150" s="20"/>
-      <c r="S150" s="20"/>
-      <c r="T150" s="20"/>
-      <c r="U150" s="20"/>
-      <c r="V150" s="20"/>
-      <c r="W150" s="15"/>
-      <c r="X150" s="15"/>
-      <c r="Y150" s="15"/>
-      <c r="Z150" s="15"/>
-      <c r="AA150" s="15"/>
-      <c r="AB150" s="15"/>
-      <c r="AC150" s="15"/>
-      <c r="AD150" s="15"/>
+      <c r="Q150" s="20">
+        <v>0</v>
+      </c>
+      <c r="R150" s="20">
+        <v>0</v>
+      </c>
+      <c r="S150" s="20">
+        <v>0</v>
+      </c>
+      <c r="T150" s="20">
+        <v>0</v>
+      </c>
+      <c r="U150" s="20">
+        <v>0</v>
+      </c>
+      <c r="V150" s="20">
+        <v>0</v>
+      </c>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
+      <c r="AD150" s="20"/>
       <c r="AF150" s="41"/>
     </row>
-    <row r="151" spans="1:43">
-      <c r="P151" s="18"/>
+    <row r="151" spans="1:43" s="21" customFormat="1">
+      <c r="P151" s="22"/>
       <c r="Q151" s="20"/>
       <c r="R151" s="20"/>
       <c r="S151" s="20"/>
       <c r="T151" s="20"/>
       <c r="U151" s="20"/>
       <c r="V151" s="20"/>
-      <c r="W151" s="15"/>
-      <c r="X151" s="15"/>
-      <c r="Y151" s="15"/>
-      <c r="Z151" s="15"/>
-      <c r="AA151" s="15"/>
-      <c r="AB151" s="15"/>
-      <c r="AC151" s="15"/>
-      <c r="AD151" s="15"/>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
+      <c r="AA151" s="20"/>
+      <c r="AB151" s="20"/>
+      <c r="AC151" s="20"/>
+      <c r="AD151" s="20"/>
+      <c r="AF151" s="41"/>
     </row>
     <row r="152" spans="1:43" s="21" customFormat="1">
       <c r="P152" s="22"/>
@@ -19714,6 +19787,7 @@
       <c r="AF154" s="41"/>
     </row>
     <row r="155" spans="1:43" s="21" customFormat="1">
+      <c r="P155" s="22"/>
       <c r="Q155" s="20"/>
       <c r="R155" s="20"/>
       <c r="S155" s="20"/>
@@ -19721,12 +19795,12 @@
       <c r="U155" s="20"/>
       <c r="V155" s="20"/>
       <c r="W155" s="20"/>
-      <c r="X155" s="20"/>
-      <c r="Y155" s="20"/>
-      <c r="Z155" s="20"/>
-      <c r="AA155" s="20"/>
-      <c r="AB155" s="20"/>
-      <c r="AC155" s="20"/>
+      <c r="X155" s="15"/>
+      <c r="Y155" s="15"/>
+      <c r="Z155" s="15"/>
+      <c r="AA155" s="15"/>
+      <c r="AB155" s="15"/>
+      <c r="AC155" s="15"/>
       <c r="AD155" s="15"/>
       <c r="AF155" s="41"/>
     </row>
@@ -19738,9 +19812,9 @@
       <c r="T156" s="20"/>
       <c r="U156" s="20"/>
       <c r="V156" s="20"/>
-      <c r="W156" s="20"/>
-      <c r="X156" s="15"/>
-      <c r="Y156" s="15"/>
+      <c r="W156" s="15"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
       <c r="Z156" s="20"/>
       <c r="AA156" s="20"/>
       <c r="AB156" s="20"/>
@@ -19758,11 +19832,11 @@
       <c r="V157" s="20"/>
       <c r="W157" s="20"/>
       <c r="X157" s="15"/>
-      <c r="Y157" s="15"/>
-      <c r="Z157" s="15"/>
-      <c r="AA157" s="15"/>
-      <c r="AB157" s="15"/>
-      <c r="AC157" s="15"/>
+      <c r="Y157" s="20"/>
+      <c r="Z157" s="20"/>
+      <c r="AA157" s="20"/>
+      <c r="AB157" s="20"/>
+      <c r="AC157" s="20"/>
       <c r="AD157" s="15"/>
       <c r="AF157" s="41"/>
     </row>
@@ -19774,9 +19848,9 @@
       <c r="T158" s="20"/>
       <c r="U158" s="20"/>
       <c r="V158" s="20"/>
-      <c r="W158" s="15"/>
-      <c r="X158" s="20"/>
-      <c r="Y158" s="20"/>
+      <c r="W158" s="20"/>
+      <c r="X158" s="15"/>
+      <c r="Y158" s="15"/>
       <c r="Z158" s="20"/>
       <c r="AA158" s="20"/>
       <c r="AB158" s="20"/>
@@ -19793,32 +19867,31 @@
       <c r="U159" s="20"/>
       <c r="V159" s="20"/>
       <c r="W159" s="20"/>
-      <c r="X159" s="15"/>
+      <c r="X159" s="20"/>
       <c r="Y159" s="20"/>
       <c r="Z159" s="20"/>
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
       <c r="AC159" s="20"/>
-      <c r="AD159" s="15"/>
-      <c r="AF159" s="41"/>
-    </row>
-    <row r="160" spans="1:43" s="21" customFormat="1">
-      <c r="P160" s="22"/>
+      <c r="AD159" s="20"/>
+      <c r="AF159" s="23"/>
+    </row>
+    <row r="160" spans="1:43">
+      <c r="P160" s="18"/>
       <c r="Q160" s="20"/>
       <c r="R160" s="20"/>
       <c r="S160" s="20"/>
       <c r="T160" s="20"/>
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
-      <c r="W160" s="20"/>
-      <c r="X160" s="15"/>
-      <c r="Y160" s="15"/>
+      <c r="W160" s="15"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
       <c r="Z160" s="20"/>
       <c r="AA160" s="20"/>
       <c r="AB160" s="20"/>
       <c r="AC160" s="20"/>
-      <c r="AD160" s="15"/>
-      <c r="AF160" s="41"/>
+      <c r="AD160" s="20"/>
     </row>
     <row r="161" spans="16:32" s="21" customFormat="1">
       <c r="P161" s="22"/>
@@ -19835,8 +19908,8 @@
       <c r="AA161" s="20"/>
       <c r="AB161" s="20"/>
       <c r="AC161" s="20"/>
-      <c r="AD161" s="20"/>
-      <c r="AF161" s="23"/>
+      <c r="AD161" s="15"/>
+      <c r="AF161" s="41"/>
     </row>
     <row r="162" spans="16:32" s="21" customFormat="1">
       <c r="P162" s="22"/>
@@ -19853,7 +19926,7 @@
       <c r="AA162" s="20"/>
       <c r="AB162" s="20"/>
       <c r="AC162" s="20"/>
-      <c r="AD162" s="15"/>
+      <c r="AD162" s="20"/>
       <c r="AF162" s="41"/>
     </row>
     <row r="163" spans="16:32" s="21" customFormat="1">
@@ -19865,13 +19938,13 @@
       <c r="U163" s="20"/>
       <c r="V163" s="20"/>
       <c r="W163" s="20"/>
-      <c r="X163" s="20"/>
-      <c r="Y163" s="20"/>
-      <c r="Z163" s="20"/>
-      <c r="AA163" s="20"/>
-      <c r="AB163" s="20"/>
-      <c r="AC163" s="20"/>
-      <c r="AD163" s="20"/>
+      <c r="X163" s="15"/>
+      <c r="Y163" s="15"/>
+      <c r="Z163" s="15"/>
+      <c r="AA163" s="15"/>
+      <c r="AB163" s="15"/>
+      <c r="AC163" s="15"/>
+      <c r="AD163" s="15"/>
       <c r="AF163" s="41"/>
     </row>
     <row r="164" spans="16:32" s="21" customFormat="1">
@@ -19918,7 +19991,7 @@
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
       <c r="V166" s="20"/>
-      <c r="W166" s="20"/>
+      <c r="W166" s="15"/>
       <c r="X166" s="15"/>
       <c r="Y166" s="15"/>
       <c r="Z166" s="15"/>
@@ -19929,37 +20002,37 @@
       <c r="AF166" s="41"/>
     </row>
     <row r="167" spans="16:32" s="21" customFormat="1">
-      <c r="P167" s="22"/>
       <c r="Q167" s="20"/>
       <c r="R167" s="20"/>
       <c r="S167" s="20"/>
       <c r="T167" s="20"/>
       <c r="U167" s="20"/>
       <c r="V167" s="20"/>
-      <c r="W167" s="15"/>
+      <c r="W167" s="20"/>
       <c r="X167" s="15"/>
       <c r="Y167" s="15"/>
-      <c r="Z167" s="15"/>
-      <c r="AA167" s="15"/>
-      <c r="AB167" s="15"/>
-      <c r="AC167" s="15"/>
+      <c r="Z167" s="20"/>
+      <c r="AA167" s="20"/>
+      <c r="AB167" s="20"/>
+      <c r="AC167" s="20"/>
       <c r="AD167" s="15"/>
       <c r="AF167" s="41"/>
     </row>
     <row r="168" spans="16:32" s="21" customFormat="1">
+      <c r="P168" s="22"/>
       <c r="Q168" s="20"/>
       <c r="R168" s="20"/>
       <c r="S168" s="20"/>
       <c r="T168" s="20"/>
       <c r="U168" s="20"/>
       <c r="V168" s="20"/>
-      <c r="W168" s="20"/>
+      <c r="W168" s="15"/>
       <c r="X168" s="15"/>
       <c r="Y168" s="15"/>
-      <c r="Z168" s="20"/>
-      <c r="AA168" s="20"/>
-      <c r="AB168" s="20"/>
-      <c r="AC168" s="20"/>
+      <c r="Z168" s="15"/>
+      <c r="AA168" s="15"/>
+      <c r="AB168" s="15"/>
+      <c r="AC168" s="15"/>
       <c r="AD168" s="15"/>
       <c r="AF168" s="41"/>
     </row>
@@ -19971,13 +20044,13 @@
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
       <c r="V169" s="20"/>
-      <c r="W169" s="15"/>
-      <c r="X169" s="15"/>
-      <c r="Y169" s="15"/>
-      <c r="Z169" s="15"/>
-      <c r="AA169" s="15"/>
-      <c r="AB169" s="15"/>
-      <c r="AC169" s="15"/>
+      <c r="W169" s="20"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
+      <c r="AB169" s="20"/>
+      <c r="AC169" s="20"/>
       <c r="AD169" s="15"/>
       <c r="AF169" s="41"/>
     </row>
@@ -20008,12 +20081,12 @@
       <c r="U171" s="20"/>
       <c r="V171" s="20"/>
       <c r="W171" s="20"/>
-      <c r="X171" s="20"/>
-      <c r="Y171" s="20"/>
-      <c r="Z171" s="20"/>
-      <c r="AA171" s="20"/>
-      <c r="AB171" s="20"/>
-      <c r="AC171" s="20"/>
+      <c r="X171" s="15"/>
+      <c r="Y171" s="15"/>
+      <c r="Z171" s="15"/>
+      <c r="AA171" s="15"/>
+      <c r="AB171" s="15"/>
+      <c r="AC171" s="15"/>
       <c r="AD171" s="15"/>
       <c r="AF171" s="41"/>
     </row>
@@ -20025,7 +20098,7 @@
       <c r="T172" s="20"/>
       <c r="U172" s="20"/>
       <c r="V172" s="20"/>
-      <c r="W172" s="20"/>
+      <c r="W172" s="15"/>
       <c r="X172" s="15"/>
       <c r="Y172" s="15"/>
       <c r="Z172" s="15"/>
@@ -20036,7 +20109,6 @@
       <c r="AF172" s="41"/>
     </row>
     <row r="173" spans="16:32" s="21" customFormat="1">
-      <c r="P173" s="22"/>
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
       <c r="S173" s="20"/>
@@ -20054,6 +20126,7 @@
       <c r="AF173" s="41"/>
     </row>
     <row r="174" spans="16:32" s="21" customFormat="1">
+      <c r="P174" s="22"/>
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
       <c r="S174" s="20"/>
@@ -20078,18 +20151,17 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
       <c r="V175" s="20"/>
-      <c r="W175" s="15"/>
-      <c r="X175" s="15"/>
-      <c r="Y175" s="15"/>
-      <c r="Z175" s="15"/>
-      <c r="AA175" s="15"/>
-      <c r="AB175" s="15"/>
-      <c r="AC175" s="15"/>
+      <c r="W175" s="20"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
+      <c r="Z175" s="20"/>
+      <c r="AA175" s="20"/>
+      <c r="AB175" s="20"/>
+      <c r="AC175" s="20"/>
       <c r="AD175" s="15"/>
       <c r="AF175" s="41"/>
     </row>
     <row r="176" spans="16:32" s="21" customFormat="1">
-      <c r="P176" s="22"/>
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
       <c r="S176" s="20"/>
@@ -20097,8 +20169,8 @@
       <c r="U176" s="20"/>
       <c r="V176" s="20"/>
       <c r="W176" s="20"/>
-      <c r="X176" s="20"/>
-      <c r="Y176" s="20"/>
+      <c r="X176" s="15"/>
+      <c r="Y176" s="15"/>
       <c r="Z176" s="20"/>
       <c r="AA176" s="20"/>
       <c r="AB176" s="20"/>
@@ -20107,6 +20179,7 @@
       <c r="AF176" s="41"/>
     </row>
     <row r="177" spans="16:32" s="21" customFormat="1">
+      <c r="P177" s="22"/>
       <c r="Q177" s="20"/>
       <c r="R177" s="20"/>
       <c r="S177" s="20"/>
@@ -20134,33 +20207,32 @@
       <c r="W178" s="20"/>
       <c r="X178" s="15"/>
       <c r="Y178" s="15"/>
-      <c r="Z178" s="20"/>
-      <c r="AA178" s="20"/>
-      <c r="AB178" s="20"/>
-      <c r="AC178" s="20"/>
+      <c r="Z178" s="15"/>
+      <c r="AA178" s="15"/>
+      <c r="AB178" s="15"/>
+      <c r="AC178" s="15"/>
       <c r="AD178" s="15"/>
       <c r="AF178" s="41"/>
     </row>
     <row r="179" spans="16:32" s="21" customFormat="1">
       <c r="P179" s="22"/>
-      <c r="Q179" s="20"/>
-      <c r="R179" s="20"/>
-      <c r="S179" s="20"/>
-      <c r="T179" s="20"/>
-      <c r="U179" s="20"/>
-      <c r="V179" s="20"/>
-      <c r="W179" s="20"/>
-      <c r="X179" s="15"/>
-      <c r="Y179" s="15"/>
-      <c r="Z179" s="15"/>
-      <c r="AA179" s="15"/>
-      <c r="AB179" s="15"/>
-      <c r="AC179" s="15"/>
-      <c r="AD179" s="15"/>
+      <c r="Q179" s="23"/>
+      <c r="R179" s="23"/>
+      <c r="S179" s="23"/>
+      <c r="T179" s="23"/>
+      <c r="U179" s="23"/>
+      <c r="V179" s="23"/>
+      <c r="W179" s="23"/>
+      <c r="X179" s="41"/>
+      <c r="Y179" s="41"/>
+      <c r="Z179" s="23"/>
+      <c r="AA179" s="23"/>
+      <c r="AB179" s="23"/>
+      <c r="AC179" s="23"/>
+      <c r="AD179" s="41"/>
       <c r="AF179" s="41"/>
     </row>
     <row r="180" spans="16:32" s="21" customFormat="1">
-      <c r="P180" s="22"/>
       <c r="Q180" s="23"/>
       <c r="R180" s="23"/>
       <c r="S180" s="23"/>
@@ -20187,10 +20259,10 @@
       <c r="W181" s="23"/>
       <c r="X181" s="41"/>
       <c r="Y181" s="41"/>
-      <c r="Z181" s="23"/>
-      <c r="AA181" s="23"/>
-      <c r="AB181" s="23"/>
-      <c r="AC181" s="23"/>
+      <c r="Z181" s="41"/>
+      <c r="AA181" s="41"/>
+      <c r="AB181" s="41"/>
+      <c r="AC181" s="41"/>
       <c r="AD181" s="41"/>
       <c r="AF181" s="41"/>
     </row>
@@ -20204,14 +20276,15 @@
       <c r="W182" s="23"/>
       <c r="X182" s="41"/>
       <c r="Y182" s="41"/>
-      <c r="Z182" s="41"/>
-      <c r="AA182" s="41"/>
-      <c r="AB182" s="41"/>
-      <c r="AC182" s="41"/>
+      <c r="Z182" s="23"/>
+      <c r="AA182" s="23"/>
+      <c r="AB182" s="23"/>
+      <c r="AC182" s="23"/>
       <c r="AD182" s="41"/>
       <c r="AF182" s="41"/>
     </row>
     <row r="183" spans="16:32" s="21" customFormat="1">
+      <c r="P183" s="22"/>
       <c r="Q183" s="23"/>
       <c r="R183" s="23"/>
       <c r="S183" s="23"/>
@@ -20221,10 +20294,10 @@
       <c r="W183" s="23"/>
       <c r="X183" s="41"/>
       <c r="Y183" s="41"/>
-      <c r="Z183" s="23"/>
-      <c r="AA183" s="23"/>
-      <c r="AB183" s="23"/>
-      <c r="AC183" s="23"/>
+      <c r="Z183" s="41"/>
+      <c r="AA183" s="41"/>
+      <c r="AB183" s="41"/>
+      <c r="AC183" s="41"/>
       <c r="AD183" s="41"/>
       <c r="AF183" s="41"/>
     </row>
@@ -20239,10 +20312,10 @@
       <c r="W184" s="23"/>
       <c r="X184" s="41"/>
       <c r="Y184" s="41"/>
-      <c r="Z184" s="41"/>
-      <c r="AA184" s="41"/>
-      <c r="AB184" s="41"/>
-      <c r="AC184" s="41"/>
+      <c r="Z184" s="23"/>
+      <c r="AA184" s="23"/>
+      <c r="AB184" s="23"/>
+      <c r="AC184" s="23"/>
       <c r="AD184" s="41"/>
       <c r="AF184" s="41"/>
     </row>
@@ -20257,10 +20330,10 @@
       <c r="W185" s="23"/>
       <c r="X185" s="41"/>
       <c r="Y185" s="41"/>
-      <c r="Z185" s="23"/>
-      <c r="AA185" s="23"/>
-      <c r="AB185" s="23"/>
-      <c r="AC185" s="23"/>
+      <c r="Z185" s="41"/>
+      <c r="AA185" s="41"/>
+      <c r="AB185" s="41"/>
+      <c r="AC185" s="41"/>
       <c r="AD185" s="41"/>
       <c r="AF185" s="41"/>
     </row>
@@ -20275,10 +20348,10 @@
       <c r="W186" s="23"/>
       <c r="X186" s="41"/>
       <c r="Y186" s="41"/>
-      <c r="Z186" s="41"/>
-      <c r="AA186" s="41"/>
-      <c r="AB186" s="41"/>
-      <c r="AC186" s="41"/>
+      <c r="Z186" s="23"/>
+      <c r="AA186" s="23"/>
+      <c r="AB186" s="23"/>
+      <c r="AC186" s="23"/>
       <c r="AD186" s="41"/>
       <c r="AF186" s="41"/>
     </row>
@@ -20290,18 +20363,17 @@
       <c r="T187" s="23"/>
       <c r="U187" s="23"/>
       <c r="V187" s="23"/>
-      <c r="W187" s="23"/>
+      <c r="W187" s="41"/>
       <c r="X187" s="41"/>
       <c r="Y187" s="41"/>
-      <c r="Z187" s="23"/>
-      <c r="AA187" s="23"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="23"/>
+      <c r="Z187" s="41"/>
+      <c r="AA187" s="41"/>
+      <c r="AB187" s="41"/>
+      <c r="AC187" s="41"/>
       <c r="AD187" s="41"/>
       <c r="AF187" s="41"/>
     </row>
     <row r="188" spans="16:32" s="21" customFormat="1">
-      <c r="P188" s="22"/>
       <c r="Q188" s="23"/>
       <c r="R188" s="23"/>
       <c r="S188" s="23"/>
@@ -20325,30 +20397,31 @@
       <c r="T189" s="23"/>
       <c r="U189" s="23"/>
       <c r="V189" s="23"/>
-      <c r="W189" s="41"/>
+      <c r="W189" s="23"/>
       <c r="X189" s="41"/>
       <c r="Y189" s="41"/>
-      <c r="Z189" s="41"/>
-      <c r="AA189" s="41"/>
-      <c r="AB189" s="41"/>
-      <c r="AC189" s="41"/>
+      <c r="Z189" s="23"/>
+      <c r="AA189" s="23"/>
+      <c r="AB189" s="23"/>
+      <c r="AC189" s="23"/>
       <c r="AD189" s="41"/>
       <c r="AF189" s="41"/>
     </row>
     <row r="190" spans="16:32" s="21" customFormat="1">
+      <c r="P190" s="22"/>
       <c r="Q190" s="23"/>
       <c r="R190" s="23"/>
       <c r="S190" s="23"/>
       <c r="T190" s="23"/>
       <c r="U190" s="23"/>
       <c r="V190" s="23"/>
-      <c r="W190" s="23"/>
+      <c r="W190" s="41"/>
       <c r="X190" s="41"/>
       <c r="Y190" s="41"/>
-      <c r="Z190" s="23"/>
-      <c r="AA190" s="23"/>
-      <c r="AB190" s="23"/>
-      <c r="AC190" s="23"/>
+      <c r="Z190" s="41"/>
+      <c r="AA190" s="41"/>
+      <c r="AB190" s="41"/>
+      <c r="AC190" s="41"/>
       <c r="AD190" s="41"/>
       <c r="AF190" s="41"/>
     </row>
@@ -20389,7 +20462,6 @@
       <c r="AF192" s="41"/>
     </row>
     <row r="193" spans="16:32" s="21" customFormat="1">
-      <c r="P193" s="22"/>
       <c r="Q193" s="23"/>
       <c r="R193" s="23"/>
       <c r="S193" s="23"/>
@@ -20430,13 +20502,13 @@
       <c r="T195" s="23"/>
       <c r="U195" s="23"/>
       <c r="V195" s="23"/>
-      <c r="W195" s="41"/>
+      <c r="W195" s="23"/>
       <c r="X195" s="41"/>
       <c r="Y195" s="41"/>
-      <c r="Z195" s="41"/>
-      <c r="AA195" s="41"/>
-      <c r="AB195" s="41"/>
-      <c r="AC195" s="41"/>
+      <c r="Z195" s="23"/>
+      <c r="AA195" s="23"/>
+      <c r="AB195" s="23"/>
+      <c r="AC195" s="23"/>
       <c r="AD195" s="41"/>
       <c r="AF195" s="41"/>
     </row>
@@ -20450,14 +20522,15 @@
       <c r="W196" s="23"/>
       <c r="X196" s="41"/>
       <c r="Y196" s="41"/>
-      <c r="Z196" s="23"/>
-      <c r="AA196" s="23"/>
-      <c r="AB196" s="23"/>
-      <c r="AC196" s="23"/>
+      <c r="Z196" s="41"/>
+      <c r="AA196" s="41"/>
+      <c r="AB196" s="41"/>
+      <c r="AC196" s="41"/>
       <c r="AD196" s="41"/>
       <c r="AF196" s="41"/>
     </row>
     <row r="197" spans="16:32" s="21" customFormat="1">
+      <c r="P197" s="22"/>
       <c r="Q197" s="23"/>
       <c r="R197" s="23"/>
       <c r="S197" s="23"/>
@@ -20467,15 +20540,14 @@
       <c r="W197" s="23"/>
       <c r="X197" s="41"/>
       <c r="Y197" s="41"/>
-      <c r="Z197" s="41"/>
-      <c r="AA197" s="41"/>
-      <c r="AB197" s="41"/>
-      <c r="AC197" s="41"/>
+      <c r="Z197" s="23"/>
+      <c r="AA197" s="23"/>
+      <c r="AB197" s="23"/>
+      <c r="AC197" s="23"/>
       <c r="AD197" s="41"/>
       <c r="AF197" s="41"/>
     </row>
     <row r="198" spans="16:32" s="21" customFormat="1">
-      <c r="P198" s="22"/>
       <c r="Q198" s="23"/>
       <c r="R198" s="23"/>
       <c r="S198" s="23"/>
@@ -20493,6 +20565,7 @@
       <c r="AF198" s="41"/>
     </row>
     <row r="199" spans="16:32" s="21" customFormat="1">
+      <c r="P199" s="22"/>
       <c r="Q199" s="23"/>
       <c r="R199" s="23"/>
       <c r="S199" s="23"/>
@@ -20502,10 +20575,10 @@
       <c r="W199" s="23"/>
       <c r="X199" s="41"/>
       <c r="Y199" s="41"/>
-      <c r="Z199" s="23"/>
-      <c r="AA199" s="23"/>
-      <c r="AB199" s="23"/>
-      <c r="AC199" s="23"/>
+      <c r="Z199" s="41"/>
+      <c r="AA199" s="41"/>
+      <c r="AB199" s="41"/>
+      <c r="AC199" s="41"/>
       <c r="AD199" s="41"/>
       <c r="AF199" s="41"/>
     </row>
@@ -20520,10 +20593,10 @@
       <c r="W200" s="23"/>
       <c r="X200" s="41"/>
       <c r="Y200" s="41"/>
-      <c r="Z200" s="41"/>
-      <c r="AA200" s="41"/>
-      <c r="AB200" s="41"/>
-      <c r="AC200" s="41"/>
+      <c r="Z200" s="23"/>
+      <c r="AA200" s="23"/>
+      <c r="AB200" s="23"/>
+      <c r="AC200" s="23"/>
       <c r="AD200" s="41"/>
       <c r="AF200" s="41"/>
     </row>
@@ -20538,10 +20611,10 @@
       <c r="W201" s="23"/>
       <c r="X201" s="41"/>
       <c r="Y201" s="41"/>
-      <c r="Z201" s="23"/>
-      <c r="AA201" s="23"/>
-      <c r="AB201" s="23"/>
-      <c r="AC201" s="23"/>
+      <c r="Z201" s="41"/>
+      <c r="AA201" s="41"/>
+      <c r="AB201" s="41"/>
+      <c r="AC201" s="41"/>
       <c r="AD201" s="41"/>
       <c r="AF201" s="41"/>
     </row>
@@ -20556,10 +20629,10 @@
       <c r="W202" s="23"/>
       <c r="X202" s="41"/>
       <c r="Y202" s="41"/>
-      <c r="Z202" s="41"/>
-      <c r="AA202" s="41"/>
-      <c r="AB202" s="41"/>
-      <c r="AC202" s="41"/>
+      <c r="Z202" s="23"/>
+      <c r="AA202" s="23"/>
+      <c r="AB202" s="23"/>
+      <c r="AC202" s="23"/>
       <c r="AD202" s="41"/>
       <c r="AF202" s="41"/>
     </row>
@@ -20571,18 +20644,17 @@
       <c r="T203" s="23"/>
       <c r="U203" s="23"/>
       <c r="V203" s="23"/>
-      <c r="W203" s="23"/>
+      <c r="W203" s="41"/>
       <c r="X203" s="41"/>
       <c r="Y203" s="41"/>
-      <c r="Z203" s="23"/>
-      <c r="AA203" s="23"/>
-      <c r="AB203" s="23"/>
-      <c r="AC203" s="23"/>
+      <c r="Z203" s="41"/>
+      <c r="AA203" s="41"/>
+      <c r="AB203" s="41"/>
+      <c r="AC203" s="41"/>
       <c r="AD203" s="41"/>
       <c r="AF203" s="41"/>
     </row>
     <row r="204" spans="16:32" s="21" customFormat="1">
-      <c r="P204" s="22"/>
       <c r="Q204" s="23"/>
       <c r="R204" s="23"/>
       <c r="S204" s="23"/>
@@ -20600,6 +20672,7 @@
       <c r="AF204" s="41"/>
     </row>
     <row r="205" spans="16:32" s="21" customFormat="1">
+      <c r="P205" s="22"/>
       <c r="Q205" s="23"/>
       <c r="R205" s="23"/>
       <c r="S205" s="23"/>
@@ -20617,7 +20690,6 @@
       <c r="AF205" s="41"/>
     </row>
     <row r="206" spans="16:32" s="21" customFormat="1">
-      <c r="P206" s="22"/>
       <c r="Q206" s="23"/>
       <c r="R206" s="23"/>
       <c r="S206" s="23"/>
@@ -20641,52 +20713,53 @@
       <c r="T207" s="23"/>
       <c r="U207" s="23"/>
       <c r="V207" s="23"/>
-      <c r="W207" s="41"/>
+      <c r="W207" s="23"/>
       <c r="X207" s="41"/>
       <c r="Y207" s="41"/>
-      <c r="Z207" s="41"/>
-      <c r="AA207" s="41"/>
-      <c r="AB207" s="41"/>
-      <c r="AC207" s="41"/>
+      <c r="Z207" s="23"/>
+      <c r="AA207" s="23"/>
+      <c r="AB207" s="23"/>
+      <c r="AC207" s="23"/>
       <c r="AD207" s="41"/>
       <c r="AF207" s="41"/>
     </row>
     <row r="208" spans="16:32" s="21" customFormat="1">
+      <c r="P208" s="22"/>
       <c r="Q208" s="23"/>
       <c r="R208" s="23"/>
       <c r="S208" s="23"/>
       <c r="T208" s="23"/>
       <c r="U208" s="23"/>
       <c r="V208" s="23"/>
-      <c r="W208" s="23"/>
+      <c r="W208" s="41"/>
       <c r="X208" s="41"/>
       <c r="Y208" s="41"/>
-      <c r="Z208" s="23"/>
-      <c r="AA208" s="23"/>
-      <c r="AB208" s="23"/>
-      <c r="AC208" s="23"/>
+      <c r="Z208" s="41"/>
+      <c r="AA208" s="41"/>
+      <c r="AB208" s="41"/>
+      <c r="AC208" s="41"/>
       <c r="AD208" s="41"/>
       <c r="AF208" s="41"/>
     </row>
     <row r="209" spans="16:32" s="21" customFormat="1">
-      <c r="P209" s="22"/>
       <c r="Q209" s="23"/>
       <c r="R209" s="23"/>
       <c r="S209" s="23"/>
       <c r="T209" s="23"/>
       <c r="U209" s="23"/>
       <c r="V209" s="23"/>
-      <c r="W209" s="41"/>
+      <c r="W209" s="23"/>
       <c r="X209" s="41"/>
       <c r="Y209" s="41"/>
-      <c r="Z209" s="41"/>
-      <c r="AA209" s="41"/>
-      <c r="AB209" s="41"/>
-      <c r="AC209" s="41"/>
+      <c r="Z209" s="23"/>
+      <c r="AA209" s="23"/>
+      <c r="AB209" s="23"/>
+      <c r="AC209" s="23"/>
       <c r="AD209" s="41"/>
       <c r="AF209" s="41"/>
     </row>
     <row r="210" spans="16:32" s="21" customFormat="1">
+      <c r="P210" s="22"/>
       <c r="Q210" s="23"/>
       <c r="R210" s="23"/>
       <c r="S210" s="23"/>
@@ -20696,10 +20769,10 @@
       <c r="W210" s="23"/>
       <c r="X210" s="41"/>
       <c r="Y210" s="41"/>
-      <c r="Z210" s="23"/>
-      <c r="AA210" s="23"/>
-      <c r="AB210" s="23"/>
-      <c r="AC210" s="23"/>
+      <c r="Z210" s="41"/>
+      <c r="AA210" s="41"/>
+      <c r="AB210" s="41"/>
+      <c r="AC210" s="41"/>
       <c r="AD210" s="41"/>
       <c r="AF210" s="41"/>
     </row>
@@ -20711,7 +20784,7 @@
       <c r="T211" s="23"/>
       <c r="U211" s="23"/>
       <c r="V211" s="23"/>
-      <c r="W211" s="23"/>
+      <c r="W211" s="41"/>
       <c r="X211" s="41"/>
       <c r="Y211" s="41"/>
       <c r="Z211" s="41"/>
@@ -20740,7 +20813,6 @@
       <c r="AF212" s="41"/>
     </row>
     <row r="213" spans="16:32" s="21" customFormat="1">
-      <c r="P213" s="22"/>
       <c r="Q213" s="23"/>
       <c r="R213" s="23"/>
       <c r="S213" s="23"/>
@@ -20764,40 +20836,41 @@
       <c r="T214" s="23"/>
       <c r="U214" s="23"/>
       <c r="V214" s="23"/>
-      <c r="W214" s="41"/>
+      <c r="W214" s="23"/>
       <c r="X214" s="41"/>
       <c r="Y214" s="41"/>
-      <c r="Z214" s="41"/>
-      <c r="AA214" s="41"/>
-      <c r="AB214" s="41"/>
-      <c r="AC214" s="41"/>
+      <c r="Z214" s="23"/>
+      <c r="AA214" s="23"/>
+      <c r="AB214" s="23"/>
+      <c r="AC214" s="23"/>
       <c r="AD214" s="41"/>
       <c r="AF214" s="41"/>
     </row>
-    <row r="215" spans="16:32" s="21" customFormat="1">
-      <c r="Q215" s="23"/>
-      <c r="R215" s="23"/>
-      <c r="S215" s="23"/>
-      <c r="T215" s="23"/>
-      <c r="U215" s="23"/>
-      <c r="V215" s="23"/>
-      <c r="W215" s="23"/>
+    <row r="215" spans="16:32">
+      <c r="Q215" s="41"/>
+      <c r="R215" s="41"/>
+      <c r="S215" s="41"/>
+      <c r="T215" s="41"/>
+      <c r="U215" s="41"/>
+      <c r="V215" s="41"/>
+      <c r="W215" s="41"/>
       <c r="X215" s="41"/>
       <c r="Y215" s="41"/>
-      <c r="Z215" s="23"/>
-      <c r="AA215" s="23"/>
-      <c r="AB215" s="23"/>
-      <c r="AC215" s="23"/>
+      <c r="Z215" s="41"/>
+      <c r="AA215" s="41"/>
+      <c r="AB215" s="41"/>
+      <c r="AC215" s="41"/>
       <c r="AD215" s="41"/>
       <c r="AF215" s="41"/>
     </row>
-    <row r="216" spans="16:32">
-      <c r="Q216" s="41"/>
-      <c r="R216" s="41"/>
-      <c r="S216" s="41"/>
-      <c r="T216" s="41"/>
-      <c r="U216" s="41"/>
-      <c r="V216" s="41"/>
+    <row r="216" spans="16:32" s="21" customFormat="1">
+      <c r="P216" s="22"/>
+      <c r="Q216" s="23"/>
+      <c r="R216" s="23"/>
+      <c r="S216" s="23"/>
+      <c r="T216" s="23"/>
+      <c r="U216" s="23"/>
+      <c r="V216" s="23"/>
       <c r="W216" s="41"/>
       <c r="X216" s="41"/>
       <c r="Y216" s="41"/>
@@ -20809,20 +20882,19 @@
       <c r="AF216" s="41"/>
     </row>
     <row r="217" spans="16:32" s="21" customFormat="1">
-      <c r="P217" s="22"/>
       <c r="Q217" s="23"/>
       <c r="R217" s="23"/>
       <c r="S217" s="23"/>
       <c r="T217" s="23"/>
       <c r="U217" s="23"/>
       <c r="V217" s="23"/>
-      <c r="W217" s="41"/>
+      <c r="W217" s="23"/>
       <c r="X217" s="41"/>
       <c r="Y217" s="41"/>
-      <c r="Z217" s="41"/>
-      <c r="AA217" s="41"/>
-      <c r="AB217" s="41"/>
-      <c r="AC217" s="41"/>
+      <c r="Z217" s="23"/>
+      <c r="AA217" s="23"/>
+      <c r="AB217" s="23"/>
+      <c r="AC217" s="23"/>
       <c r="AD217" s="41"/>
       <c r="AF217" s="41"/>
     </row>
@@ -20836,10 +20908,10 @@
       <c r="W218" s="23"/>
       <c r="X218" s="41"/>
       <c r="Y218" s="41"/>
-      <c r="Z218" s="23"/>
-      <c r="AA218" s="23"/>
-      <c r="AB218" s="23"/>
-      <c r="AC218" s="23"/>
+      <c r="Z218" s="41"/>
+      <c r="AA218" s="41"/>
+      <c r="AB218" s="41"/>
+      <c r="AC218" s="41"/>
       <c r="AD218" s="41"/>
       <c r="AF218" s="41"/>
     </row>
@@ -20850,7 +20922,7 @@
       <c r="T219" s="23"/>
       <c r="U219" s="23"/>
       <c r="V219" s="23"/>
-      <c r="W219" s="23"/>
+      <c r="W219" s="41"/>
       <c r="X219" s="41"/>
       <c r="Y219" s="41"/>
       <c r="Z219" s="41"/>
@@ -20867,17 +20939,18 @@
       <c r="T220" s="23"/>
       <c r="U220" s="23"/>
       <c r="V220" s="23"/>
-      <c r="W220" s="41"/>
+      <c r="W220" s="23"/>
       <c r="X220" s="41"/>
       <c r="Y220" s="41"/>
-      <c r="Z220" s="41"/>
-      <c r="AA220" s="41"/>
-      <c r="AB220" s="41"/>
-      <c r="AC220" s="41"/>
+      <c r="Z220" s="23"/>
+      <c r="AA220" s="23"/>
+      <c r="AB220" s="23"/>
+      <c r="AC220" s="23"/>
       <c r="AD220" s="41"/>
       <c r="AF220" s="41"/>
     </row>
     <row r="221" spans="16:32" s="21" customFormat="1">
+      <c r="P221" s="22"/>
       <c r="Q221" s="23"/>
       <c r="R221" s="23"/>
       <c r="S221" s="23"/>
@@ -20887,22 +20960,21 @@
       <c r="W221" s="23"/>
       <c r="X221" s="41"/>
       <c r="Y221" s="41"/>
-      <c r="Z221" s="23"/>
-      <c r="AA221" s="23"/>
-      <c r="AB221" s="23"/>
-      <c r="AC221" s="23"/>
+      <c r="Z221" s="41"/>
+      <c r="AA221" s="41"/>
+      <c r="AB221" s="41"/>
+      <c r="AC221" s="41"/>
       <c r="AD221" s="41"/>
       <c r="AF221" s="41"/>
     </row>
     <row r="222" spans="16:32" s="21" customFormat="1">
-      <c r="P222" s="22"/>
       <c r="Q222" s="23"/>
       <c r="R222" s="23"/>
       <c r="S222" s="23"/>
       <c r="T222" s="23"/>
       <c r="U222" s="23"/>
       <c r="V222" s="23"/>
-      <c r="W222" s="23"/>
+      <c r="W222" s="41"/>
       <c r="X222" s="41"/>
       <c r="Y222" s="41"/>
       <c r="Z222" s="41"/>
@@ -20919,7 +20991,7 @@
       <c r="T223" s="23"/>
       <c r="U223" s="23"/>
       <c r="V223" s="23"/>
-      <c r="W223" s="41"/>
+      <c r="W223" s="23"/>
       <c r="X223" s="41"/>
       <c r="Y223" s="41"/>
       <c r="Z223" s="41"/>
@@ -20939,14 +21011,15 @@
       <c r="W224" s="23"/>
       <c r="X224" s="41"/>
       <c r="Y224" s="41"/>
-      <c r="Z224" s="41"/>
-      <c r="AA224" s="41"/>
-      <c r="AB224" s="41"/>
-      <c r="AC224" s="41"/>
+      <c r="Z224" s="23"/>
+      <c r="AA224" s="23"/>
+      <c r="AB224" s="23"/>
+      <c r="AC224" s="23"/>
       <c r="AD224" s="41"/>
       <c r="AF224" s="41"/>
     </row>
     <row r="225" spans="16:32" s="21" customFormat="1">
+      <c r="P225" s="22"/>
       <c r="Q225" s="23"/>
       <c r="R225" s="23"/>
       <c r="S225" s="23"/>
@@ -20956,10 +21029,10 @@
       <c r="W225" s="23"/>
       <c r="X225" s="41"/>
       <c r="Y225" s="41"/>
-      <c r="Z225" s="23"/>
-      <c r="AA225" s="23"/>
-      <c r="AB225" s="23"/>
-      <c r="AC225" s="23"/>
+      <c r="Z225" s="41"/>
+      <c r="AA225" s="41"/>
+      <c r="AB225" s="41"/>
+      <c r="AC225" s="41"/>
       <c r="AD225" s="41"/>
       <c r="AF225" s="41"/>
     </row>
@@ -20974,10 +21047,10 @@
       <c r="W226" s="23"/>
       <c r="X226" s="41"/>
       <c r="Y226" s="41"/>
-      <c r="Z226" s="41"/>
-      <c r="AA226" s="41"/>
-      <c r="AB226" s="41"/>
-      <c r="AC226" s="41"/>
+      <c r="Z226" s="23"/>
+      <c r="AA226" s="23"/>
+      <c r="AB226" s="23"/>
+      <c r="AC226" s="23"/>
       <c r="AD226" s="41"/>
       <c r="AF226" s="41"/>
     </row>
@@ -20992,10 +21065,10 @@
       <c r="W227" s="23"/>
       <c r="X227" s="41"/>
       <c r="Y227" s="41"/>
-      <c r="Z227" s="23"/>
-      <c r="AA227" s="23"/>
-      <c r="AB227" s="23"/>
-      <c r="AC227" s="23"/>
+      <c r="Z227" s="41"/>
+      <c r="AA227" s="41"/>
+      <c r="AB227" s="41"/>
+      <c r="AC227" s="41"/>
       <c r="AD227" s="41"/>
       <c r="AF227" s="41"/>
     </row>
@@ -21010,10 +21083,10 @@
       <c r="W228" s="23"/>
       <c r="X228" s="41"/>
       <c r="Y228" s="41"/>
-      <c r="Z228" s="41"/>
-      <c r="AA228" s="41"/>
-      <c r="AB228" s="41"/>
-      <c r="AC228" s="41"/>
+      <c r="Z228" s="23"/>
+      <c r="AA228" s="23"/>
+      <c r="AB228" s="23"/>
+      <c r="AC228" s="23"/>
       <c r="AD228" s="41"/>
       <c r="AF228" s="41"/>
     </row>
@@ -21025,18 +21098,17 @@
       <c r="T229" s="23"/>
       <c r="U229" s="23"/>
       <c r="V229" s="23"/>
-      <c r="W229" s="23"/>
+      <c r="W229" s="41"/>
       <c r="X229" s="41"/>
       <c r="Y229" s="41"/>
-      <c r="Z229" s="23"/>
-      <c r="AA229" s="23"/>
-      <c r="AB229" s="23"/>
-      <c r="AC229" s="23"/>
+      <c r="Z229" s="41"/>
+      <c r="AA229" s="41"/>
+      <c r="AB229" s="41"/>
+      <c r="AC229" s="41"/>
       <c r="AD229" s="41"/>
       <c r="AF229" s="41"/>
     </row>
     <row r="230" spans="16:32" s="21" customFormat="1">
-      <c r="P230" s="22"/>
       <c r="Q230" s="23"/>
       <c r="R230" s="23"/>
       <c r="S230" s="23"/>
@@ -21060,30 +21132,31 @@
       <c r="T231" s="23"/>
       <c r="U231" s="23"/>
       <c r="V231" s="23"/>
-      <c r="W231" s="41"/>
+      <c r="W231" s="23"/>
       <c r="X231" s="41"/>
       <c r="Y231" s="41"/>
-      <c r="Z231" s="41"/>
-      <c r="AA231" s="41"/>
-      <c r="AB231" s="41"/>
-      <c r="AC231" s="41"/>
+      <c r="Z231" s="23"/>
+      <c r="AA231" s="23"/>
+      <c r="AB231" s="23"/>
+      <c r="AC231" s="23"/>
       <c r="AD231" s="41"/>
       <c r="AF231" s="41"/>
     </row>
     <row r="232" spans="16:32" s="21" customFormat="1">
+      <c r="P232" s="22"/>
       <c r="Q232" s="23"/>
       <c r="R232" s="23"/>
       <c r="S232" s="23"/>
       <c r="T232" s="23"/>
       <c r="U232" s="23"/>
       <c r="V232" s="23"/>
-      <c r="W232" s="23"/>
+      <c r="W232" s="41"/>
       <c r="X232" s="41"/>
       <c r="Y232" s="41"/>
-      <c r="Z232" s="23"/>
-      <c r="AA232" s="23"/>
-      <c r="AB232" s="23"/>
-      <c r="AC232" s="23"/>
+      <c r="Z232" s="41"/>
+      <c r="AA232" s="41"/>
+      <c r="AB232" s="41"/>
+      <c r="AC232" s="41"/>
       <c r="AD232" s="41"/>
       <c r="AF232" s="41"/>
     </row>
@@ -21106,7 +21179,6 @@
       <c r="AF233" s="41"/>
     </row>
     <row r="234" spans="16:32" s="21" customFormat="1">
-      <c r="P234" s="22"/>
       <c r="Q234" s="23"/>
       <c r="R234" s="23"/>
       <c r="S234" s="23"/>
@@ -21130,48 +21202,48 @@
       <c r="T235" s="23"/>
       <c r="U235" s="23"/>
       <c r="V235" s="23"/>
-      <c r="W235" s="41"/>
+      <c r="W235" s="23"/>
       <c r="X235" s="41"/>
       <c r="Y235" s="41"/>
-      <c r="Z235" s="41"/>
-      <c r="AA235" s="41"/>
-      <c r="AB235" s="41"/>
-      <c r="AC235" s="41"/>
+      <c r="Z235" s="23"/>
+      <c r="AA235" s="23"/>
+      <c r="AB235" s="23"/>
+      <c r="AC235" s="23"/>
       <c r="AD235" s="41"/>
       <c r="AF235" s="41"/>
     </row>
     <row r="236" spans="16:32" s="21" customFormat="1">
+      <c r="P236" s="22"/>
       <c r="Q236" s="23"/>
       <c r="R236" s="23"/>
       <c r="S236" s="23"/>
       <c r="T236" s="23"/>
       <c r="U236" s="23"/>
       <c r="V236" s="23"/>
-      <c r="W236" s="23"/>
+      <c r="W236" s="41"/>
       <c r="X236" s="41"/>
       <c r="Y236" s="41"/>
-      <c r="Z236" s="23"/>
-      <c r="AA236" s="23"/>
-      <c r="AB236" s="23"/>
-      <c r="AC236" s="23"/>
+      <c r="Z236" s="41"/>
+      <c r="AA236" s="41"/>
+      <c r="AB236" s="41"/>
+      <c r="AC236" s="41"/>
       <c r="AD236" s="41"/>
       <c r="AF236" s="41"/>
     </row>
     <row r="237" spans="16:32" s="21" customFormat="1">
-      <c r="P237" s="22"/>
       <c r="Q237" s="23"/>
       <c r="R237" s="23"/>
       <c r="S237" s="23"/>
       <c r="T237" s="23"/>
       <c r="U237" s="23"/>
       <c r="V237" s="23"/>
-      <c r="W237" s="41"/>
+      <c r="W237" s="23"/>
       <c r="X237" s="41"/>
       <c r="Y237" s="41"/>
-      <c r="Z237" s="41"/>
-      <c r="AA237" s="41"/>
-      <c r="AB237" s="41"/>
-      <c r="AC237" s="41"/>
+      <c r="Z237" s="23"/>
+      <c r="AA237" s="23"/>
+      <c r="AB237" s="23"/>
+      <c r="AC237" s="23"/>
       <c r="AD237" s="41"/>
       <c r="AF237" s="41"/>
     </row>
@@ -21185,10 +21257,10 @@
       <c r="W238" s="23"/>
       <c r="X238" s="41"/>
       <c r="Y238" s="41"/>
-      <c r="Z238" s="23"/>
-      <c r="AA238" s="23"/>
-      <c r="AB238" s="23"/>
-      <c r="AC238" s="23"/>
+      <c r="Z238" s="41"/>
+      <c r="AA238" s="41"/>
+      <c r="AB238" s="41"/>
+      <c r="AC238" s="41"/>
       <c r="AD238" s="41"/>
       <c r="AF238" s="41"/>
     </row>
@@ -21199,7 +21271,7 @@
       <c r="T239" s="23"/>
       <c r="U239" s="23"/>
       <c r="V239" s="23"/>
-      <c r="W239" s="23"/>
+      <c r="W239" s="41"/>
       <c r="X239" s="41"/>
       <c r="Y239" s="41"/>
       <c r="Z239" s="41"/>
@@ -21216,35 +21288,35 @@
       <c r="T240" s="23"/>
       <c r="U240" s="23"/>
       <c r="V240" s="23"/>
-      <c r="W240" s="41"/>
+      <c r="W240" s="23"/>
       <c r="X240" s="41"/>
       <c r="Y240" s="41"/>
-      <c r="Z240" s="41"/>
-      <c r="AA240" s="41"/>
-      <c r="AB240" s="41"/>
-      <c r="AC240" s="41"/>
+      <c r="Z240" s="23"/>
+      <c r="AA240" s="23"/>
+      <c r="AB240" s="23"/>
+      <c r="AC240" s="23"/>
       <c r="AD240" s="41"/>
       <c r="AF240" s="41"/>
     </row>
     <row r="241" spans="16:32" s="21" customFormat="1">
+      <c r="P241" s="22"/>
       <c r="Q241" s="23"/>
       <c r="R241" s="23"/>
       <c r="S241" s="23"/>
       <c r="T241" s="23"/>
       <c r="U241" s="23"/>
       <c r="V241" s="23"/>
-      <c r="W241" s="23"/>
+      <c r="W241" s="41"/>
       <c r="X241" s="41"/>
       <c r="Y241" s="41"/>
-      <c r="Z241" s="23"/>
-      <c r="AA241" s="23"/>
-      <c r="AB241" s="23"/>
-      <c r="AC241" s="23"/>
+      <c r="Z241" s="41"/>
+      <c r="AA241" s="41"/>
+      <c r="AB241" s="41"/>
+      <c r="AC241" s="41"/>
       <c r="AD241" s="41"/>
       <c r="AF241" s="41"/>
     </row>
     <row r="242" spans="16:32" s="21" customFormat="1">
-      <c r="P242" s="22"/>
       <c r="Q242" s="23"/>
       <c r="R242" s="23"/>
       <c r="S242" s="23"/>
@@ -21268,7 +21340,7 @@
       <c r="T243" s="23"/>
       <c r="U243" s="23"/>
       <c r="V243" s="23"/>
-      <c r="W243" s="41"/>
+      <c r="W243" s="23"/>
       <c r="X243" s="41"/>
       <c r="Y243" s="41"/>
       <c r="Z243" s="41"/>
@@ -21288,10 +21360,10 @@
       <c r="W244" s="23"/>
       <c r="X244" s="41"/>
       <c r="Y244" s="41"/>
-      <c r="Z244" s="41"/>
-      <c r="AA244" s="41"/>
-      <c r="AB244" s="41"/>
-      <c r="AC244" s="41"/>
+      <c r="Z244" s="23"/>
+      <c r="AA244" s="23"/>
+      <c r="AB244" s="23"/>
+      <c r="AC244" s="23"/>
       <c r="AD244" s="41"/>
       <c r="AF244" s="41"/>
     </row>
@@ -21305,10 +21377,10 @@
       <c r="W245" s="23"/>
       <c r="X245" s="41"/>
       <c r="Y245" s="41"/>
-      <c r="Z245" s="23"/>
-      <c r="AA245" s="23"/>
-      <c r="AB245" s="23"/>
-      <c r="AC245" s="23"/>
+      <c r="Z245" s="41"/>
+      <c r="AA245" s="41"/>
+      <c r="AB245" s="41"/>
+      <c r="AC245" s="41"/>
       <c r="AD245" s="41"/>
       <c r="AF245" s="41"/>
     </row>
@@ -21336,7 +21408,7 @@
       <c r="T247" s="23"/>
       <c r="U247" s="23"/>
       <c r="V247" s="23"/>
-      <c r="W247" s="23"/>
+      <c r="W247" s="41"/>
       <c r="X247" s="41"/>
       <c r="Y247" s="41"/>
       <c r="Z247" s="41"/>
@@ -21353,7 +21425,7 @@
       <c r="T248" s="23"/>
       <c r="U248" s="23"/>
       <c r="V248" s="23"/>
-      <c r="W248" s="41"/>
+      <c r="W248" s="23"/>
       <c r="X248" s="41"/>
       <c r="Y248" s="41"/>
       <c r="Z248" s="41"/>
@@ -21370,7 +21442,7 @@
       <c r="T249" s="23"/>
       <c r="U249" s="23"/>
       <c r="V249" s="23"/>
-      <c r="W249" s="23"/>
+      <c r="W249" s="41"/>
       <c r="X249" s="41"/>
       <c r="Y249" s="41"/>
       <c r="Z249" s="41"/>
@@ -21387,13 +21459,13 @@
       <c r="T250" s="23"/>
       <c r="U250" s="23"/>
       <c r="V250" s="23"/>
-      <c r="W250" s="41"/>
+      <c r="W250" s="23"/>
       <c r="X250" s="41"/>
       <c r="Y250" s="41"/>
-      <c r="Z250" s="41"/>
-      <c r="AA250" s="41"/>
-      <c r="AB250" s="41"/>
-      <c r="AC250" s="41"/>
+      <c r="Z250" s="23"/>
+      <c r="AA250" s="23"/>
+      <c r="AB250" s="23"/>
+      <c r="AC250" s="23"/>
       <c r="AD250" s="41"/>
       <c r="AF250" s="41"/>
     </row>
@@ -21415,24 +21487,24 @@
       <c r="AF251" s="41"/>
     </row>
     <row r="252" spans="16:32" s="21" customFormat="1">
+      <c r="P252" s="22"/>
       <c r="Q252" s="23"/>
       <c r="R252" s="23"/>
       <c r="S252" s="23"/>
       <c r="T252" s="23"/>
       <c r="U252" s="23"/>
       <c r="V252" s="23"/>
-      <c r="W252" s="23"/>
+      <c r="W252" s="41"/>
       <c r="X252" s="41"/>
       <c r="Y252" s="41"/>
-      <c r="Z252" s="23"/>
-      <c r="AA252" s="23"/>
-      <c r="AB252" s="23"/>
-      <c r="AC252" s="23"/>
+      <c r="Z252" s="41"/>
+      <c r="AA252" s="41"/>
+      <c r="AB252" s="41"/>
+      <c r="AC252" s="41"/>
       <c r="AD252" s="41"/>
       <c r="AF252" s="41"/>
     </row>
     <row r="253" spans="16:32" s="21" customFormat="1">
-      <c r="P253" s="22"/>
       <c r="Q253" s="23"/>
       <c r="R253" s="23"/>
       <c r="S253" s="23"/>
@@ -21456,35 +21528,35 @@
       <c r="T254" s="23"/>
       <c r="U254" s="23"/>
       <c r="V254" s="23"/>
-      <c r="W254" s="41"/>
+      <c r="W254" s="23"/>
       <c r="X254" s="41"/>
       <c r="Y254" s="41"/>
-      <c r="Z254" s="41"/>
-      <c r="AA254" s="41"/>
-      <c r="AB254" s="41"/>
-      <c r="AC254" s="41"/>
+      <c r="Z254" s="23"/>
+      <c r="AA254" s="23"/>
+      <c r="AB254" s="23"/>
+      <c r="AC254" s="23"/>
       <c r="AD254" s="41"/>
       <c r="AF254" s="41"/>
     </row>
     <row r="255" spans="16:32" s="21" customFormat="1">
+      <c r="P255" s="22"/>
       <c r="Q255" s="23"/>
       <c r="R255" s="23"/>
       <c r="S255" s="23"/>
       <c r="T255" s="23"/>
       <c r="U255" s="23"/>
       <c r="V255" s="23"/>
-      <c r="W255" s="23"/>
+      <c r="W255" s="41"/>
       <c r="X255" s="41"/>
       <c r="Y255" s="41"/>
-      <c r="Z255" s="23"/>
-      <c r="AA255" s="23"/>
-      <c r="AB255" s="23"/>
-      <c r="AC255" s="23"/>
+      <c r="Z255" s="41"/>
+      <c r="AA255" s="41"/>
+      <c r="AB255" s="41"/>
+      <c r="AC255" s="41"/>
       <c r="AD255" s="41"/>
       <c r="AF255" s="41"/>
     </row>
     <row r="256" spans="16:32" s="21" customFormat="1">
-      <c r="P256" s="22"/>
       <c r="Q256" s="23"/>
       <c r="R256" s="23"/>
       <c r="S256" s="23"/>
@@ -21508,30 +21580,31 @@
       <c r="T257" s="23"/>
       <c r="U257" s="23"/>
       <c r="V257" s="23"/>
-      <c r="W257" s="41"/>
+      <c r="W257" s="23"/>
       <c r="X257" s="41"/>
       <c r="Y257" s="41"/>
-      <c r="Z257" s="41"/>
-      <c r="AA257" s="41"/>
-      <c r="AB257" s="41"/>
-      <c r="AC257" s="41"/>
+      <c r="Z257" s="23"/>
+      <c r="AA257" s="23"/>
+      <c r="AB257" s="23"/>
+      <c r="AC257" s="23"/>
       <c r="AD257" s="41"/>
       <c r="AF257" s="41"/>
     </row>
     <row r="258" spans="16:32" s="21" customFormat="1">
+      <c r="P258" s="22"/>
       <c r="Q258" s="23"/>
       <c r="R258" s="23"/>
       <c r="S258" s="23"/>
       <c r="T258" s="23"/>
       <c r="U258" s="23"/>
       <c r="V258" s="23"/>
-      <c r="W258" s="23"/>
+      <c r="W258" s="41"/>
       <c r="X258" s="41"/>
       <c r="Y258" s="41"/>
-      <c r="Z258" s="23"/>
-      <c r="AA258" s="23"/>
-      <c r="AB258" s="23"/>
-      <c r="AC258" s="23"/>
+      <c r="Z258" s="41"/>
+      <c r="AA258" s="41"/>
+      <c r="AB258" s="41"/>
+      <c r="AC258" s="41"/>
       <c r="AD258" s="41"/>
       <c r="AF258" s="41"/>
     </row>
@@ -21554,7 +21627,6 @@
       <c r="AF259" s="41"/>
     </row>
     <row r="260" spans="16:32" s="21" customFormat="1">
-      <c r="P260" s="22"/>
       <c r="Q260" s="23"/>
       <c r="R260" s="23"/>
       <c r="S260" s="23"/>
@@ -21578,48 +21650,48 @@
       <c r="T261" s="23"/>
       <c r="U261" s="23"/>
       <c r="V261" s="23"/>
-      <c r="W261" s="41"/>
+      <c r="W261" s="23"/>
       <c r="X261" s="41"/>
       <c r="Y261" s="41"/>
-      <c r="Z261" s="41"/>
-      <c r="AA261" s="41"/>
-      <c r="AB261" s="41"/>
-      <c r="AC261" s="41"/>
+      <c r="Z261" s="23"/>
+      <c r="AA261" s="23"/>
+      <c r="AB261" s="23"/>
+      <c r="AC261" s="23"/>
       <c r="AD261" s="41"/>
       <c r="AF261" s="41"/>
     </row>
     <row r="262" spans="16:32" s="21" customFormat="1">
+      <c r="P262" s="22"/>
       <c r="Q262" s="23"/>
       <c r="R262" s="23"/>
       <c r="S262" s="23"/>
       <c r="T262" s="23"/>
       <c r="U262" s="23"/>
       <c r="V262" s="23"/>
-      <c r="W262" s="23"/>
+      <c r="W262" s="41"/>
       <c r="X262" s="41"/>
       <c r="Y262" s="41"/>
-      <c r="Z262" s="23"/>
-      <c r="AA262" s="23"/>
-      <c r="AB262" s="23"/>
-      <c r="AC262" s="23"/>
+      <c r="Z262" s="41"/>
+      <c r="AA262" s="41"/>
+      <c r="AB262" s="41"/>
+      <c r="AC262" s="41"/>
       <c r="AD262" s="41"/>
       <c r="AF262" s="41"/>
     </row>
     <row r="263" spans="16:32" s="21" customFormat="1">
-      <c r="P263" s="22"/>
       <c r="Q263" s="23"/>
       <c r="R263" s="23"/>
       <c r="S263" s="23"/>
       <c r="T263" s="23"/>
       <c r="U263" s="23"/>
       <c r="V263" s="23"/>
-      <c r="W263" s="41"/>
+      <c r="W263" s="23"/>
       <c r="X263" s="41"/>
       <c r="Y263" s="41"/>
-      <c r="Z263" s="41"/>
-      <c r="AA263" s="41"/>
-      <c r="AB263" s="41"/>
-      <c r="AC263" s="41"/>
+      <c r="Z263" s="23"/>
+      <c r="AA263" s="23"/>
+      <c r="AB263" s="23"/>
+      <c r="AC263" s="23"/>
       <c r="AD263" s="41"/>
       <c r="AF263" s="41"/>
     </row>
@@ -21633,10 +21705,10 @@
       <c r="W264" s="23"/>
       <c r="X264" s="41"/>
       <c r="Y264" s="41"/>
-      <c r="Z264" s="23"/>
-      <c r="AA264" s="23"/>
-      <c r="AB264" s="23"/>
-      <c r="AC264" s="23"/>
+      <c r="Z264" s="41"/>
+      <c r="AA264" s="41"/>
+      <c r="AB264" s="41"/>
+      <c r="AC264" s="41"/>
       <c r="AD264" s="41"/>
       <c r="AF264" s="41"/>
     </row>
@@ -21698,7 +21770,7 @@
       <c r="T268" s="23"/>
       <c r="U268" s="23"/>
       <c r="V268" s="23"/>
-      <c r="W268" s="23"/>
+      <c r="W268" s="41"/>
       <c r="X268" s="41"/>
       <c r="Y268" s="41"/>
       <c r="Z268" s="41"/>
@@ -21715,7 +21787,7 @@
       <c r="T269" s="23"/>
       <c r="U269" s="23"/>
       <c r="V269" s="23"/>
-      <c r="W269" s="41"/>
+      <c r="W269" s="23"/>
       <c r="X269" s="41"/>
       <c r="Y269" s="41"/>
       <c r="Z269" s="41"/>
@@ -21732,7 +21804,7 @@
       <c r="T270" s="23"/>
       <c r="U270" s="23"/>
       <c r="V270" s="23"/>
-      <c r="W270" s="23"/>
+      <c r="W270" s="41"/>
       <c r="X270" s="41"/>
       <c r="Y270" s="41"/>
       <c r="Z270" s="41"/>
@@ -21749,13 +21821,13 @@
       <c r="T271" s="23"/>
       <c r="U271" s="23"/>
       <c r="V271" s="23"/>
-      <c r="W271" s="41"/>
+      <c r="W271" s="23"/>
       <c r="X271" s="41"/>
       <c r="Y271" s="41"/>
-      <c r="Z271" s="41"/>
-      <c r="AA271" s="41"/>
-      <c r="AB271" s="41"/>
-      <c r="AC271" s="41"/>
+      <c r="Z271" s="23"/>
+      <c r="AA271" s="23"/>
+      <c r="AB271" s="23"/>
+      <c r="AC271" s="23"/>
       <c r="AD271" s="41"/>
       <c r="AF271" s="41"/>
     </row>
@@ -21769,10 +21841,10 @@
       <c r="W272" s="23"/>
       <c r="X272" s="41"/>
       <c r="Y272" s="41"/>
-      <c r="Z272" s="23"/>
-      <c r="AA272" s="23"/>
-      <c r="AB272" s="23"/>
-      <c r="AC272" s="23"/>
+      <c r="Z272" s="41"/>
+      <c r="AA272" s="41"/>
+      <c r="AB272" s="41"/>
+      <c r="AC272" s="41"/>
       <c r="AD272" s="41"/>
       <c r="AF272" s="41"/>
     </row>
@@ -21837,39 +21909,39 @@
       <c r="W276" s="23"/>
       <c r="X276" s="41"/>
       <c r="Y276" s="41"/>
-      <c r="Z276" s="41"/>
-      <c r="AA276" s="41"/>
-      <c r="AB276" s="41"/>
-      <c r="AC276" s="41"/>
+      <c r="Z276" s="23"/>
+      <c r="AA276" s="23"/>
+      <c r="AB276" s="23"/>
+      <c r="AC276" s="23"/>
       <c r="AD276" s="41"/>
       <c r="AF276" s="41"/>
     </row>
     <row r="277" spans="16:32" s="21" customFormat="1">
+      <c r="P277" s="22"/>
       <c r="Q277" s="23"/>
       <c r="R277" s="23"/>
       <c r="S277" s="23"/>
       <c r="T277" s="23"/>
       <c r="U277" s="23"/>
       <c r="V277" s="23"/>
-      <c r="W277" s="23"/>
+      <c r="W277" s="41"/>
       <c r="X277" s="41"/>
       <c r="Y277" s="41"/>
-      <c r="Z277" s="23"/>
-      <c r="AA277" s="23"/>
-      <c r="AB277" s="23"/>
-      <c r="AC277" s="23"/>
+      <c r="Z277" s="41"/>
+      <c r="AA277" s="41"/>
+      <c r="AB277" s="41"/>
+      <c r="AC277" s="41"/>
       <c r="AD277" s="41"/>
       <c r="AF277" s="41"/>
     </row>
     <row r="278" spans="16:32" s="21" customFormat="1">
-      <c r="P278" s="22"/>
       <c r="Q278" s="23"/>
       <c r="R278" s="23"/>
       <c r="S278" s="23"/>
       <c r="T278" s="23"/>
       <c r="U278" s="23"/>
       <c r="V278" s="23"/>
-      <c r="W278" s="41"/>
+      <c r="W278" s="23"/>
       <c r="X278" s="41"/>
       <c r="Y278" s="41"/>
       <c r="Z278" s="41"/>
@@ -21906,32 +21978,32 @@
       <c r="W280" s="23"/>
       <c r="X280" s="41"/>
       <c r="Y280" s="41"/>
-      <c r="Z280" s="41"/>
-      <c r="AA280" s="41"/>
-      <c r="AB280" s="41"/>
-      <c r="AC280" s="41"/>
+      <c r="Z280" s="23"/>
+      <c r="AA280" s="23"/>
+      <c r="AB280" s="23"/>
+      <c r="AC280" s="23"/>
       <c r="AD280" s="41"/>
       <c r="AF280" s="41"/>
     </row>
     <row r="281" spans="16:32" s="21" customFormat="1">
+      <c r="P281" s="22"/>
       <c r="Q281" s="23"/>
       <c r="R281" s="23"/>
       <c r="S281" s="23"/>
       <c r="T281" s="23"/>
       <c r="U281" s="23"/>
       <c r="V281" s="23"/>
-      <c r="W281" s="23"/>
+      <c r="W281" s="41"/>
       <c r="X281" s="41"/>
       <c r="Y281" s="41"/>
-      <c r="Z281" s="23"/>
-      <c r="AA281" s="23"/>
-      <c r="AB281" s="23"/>
-      <c r="AC281" s="23"/>
+      <c r="Z281" s="41"/>
+      <c r="AA281" s="41"/>
+      <c r="AB281" s="41"/>
+      <c r="AC281" s="41"/>
       <c r="AD281" s="41"/>
       <c r="AF281" s="41"/>
     </row>
     <row r="282" spans="16:32" s="21" customFormat="1">
-      <c r="P282" s="22"/>
       <c r="Q282" s="23"/>
       <c r="R282" s="23"/>
       <c r="S282" s="23"/>
@@ -21948,13 +22020,13 @@
       <c r="AD282" s="41"/>
       <c r="AF282" s="41"/>
     </row>
-    <row r="283" spans="16:32" s="21" customFormat="1">
-      <c r="Q283" s="23"/>
-      <c r="R283" s="23"/>
-      <c r="S283" s="23"/>
-      <c r="T283" s="23"/>
-      <c r="U283" s="23"/>
-      <c r="V283" s="23"/>
+    <row r="283" spans="16:32">
+      <c r="Q283" s="41"/>
+      <c r="R283" s="41"/>
+      <c r="S283" s="41"/>
+      <c r="T283" s="41"/>
+      <c r="U283" s="41"/>
+      <c r="V283" s="41"/>
       <c r="W283" s="41"/>
       <c r="X283" s="41"/>
       <c r="Y283" s="41"/>
@@ -21965,13 +22037,13 @@
       <c r="AD283" s="41"/>
       <c r="AF283" s="41"/>
     </row>
-    <row r="284" spans="16:32">
-      <c r="Q284" s="41"/>
-      <c r="R284" s="41"/>
-      <c r="S284" s="41"/>
-      <c r="T284" s="41"/>
-      <c r="U284" s="41"/>
-      <c r="V284" s="41"/>
+    <row r="284" spans="16:32" s="21" customFormat="1">
+      <c r="Q284" s="23"/>
+      <c r="R284" s="23"/>
+      <c r="S284" s="23"/>
+      <c r="T284" s="23"/>
+      <c r="U284" s="23"/>
+      <c r="V284" s="23"/>
       <c r="W284" s="41"/>
       <c r="X284" s="41"/>
       <c r="Y284" s="41"/>
@@ -21989,13 +22061,13 @@
       <c r="T285" s="23"/>
       <c r="U285" s="23"/>
       <c r="V285" s="23"/>
-      <c r="W285" s="41"/>
+      <c r="W285" s="23"/>
       <c r="X285" s="41"/>
       <c r="Y285" s="41"/>
-      <c r="Z285" s="41"/>
-      <c r="AA285" s="41"/>
-      <c r="AB285" s="41"/>
-      <c r="AC285" s="41"/>
+      <c r="Z285" s="23"/>
+      <c r="AA285" s="23"/>
+      <c r="AB285" s="23"/>
+      <c r="AC285" s="23"/>
       <c r="AD285" s="41"/>
       <c r="AF285" s="41"/>
     </row>
@@ -22009,21 +22081,22 @@
       <c r="W286" s="23"/>
       <c r="X286" s="41"/>
       <c r="Y286" s="41"/>
-      <c r="Z286" s="23"/>
-      <c r="AA286" s="23"/>
-      <c r="AB286" s="23"/>
-      <c r="AC286" s="23"/>
+      <c r="Z286" s="41"/>
+      <c r="AA286" s="41"/>
+      <c r="AB286" s="41"/>
+      <c r="AC286" s="41"/>
       <c r="AD286" s="41"/>
       <c r="AF286" s="41"/>
     </row>
     <row r="287" spans="16:32" s="21" customFormat="1">
+      <c r="P287" s="22"/>
       <c r="Q287" s="23"/>
       <c r="R287" s="23"/>
       <c r="S287" s="23"/>
       <c r="T287" s="23"/>
       <c r="U287" s="23"/>
       <c r="V287" s="23"/>
-      <c r="W287" s="23"/>
+      <c r="W287" s="41"/>
       <c r="X287" s="41"/>
       <c r="Y287" s="41"/>
       <c r="Z287" s="41"/>
@@ -22034,20 +22107,19 @@
       <c r="AF287" s="41"/>
     </row>
     <row r="288" spans="16:32" s="21" customFormat="1">
-      <c r="P288" s="22"/>
       <c r="Q288" s="23"/>
       <c r="R288" s="23"/>
       <c r="S288" s="23"/>
       <c r="T288" s="23"/>
       <c r="U288" s="23"/>
       <c r="V288" s="23"/>
-      <c r="W288" s="41"/>
+      <c r="W288" s="23"/>
       <c r="X288" s="41"/>
       <c r="Y288" s="41"/>
-      <c r="Z288" s="41"/>
-      <c r="AA288" s="41"/>
-      <c r="AB288" s="41"/>
-      <c r="AC288" s="41"/>
+      <c r="Z288" s="23"/>
+      <c r="AA288" s="23"/>
+      <c r="AB288" s="23"/>
+      <c r="AC288" s="23"/>
       <c r="AD288" s="41"/>
       <c r="AF288" s="41"/>
     </row>
@@ -22069,24 +22141,24 @@
       <c r="AF289" s="41"/>
     </row>
     <row r="290" spans="16:32" s="21" customFormat="1">
+      <c r="P290" s="22"/>
       <c r="Q290" s="23"/>
       <c r="R290" s="23"/>
       <c r="S290" s="23"/>
       <c r="T290" s="23"/>
       <c r="U290" s="23"/>
       <c r="V290" s="23"/>
-      <c r="W290" s="23"/>
+      <c r="W290" s="41"/>
       <c r="X290" s="41"/>
       <c r="Y290" s="41"/>
-      <c r="Z290" s="23"/>
-      <c r="AA290" s="23"/>
-      <c r="AB290" s="23"/>
-      <c r="AC290" s="23"/>
+      <c r="Z290" s="41"/>
+      <c r="AA290" s="41"/>
+      <c r="AB290" s="41"/>
+      <c r="AC290" s="41"/>
       <c r="AD290" s="41"/>
       <c r="AF290" s="41"/>
     </row>
     <row r="291" spans="16:32" s="21" customFormat="1">
-      <c r="P291" s="22"/>
       <c r="Q291" s="23"/>
       <c r="R291" s="23"/>
       <c r="S291" s="23"/>
@@ -22127,7 +22199,7 @@
       <c r="T293" s="23"/>
       <c r="U293" s="23"/>
       <c r="V293" s="23"/>
-      <c r="W293" s="41"/>
+      <c r="W293" s="23"/>
       <c r="X293" s="41"/>
       <c r="Y293" s="41"/>
       <c r="Z293" s="41"/>
@@ -22161,7 +22233,7 @@
       <c r="T295" s="23"/>
       <c r="U295" s="23"/>
       <c r="V295" s="23"/>
-      <c r="W295" s="23"/>
+      <c r="W295" s="41"/>
       <c r="X295" s="41"/>
       <c r="Y295" s="41"/>
       <c r="Z295" s="41"/>
@@ -22178,7 +22250,7 @@
       <c r="T296" s="23"/>
       <c r="U296" s="23"/>
       <c r="V296" s="23"/>
-      <c r="W296" s="41"/>
+      <c r="W296" s="23"/>
       <c r="X296" s="41"/>
       <c r="Y296" s="41"/>
       <c r="Z296" s="41"/>
@@ -22195,7 +22267,7 @@
       <c r="T297" s="23"/>
       <c r="U297" s="23"/>
       <c r="V297" s="23"/>
-      <c r="W297" s="23"/>
+      <c r="W297" s="41"/>
       <c r="X297" s="41"/>
       <c r="Y297" s="41"/>
       <c r="Z297" s="41"/>
@@ -22212,35 +22284,35 @@
       <c r="T298" s="23"/>
       <c r="U298" s="23"/>
       <c r="V298" s="23"/>
-      <c r="W298" s="41"/>
+      <c r="W298" s="23"/>
       <c r="X298" s="41"/>
       <c r="Y298" s="41"/>
-      <c r="Z298" s="41"/>
-      <c r="AA298" s="41"/>
-      <c r="AB298" s="41"/>
-      <c r="AC298" s="41"/>
+      <c r="Z298" s="23"/>
+      <c r="AA298" s="23"/>
+      <c r="AB298" s="23"/>
+      <c r="AC298" s="23"/>
       <c r="AD298" s="41"/>
       <c r="AF298" s="41"/>
     </row>
     <row r="299" spans="16:32" s="21" customFormat="1">
+      <c r="P299" s="22"/>
       <c r="Q299" s="23"/>
       <c r="R299" s="23"/>
       <c r="S299" s="23"/>
       <c r="T299" s="23"/>
       <c r="U299" s="23"/>
       <c r="V299" s="23"/>
-      <c r="W299" s="23"/>
+      <c r="W299" s="41"/>
       <c r="X299" s="41"/>
       <c r="Y299" s="41"/>
-      <c r="Z299" s="23"/>
-      <c r="AA299" s="23"/>
-      <c r="AB299" s="23"/>
-      <c r="AC299" s="23"/>
+      <c r="Z299" s="41"/>
+      <c r="AA299" s="41"/>
+      <c r="AB299" s="41"/>
+      <c r="AC299" s="41"/>
       <c r="AD299" s="41"/>
       <c r="AF299" s="41"/>
     </row>
     <row r="300" spans="16:32" s="21" customFormat="1">
-      <c r="P300" s="22"/>
       <c r="Q300" s="23"/>
       <c r="R300" s="23"/>
       <c r="S300" s="23"/>
@@ -22264,13 +22336,13 @@
       <c r="T301" s="23"/>
       <c r="U301" s="23"/>
       <c r="V301" s="23"/>
-      <c r="W301" s="41"/>
+      <c r="W301" s="23"/>
       <c r="X301" s="41"/>
       <c r="Y301" s="41"/>
-      <c r="Z301" s="41"/>
-      <c r="AA301" s="41"/>
-      <c r="AB301" s="41"/>
-      <c r="AC301" s="41"/>
+      <c r="Z301" s="23"/>
+      <c r="AA301" s="23"/>
+      <c r="AB301" s="23"/>
+      <c r="AC301" s="23"/>
       <c r="AD301" s="41"/>
       <c r="AF301" s="41"/>
     </row>
@@ -22284,10 +22356,10 @@
       <c r="W302" s="23"/>
       <c r="X302" s="41"/>
       <c r="Y302" s="41"/>
-      <c r="Z302" s="23"/>
-      <c r="AA302" s="23"/>
-      <c r="AB302" s="23"/>
-      <c r="AC302" s="23"/>
+      <c r="Z302" s="41"/>
+      <c r="AA302" s="41"/>
+      <c r="AB302" s="41"/>
+      <c r="AC302" s="41"/>
       <c r="AD302" s="41"/>
       <c r="AF302" s="41"/>
     </row>
@@ -22298,7 +22370,7 @@
       <c r="T303" s="23"/>
       <c r="U303" s="23"/>
       <c r="V303" s="23"/>
-      <c r="W303" s="23"/>
+      <c r="W303" s="41"/>
       <c r="X303" s="41"/>
       <c r="Y303" s="41"/>
       <c r="Z303" s="41"/>
@@ -22315,7 +22387,7 @@
       <c r="T304" s="23"/>
       <c r="U304" s="23"/>
       <c r="V304" s="23"/>
-      <c r="W304" s="41"/>
+      <c r="W304" s="23"/>
       <c r="X304" s="41"/>
       <c r="Y304" s="41"/>
       <c r="Z304" s="41"/>
@@ -22325,7 +22397,7 @@
       <c r="AD304" s="41"/>
       <c r="AF304" s="41"/>
     </row>
-    <row r="305" spans="16:32" s="21" customFormat="1">
+    <row r="305" spans="16:29" s="21" customFormat="1">
       <c r="Q305" s="23"/>
       <c r="R305" s="23"/>
       <c r="S305" s="23"/>
@@ -22339,10 +22411,8 @@
       <c r="AA305" s="41"/>
       <c r="AB305" s="41"/>
       <c r="AC305" s="41"/>
-      <c r="AD305" s="41"/>
-      <c r="AF305" s="41"/>
-    </row>
-    <row r="306" spans="16:32" s="21" customFormat="1">
+    </row>
+    <row r="306" spans="16:29" s="21" customFormat="1">
       <c r="Q306" s="23"/>
       <c r="R306" s="23"/>
       <c r="S306" s="23"/>
@@ -22357,14 +22427,14 @@
       <c r="AB306" s="41"/>
       <c r="AC306" s="41"/>
     </row>
-    <row r="307" spans="16:32" s="21" customFormat="1">
+    <row r="307" spans="16:29" s="21" customFormat="1">
       <c r="Q307" s="23"/>
       <c r="R307" s="23"/>
       <c r="S307" s="23"/>
       <c r="T307" s="23"/>
       <c r="U307" s="23"/>
       <c r="V307" s="23"/>
-      <c r="W307" s="23"/>
+      <c r="W307" s="41"/>
       <c r="X307" s="41"/>
       <c r="Y307" s="41"/>
       <c r="Z307" s="41"/>
@@ -22372,14 +22442,14 @@
       <c r="AB307" s="41"/>
       <c r="AC307" s="41"/>
     </row>
-    <row r="308" spans="16:32" s="21" customFormat="1">
+    <row r="308" spans="16:29" s="21" customFormat="1">
       <c r="Q308" s="23"/>
       <c r="R308" s="23"/>
       <c r="S308" s="23"/>
       <c r="T308" s="23"/>
       <c r="U308" s="23"/>
       <c r="V308" s="23"/>
-      <c r="W308" s="41"/>
+      <c r="W308" s="23"/>
       <c r="X308" s="41"/>
       <c r="Y308" s="41"/>
       <c r="Z308" s="41"/>
@@ -22387,14 +22457,15 @@
       <c r="AB308" s="41"/>
       <c r="AC308" s="41"/>
     </row>
-    <row r="309" spans="16:32" s="21" customFormat="1">
+    <row r="309" spans="16:29" s="21" customFormat="1">
+      <c r="P309" s="22"/>
       <c r="Q309" s="23"/>
       <c r="R309" s="23"/>
       <c r="S309" s="23"/>
       <c r="T309" s="23"/>
       <c r="U309" s="23"/>
       <c r="V309" s="23"/>
-      <c r="W309" s="23"/>
+      <c r="W309" s="41"/>
       <c r="X309" s="41"/>
       <c r="Y309" s="41"/>
       <c r="Z309" s="41"/>
@@ -22402,23 +22473,22 @@
       <c r="AB309" s="41"/>
       <c r="AC309" s="41"/>
     </row>
-    <row r="310" spans="16:32" s="21" customFormat="1">
-      <c r="P310" s="22"/>
+    <row r="310" spans="16:29" s="21" customFormat="1">
       <c r="Q310" s="23"/>
       <c r="R310" s="23"/>
       <c r="S310" s="23"/>
       <c r="T310" s="23"/>
       <c r="U310" s="23"/>
       <c r="V310" s="23"/>
-      <c r="W310" s="41"/>
+      <c r="W310" s="23"/>
       <c r="X310" s="41"/>
       <c r="Y310" s="41"/>
-      <c r="Z310" s="41"/>
-      <c r="AA310" s="41"/>
-      <c r="AB310" s="41"/>
-      <c r="AC310" s="41"/>
-    </row>
-    <row r="311" spans="16:32" s="21" customFormat="1">
+      <c r="Z310" s="23"/>
+      <c r="AA310" s="23"/>
+      <c r="AB310" s="23"/>
+      <c r="AC310" s="23"/>
+    </row>
+    <row r="311" spans="16:29" s="21" customFormat="1">
       <c r="Q311" s="23"/>
       <c r="R311" s="23"/>
       <c r="S311" s="23"/>
@@ -22428,12 +22498,12 @@
       <c r="W311" s="23"/>
       <c r="X311" s="41"/>
       <c r="Y311" s="41"/>
-      <c r="Z311" s="23"/>
-      <c r="AA311" s="23"/>
-      <c r="AB311" s="23"/>
-      <c r="AC311" s="23"/>
-    </row>
-    <row r="312" spans="16:32" s="21" customFormat="1">
+      <c r="Z311" s="41"/>
+      <c r="AA311" s="41"/>
+      <c r="AB311" s="41"/>
+      <c r="AC311" s="41"/>
+    </row>
+    <row r="312" spans="16:29" s="21" customFormat="1">
       <c r="Q312" s="23"/>
       <c r="R312" s="23"/>
       <c r="S312" s="23"/>
@@ -22448,7 +22518,7 @@
       <c r="AB312" s="41"/>
       <c r="AC312" s="41"/>
     </row>
-    <row r="313" spans="16:32" s="21" customFormat="1">
+    <row r="313" spans="16:29" s="21" customFormat="1">
       <c r="Q313" s="23"/>
       <c r="R313" s="23"/>
       <c r="S313" s="23"/>
@@ -22463,7 +22533,7 @@
       <c r="AB313" s="41"/>
       <c r="AC313" s="41"/>
     </row>
-    <row r="314" spans="16:32" s="21" customFormat="1">
+    <row r="314" spans="16:29" s="21" customFormat="1">
       <c r="Q314" s="23"/>
       <c r="R314" s="23"/>
       <c r="S314" s="23"/>
@@ -22478,14 +22548,14 @@
       <c r="AB314" s="41"/>
       <c r="AC314" s="41"/>
     </row>
-    <row r="315" spans="16:32" s="21" customFormat="1">
+    <row r="315" spans="16:29" s="21" customFormat="1">
       <c r="Q315" s="23"/>
       <c r="R315" s="23"/>
       <c r="S315" s="23"/>
       <c r="T315" s="23"/>
       <c r="U315" s="23"/>
       <c r="V315" s="23"/>
-      <c r="W315" s="23"/>
+      <c r="W315" s="41"/>
       <c r="X315" s="41"/>
       <c r="Y315" s="41"/>
       <c r="Z315" s="41"/>
@@ -22493,14 +22563,14 @@
       <c r="AB315" s="41"/>
       <c r="AC315" s="41"/>
     </row>
-    <row r="316" spans="16:32" s="21" customFormat="1">
+    <row r="316" spans="16:29" s="21" customFormat="1">
       <c r="Q316" s="23"/>
       <c r="R316" s="23"/>
       <c r="S316" s="23"/>
       <c r="T316" s="23"/>
       <c r="U316" s="23"/>
       <c r="V316" s="23"/>
-      <c r="W316" s="41"/>
+      <c r="W316" s="23"/>
       <c r="X316" s="41"/>
       <c r="Y316" s="41"/>
       <c r="Z316" s="41"/>
@@ -22508,14 +22578,14 @@
       <c r="AB316" s="41"/>
       <c r="AC316" s="41"/>
     </row>
-    <row r="317" spans="16:32" s="21" customFormat="1">
+    <row r="317" spans="16:29" s="21" customFormat="1">
       <c r="Q317" s="23"/>
       <c r="R317" s="23"/>
       <c r="S317" s="23"/>
       <c r="T317" s="23"/>
       <c r="U317" s="23"/>
       <c r="V317" s="23"/>
-      <c r="W317" s="23"/>
+      <c r="W317" s="41"/>
       <c r="X317" s="41"/>
       <c r="Y317" s="41"/>
       <c r="Z317" s="41"/>
@@ -22523,38 +22593,38 @@
       <c r="AB317" s="41"/>
       <c r="AC317" s="41"/>
     </row>
-    <row r="318" spans="16:32" s="21" customFormat="1">
+    <row r="318" spans="16:29" s="21" customFormat="1">
       <c r="Q318" s="23"/>
       <c r="R318" s="23"/>
       <c r="S318" s="23"/>
       <c r="T318" s="23"/>
       <c r="U318" s="23"/>
       <c r="V318" s="23"/>
-      <c r="W318" s="41"/>
+      <c r="W318" s="23"/>
       <c r="X318" s="41"/>
       <c r="Y318" s="41"/>
-      <c r="Z318" s="41"/>
-      <c r="AA318" s="41"/>
-      <c r="AB318" s="41"/>
-      <c r="AC318" s="41"/>
-    </row>
-    <row r="319" spans="16:32" s="21" customFormat="1">
+      <c r="Z318" s="23"/>
+      <c r="AA318" s="23"/>
+      <c r="AB318" s="23"/>
+      <c r="AC318" s="23"/>
+    </row>
+    <row r="319" spans="16:29" s="21" customFormat="1">
+      <c r="P319" s="22"/>
       <c r="Q319" s="23"/>
       <c r="R319" s="23"/>
       <c r="S319" s="23"/>
       <c r="T319" s="23"/>
       <c r="U319" s="23"/>
       <c r="V319" s="23"/>
-      <c r="W319" s="23"/>
+      <c r="W319" s="41"/>
       <c r="X319" s="41"/>
       <c r="Y319" s="41"/>
-      <c r="Z319" s="23"/>
-      <c r="AA319" s="23"/>
-      <c r="AB319" s="23"/>
-      <c r="AC319" s="23"/>
-    </row>
-    <row r="320" spans="16:32" s="21" customFormat="1">
-      <c r="P320" s="22"/>
+      <c r="Z319" s="41"/>
+      <c r="AA319" s="41"/>
+      <c r="AB319" s="41"/>
+      <c r="AC319" s="41"/>
+    </row>
+    <row r="320" spans="16:29" s="21" customFormat="1">
       <c r="Q320" s="23"/>
       <c r="R320" s="23"/>
       <c r="S320" s="23"/>
@@ -22576,13 +22646,13 @@
       <c r="T321" s="23"/>
       <c r="U321" s="23"/>
       <c r="V321" s="23"/>
-      <c r="W321" s="41"/>
+      <c r="W321" s="23"/>
       <c r="X321" s="41"/>
       <c r="Y321" s="41"/>
-      <c r="Z321" s="41"/>
-      <c r="AA321" s="41"/>
-      <c r="AB321" s="41"/>
-      <c r="AC321" s="41"/>
+      <c r="Z321" s="23"/>
+      <c r="AA321" s="23"/>
+      <c r="AB321" s="23"/>
+      <c r="AC321" s="23"/>
     </row>
     <row r="322" spans="16:29" s="21" customFormat="1">
       <c r="Q322" s="23"/>
@@ -22594,10 +22664,10 @@
       <c r="W322" s="23"/>
       <c r="X322" s="41"/>
       <c r="Y322" s="41"/>
-      <c r="Z322" s="23"/>
-      <c r="AA322" s="23"/>
-      <c r="AB322" s="23"/>
-      <c r="AC322" s="23"/>
+      <c r="Z322" s="41"/>
+      <c r="AA322" s="41"/>
+      <c r="AB322" s="41"/>
+      <c r="AC322" s="41"/>
     </row>
     <row r="323" spans="16:29" s="21" customFormat="1">
       <c r="Q323" s="23"/>
@@ -22606,7 +22676,7 @@
       <c r="T323" s="23"/>
       <c r="U323" s="23"/>
       <c r="V323" s="23"/>
-      <c r="W323" s="23"/>
+      <c r="W323" s="41"/>
       <c r="X323" s="41"/>
       <c r="Y323" s="41"/>
       <c r="Z323" s="41"/>
@@ -22621,7 +22691,7 @@
       <c r="T324" s="23"/>
       <c r="U324" s="23"/>
       <c r="V324" s="23"/>
-      <c r="W324" s="41"/>
+      <c r="W324" s="23"/>
       <c r="X324" s="41"/>
       <c r="Y324" s="41"/>
       <c r="Z324" s="41"/>
@@ -22636,7 +22706,7 @@
       <c r="T325" s="23"/>
       <c r="U325" s="23"/>
       <c r="V325" s="23"/>
-      <c r="W325" s="23"/>
+      <c r="W325" s="41"/>
       <c r="X325" s="41"/>
       <c r="Y325" s="41"/>
       <c r="Z325" s="41"/>
@@ -22645,6 +22715,7 @@
       <c r="AC325" s="41"/>
     </row>
     <row r="326" spans="16:29" s="21" customFormat="1">
+      <c r="P326" s="22"/>
       <c r="Q326" s="23"/>
       <c r="R326" s="23"/>
       <c r="S326" s="23"/>
@@ -22660,7 +22731,6 @@
       <c r="AC326" s="41"/>
     </row>
     <row r="327" spans="16:29" s="21" customFormat="1">
-      <c r="P327" s="22"/>
       <c r="Q327" s="23"/>
       <c r="R327" s="23"/>
       <c r="S327" s="23"/>
@@ -22697,7 +22767,7 @@
       <c r="T329" s="23"/>
       <c r="U329" s="23"/>
       <c r="V329" s="23"/>
-      <c r="W329" s="41"/>
+      <c r="W329" s="23"/>
       <c r="X329" s="41"/>
       <c r="Y329" s="41"/>
       <c r="Z329" s="41"/>
@@ -22751,13 +22821,13 @@
       <c r="AC332" s="41"/>
     </row>
     <row r="333" spans="16:29" s="21" customFormat="1">
-      <c r="Q333" s="23"/>
-      <c r="R333" s="23"/>
-      <c r="S333" s="23"/>
-      <c r="T333" s="23"/>
-      <c r="U333" s="23"/>
-      <c r="V333" s="23"/>
-      <c r="W333" s="23"/>
+      <c r="Q333" s="41"/>
+      <c r="R333" s="41"/>
+      <c r="S333" s="41"/>
+      <c r="T333" s="41"/>
+      <c r="U333" s="41"/>
+      <c r="V333" s="41"/>
+      <c r="W333" s="41"/>
       <c r="X333" s="41"/>
       <c r="Y333" s="41"/>
       <c r="Z333" s="41"/>
@@ -22766,13 +22836,13 @@
       <c r="AC333" s="41"/>
     </row>
     <row r="334" spans="16:29" s="21" customFormat="1">
-      <c r="Q334" s="41"/>
-      <c r="R334" s="41"/>
-      <c r="S334" s="41"/>
-      <c r="T334" s="41"/>
-      <c r="U334" s="41"/>
-      <c r="V334" s="41"/>
-      <c r="W334" s="41"/>
+      <c r="Q334" s="23"/>
+      <c r="R334" s="23"/>
+      <c r="S334" s="23"/>
+      <c r="T334" s="23"/>
+      <c r="U334" s="23"/>
+      <c r="V334" s="23"/>
+      <c r="W334" s="23"/>
       <c r="X334" s="41"/>
       <c r="Y334" s="41"/>
       <c r="Z334" s="41"/>
@@ -22781,13 +22851,13 @@
       <c r="AC334" s="41"/>
     </row>
     <row r="335" spans="16:29" s="21" customFormat="1">
-      <c r="Q335" s="23"/>
-      <c r="R335" s="23"/>
-      <c r="S335" s="23"/>
-      <c r="T335" s="23"/>
-      <c r="U335" s="23"/>
-      <c r="V335" s="23"/>
-      <c r="W335" s="23"/>
+      <c r="Q335" s="41"/>
+      <c r="R335" s="41"/>
+      <c r="S335" s="41"/>
+      <c r="T335" s="41"/>
+      <c r="U335" s="41"/>
+      <c r="V335" s="41"/>
+      <c r="W335" s="41"/>
       <c r="X335" s="41"/>
       <c r="Y335" s="41"/>
       <c r="Z335" s="41"/>
@@ -22796,12 +22866,12 @@
       <c r="AC335" s="41"/>
     </row>
     <row r="336" spans="16:29" s="21" customFormat="1">
-      <c r="Q336" s="41"/>
-      <c r="R336" s="41"/>
-      <c r="S336" s="41"/>
-      <c r="T336" s="41"/>
-      <c r="U336" s="41"/>
-      <c r="V336" s="41"/>
+      <c r="Q336" s="23"/>
+      <c r="R336" s="23"/>
+      <c r="S336" s="23"/>
+      <c r="T336" s="23"/>
+      <c r="U336" s="23"/>
+      <c r="V336" s="23"/>
       <c r="W336" s="41"/>
       <c r="X336" s="41"/>
       <c r="Y336" s="41"/>
@@ -22817,13 +22887,13 @@
       <c r="T337" s="23"/>
       <c r="U337" s="23"/>
       <c r="V337" s="23"/>
-      <c r="W337" s="41"/>
+      <c r="W337" s="23"/>
       <c r="X337" s="41"/>
       <c r="Y337" s="41"/>
-      <c r="Z337" s="41"/>
-      <c r="AA337" s="41"/>
-      <c r="AB337" s="41"/>
-      <c r="AC337" s="41"/>
+      <c r="Z337" s="23"/>
+      <c r="AA337" s="23"/>
+      <c r="AB337" s="23"/>
+      <c r="AC337" s="23"/>
     </row>
     <row r="338" spans="16:29" s="21" customFormat="1">
       <c r="Q338" s="23"/>
@@ -22835,10 +22905,10 @@
       <c r="W338" s="23"/>
       <c r="X338" s="41"/>
       <c r="Y338" s="41"/>
-      <c r="Z338" s="23"/>
-      <c r="AA338" s="23"/>
-      <c r="AB338" s="23"/>
-      <c r="AC338" s="23"/>
+      <c r="Z338" s="41"/>
+      <c r="AA338" s="41"/>
+      <c r="AB338" s="41"/>
+      <c r="AC338" s="41"/>
     </row>
     <row r="339" spans="16:29" s="21" customFormat="1">
       <c r="Q339" s="23"/>
@@ -22847,7 +22917,7 @@
       <c r="T339" s="23"/>
       <c r="U339" s="23"/>
       <c r="V339" s="23"/>
-      <c r="W339" s="23"/>
+      <c r="W339" s="41"/>
       <c r="X339" s="41"/>
       <c r="Y339" s="41"/>
       <c r="Z339" s="41"/>
@@ -22856,13 +22926,14 @@
       <c r="AC339" s="41"/>
     </row>
     <row r="340" spans="16:29" s="21" customFormat="1">
+      <c r="P340" s="22"/>
       <c r="Q340" s="23"/>
       <c r="R340" s="23"/>
       <c r="S340" s="23"/>
       <c r="T340" s="23"/>
       <c r="U340" s="23"/>
       <c r="V340" s="23"/>
-      <c r="W340" s="41"/>
+      <c r="W340" s="23"/>
       <c r="X340" s="41"/>
       <c r="Y340" s="41"/>
       <c r="Z340" s="41"/>
@@ -22878,7 +22949,7 @@
       <c r="T341" s="23"/>
       <c r="U341" s="23"/>
       <c r="V341" s="23"/>
-      <c r="W341" s="23"/>
+      <c r="W341" s="41"/>
       <c r="X341" s="41"/>
       <c r="Y341" s="41"/>
       <c r="Z341" s="41"/>
@@ -22903,20 +22974,19 @@
       <c r="AC342" s="41"/>
     </row>
     <row r="343" spans="16:29" s="21" customFormat="1">
-      <c r="P343" s="22"/>
       <c r="Q343" s="23"/>
       <c r="R343" s="23"/>
       <c r="S343" s="23"/>
       <c r="T343" s="23"/>
       <c r="U343" s="23"/>
       <c r="V343" s="23"/>
-      <c r="W343" s="41"/>
+      <c r="W343" s="23"/>
       <c r="X343" s="41"/>
       <c r="Y343" s="41"/>
-      <c r="Z343" s="41"/>
-      <c r="AA343" s="41"/>
-      <c r="AB343" s="41"/>
-      <c r="AC343" s="41"/>
+      <c r="Z343" s="23"/>
+      <c r="AA343" s="23"/>
+      <c r="AB343" s="23"/>
+      <c r="AC343" s="23"/>
     </row>
     <row r="344" spans="16:29" s="21" customFormat="1">
       <c r="Q344" s="23"/>
@@ -22928,10 +22998,10 @@
       <c r="W344" s="23"/>
       <c r="X344" s="41"/>
       <c r="Y344" s="41"/>
-      <c r="Z344" s="23"/>
-      <c r="AA344" s="23"/>
-      <c r="AB344" s="23"/>
-      <c r="AC344" s="23"/>
+      <c r="Z344" s="41"/>
+      <c r="AA344" s="41"/>
+      <c r="AB344" s="41"/>
+      <c r="AC344" s="41"/>
     </row>
     <row r="345" spans="16:29" s="21" customFormat="1">
       <c r="Q345" s="23"/>
@@ -22970,7 +23040,7 @@
       <c r="T347" s="23"/>
       <c r="U347" s="23"/>
       <c r="V347" s="23"/>
-      <c r="W347" s="23"/>
+      <c r="W347" s="41"/>
       <c r="X347" s="41"/>
       <c r="Y347" s="41"/>
       <c r="Z347" s="41"/>
@@ -22985,7 +23055,7 @@
       <c r="T348" s="23"/>
       <c r="U348" s="23"/>
       <c r="V348" s="23"/>
-      <c r="W348" s="41"/>
+      <c r="W348" s="23"/>
       <c r="X348" s="41"/>
       <c r="Y348" s="41"/>
       <c r="Z348" s="41"/>
@@ -23000,7 +23070,7 @@
       <c r="T349" s="23"/>
       <c r="U349" s="23"/>
       <c r="V349" s="23"/>
-      <c r="W349" s="23"/>
+      <c r="W349" s="41"/>
       <c r="X349" s="41"/>
       <c r="Y349" s="41"/>
       <c r="Z349" s="41"/>
@@ -23045,7 +23115,7 @@
       <c r="T352" s="23"/>
       <c r="U352" s="23"/>
       <c r="V352" s="23"/>
-      <c r="W352" s="41"/>
+      <c r="W352" s="23"/>
       <c r="X352" s="41"/>
       <c r="Y352" s="41"/>
       <c r="Z352" s="41"/>
@@ -23069,13 +23139,13 @@
       <c r="AC353" s="41"/>
     </row>
     <row r="354" spans="17:29" s="21" customFormat="1">
-      <c r="Q354" s="23"/>
-      <c r="R354" s="23"/>
-      <c r="S354" s="23"/>
-      <c r="T354" s="23"/>
-      <c r="U354" s="23"/>
-      <c r="V354" s="23"/>
-      <c r="W354" s="23"/>
+      <c r="Q354" s="41"/>
+      <c r="R354" s="41"/>
+      <c r="S354" s="41"/>
+      <c r="T354" s="41"/>
+      <c r="U354" s="41"/>
+      <c r="V354" s="41"/>
+      <c r="W354" s="41"/>
       <c r="X354" s="41"/>
       <c r="Y354" s="41"/>
       <c r="Z354" s="41"/>
@@ -23084,13 +23154,13 @@
       <c r="AC354" s="41"/>
     </row>
     <row r="355" spans="17:29" s="21" customFormat="1">
-      <c r="Q355" s="41"/>
-      <c r="R355" s="41"/>
-      <c r="S355" s="41"/>
-      <c r="T355" s="41"/>
-      <c r="U355" s="41"/>
-      <c r="V355" s="41"/>
-      <c r="W355" s="41"/>
+      <c r="Q355" s="23"/>
+      <c r="R355" s="23"/>
+      <c r="S355" s="23"/>
+      <c r="T355" s="23"/>
+      <c r="U355" s="23"/>
+      <c r="V355" s="23"/>
+      <c r="W355" s="23"/>
       <c r="X355" s="41"/>
       <c r="Y355" s="41"/>
       <c r="Z355" s="41"/>
@@ -23099,13 +23169,13 @@
       <c r="AC355" s="41"/>
     </row>
     <row r="356" spans="17:29" s="21" customFormat="1">
-      <c r="Q356" s="23"/>
-      <c r="R356" s="23"/>
-      <c r="S356" s="23"/>
-      <c r="T356" s="23"/>
-      <c r="U356" s="23"/>
-      <c r="V356" s="23"/>
-      <c r="W356" s="23"/>
+      <c r="Q356" s="41"/>
+      <c r="R356" s="41"/>
+      <c r="S356" s="41"/>
+      <c r="T356" s="41"/>
+      <c r="U356" s="41"/>
+      <c r="V356" s="41"/>
+      <c r="W356" s="41"/>
       <c r="X356" s="41"/>
       <c r="Y356" s="41"/>
       <c r="Z356" s="41"/>
@@ -23114,12 +23184,12 @@
       <c r="AC356" s="41"/>
     </row>
     <row r="357" spans="17:29" s="21" customFormat="1">
-      <c r="Q357" s="41"/>
-      <c r="R357" s="41"/>
-      <c r="S357" s="41"/>
-      <c r="T357" s="41"/>
-      <c r="U357" s="41"/>
-      <c r="V357" s="41"/>
+      <c r="Q357" s="23"/>
+      <c r="R357" s="23"/>
+      <c r="S357" s="23"/>
+      <c r="T357" s="23"/>
+      <c r="U357" s="23"/>
+      <c r="V357" s="23"/>
       <c r="W357" s="41"/>
       <c r="X357" s="41"/>
       <c r="Y357" s="41"/>
@@ -23135,13 +23205,13 @@
       <c r="T358" s="23"/>
       <c r="U358" s="23"/>
       <c r="V358" s="23"/>
-      <c r="W358" s="41"/>
+      <c r="W358" s="23"/>
       <c r="X358" s="41"/>
       <c r="Y358" s="41"/>
-      <c r="Z358" s="41"/>
-      <c r="AA358" s="41"/>
-      <c r="AB358" s="41"/>
-      <c r="AC358" s="41"/>
+      <c r="Z358" s="23"/>
+      <c r="AA358" s="23"/>
+      <c r="AB358" s="23"/>
+      <c r="AC358" s="23"/>
     </row>
     <row r="359" spans="17:29" s="21" customFormat="1">
       <c r="Q359" s="23"/>
@@ -23150,13 +23220,13 @@
       <c r="T359" s="23"/>
       <c r="U359" s="23"/>
       <c r="V359" s="23"/>
-      <c r="W359" s="23"/>
+      <c r="W359" s="41"/>
       <c r="X359" s="41"/>
       <c r="Y359" s="41"/>
-      <c r="Z359" s="23"/>
-      <c r="AA359" s="23"/>
-      <c r="AB359" s="23"/>
-      <c r="AC359" s="23"/>
+      <c r="Z359" s="41"/>
+      <c r="AA359" s="41"/>
+      <c r="AB359" s="41"/>
+      <c r="AC359" s="41"/>
     </row>
     <row r="360" spans="17:29" s="21" customFormat="1">
       <c r="Q360" s="23"/>
@@ -23165,7 +23235,7 @@
       <c r="T360" s="23"/>
       <c r="U360" s="23"/>
       <c r="V360" s="23"/>
-      <c r="W360" s="41"/>
+      <c r="W360" s="23"/>
       <c r="X360" s="41"/>
       <c r="Y360" s="41"/>
       <c r="Z360" s="41"/>
@@ -23183,10 +23253,10 @@
       <c r="W361" s="23"/>
       <c r="X361" s="41"/>
       <c r="Y361" s="41"/>
-      <c r="Z361" s="41"/>
-      <c r="AA361" s="41"/>
-      <c r="AB361" s="41"/>
-      <c r="AC361" s="41"/>
+      <c r="Z361" s="23"/>
+      <c r="AA361" s="23"/>
+      <c r="AB361" s="23"/>
+      <c r="AC361" s="23"/>
     </row>
     <row r="362" spans="17:29" s="21" customFormat="1">
       <c r="Q362" s="23"/>
@@ -23195,13 +23265,13 @@
       <c r="T362" s="23"/>
       <c r="U362" s="23"/>
       <c r="V362" s="23"/>
-      <c r="W362" s="23"/>
+      <c r="W362" s="41"/>
       <c r="X362" s="41"/>
       <c r="Y362" s="41"/>
-      <c r="Z362" s="23"/>
-      <c r="AA362" s="23"/>
-      <c r="AB362" s="23"/>
-      <c r="AC362" s="23"/>
+      <c r="Z362" s="41"/>
+      <c r="AA362" s="41"/>
+      <c r="AB362" s="41"/>
+      <c r="AC362" s="41"/>
     </row>
     <row r="363" spans="17:29" s="21" customFormat="1">
       <c r="Q363" s="23"/>
@@ -23240,7 +23310,7 @@
       <c r="T365" s="23"/>
       <c r="U365" s="23"/>
       <c r="V365" s="23"/>
-      <c r="W365" s="41"/>
+      <c r="W365" s="23"/>
       <c r="X365" s="41"/>
       <c r="Y365" s="41"/>
       <c r="Z365" s="41"/>
@@ -23255,7 +23325,7 @@
       <c r="T366" s="23"/>
       <c r="U366" s="23"/>
       <c r="V366" s="23"/>
-      <c r="W366" s="23"/>
+      <c r="W366" s="41"/>
       <c r="X366" s="41"/>
       <c r="Y366" s="41"/>
       <c r="Z366" s="41"/>
@@ -23264,12 +23334,12 @@
       <c r="AC366" s="41"/>
     </row>
     <row r="367" spans="17:29" s="21" customFormat="1">
-      <c r="Q367" s="23"/>
-      <c r="R367" s="23"/>
-      <c r="S367" s="23"/>
-      <c r="T367" s="23"/>
-      <c r="U367" s="23"/>
-      <c r="V367" s="23"/>
+      <c r="Q367" s="41"/>
+      <c r="R367" s="41"/>
+      <c r="S367" s="41"/>
+      <c r="T367" s="41"/>
+      <c r="U367" s="41"/>
+      <c r="V367" s="41"/>
       <c r="W367" s="41"/>
       <c r="X367" s="41"/>
       <c r="Y367" s="41"/>
@@ -23279,12 +23349,12 @@
       <c r="AC367" s="41"/>
     </row>
     <row r="368" spans="17:29" s="21" customFormat="1">
-      <c r="Q368" s="41"/>
-      <c r="R368" s="41"/>
-      <c r="S368" s="41"/>
-      <c r="T368" s="41"/>
-      <c r="U368" s="41"/>
-      <c r="V368" s="41"/>
+      <c r="Q368" s="23"/>
+      <c r="R368" s="23"/>
+      <c r="S368" s="23"/>
+      <c r="T368" s="23"/>
+      <c r="U368" s="23"/>
+      <c r="V368" s="23"/>
       <c r="W368" s="41"/>
       <c r="X368" s="41"/>
       <c r="Y368" s="41"/>
@@ -23315,13 +23385,13 @@
       <c r="T370" s="23"/>
       <c r="U370" s="23"/>
       <c r="V370" s="23"/>
-      <c r="W370" s="41"/>
+      <c r="W370" s="23"/>
       <c r="X370" s="41"/>
       <c r="Y370" s="41"/>
-      <c r="Z370" s="41"/>
-      <c r="AA370" s="41"/>
-      <c r="AB370" s="41"/>
-      <c r="AC370" s="41"/>
+      <c r="Z370" s="23"/>
+      <c r="AA370" s="23"/>
+      <c r="AB370" s="23"/>
+      <c r="AC370" s="23"/>
     </row>
     <row r="371" spans="17:29" s="21" customFormat="1">
       <c r="Q371" s="23"/>
@@ -23330,13 +23400,13 @@
       <c r="T371" s="23"/>
       <c r="U371" s="23"/>
       <c r="V371" s="23"/>
-      <c r="W371" s="23"/>
+      <c r="W371" s="41"/>
       <c r="X371" s="41"/>
       <c r="Y371" s="41"/>
-      <c r="Z371" s="23"/>
-      <c r="AA371" s="23"/>
-      <c r="AB371" s="23"/>
-      <c r="AC371" s="23"/>
+      <c r="Z371" s="41"/>
+      <c r="AA371" s="41"/>
+      <c r="AB371" s="41"/>
+      <c r="AC371" s="41"/>
     </row>
     <row r="372" spans="17:29" s="21" customFormat="1">
       <c r="Q372" s="23"/>
@@ -23345,7 +23415,7 @@
       <c r="T372" s="23"/>
       <c r="U372" s="23"/>
       <c r="V372" s="23"/>
-      <c r="W372" s="41"/>
+      <c r="W372" s="23"/>
       <c r="X372" s="41"/>
       <c r="Y372" s="41"/>
       <c r="Z372" s="41"/>
@@ -23420,7 +23490,7 @@
       <c r="T377" s="23"/>
       <c r="U377" s="23"/>
       <c r="V377" s="23"/>
-      <c r="W377" s="23"/>
+      <c r="W377" s="41"/>
       <c r="X377" s="41"/>
       <c r="Y377" s="41"/>
       <c r="Z377" s="41"/>
@@ -23429,12 +23499,12 @@
       <c r="AC377" s="41"/>
     </row>
     <row r="378" spans="17:29" s="21" customFormat="1">
-      <c r="Q378" s="23"/>
-      <c r="R378" s="23"/>
-      <c r="S378" s="23"/>
-      <c r="T378" s="23"/>
-      <c r="U378" s="23"/>
-      <c r="V378" s="23"/>
+      <c r="Q378" s="41"/>
+      <c r="R378" s="41"/>
+      <c r="S378" s="41"/>
+      <c r="T378" s="41"/>
+      <c r="U378" s="41"/>
+      <c r="V378" s="41"/>
       <c r="W378" s="41"/>
       <c r="X378" s="41"/>
       <c r="Y378" s="41"/>
@@ -23444,13 +23514,13 @@
       <c r="AC378" s="41"/>
     </row>
     <row r="379" spans="17:29" s="21" customFormat="1">
-      <c r="Q379" s="41"/>
-      <c r="R379" s="41"/>
-      <c r="S379" s="41"/>
-      <c r="T379" s="41"/>
-      <c r="U379" s="41"/>
-      <c r="V379" s="41"/>
-      <c r="W379" s="41"/>
+      <c r="Q379" s="23"/>
+      <c r="R379" s="23"/>
+      <c r="S379" s="23"/>
+      <c r="T379" s="23"/>
+      <c r="U379" s="23"/>
+      <c r="V379" s="23"/>
+      <c r="W379" s="23"/>
       <c r="X379" s="41"/>
       <c r="Y379" s="41"/>
       <c r="Z379" s="41"/>
@@ -23495,7 +23565,7 @@
       <c r="T382" s="23"/>
       <c r="U382" s="23"/>
       <c r="V382" s="23"/>
-      <c r="W382" s="23"/>
+      <c r="W382" s="41"/>
       <c r="X382" s="41"/>
       <c r="Y382" s="41"/>
       <c r="Z382" s="41"/>
@@ -23525,7 +23595,7 @@
       <c r="T384" s="23"/>
       <c r="U384" s="23"/>
       <c r="V384" s="23"/>
-      <c r="W384" s="41"/>
+      <c r="W384" s="23"/>
       <c r="X384" s="41"/>
       <c r="Y384" s="41"/>
       <c r="Z384" s="41"/>
@@ -23540,7 +23610,7 @@
       <c r="T385" s="23"/>
       <c r="U385" s="23"/>
       <c r="V385" s="23"/>
-      <c r="W385" s="23"/>
+      <c r="W385" s="41"/>
       <c r="X385" s="41"/>
       <c r="Y385" s="41"/>
       <c r="Z385" s="41"/>
@@ -23600,7 +23670,7 @@
       <c r="T389" s="23"/>
       <c r="U389" s="23"/>
       <c r="V389" s="23"/>
-      <c r="W389" s="41"/>
+      <c r="W389" s="23"/>
       <c r="X389" s="41"/>
       <c r="Y389" s="41"/>
       <c r="Z389" s="41"/>
@@ -23615,7 +23685,7 @@
       <c r="T390" s="23"/>
       <c r="U390" s="23"/>
       <c r="V390" s="23"/>
-      <c r="W390" s="23"/>
+      <c r="W390" s="41"/>
       <c r="X390" s="41"/>
       <c r="Y390" s="41"/>
       <c r="Z390" s="41"/>
@@ -23660,7 +23730,7 @@
       <c r="T393" s="23"/>
       <c r="U393" s="23"/>
       <c r="V393" s="23"/>
-      <c r="W393" s="41"/>
+      <c r="W393" s="23"/>
       <c r="X393" s="41"/>
       <c r="Y393" s="41"/>
       <c r="Z393" s="41"/>
@@ -23684,13 +23754,13 @@
       <c r="AC394" s="41"/>
     </row>
     <row r="395" spans="17:29" s="21" customFormat="1">
-      <c r="Q395" s="23"/>
-      <c r="R395" s="23"/>
-      <c r="S395" s="23"/>
-      <c r="T395" s="23"/>
-      <c r="U395" s="23"/>
-      <c r="V395" s="23"/>
-      <c r="W395" s="23"/>
+      <c r="Q395" s="41"/>
+      <c r="R395" s="41"/>
+      <c r="S395" s="41"/>
+      <c r="T395" s="41"/>
+      <c r="U395" s="41"/>
+      <c r="V395" s="41"/>
+      <c r="W395" s="41"/>
       <c r="X395" s="41"/>
       <c r="Y395" s="41"/>
       <c r="Z395" s="41"/>
@@ -23699,12 +23769,12 @@
       <c r="AC395" s="41"/>
     </row>
     <row r="396" spans="17:29" s="21" customFormat="1">
-      <c r="Q396" s="41"/>
-      <c r="R396" s="41"/>
-      <c r="S396" s="41"/>
-      <c r="T396" s="41"/>
-      <c r="U396" s="41"/>
-      <c r="V396" s="41"/>
+      <c r="Q396" s="23"/>
+      <c r="R396" s="23"/>
+      <c r="S396" s="23"/>
+      <c r="T396" s="23"/>
+      <c r="U396" s="23"/>
+      <c r="V396" s="23"/>
       <c r="W396" s="41"/>
       <c r="X396" s="41"/>
       <c r="Y396" s="41"/>
@@ -23720,13 +23790,13 @@
       <c r="T397" s="23"/>
       <c r="U397" s="23"/>
       <c r="V397" s="23"/>
-      <c r="W397" s="41"/>
+      <c r="W397" s="23"/>
       <c r="X397" s="41"/>
       <c r="Y397" s="41"/>
-      <c r="Z397" s="41"/>
-      <c r="AA397" s="41"/>
-      <c r="AB397" s="41"/>
-      <c r="AC397" s="41"/>
+      <c r="Z397" s="23"/>
+      <c r="AA397" s="23"/>
+      <c r="AB397" s="23"/>
+      <c r="AC397" s="23"/>
     </row>
     <row r="398" spans="17:29" s="21" customFormat="1">
       <c r="Q398" s="23"/>
@@ -23750,13 +23820,13 @@
       <c r="T399" s="23"/>
       <c r="U399" s="23"/>
       <c r="V399" s="23"/>
-      <c r="W399" s="23"/>
+      <c r="W399" s="41"/>
       <c r="X399" s="41"/>
       <c r="Y399" s="41"/>
-      <c r="Z399" s="23"/>
-      <c r="AA399" s="23"/>
-      <c r="AB399" s="23"/>
-      <c r="AC399" s="23"/>
+      <c r="Z399" s="41"/>
+      <c r="AA399" s="41"/>
+      <c r="AB399" s="41"/>
+      <c r="AC399" s="41"/>
     </row>
     <row r="400" spans="17:29" s="21" customFormat="1">
       <c r="Q400" s="23"/>
@@ -23765,7 +23835,7 @@
       <c r="T400" s="23"/>
       <c r="U400" s="23"/>
       <c r="V400" s="23"/>
-      <c r="W400" s="41"/>
+      <c r="W400" s="23"/>
       <c r="X400" s="41"/>
       <c r="Y400" s="41"/>
       <c r="Z400" s="41"/>
@@ -23810,7 +23880,7 @@
       <c r="T403" s="23"/>
       <c r="U403" s="23"/>
       <c r="V403" s="23"/>
-      <c r="W403" s="23"/>
+      <c r="W403" s="41"/>
       <c r="X403" s="41"/>
       <c r="Y403" s="41"/>
       <c r="Z403" s="41"/>
@@ -23825,7 +23895,7 @@
       <c r="T404" s="23"/>
       <c r="U404" s="23"/>
       <c r="V404" s="23"/>
-      <c r="W404" s="41"/>
+      <c r="W404" s="23"/>
       <c r="X404" s="41"/>
       <c r="Y404" s="41"/>
       <c r="Z404" s="41"/>
@@ -23855,7 +23925,7 @@
       <c r="T406" s="23"/>
       <c r="U406" s="23"/>
       <c r="V406" s="23"/>
-      <c r="W406" s="23"/>
+      <c r="W406" s="41"/>
       <c r="X406" s="41"/>
       <c r="Y406" s="41"/>
       <c r="Z406" s="41"/>
@@ -23900,7 +23970,7 @@
       <c r="T409" s="23"/>
       <c r="U409" s="23"/>
       <c r="V409" s="23"/>
-      <c r="W409" s="41"/>
+      <c r="W409" s="23"/>
       <c r="X409" s="41"/>
       <c r="Y409" s="41"/>
       <c r="Z409" s="41"/>
@@ -23924,13 +23994,13 @@
       <c r="AC410" s="41"/>
     </row>
     <row r="411" spans="17:29" s="21" customFormat="1">
-      <c r="Q411" s="23"/>
-      <c r="R411" s="23"/>
-      <c r="S411" s="23"/>
-      <c r="T411" s="23"/>
-      <c r="U411" s="23"/>
-      <c r="V411" s="23"/>
-      <c r="W411" s="23"/>
+      <c r="Q411" s="41"/>
+      <c r="R411" s="41"/>
+      <c r="S411" s="41"/>
+      <c r="T411" s="41"/>
+      <c r="U411" s="41"/>
+      <c r="V411" s="41"/>
+      <c r="W411" s="41"/>
       <c r="X411" s="41"/>
       <c r="Y411" s="41"/>
       <c r="Z411" s="41"/>
@@ -23939,12 +24009,12 @@
       <c r="AC411" s="41"/>
     </row>
     <row r="412" spans="17:29" s="21" customFormat="1">
-      <c r="Q412" s="41"/>
-      <c r="R412" s="41"/>
-      <c r="S412" s="41"/>
-      <c r="T412" s="41"/>
-      <c r="U412" s="41"/>
-      <c r="V412" s="41"/>
+      <c r="Q412" s="23"/>
+      <c r="R412" s="23"/>
+      <c r="S412" s="23"/>
+      <c r="T412" s="23"/>
+      <c r="U412" s="23"/>
+      <c r="V412" s="23"/>
       <c r="W412" s="41"/>
       <c r="X412" s="41"/>
       <c r="Y412" s="41"/>
@@ -23960,13 +24030,13 @@
       <c r="T413" s="23"/>
       <c r="U413" s="23"/>
       <c r="V413" s="23"/>
-      <c r="W413" s="41"/>
+      <c r="W413" s="23"/>
       <c r="X413" s="41"/>
       <c r="Y413" s="41"/>
-      <c r="Z413" s="41"/>
-      <c r="AA413" s="41"/>
-      <c r="AB413" s="41"/>
-      <c r="AC413" s="41"/>
+      <c r="Z413" s="23"/>
+      <c r="AA413" s="23"/>
+      <c r="AB413" s="23"/>
+      <c r="AC413" s="23"/>
     </row>
     <row r="414" spans="17:29" s="21" customFormat="1">
       <c r="Q414" s="23"/>
@@ -23978,10 +24048,10 @@
       <c r="W414" s="23"/>
       <c r="X414" s="41"/>
       <c r="Y414" s="41"/>
-      <c r="Z414" s="23"/>
-      <c r="AA414" s="23"/>
-      <c r="AB414" s="23"/>
-      <c r="AC414" s="23"/>
+      <c r="Z414" s="41"/>
+      <c r="AA414" s="41"/>
+      <c r="AB414" s="41"/>
+      <c r="AC414" s="41"/>
     </row>
     <row r="415" spans="17:29" s="21" customFormat="1">
       <c r="Q415" s="23"/>
@@ -24020,7 +24090,7 @@
       <c r="T417" s="23"/>
       <c r="U417" s="23"/>
       <c r="V417" s="23"/>
-      <c r="W417" s="23"/>
+      <c r="W417" s="41"/>
       <c r="X417" s="41"/>
       <c r="Y417" s="41"/>
       <c r="Z417" s="41"/>
@@ -24050,13 +24120,13 @@
       <c r="T419" s="23"/>
       <c r="U419" s="23"/>
       <c r="V419" s="23"/>
-      <c r="W419" s="41"/>
+      <c r="W419" s="23"/>
       <c r="X419" s="41"/>
       <c r="Y419" s="41"/>
-      <c r="Z419" s="41"/>
-      <c r="AA419" s="41"/>
-      <c r="AB419" s="41"/>
-      <c r="AC419" s="41"/>
+      <c r="Z419" s="23"/>
+      <c r="AA419" s="23"/>
+      <c r="AB419" s="23"/>
+      <c r="AC419" s="23"/>
     </row>
     <row r="420" spans="17:29" s="21" customFormat="1">
       <c r="Q420" s="23"/>
@@ -24065,13 +24135,13 @@
       <c r="T420" s="23"/>
       <c r="U420" s="23"/>
       <c r="V420" s="23"/>
-      <c r="W420" s="23"/>
+      <c r="W420" s="41"/>
       <c r="X420" s="41"/>
       <c r="Y420" s="41"/>
-      <c r="Z420" s="23"/>
-      <c r="AA420" s="23"/>
-      <c r="AB420" s="23"/>
-      <c r="AC420" s="23"/>
+      <c r="Z420" s="41"/>
+      <c r="AA420" s="41"/>
+      <c r="AB420" s="41"/>
+      <c r="AC420" s="41"/>
     </row>
     <row r="421" spans="17:29" s="21" customFormat="1">
       <c r="Q421" s="23"/>
@@ -24080,7 +24150,7 @@
       <c r="T421" s="23"/>
       <c r="U421" s="23"/>
       <c r="V421" s="23"/>
-      <c r="W421" s="41"/>
+      <c r="W421" s="23"/>
       <c r="X421" s="41"/>
       <c r="Y421" s="41"/>
       <c r="Z421" s="41"/>
@@ -24095,7 +24165,7 @@
       <c r="T422" s="23"/>
       <c r="U422" s="23"/>
       <c r="V422" s="23"/>
-      <c r="W422" s="23"/>
+      <c r="W422" s="41"/>
       <c r="X422" s="41"/>
       <c r="Y422" s="41"/>
       <c r="Z422" s="41"/>
@@ -24140,7 +24210,7 @@
       <c r="T425" s="23"/>
       <c r="U425" s="23"/>
       <c r="V425" s="23"/>
-      <c r="W425" s="41"/>
+      <c r="W425" s="23"/>
       <c r="X425" s="41"/>
       <c r="Y425" s="41"/>
       <c r="Z425" s="41"/>
@@ -24170,7 +24240,7 @@
       <c r="T427" s="23"/>
       <c r="U427" s="23"/>
       <c r="V427" s="23"/>
-      <c r="W427" s="23"/>
+      <c r="W427" s="41"/>
       <c r="X427" s="41"/>
       <c r="Y427" s="41"/>
       <c r="Z427" s="41"/>
@@ -24215,7 +24285,7 @@
       <c r="T430" s="23"/>
       <c r="U430" s="23"/>
       <c r="V430" s="23"/>
-      <c r="W430" s="41"/>
+      <c r="W430" s="23"/>
       <c r="X430" s="41"/>
       <c r="Y430" s="41"/>
       <c r="Z430" s="41"/>
@@ -24239,13 +24309,13 @@
       <c r="AC431" s="41"/>
     </row>
     <row r="432" spans="17:29" s="21" customFormat="1">
-      <c r="Q432" s="23"/>
-      <c r="R432" s="23"/>
-      <c r="S432" s="23"/>
-      <c r="T432" s="23"/>
-      <c r="U432" s="23"/>
-      <c r="V432" s="23"/>
-      <c r="W432" s="23"/>
+      <c r="Q432" s="41"/>
+      <c r="R432" s="41"/>
+      <c r="S432" s="41"/>
+      <c r="T432" s="41"/>
+      <c r="U432" s="41"/>
+      <c r="V432" s="41"/>
+      <c r="W432" s="41"/>
       <c r="X432" s="41"/>
       <c r="Y432" s="41"/>
       <c r="Z432" s="41"/>
@@ -24253,13 +24323,13 @@
       <c r="AB432" s="41"/>
       <c r="AC432" s="41"/>
     </row>
-    <row r="433" spans="17:29" s="21" customFormat="1">
-      <c r="Q433" s="41"/>
-      <c r="R433" s="41"/>
-      <c r="S433" s="41"/>
-      <c r="T433" s="41"/>
-      <c r="U433" s="41"/>
-      <c r="V433" s="41"/>
+    <row r="433" spans="10:29" s="21" customFormat="1">
+      <c r="Q433" s="23"/>
+      <c r="R433" s="23"/>
+      <c r="S433" s="23"/>
+      <c r="T433" s="23"/>
+      <c r="U433" s="23"/>
+      <c r="V433" s="23"/>
       <c r="W433" s="41"/>
       <c r="X433" s="41"/>
       <c r="Y433" s="41"/>
@@ -24268,37 +24338,37 @@
       <c r="AB433" s="41"/>
       <c r="AC433" s="41"/>
     </row>
-    <row r="434" spans="17:29" s="21" customFormat="1">
+    <row r="434" spans="10:29" s="21" customFormat="1">
       <c r="Q434" s="23"/>
       <c r="R434" s="23"/>
       <c r="S434" s="23"/>
       <c r="T434" s="23"/>
       <c r="U434" s="23"/>
       <c r="V434" s="23"/>
-      <c r="W434" s="41"/>
+      <c r="W434" s="23"/>
       <c r="X434" s="41"/>
       <c r="Y434" s="41"/>
-      <c r="Z434" s="41"/>
-      <c r="AA434" s="41"/>
-      <c r="AB434" s="41"/>
-      <c r="AC434" s="41"/>
-    </row>
-    <row r="435" spans="17:29" s="21" customFormat="1">
+      <c r="Z434" s="23"/>
+      <c r="AA434" s="23"/>
+      <c r="AB434" s="23"/>
+      <c r="AC434" s="23"/>
+    </row>
+    <row r="435" spans="10:29" s="21" customFormat="1">
       <c r="Q435" s="23"/>
       <c r="R435" s="23"/>
       <c r="S435" s="23"/>
       <c r="T435" s="23"/>
       <c r="U435" s="23"/>
       <c r="V435" s="23"/>
-      <c r="W435" s="23"/>
+      <c r="W435" s="41"/>
       <c r="X435" s="41"/>
       <c r="Y435" s="41"/>
-      <c r="Z435" s="23"/>
-      <c r="AA435" s="23"/>
-      <c r="AB435" s="23"/>
-      <c r="AC435" s="23"/>
-    </row>
-    <row r="436" spans="17:29" s="21" customFormat="1">
+      <c r="Z435" s="41"/>
+      <c r="AA435" s="41"/>
+      <c r="AB435" s="41"/>
+      <c r="AC435" s="41"/>
+    </row>
+    <row r="436" spans="10:29" s="21" customFormat="1">
       <c r="Q436" s="23"/>
       <c r="R436" s="23"/>
       <c r="S436" s="23"/>
@@ -24313,7 +24383,7 @@
       <c r="AB436" s="41"/>
       <c r="AC436" s="41"/>
     </row>
-    <row r="437" spans="17:29" s="21" customFormat="1">
+    <row r="437" spans="10:29" s="21" customFormat="1">
       <c r="Q437" s="23"/>
       <c r="R437" s="23"/>
       <c r="S437" s="23"/>
@@ -24328,13 +24398,13 @@
       <c r="AB437" s="41"/>
       <c r="AC437" s="41"/>
     </row>
-    <row r="438" spans="17:29" s="21" customFormat="1">
-      <c r="Q438" s="23"/>
-      <c r="R438" s="23"/>
-      <c r="S438" s="23"/>
-      <c r="T438" s="23"/>
-      <c r="U438" s="23"/>
-      <c r="V438" s="23"/>
+    <row r="438" spans="10:29" s="21" customFormat="1">
+      <c r="Q438" s="41"/>
+      <c r="R438" s="41"/>
+      <c r="S438" s="41"/>
+      <c r="T438" s="41"/>
+      <c r="U438" s="41"/>
+      <c r="V438" s="41"/>
       <c r="W438" s="41"/>
       <c r="X438" s="41"/>
       <c r="Y438" s="41"/>
@@ -24343,14 +24413,14 @@
       <c r="AB438" s="41"/>
       <c r="AC438" s="41"/>
     </row>
-    <row r="439" spans="17:29" s="21" customFormat="1">
-      <c r="Q439" s="41"/>
-      <c r="R439" s="41"/>
-      <c r="S439" s="41"/>
-      <c r="T439" s="41"/>
-      <c r="U439" s="41"/>
-      <c r="V439" s="41"/>
-      <c r="W439" s="41"/>
+    <row r="439" spans="10:29" s="21" customFormat="1">
+      <c r="Q439" s="23"/>
+      <c r="R439" s="23"/>
+      <c r="S439" s="23"/>
+      <c r="T439" s="23"/>
+      <c r="U439" s="23"/>
+      <c r="V439" s="23"/>
+      <c r="W439" s="23"/>
       <c r="X439" s="41"/>
       <c r="Y439" s="41"/>
       <c r="Z439" s="41"/>
@@ -24358,14 +24428,14 @@
       <c r="AB439" s="41"/>
       <c r="AC439" s="41"/>
     </row>
-    <row r="440" spans="17:29" s="21" customFormat="1">
-      <c r="Q440" s="23"/>
-      <c r="R440" s="23"/>
-      <c r="S440" s="23"/>
-      <c r="T440" s="23"/>
-      <c r="U440" s="23"/>
-      <c r="V440" s="23"/>
-      <c r="W440" s="23"/>
+    <row r="440" spans="10:29" s="21" customFormat="1">
+      <c r="Q440" s="41"/>
+      <c r="R440" s="41"/>
+      <c r="S440" s="41"/>
+      <c r="T440" s="41"/>
+      <c r="U440" s="41"/>
+      <c r="V440" s="41"/>
+      <c r="W440" s="41"/>
       <c r="X440" s="41"/>
       <c r="Y440" s="41"/>
       <c r="Z440" s="41"/>
@@ -24373,14 +24443,14 @@
       <c r="AB440" s="41"/>
       <c r="AC440" s="41"/>
     </row>
-    <row r="441" spans="17:29" s="21" customFormat="1">
-      <c r="Q441" s="41"/>
-      <c r="R441" s="41"/>
-      <c r="S441" s="41"/>
-      <c r="T441" s="41"/>
-      <c r="U441" s="41"/>
-      <c r="V441" s="41"/>
-      <c r="W441" s="41"/>
+    <row r="441" spans="10:29" s="21" customFormat="1">
+      <c r="Q441" s="23"/>
+      <c r="R441" s="23"/>
+      <c r="S441" s="23"/>
+      <c r="T441" s="23"/>
+      <c r="U441" s="23"/>
+      <c r="V441" s="23"/>
+      <c r="W441" s="23"/>
       <c r="X441" s="41"/>
       <c r="Y441" s="41"/>
       <c r="Z441" s="41"/>
@@ -24388,14 +24458,14 @@
       <c r="AB441" s="41"/>
       <c r="AC441" s="41"/>
     </row>
-    <row r="442" spans="17:29" s="21" customFormat="1">
-      <c r="Q442" s="23"/>
-      <c r="R442" s="23"/>
-      <c r="S442" s="23"/>
-      <c r="T442" s="23"/>
-      <c r="U442" s="23"/>
-      <c r="V442" s="23"/>
-      <c r="W442" s="23"/>
+    <row r="442" spans="10:29" s="21" customFormat="1">
+      <c r="Q442" s="41"/>
+      <c r="R442" s="41"/>
+      <c r="S442" s="41"/>
+      <c r="T442" s="41"/>
+      <c r="U442" s="41"/>
+      <c r="V442" s="41"/>
+      <c r="W442" s="41"/>
       <c r="X442" s="41"/>
       <c r="Y442" s="41"/>
       <c r="Z442" s="41"/>
@@ -24403,13 +24473,13 @@
       <c r="AB442" s="41"/>
       <c r="AC442" s="41"/>
     </row>
-    <row r="443" spans="17:29" s="21" customFormat="1">
-      <c r="Q443" s="41"/>
-      <c r="R443" s="41"/>
-      <c r="S443" s="41"/>
-      <c r="T443" s="41"/>
-      <c r="U443" s="41"/>
-      <c r="V443" s="41"/>
+    <row r="443" spans="10:29" s="21" customFormat="1">
+      <c r="Q443" s="23"/>
+      <c r="R443" s="23"/>
+      <c r="S443" s="23"/>
+      <c r="T443" s="23"/>
+      <c r="U443" s="23"/>
+      <c r="V443" s="23"/>
       <c r="W443" s="41"/>
       <c r="X443" s="41"/>
       <c r="Y443" s="41"/>
@@ -24418,37 +24488,37 @@
       <c r="AB443" s="41"/>
       <c r="AC443" s="41"/>
     </row>
-    <row r="444" spans="17:29" s="21" customFormat="1">
+    <row r="444" spans="10:29" s="21" customFormat="1">
       <c r="Q444" s="23"/>
       <c r="R444" s="23"/>
       <c r="S444" s="23"/>
       <c r="T444" s="23"/>
       <c r="U444" s="23"/>
       <c r="V444" s="23"/>
-      <c r="W444" s="41"/>
+      <c r="W444" s="23"/>
       <c r="X444" s="41"/>
       <c r="Y444" s="41"/>
-      <c r="Z444" s="41"/>
-      <c r="AA444" s="41"/>
-      <c r="AB444" s="41"/>
-      <c r="AC444" s="41"/>
-    </row>
-    <row r="445" spans="17:29" s="21" customFormat="1">
+      <c r="Z444" s="23"/>
+      <c r="AA444" s="23"/>
+      <c r="AB444" s="23"/>
+      <c r="AC444" s="23"/>
+    </row>
+    <row r="445" spans="10:29" s="21" customFormat="1">
       <c r="Q445" s="23"/>
       <c r="R445" s="23"/>
       <c r="S445" s="23"/>
       <c r="T445" s="23"/>
       <c r="U445" s="23"/>
       <c r="V445" s="23"/>
-      <c r="W445" s="23"/>
+      <c r="W445" s="41"/>
       <c r="X445" s="41"/>
       <c r="Y445" s="41"/>
-      <c r="Z445" s="23"/>
-      <c r="AA445" s="23"/>
-      <c r="AB445" s="23"/>
-      <c r="AC445" s="23"/>
-    </row>
-    <row r="446" spans="17:29" s="21" customFormat="1">
+      <c r="Z445" s="41"/>
+      <c r="AA445" s="41"/>
+      <c r="AB445" s="41"/>
+      <c r="AC445" s="41"/>
+    </row>
+    <row r="446" spans="10:29" s="21" customFormat="1">
       <c r="Q446" s="23"/>
       <c r="R446" s="23"/>
       <c r="S446" s="23"/>
@@ -24463,7 +24533,7 @@
       <c r="AB446" s="41"/>
       <c r="AC446" s="41"/>
     </row>
-    <row r="447" spans="17:29" s="21" customFormat="1">
+    <row r="447" spans="10:29" s="21" customFormat="1">
       <c r="Q447" s="23"/>
       <c r="R447" s="23"/>
       <c r="S447" s="23"/>
@@ -24478,14 +24548,35 @@
       <c r="AB447" s="41"/>
       <c r="AC447" s="41"/>
     </row>
-    <row r="448" spans="17:29" s="21" customFormat="1">
+    <row r="448" spans="10:29" s="21" customFormat="1">
+      <c r="J448" s="21">
+        <v>8</v>
+      </c>
+      <c r="K448" s="21">
+        <v>11</v>
+      </c>
+      <c r="L448" s="21">
+        <v>12</v>
+      </c>
+      <c r="M448" s="21">
+        <v>14</v>
+      </c>
+      <c r="N448" s="21">
+        <v>15</v>
+      </c>
+      <c r="O448" s="21">
+        <v>16</v>
+      </c>
+      <c r="P448" s="21">
+        <v>17</v>
+      </c>
       <c r="Q448" s="23"/>
       <c r="R448" s="23"/>
       <c r="S448" s="23"/>
       <c r="T448" s="23"/>
       <c r="U448" s="23"/>
       <c r="V448" s="23"/>
-      <c r="W448" s="41"/>
+      <c r="W448" s="23"/>
       <c r="X448" s="41"/>
       <c r="Y448" s="41"/>
       <c r="Z448" s="41"/>
@@ -24493,35 +24584,14 @@
       <c r="AB448" s="41"/>
       <c r="AC448" s="41"/>
     </row>
-    <row r="449" spans="10:29" s="21" customFormat="1">
-      <c r="J449" s="21">
-        <v>8</v>
-      </c>
-      <c r="K449" s="21">
-        <v>11</v>
-      </c>
-      <c r="L449" s="21">
-        <v>12</v>
-      </c>
-      <c r="M449" s="21">
-        <v>14</v>
-      </c>
-      <c r="N449" s="21">
-        <v>15</v>
-      </c>
-      <c r="O449" s="21">
-        <v>16</v>
-      </c>
-      <c r="P449" s="21">
-        <v>17</v>
-      </c>
-      <c r="Q449" s="23"/>
-      <c r="R449" s="23"/>
-      <c r="S449" s="23"/>
-      <c r="T449" s="23"/>
-      <c r="U449" s="23"/>
-      <c r="V449" s="23"/>
-      <c r="W449" s="23"/>
+    <row r="449" spans="17:29" s="21" customFormat="1">
+      <c r="Q449" s="41"/>
+      <c r="R449" s="41"/>
+      <c r="S449" s="41"/>
+      <c r="T449" s="41"/>
+      <c r="U449" s="41"/>
+      <c r="V449" s="41"/>
+      <c r="W449" s="41"/>
       <c r="X449" s="41"/>
       <c r="Y449" s="41"/>
       <c r="Z449" s="41"/>
@@ -24529,37 +24599,37 @@
       <c r="AB449" s="41"/>
       <c r="AC449" s="41"/>
     </row>
-    <row r="450" spans="10:29" s="21" customFormat="1">
-      <c r="Q450" s="41"/>
-      <c r="R450" s="41"/>
-      <c r="S450" s="41"/>
-      <c r="T450" s="41"/>
-      <c r="U450" s="41"/>
-      <c r="V450" s="41"/>
-      <c r="W450" s="41"/>
+    <row r="450" spans="17:29" s="21" customFormat="1">
+      <c r="Q450" s="23"/>
+      <c r="R450" s="23"/>
+      <c r="S450" s="23"/>
+      <c r="T450" s="23"/>
+      <c r="U450" s="23"/>
+      <c r="V450" s="23"/>
+      <c r="W450" s="23"/>
       <c r="X450" s="41"/>
       <c r="Y450" s="41"/>
-      <c r="Z450" s="41"/>
-      <c r="AA450" s="41"/>
-      <c r="AB450" s="41"/>
-      <c r="AC450" s="41"/>
-    </row>
-    <row r="451" spans="10:29" s="21" customFormat="1">
+      <c r="Z450" s="23"/>
+      <c r="AA450" s="23"/>
+      <c r="AB450" s="23"/>
+      <c r="AC450" s="23"/>
+    </row>
+    <row r="451" spans="17:29" s="21" customFormat="1">
       <c r="Q451" s="23"/>
       <c r="R451" s="23"/>
       <c r="S451" s="23"/>
       <c r="T451" s="23"/>
       <c r="U451" s="23"/>
       <c r="V451" s="23"/>
-      <c r="W451" s="23"/>
+      <c r="W451" s="41"/>
       <c r="X451" s="41"/>
       <c r="Y451" s="41"/>
-      <c r="Z451" s="23"/>
-      <c r="AA451" s="23"/>
-      <c r="AB451" s="23"/>
-      <c r="AC451" s="23"/>
-    </row>
-    <row r="452" spans="10:29" s="21" customFormat="1">
+      <c r="Z451" s="41"/>
+      <c r="AA451" s="41"/>
+      <c r="AB451" s="41"/>
+      <c r="AC451" s="41"/>
+    </row>
+    <row r="452" spans="17:29" s="21" customFormat="1">
       <c r="Q452" s="23"/>
       <c r="R452" s="23"/>
       <c r="S452" s="23"/>
@@ -24574,44 +24644,44 @@
       <c r="AB452" s="41"/>
       <c r="AC452" s="41"/>
     </row>
-    <row r="453" spans="10:29" s="21" customFormat="1">
+    <row r="453" spans="17:29" s="21" customFormat="1">
       <c r="Q453" s="23"/>
       <c r="R453" s="23"/>
       <c r="S453" s="23"/>
       <c r="T453" s="23"/>
       <c r="U453" s="23"/>
       <c r="V453" s="23"/>
-      <c r="W453" s="41"/>
+      <c r="W453" s="23"/>
       <c r="X453" s="41"/>
       <c r="Y453" s="41"/>
-      <c r="Z453" s="41"/>
-      <c r="AA453" s="41"/>
-      <c r="AB453" s="41"/>
-      <c r="AC453" s="41"/>
-    </row>
-    <row r="454" spans="10:29" s="21" customFormat="1">
+      <c r="Z453" s="23"/>
+      <c r="AA453" s="23"/>
+      <c r="AB453" s="23"/>
+      <c r="AC453" s="23"/>
+    </row>
+    <row r="454" spans="17:29" s="21" customFormat="1">
       <c r="Q454" s="23"/>
       <c r="R454" s="23"/>
       <c r="S454" s="23"/>
       <c r="T454" s="23"/>
       <c r="U454" s="23"/>
       <c r="V454" s="23"/>
-      <c r="W454" s="23"/>
+      <c r="W454" s="41"/>
       <c r="X454" s="41"/>
       <c r="Y454" s="41"/>
-      <c r="Z454" s="23"/>
-      <c r="AA454" s="23"/>
-      <c r="AB454" s="23"/>
-      <c r="AC454" s="23"/>
-    </row>
-    <row r="455" spans="10:29" s="21" customFormat="1">
+      <c r="Z454" s="41"/>
+      <c r="AA454" s="41"/>
+      <c r="AB454" s="41"/>
+      <c r="AC454" s="41"/>
+    </row>
+    <row r="455" spans="17:29" s="21" customFormat="1">
       <c r="Q455" s="23"/>
       <c r="R455" s="23"/>
       <c r="S455" s="23"/>
       <c r="T455" s="23"/>
       <c r="U455" s="23"/>
       <c r="V455" s="23"/>
-      <c r="W455" s="41"/>
+      <c r="W455" s="23"/>
       <c r="X455" s="41"/>
       <c r="Y455" s="41"/>
       <c r="Z455" s="41"/>
@@ -24619,14 +24689,14 @@
       <c r="AB455" s="41"/>
       <c r="AC455" s="41"/>
     </row>
-    <row r="456" spans="10:29" s="21" customFormat="1">
+    <row r="456" spans="17:29" s="21" customFormat="1">
       <c r="Q456" s="23"/>
       <c r="R456" s="23"/>
       <c r="S456" s="23"/>
       <c r="T456" s="23"/>
       <c r="U456" s="23"/>
       <c r="V456" s="23"/>
-      <c r="W456" s="23"/>
+      <c r="W456" s="41"/>
       <c r="X456" s="41"/>
       <c r="Y456" s="41"/>
       <c r="Z456" s="41"/>
@@ -24634,14 +24704,14 @@
       <c r="AB456" s="41"/>
       <c r="AC456" s="41"/>
     </row>
-    <row r="457" spans="10:29" s="21" customFormat="1">
+    <row r="457" spans="17:29" s="21" customFormat="1">
       <c r="Q457" s="23"/>
       <c r="R457" s="23"/>
       <c r="S457" s="23"/>
       <c r="T457" s="23"/>
       <c r="U457" s="23"/>
       <c r="V457" s="23"/>
-      <c r="W457" s="41"/>
+      <c r="W457" s="23"/>
       <c r="X457" s="41"/>
       <c r="Y457" s="41"/>
       <c r="Z457" s="41"/>
@@ -24649,14 +24719,14 @@
       <c r="AB457" s="41"/>
       <c r="AC457" s="41"/>
     </row>
-    <row r="458" spans="10:29" s="21" customFormat="1">
+    <row r="458" spans="17:29" s="21" customFormat="1">
       <c r="Q458" s="23"/>
       <c r="R458" s="23"/>
       <c r="S458" s="23"/>
       <c r="T458" s="23"/>
       <c r="U458" s="23"/>
       <c r="V458" s="23"/>
-      <c r="W458" s="23"/>
+      <c r="W458" s="41"/>
       <c r="X458" s="41"/>
       <c r="Y458" s="41"/>
       <c r="Z458" s="41"/>
@@ -24664,7 +24734,7 @@
       <c r="AB458" s="41"/>
       <c r="AC458" s="41"/>
     </row>
-    <row r="459" spans="10:29" s="21" customFormat="1">
+    <row r="459" spans="17:29" s="21" customFormat="1">
       <c r="Q459" s="23"/>
       <c r="R459" s="23"/>
       <c r="S459" s="23"/>
@@ -24679,7 +24749,7 @@
       <c r="AB459" s="41"/>
       <c r="AC459" s="41"/>
     </row>
-    <row r="460" spans="10:29" s="21" customFormat="1">
+    <row r="460" spans="17:29" s="21" customFormat="1">
       <c r="Q460" s="23"/>
       <c r="R460" s="23"/>
       <c r="S460" s="23"/>
@@ -24694,14 +24764,14 @@
       <c r="AB460" s="41"/>
       <c r="AC460" s="41"/>
     </row>
-    <row r="461" spans="10:29" s="21" customFormat="1">
+    <row r="461" spans="17:29" s="21" customFormat="1">
       <c r="Q461" s="23"/>
       <c r="R461" s="23"/>
       <c r="S461" s="23"/>
       <c r="T461" s="23"/>
       <c r="U461" s="23"/>
       <c r="V461" s="23"/>
-      <c r="W461" s="41"/>
+      <c r="W461" s="23"/>
       <c r="X461" s="41"/>
       <c r="Y461" s="41"/>
       <c r="Z461" s="41"/>
@@ -24709,14 +24779,14 @@
       <c r="AB461" s="41"/>
       <c r="AC461" s="41"/>
     </row>
-    <row r="462" spans="10:29" s="21" customFormat="1">
-      <c r="Q462" s="23"/>
-      <c r="R462" s="23"/>
-      <c r="S462" s="23"/>
-      <c r="T462" s="23"/>
-      <c r="U462" s="23"/>
-      <c r="V462" s="23"/>
-      <c r="W462" s="23"/>
+    <row r="462" spans="17:29" s="21" customFormat="1">
+      <c r="Q462" s="41"/>
+      <c r="R462" s="41"/>
+      <c r="S462" s="41"/>
+      <c r="T462" s="41"/>
+      <c r="U462" s="41"/>
+      <c r="V462" s="41"/>
+      <c r="W462" s="41"/>
       <c r="X462" s="41"/>
       <c r="Y462" s="41"/>
       <c r="Z462" s="41"/>
@@ -24724,13 +24794,13 @@
       <c r="AB462" s="41"/>
       <c r="AC462" s="41"/>
     </row>
-    <row r="463" spans="10:29" s="21" customFormat="1">
-      <c r="Q463" s="41"/>
-      <c r="R463" s="41"/>
-      <c r="S463" s="41"/>
-      <c r="T463" s="41"/>
-      <c r="U463" s="41"/>
-      <c r="V463" s="41"/>
+    <row r="463" spans="17:29" s="21" customFormat="1">
+      <c r="Q463" s="23"/>
+      <c r="R463" s="23"/>
+      <c r="S463" s="23"/>
+      <c r="T463" s="23"/>
+      <c r="U463" s="23"/>
+      <c r="V463" s="23"/>
       <c r="W463" s="41"/>
       <c r="X463" s="41"/>
       <c r="Y463" s="41"/>
@@ -24739,20 +24809,20 @@
       <c r="AB463" s="41"/>
       <c r="AC463" s="41"/>
     </row>
-    <row r="464" spans="10:29" s="21" customFormat="1">
+    <row r="464" spans="17:29" s="21" customFormat="1">
       <c r="Q464" s="23"/>
       <c r="R464" s="23"/>
       <c r="S464" s="23"/>
       <c r="T464" s="23"/>
       <c r="U464" s="23"/>
       <c r="V464" s="23"/>
-      <c r="W464" s="41"/>
+      <c r="W464" s="23"/>
       <c r="X464" s="41"/>
       <c r="Y464" s="41"/>
-      <c r="Z464" s="41"/>
-      <c r="AA464" s="41"/>
-      <c r="AB464" s="41"/>
-      <c r="AC464" s="41"/>
+      <c r="Z464" s="23"/>
+      <c r="AA464" s="23"/>
+      <c r="AB464" s="23"/>
+      <c r="AC464" s="23"/>
     </row>
     <row r="465" spans="17:29" s="21" customFormat="1">
       <c r="Q465" s="23"/>
@@ -24761,13 +24831,13 @@
       <c r="T465" s="23"/>
       <c r="U465" s="23"/>
       <c r="V465" s="23"/>
-      <c r="W465" s="23"/>
+      <c r="W465" s="41"/>
       <c r="X465" s="41"/>
       <c r="Y465" s="41"/>
-      <c r="Z465" s="23"/>
-      <c r="AA465" s="23"/>
-      <c r="AB465" s="23"/>
-      <c r="AC465" s="23"/>
+      <c r="Z465" s="41"/>
+      <c r="AA465" s="41"/>
+      <c r="AB465" s="41"/>
+      <c r="AC465" s="41"/>
     </row>
     <row r="466" spans="17:29" s="21" customFormat="1">
       <c r="Q466" s="23"/>
@@ -24776,13 +24846,13 @@
       <c r="T466" s="23"/>
       <c r="U466" s="23"/>
       <c r="V466" s="23"/>
-      <c r="W466" s="41"/>
+      <c r="W466" s="23"/>
       <c r="X466" s="41"/>
       <c r="Y466" s="41"/>
-      <c r="Z466" s="41"/>
-      <c r="AA466" s="41"/>
-      <c r="AB466" s="41"/>
-      <c r="AC466" s="41"/>
+      <c r="Z466" s="23"/>
+      <c r="AA466" s="23"/>
+      <c r="AB466" s="23"/>
+      <c r="AC466" s="23"/>
     </row>
     <row r="467" spans="17:29" s="21" customFormat="1">
       <c r="Q467" s="23"/>
@@ -24791,13 +24861,13 @@
       <c r="T467" s="23"/>
       <c r="U467" s="23"/>
       <c r="V467" s="23"/>
-      <c r="W467" s="23"/>
+      <c r="W467" s="41"/>
       <c r="X467" s="41"/>
       <c r="Y467" s="41"/>
-      <c r="Z467" s="23"/>
-      <c r="AA467" s="23"/>
-      <c r="AB467" s="23"/>
-      <c r="AC467" s="23"/>
+      <c r="Z467" s="41"/>
+      <c r="AA467" s="41"/>
+      <c r="AB467" s="41"/>
+      <c r="AC467" s="41"/>
     </row>
     <row r="468" spans="17:29" s="21" customFormat="1">
       <c r="Q468" s="23"/>
@@ -24806,7 +24876,7 @@
       <c r="T468" s="23"/>
       <c r="U468" s="23"/>
       <c r="V468" s="23"/>
-      <c r="W468" s="41"/>
+      <c r="W468" s="23"/>
       <c r="X468" s="41"/>
       <c r="Y468" s="41"/>
       <c r="Z468" s="41"/>
@@ -24821,7 +24891,7 @@
       <c r="T469" s="23"/>
       <c r="U469" s="23"/>
       <c r="V469" s="23"/>
-      <c r="W469" s="23"/>
+      <c r="W469" s="41"/>
       <c r="X469" s="41"/>
       <c r="Y469" s="41"/>
       <c r="Z469" s="41"/>
@@ -24836,7 +24906,7 @@
       <c r="T470" s="23"/>
       <c r="U470" s="23"/>
       <c r="V470" s="23"/>
-      <c r="W470" s="41"/>
+      <c r="W470" s="23"/>
       <c r="X470" s="41"/>
       <c r="Y470" s="41"/>
       <c r="Z470" s="41"/>
@@ -24845,13 +24915,13 @@
       <c r="AC470" s="41"/>
     </row>
     <row r="471" spans="17:29" s="21" customFormat="1">
-      <c r="Q471" s="23"/>
-      <c r="R471" s="23"/>
-      <c r="S471" s="23"/>
-      <c r="T471" s="23"/>
-      <c r="U471" s="23"/>
-      <c r="V471" s="23"/>
-      <c r="W471" s="23"/>
+      <c r="Q471" s="41"/>
+      <c r="R471" s="41"/>
+      <c r="S471" s="41"/>
+      <c r="T471" s="41"/>
+      <c r="U471" s="41"/>
+      <c r="V471" s="41"/>
+      <c r="W471" s="41"/>
       <c r="X471" s="41"/>
       <c r="Y471" s="41"/>
       <c r="Z471" s="41"/>
@@ -24860,13 +24930,13 @@
       <c r="AC471" s="41"/>
     </row>
     <row r="472" spans="17:29" s="21" customFormat="1">
-      <c r="Q472" s="41"/>
-      <c r="R472" s="41"/>
-      <c r="S472" s="41"/>
-      <c r="T472" s="41"/>
-      <c r="U472" s="41"/>
-      <c r="V472" s="41"/>
-      <c r="W472" s="41"/>
+      <c r="Q472" s="23"/>
+      <c r="R472" s="23"/>
+      <c r="S472" s="23"/>
+      <c r="T472" s="23"/>
+      <c r="U472" s="23"/>
+      <c r="V472" s="23"/>
+      <c r="W472" s="23"/>
       <c r="X472" s="41"/>
       <c r="Y472" s="41"/>
       <c r="Z472" s="41"/>
@@ -24881,7 +24951,7 @@
       <c r="T473" s="23"/>
       <c r="U473" s="23"/>
       <c r="V473" s="23"/>
-      <c r="W473" s="23"/>
+      <c r="W473" s="41"/>
       <c r="X473" s="41"/>
       <c r="Y473" s="41"/>
       <c r="Z473" s="41"/>
@@ -24941,7 +25011,7 @@
       <c r="T477" s="23"/>
       <c r="U477" s="23"/>
       <c r="V477" s="23"/>
-      <c r="W477" s="41"/>
+      <c r="W477" s="23"/>
       <c r="X477" s="41"/>
       <c r="Y477" s="41"/>
       <c r="Z477" s="41"/>
@@ -24950,13 +25020,13 @@
       <c r="AC477" s="41"/>
     </row>
     <row r="478" spans="17:29" s="21" customFormat="1">
-      <c r="Q478" s="23"/>
-      <c r="R478" s="23"/>
-      <c r="S478" s="23"/>
-      <c r="T478" s="23"/>
-      <c r="U478" s="23"/>
-      <c r="V478" s="23"/>
-      <c r="W478" s="23"/>
+      <c r="Q478" s="41"/>
+      <c r="R478" s="41"/>
+      <c r="S478" s="41"/>
+      <c r="T478" s="41"/>
+      <c r="U478" s="41"/>
+      <c r="V478" s="41"/>
+      <c r="W478" s="41"/>
       <c r="X478" s="41"/>
       <c r="Y478" s="41"/>
       <c r="Z478" s="41"/>
@@ -24965,12 +25035,12 @@
       <c r="AC478" s="41"/>
     </row>
     <row r="479" spans="17:29" s="21" customFormat="1">
-      <c r="Q479" s="41"/>
-      <c r="R479" s="41"/>
-      <c r="S479" s="41"/>
-      <c r="T479" s="41"/>
-      <c r="U479" s="41"/>
-      <c r="V479" s="41"/>
+      <c r="Q479" s="23"/>
+      <c r="R479" s="23"/>
+      <c r="S479" s="23"/>
+      <c r="T479" s="23"/>
+      <c r="U479" s="23"/>
+      <c r="V479" s="23"/>
       <c r="W479" s="41"/>
       <c r="X479" s="41"/>
       <c r="Y479" s="41"/>
@@ -24986,13 +25056,13 @@
       <c r="T480" s="23"/>
       <c r="U480" s="23"/>
       <c r="V480" s="23"/>
-      <c r="W480" s="41"/>
+      <c r="W480" s="23"/>
       <c r="X480" s="41"/>
       <c r="Y480" s="41"/>
-      <c r="Z480" s="41"/>
-      <c r="AA480" s="41"/>
-      <c r="AB480" s="41"/>
-      <c r="AC480" s="41"/>
+      <c r="Z480" s="23"/>
+      <c r="AA480" s="23"/>
+      <c r="AB480" s="23"/>
+      <c r="AC480" s="23"/>
     </row>
     <row r="481" spans="17:32" s="21" customFormat="1">
       <c r="Q481" s="23"/>
@@ -25001,13 +25071,13 @@
       <c r="T481" s="23"/>
       <c r="U481" s="23"/>
       <c r="V481" s="23"/>
-      <c r="W481" s="23"/>
+      <c r="W481" s="41"/>
       <c r="X481" s="41"/>
       <c r="Y481" s="41"/>
-      <c r="Z481" s="23"/>
-      <c r="AA481" s="23"/>
-      <c r="AB481" s="23"/>
-      <c r="AC481" s="23"/>
+      <c r="Z481" s="41"/>
+      <c r="AA481" s="41"/>
+      <c r="AB481" s="41"/>
+      <c r="AC481" s="41"/>
     </row>
     <row r="482" spans="17:32" s="21" customFormat="1">
       <c r="Q482" s="23"/>
@@ -25016,13 +25086,13 @@
       <c r="T482" s="23"/>
       <c r="U482" s="23"/>
       <c r="V482" s="23"/>
-      <c r="W482" s="41"/>
+      <c r="W482" s="23"/>
       <c r="X482" s="41"/>
       <c r="Y482" s="41"/>
-      <c r="Z482" s="41"/>
-      <c r="AA482" s="41"/>
-      <c r="AB482" s="41"/>
-      <c r="AC482" s="41"/>
+      <c r="Z482" s="23"/>
+      <c r="AA482" s="23"/>
+      <c r="AB482" s="23"/>
+      <c r="AC482" s="23"/>
     </row>
     <row r="483" spans="17:32" s="21" customFormat="1">
       <c r="Q483" s="23"/>
@@ -25031,13 +25101,13 @@
       <c r="T483" s="23"/>
       <c r="U483" s="23"/>
       <c r="V483" s="23"/>
-      <c r="W483" s="23"/>
+      <c r="W483" s="41"/>
       <c r="X483" s="41"/>
       <c r="Y483" s="41"/>
-      <c r="Z483" s="23"/>
-      <c r="AA483" s="23"/>
-      <c r="AB483" s="23"/>
-      <c r="AC483" s="23"/>
+      <c r="Z483" s="41"/>
+      <c r="AA483" s="41"/>
+      <c r="AB483" s="41"/>
+      <c r="AC483" s="41"/>
     </row>
     <row r="484" spans="17:32" s="21" customFormat="1">
       <c r="Q484" s="23"/>
@@ -25046,7 +25116,7 @@
       <c r="T484" s="23"/>
       <c r="U484" s="23"/>
       <c r="V484" s="23"/>
-      <c r="W484" s="41"/>
+      <c r="W484" s="23"/>
       <c r="X484" s="41"/>
       <c r="Y484" s="41"/>
       <c r="Z484" s="41"/>
@@ -25061,7 +25131,7 @@
       <c r="T485" s="23"/>
       <c r="U485" s="23"/>
       <c r="V485" s="23"/>
-      <c r="W485" s="23"/>
+      <c r="W485" s="41"/>
       <c r="X485" s="41"/>
       <c r="Y485" s="41"/>
       <c r="Z485" s="41"/>
@@ -25076,13 +25146,13 @@
       <c r="T486" s="23"/>
       <c r="U486" s="23"/>
       <c r="V486" s="23"/>
-      <c r="W486" s="41"/>
+      <c r="W486" s="23"/>
       <c r="X486" s="41"/>
       <c r="Y486" s="41"/>
-      <c r="Z486" s="41"/>
-      <c r="AA486" s="41"/>
-      <c r="AB486" s="41"/>
-      <c r="AC486" s="41"/>
+      <c r="Z486" s="23"/>
+      <c r="AA486" s="23"/>
+      <c r="AB486" s="23"/>
+      <c r="AC486" s="23"/>
     </row>
     <row r="487" spans="17:32" s="21" customFormat="1">
       <c r="Q487" s="23"/>
@@ -25091,13 +25161,13 @@
       <c r="T487" s="23"/>
       <c r="U487" s="23"/>
       <c r="V487" s="23"/>
-      <c r="W487" s="23"/>
+      <c r="W487" s="41"/>
       <c r="X487" s="41"/>
       <c r="Y487" s="41"/>
-      <c r="Z487" s="23"/>
-      <c r="AA487" s="23"/>
-      <c r="AB487" s="23"/>
-      <c r="AC487" s="23"/>
+      <c r="Z487" s="41"/>
+      <c r="AA487" s="41"/>
+      <c r="AB487" s="41"/>
+      <c r="AC487" s="41"/>
     </row>
     <row r="488" spans="17:32" s="21" customFormat="1">
       <c r="Q488" s="23"/>
@@ -25106,13 +25176,13 @@
       <c r="T488" s="23"/>
       <c r="U488" s="23"/>
       <c r="V488" s="23"/>
-      <c r="W488" s="41"/>
+      <c r="W488" s="23"/>
       <c r="X488" s="41"/>
       <c r="Y488" s="41"/>
-      <c r="Z488" s="41"/>
-      <c r="AA488" s="41"/>
-      <c r="AB488" s="41"/>
-      <c r="AC488" s="41"/>
+      <c r="Z488" s="23"/>
+      <c r="AA488" s="23"/>
+      <c r="AB488" s="23"/>
+      <c r="AC488" s="23"/>
     </row>
     <row r="489" spans="17:32" s="21" customFormat="1">
       <c r="Q489" s="23"/>
@@ -25121,13 +25191,13 @@
       <c r="T489" s="23"/>
       <c r="U489" s="23"/>
       <c r="V489" s="23"/>
-      <c r="W489" s="23"/>
+      <c r="W489" s="41"/>
       <c r="X489" s="41"/>
       <c r="Y489" s="41"/>
-      <c r="Z489" s="23"/>
-      <c r="AA489" s="23"/>
-      <c r="AB489" s="23"/>
-      <c r="AC489" s="23"/>
+      <c r="Z489" s="41"/>
+      <c r="AA489" s="41"/>
+      <c r="AB489" s="41"/>
+      <c r="AC489" s="41"/>
     </row>
     <row r="490" spans="17:32" s="21" customFormat="1">
       <c r="Q490" s="23"/>
@@ -25151,7 +25221,7 @@
       <c r="T491" s="23"/>
       <c r="U491" s="23"/>
       <c r="V491" s="23"/>
-      <c r="W491" s="41"/>
+      <c r="W491" s="23"/>
       <c r="X491" s="41"/>
       <c r="Y491" s="41"/>
       <c r="Z491" s="41"/>
@@ -25166,7 +25236,7 @@
       <c r="T492" s="23"/>
       <c r="U492" s="23"/>
       <c r="V492" s="23"/>
-      <c r="W492" s="23"/>
+      <c r="W492" s="41"/>
       <c r="X492" s="41"/>
       <c r="Y492" s="41"/>
       <c r="Z492" s="41"/>
@@ -25196,13 +25266,13 @@
       <c r="T494" s="23"/>
       <c r="U494" s="23"/>
       <c r="V494" s="23"/>
-      <c r="W494" s="41"/>
+      <c r="W494" s="23"/>
       <c r="X494" s="41"/>
       <c r="Y494" s="41"/>
-      <c r="Z494" s="41"/>
-      <c r="AA494" s="41"/>
-      <c r="AB494" s="41"/>
-      <c r="AC494" s="41"/>
+      <c r="Z494" s="23"/>
+      <c r="AA494" s="23"/>
+      <c r="AB494" s="23"/>
+      <c r="AC494" s="23"/>
     </row>
     <row r="495" spans="17:32" s="21" customFormat="1">
       <c r="Q495" s="23"/>
@@ -25213,43 +25283,45 @@
       <c r="V495" s="23"/>
       <c r="W495" s="23"/>
       <c r="X495" s="41"/>
-      <c r="Y495" s="41"/>
+      <c r="Y495" s="23"/>
       <c r="Z495" s="23"/>
       <c r="AA495" s="23"/>
       <c r="AB495" s="23"/>
       <c r="AC495" s="23"/>
+      <c r="AD495" s="22"/>
+      <c r="AF495" s="22"/>
     </row>
     <row r="496" spans="17:32" s="21" customFormat="1">
-      <c r="Q496" s="23"/>
-      <c r="R496" s="23"/>
-      <c r="S496" s="23"/>
-      <c r="T496" s="23"/>
-      <c r="U496" s="23"/>
-      <c r="V496" s="23"/>
-      <c r="W496" s="23"/>
+      <c r="Q496" s="41"/>
+      <c r="R496" s="41"/>
+      <c r="S496" s="41"/>
+      <c r="T496" s="41"/>
+      <c r="U496" s="41"/>
+      <c r="V496" s="41"/>
+      <c r="W496" s="41"/>
       <c r="X496" s="41"/>
-      <c r="Y496" s="23"/>
-      <c r="Z496" s="23"/>
-      <c r="AA496" s="23"/>
-      <c r="AB496" s="23"/>
-      <c r="AC496" s="23"/>
-      <c r="AD496" s="22"/>
-      <c r="AF496" s="22"/>
+      <c r="Y496" s="41"/>
+      <c r="Z496" s="41"/>
+      <c r="AA496" s="41"/>
+      <c r="AB496" s="41"/>
+      <c r="AC496" s="41"/>
     </row>
     <row r="497" spans="17:32" s="21" customFormat="1">
-      <c r="Q497" s="41"/>
-      <c r="R497" s="41"/>
-      <c r="S497" s="41"/>
-      <c r="T497" s="41"/>
-      <c r="U497" s="41"/>
-      <c r="V497" s="41"/>
-      <c r="W497" s="41"/>
+      <c r="Q497" s="23"/>
+      <c r="R497" s="23"/>
+      <c r="S497" s="23"/>
+      <c r="T497" s="23"/>
+      <c r="U497" s="23"/>
+      <c r="V497" s="23"/>
+      <c r="W497" s="23"/>
       <c r="X497" s="41"/>
-      <c r="Y497" s="41"/>
-      <c r="Z497" s="41"/>
-      <c r="AA497" s="41"/>
-      <c r="AB497" s="41"/>
-      <c r="AC497" s="41"/>
+      <c r="Y497" s="23"/>
+      <c r="Z497" s="23"/>
+      <c r="AA497" s="23"/>
+      <c r="AB497" s="23"/>
+      <c r="AC497" s="23"/>
+      <c r="AD497" s="22"/>
+      <c r="AF497" s="22"/>
     </row>
     <row r="498" spans="17:32" s="21" customFormat="1">
       <c r="Q498" s="23"/>
@@ -25275,15 +25347,13 @@
       <c r="T499" s="23"/>
       <c r="U499" s="23"/>
       <c r="V499" s="23"/>
-      <c r="W499" s="23"/>
+      <c r="W499" s="41"/>
       <c r="X499" s="41"/>
-      <c r="Y499" s="23"/>
-      <c r="Z499" s="23"/>
-      <c r="AA499" s="23"/>
-      <c r="AB499" s="23"/>
-      <c r="AC499" s="23"/>
-      <c r="AD499" s="22"/>
-      <c r="AF499" s="22"/>
+      <c r="Y499" s="41"/>
+      <c r="Z499" s="41"/>
+      <c r="AA499" s="41"/>
+      <c r="AB499" s="41"/>
+      <c r="AC499" s="41"/>
     </row>
     <row r="500" spans="17:32" s="21" customFormat="1">
       <c r="Q500" s="23"/>
@@ -25292,7 +25362,7 @@
       <c r="T500" s="23"/>
       <c r="U500" s="23"/>
       <c r="V500" s="23"/>
-      <c r="W500" s="41"/>
+      <c r="W500" s="23"/>
       <c r="X500" s="41"/>
       <c r="Y500" s="41"/>
       <c r="Z500" s="41"/>
@@ -25301,13 +25371,13 @@
       <c r="AC500" s="41"/>
     </row>
     <row r="501" spans="17:32" s="21" customFormat="1">
-      <c r="Q501" s="23"/>
-      <c r="R501" s="23"/>
-      <c r="S501" s="23"/>
-      <c r="T501" s="23"/>
-      <c r="U501" s="23"/>
-      <c r="V501" s="23"/>
-      <c r="W501" s="23"/>
+      <c r="Q501" s="41"/>
+      <c r="R501" s="41"/>
+      <c r="S501" s="41"/>
+      <c r="T501" s="41"/>
+      <c r="U501" s="41"/>
+      <c r="V501" s="41"/>
+      <c r="W501" s="41"/>
       <c r="X501" s="41"/>
       <c r="Y501" s="41"/>
       <c r="Z501" s="41"/>
@@ -25316,12 +25386,12 @@
       <c r="AC501" s="41"/>
     </row>
     <row r="502" spans="17:32" s="21" customFormat="1">
-      <c r="Q502" s="41"/>
-      <c r="R502" s="41"/>
-      <c r="S502" s="41"/>
-      <c r="T502" s="41"/>
-      <c r="U502" s="41"/>
-      <c r="V502" s="41"/>
+      <c r="Q502" s="23"/>
+      <c r="R502" s="23"/>
+      <c r="S502" s="23"/>
+      <c r="T502" s="23"/>
+      <c r="U502" s="23"/>
+      <c r="V502" s="23"/>
       <c r="W502" s="41"/>
       <c r="X502" s="41"/>
       <c r="Y502" s="41"/>
@@ -25337,45 +25407,45 @@
       <c r="T503" s="23"/>
       <c r="U503" s="23"/>
       <c r="V503" s="23"/>
-      <c r="W503" s="41"/>
+      <c r="W503" s="23"/>
       <c r="X503" s="41"/>
-      <c r="Y503" s="41"/>
-      <c r="Z503" s="41"/>
-      <c r="AA503" s="41"/>
-      <c r="AB503" s="41"/>
-      <c r="AC503" s="41"/>
+      <c r="Y503" s="23"/>
+      <c r="Z503" s="23"/>
+      <c r="AA503" s="23"/>
+      <c r="AB503" s="23"/>
+      <c r="AC503" s="23"/>
+      <c r="AD503" s="22"/>
+      <c r="AF503" s="22"/>
     </row>
     <row r="504" spans="17:32" s="21" customFormat="1">
-      <c r="Q504" s="23"/>
-      <c r="R504" s="23"/>
-      <c r="S504" s="23"/>
-      <c r="T504" s="23"/>
-      <c r="U504" s="23"/>
-      <c r="V504" s="23"/>
-      <c r="W504" s="23"/>
+      <c r="Q504" s="41"/>
+      <c r="R504" s="41"/>
+      <c r="S504" s="41"/>
+      <c r="T504" s="41"/>
+      <c r="U504" s="41"/>
+      <c r="V504" s="41"/>
+      <c r="W504" s="41"/>
       <c r="X504" s="41"/>
-      <c r="Y504" s="23"/>
-      <c r="Z504" s="23"/>
-      <c r="AA504" s="23"/>
-      <c r="AB504" s="23"/>
-      <c r="AC504" s="23"/>
-      <c r="AD504" s="22"/>
-      <c r="AF504" s="22"/>
+      <c r="Y504" s="41"/>
+      <c r="Z504" s="41"/>
+      <c r="AA504" s="41"/>
+      <c r="AB504" s="41"/>
+      <c r="AC504" s="41"/>
     </row>
     <row r="505" spans="17:32" s="21" customFormat="1">
-      <c r="Q505" s="41"/>
-      <c r="R505" s="41"/>
-      <c r="S505" s="41"/>
-      <c r="T505" s="41"/>
-      <c r="U505" s="41"/>
-      <c r="V505" s="41"/>
-      <c r="W505" s="41"/>
+      <c r="Q505" s="23"/>
+      <c r="R505" s="23"/>
+      <c r="S505" s="23"/>
+      <c r="T505" s="23"/>
+      <c r="U505" s="23"/>
+      <c r="V505" s="23"/>
+      <c r="W505" s="23"/>
       <c r="X505" s="41"/>
       <c r="Y505" s="41"/>
-      <c r="Z505" s="41"/>
-      <c r="AA505" s="41"/>
-      <c r="AB505" s="41"/>
-      <c r="AC505" s="41"/>
+      <c r="Z505" s="23"/>
+      <c r="AA505" s="23"/>
+      <c r="AB505" s="23"/>
+      <c r="AC505" s="23"/>
     </row>
     <row r="506" spans="17:32" s="21" customFormat="1">
       <c r="Q506" s="23"/>
@@ -25386,11 +25456,13 @@
       <c r="V506" s="23"/>
       <c r="W506" s="23"/>
       <c r="X506" s="41"/>
-      <c r="Y506" s="41"/>
+      <c r="Y506" s="23"/>
       <c r="Z506" s="23"/>
       <c r="AA506" s="23"/>
       <c r="AB506" s="23"/>
       <c r="AC506" s="23"/>
+      <c r="AD506" s="22"/>
+      <c r="AF506" s="22"/>
     </row>
     <row r="507" spans="17:32" s="21" customFormat="1">
       <c r="Q507" s="23"/>
@@ -25399,23 +25471,21 @@
       <c r="T507" s="23"/>
       <c r="U507" s="23"/>
       <c r="V507" s="23"/>
-      <c r="W507" s="23"/>
+      <c r="W507" s="41"/>
       <c r="X507" s="41"/>
-      <c r="Y507" s="23"/>
-      <c r="Z507" s="23"/>
-      <c r="AA507" s="23"/>
-      <c r="AB507" s="23"/>
-      <c r="AC507" s="23"/>
-      <c r="AD507" s="22"/>
-      <c r="AF507" s="22"/>
+      <c r="Y507" s="41"/>
+      <c r="Z507" s="41"/>
+      <c r="AA507" s="41"/>
+      <c r="AB507" s="41"/>
+      <c r="AC507" s="41"/>
     </row>
     <row r="508" spans="17:32" s="21" customFormat="1">
-      <c r="Q508" s="23"/>
-      <c r="R508" s="23"/>
-      <c r="S508" s="23"/>
-      <c r="T508" s="23"/>
-      <c r="U508" s="23"/>
-      <c r="V508" s="23"/>
+      <c r="Q508" s="41"/>
+      <c r="R508" s="41"/>
+      <c r="S508" s="41"/>
+      <c r="T508" s="41"/>
+      <c r="U508" s="41"/>
+      <c r="V508" s="41"/>
       <c r="W508" s="41"/>
       <c r="X508" s="41"/>
       <c r="Y508" s="41"/>
@@ -25440,12 +25510,12 @@
       <c r="AC509" s="41"/>
     </row>
     <row r="510" spans="17:32" s="21" customFormat="1">
-      <c r="Q510" s="41"/>
-      <c r="R510" s="41"/>
-      <c r="S510" s="41"/>
-      <c r="T510" s="41"/>
-      <c r="U510" s="41"/>
-      <c r="V510" s="41"/>
+      <c r="Q510" s="23"/>
+      <c r="R510" s="23"/>
+      <c r="S510" s="23"/>
+      <c r="T510" s="23"/>
+      <c r="U510" s="23"/>
+      <c r="V510" s="23"/>
       <c r="W510" s="41"/>
       <c r="X510" s="41"/>
       <c r="Y510" s="41"/>
@@ -25476,13 +25546,13 @@
       <c r="T512" s="23"/>
       <c r="U512" s="23"/>
       <c r="V512" s="23"/>
-      <c r="W512" s="41"/>
+      <c r="W512" s="23"/>
       <c r="X512" s="41"/>
       <c r="Y512" s="41"/>
-      <c r="Z512" s="41"/>
-      <c r="AA512" s="41"/>
-      <c r="AB512" s="41"/>
-      <c r="AC512" s="41"/>
+      <c r="Z512" s="23"/>
+      <c r="AA512" s="23"/>
+      <c r="AB512" s="23"/>
+      <c r="AC512" s="23"/>
     </row>
     <row r="513" spans="17:32" s="21" customFormat="1">
       <c r="Q513" s="23"/>
@@ -25493,36 +25563,36 @@
       <c r="V513" s="23"/>
       <c r="W513" s="23"/>
       <c r="X513" s="41"/>
-      <c r="Y513" s="41"/>
+      <c r="Y513" s="23"/>
       <c r="Z513" s="23"/>
       <c r="AA513" s="23"/>
       <c r="AB513" s="23"/>
       <c r="AC513" s="23"/>
+      <c r="AD513" s="22"/>
+      <c r="AF513" s="22"/>
     </row>
     <row r="514" spans="17:32" s="21" customFormat="1">
-      <c r="Q514" s="23"/>
-      <c r="R514" s="23"/>
-      <c r="S514" s="23"/>
-      <c r="T514" s="23"/>
-      <c r="U514" s="23"/>
-      <c r="V514" s="23"/>
-      <c r="W514" s="23"/>
+      <c r="Q514" s="41"/>
+      <c r="R514" s="41"/>
+      <c r="S514" s="41"/>
+      <c r="T514" s="41"/>
+      <c r="U514" s="41"/>
+      <c r="V514" s="41"/>
+      <c r="W514" s="41"/>
       <c r="X514" s="41"/>
-      <c r="Y514" s="23"/>
-      <c r="Z514" s="23"/>
-      <c r="AA514" s="23"/>
-      <c r="AB514" s="23"/>
-      <c r="AC514" s="23"/>
-      <c r="AD514" s="22"/>
-      <c r="AF514" s="22"/>
+      <c r="Y514" s="41"/>
+      <c r="Z514" s="41"/>
+      <c r="AA514" s="41"/>
+      <c r="AB514" s="41"/>
+      <c r="AC514" s="41"/>
     </row>
     <row r="515" spans="17:32" s="21" customFormat="1">
-      <c r="Q515" s="41"/>
-      <c r="R515" s="41"/>
-      <c r="S515" s="41"/>
-      <c r="T515" s="41"/>
-      <c r="U515" s="41"/>
-      <c r="V515" s="41"/>
+      <c r="Q515" s="23"/>
+      <c r="R515" s="23"/>
+      <c r="S515" s="23"/>
+      <c r="T515" s="23"/>
+      <c r="U515" s="23"/>
+      <c r="V515" s="23"/>
       <c r="W515" s="41"/>
       <c r="X515" s="41"/>
       <c r="Y515" s="41"/>
@@ -25568,7 +25638,7 @@
       <c r="T518" s="23"/>
       <c r="U518" s="23"/>
       <c r="V518" s="23"/>
-      <c r="W518" s="41"/>
+      <c r="W518" s="23"/>
       <c r="X518" s="41"/>
       <c r="Y518" s="41"/>
       <c r="Z518" s="41"/>
@@ -25586,10 +25656,10 @@
       <c r="W519" s="23"/>
       <c r="X519" s="41"/>
       <c r="Y519" s="41"/>
-      <c r="Z519" s="41"/>
-      <c r="AA519" s="41"/>
-      <c r="AB519" s="41"/>
-      <c r="AC519" s="41"/>
+      <c r="Z519" s="23"/>
+      <c r="AA519" s="23"/>
+      <c r="AB519" s="23"/>
+      <c r="AC519" s="23"/>
     </row>
     <row r="520" spans="17:32" s="21" customFormat="1">
       <c r="Q520" s="23"/>
@@ -25600,11 +25670,13 @@
       <c r="V520" s="23"/>
       <c r="W520" s="23"/>
       <c r="X520" s="41"/>
-      <c r="Y520" s="41"/>
+      <c r="Y520" s="23"/>
       <c r="Z520" s="23"/>
       <c r="AA520" s="23"/>
       <c r="AB520" s="23"/>
       <c r="AC520" s="23"/>
+      <c r="AD520" s="22"/>
+      <c r="AF520" s="22"/>
     </row>
     <row r="521" spans="17:32" s="21" customFormat="1">
       <c r="Q521" s="23"/>
@@ -25615,22 +25687,20 @@
       <c r="V521" s="23"/>
       <c r="W521" s="23"/>
       <c r="X521" s="41"/>
-      <c r="Y521" s="23"/>
-      <c r="Z521" s="23"/>
-      <c r="AA521" s="23"/>
-      <c r="AB521" s="23"/>
-      <c r="AC521" s="23"/>
-      <c r="AD521" s="22"/>
-      <c r="AF521" s="22"/>
+      <c r="Y521" s="41"/>
+      <c r="Z521" s="41"/>
+      <c r="AA521" s="41"/>
+      <c r="AB521" s="41"/>
+      <c r="AC521" s="41"/>
     </row>
     <row r="522" spans="17:32" s="21" customFormat="1">
-      <c r="Q522" s="23"/>
-      <c r="R522" s="23"/>
-      <c r="S522" s="23"/>
-      <c r="T522" s="23"/>
-      <c r="U522" s="23"/>
-      <c r="V522" s="23"/>
-      <c r="W522" s="23"/>
+      <c r="Q522" s="41"/>
+      <c r="R522" s="41"/>
+      <c r="S522" s="41"/>
+      <c r="T522" s="41"/>
+      <c r="U522" s="41"/>
+      <c r="V522" s="41"/>
+      <c r="W522" s="41"/>
       <c r="X522" s="41"/>
       <c r="Y522" s="41"/>
       <c r="Z522" s="41"/>
@@ -25639,44 +25709,44 @@
       <c r="AC522" s="41"/>
     </row>
     <row r="523" spans="17:32" s="21" customFormat="1">
-      <c r="Q523" s="41"/>
-      <c r="R523" s="41"/>
-      <c r="S523" s="41"/>
-      <c r="T523" s="41"/>
-      <c r="U523" s="41"/>
-      <c r="V523" s="41"/>
-      <c r="W523" s="41"/>
+      <c r="Q523" s="23"/>
+      <c r="R523" s="23"/>
+      <c r="S523" s="23"/>
+      <c r="T523" s="23"/>
+      <c r="U523" s="23"/>
+      <c r="V523" s="23"/>
+      <c r="W523" s="23"/>
       <c r="X523" s="41"/>
-      <c r="Y523" s="41"/>
-      <c r="Z523" s="41"/>
-      <c r="AA523" s="41"/>
-      <c r="AB523" s="41"/>
-      <c r="AC523" s="41"/>
+      <c r="Y523" s="23"/>
+      <c r="Z523" s="23"/>
+      <c r="AA523" s="23"/>
+      <c r="AB523" s="23"/>
+      <c r="AC523" s="23"/>
+      <c r="AD523" s="22"/>
+      <c r="AF523" s="22"/>
     </row>
     <row r="524" spans="17:32" s="21" customFormat="1">
-      <c r="Q524" s="23"/>
-      <c r="R524" s="23"/>
-      <c r="S524" s="23"/>
-      <c r="T524" s="23"/>
-      <c r="U524" s="23"/>
-      <c r="V524" s="23"/>
-      <c r="W524" s="23"/>
+      <c r="Q524" s="41"/>
+      <c r="R524" s="41"/>
+      <c r="S524" s="41"/>
+      <c r="T524" s="41"/>
+      <c r="U524" s="41"/>
+      <c r="V524" s="41"/>
+      <c r="W524" s="41"/>
       <c r="X524" s="41"/>
-      <c r="Y524" s="23"/>
-      <c r="Z524" s="23"/>
-      <c r="AA524" s="23"/>
-      <c r="AB524" s="23"/>
-      <c r="AC524" s="23"/>
-      <c r="AD524" s="22"/>
-      <c r="AF524" s="22"/>
+      <c r="Y524" s="41"/>
+      <c r="Z524" s="41"/>
+      <c r="AA524" s="41"/>
+      <c r="AB524" s="41"/>
+      <c r="AC524" s="41"/>
     </row>
     <row r="525" spans="17:32" s="21" customFormat="1">
-      <c r="Q525" s="41"/>
-      <c r="R525" s="41"/>
-      <c r="S525" s="41"/>
-      <c r="T525" s="41"/>
-      <c r="U525" s="41"/>
-      <c r="V525" s="41"/>
+      <c r="Q525" s="23"/>
+      <c r="R525" s="23"/>
+      <c r="S525" s="23"/>
+      <c r="T525" s="23"/>
+      <c r="U525" s="23"/>
+      <c r="V525" s="23"/>
       <c r="W525" s="41"/>
       <c r="X525" s="41"/>
       <c r="Y525" s="41"/>
@@ -25707,13 +25777,13 @@
       <c r="T527" s="23"/>
       <c r="U527" s="23"/>
       <c r="V527" s="23"/>
-      <c r="W527" s="41"/>
+      <c r="W527" s="23"/>
       <c r="X527" s="41"/>
       <c r="Y527" s="41"/>
-      <c r="Z527" s="41"/>
-      <c r="AA527" s="41"/>
-      <c r="AB527" s="41"/>
-      <c r="AC527" s="41"/>
+      <c r="Z527" s="23"/>
+      <c r="AA527" s="23"/>
+      <c r="AB527" s="23"/>
+      <c r="AC527" s="23"/>
     </row>
     <row r="528" spans="17:32" s="21" customFormat="1">
       <c r="Q528" s="23"/>
@@ -25724,36 +25794,36 @@
       <c r="V528" s="23"/>
       <c r="W528" s="23"/>
       <c r="X528" s="41"/>
-      <c r="Y528" s="41"/>
+      <c r="Y528" s="23"/>
       <c r="Z528" s="23"/>
       <c r="AA528" s="23"/>
       <c r="AB528" s="23"/>
       <c r="AC528" s="23"/>
+      <c r="AD528" s="22"/>
+      <c r="AF528" s="22"/>
     </row>
     <row r="529" spans="17:32" s="21" customFormat="1">
-      <c r="Q529" s="23"/>
-      <c r="R529" s="23"/>
-      <c r="S529" s="23"/>
-      <c r="T529" s="23"/>
-      <c r="U529" s="23"/>
-      <c r="V529" s="23"/>
-      <c r="W529" s="23"/>
+      <c r="Q529" s="41"/>
+      <c r="R529" s="41"/>
+      <c r="S529" s="41"/>
+      <c r="T529" s="41"/>
+      <c r="U529" s="41"/>
+      <c r="V529" s="41"/>
+      <c r="W529" s="41"/>
       <c r="X529" s="41"/>
-      <c r="Y529" s="23"/>
-      <c r="Z529" s="23"/>
-      <c r="AA529" s="23"/>
-      <c r="AB529" s="23"/>
-      <c r="AC529" s="23"/>
-      <c r="AD529" s="22"/>
-      <c r="AF529" s="22"/>
+      <c r="Y529" s="41"/>
+      <c r="Z529" s="41"/>
+      <c r="AA529" s="41"/>
+      <c r="AB529" s="41"/>
+      <c r="AC529" s="41"/>
     </row>
     <row r="530" spans="17:32" s="21" customFormat="1">
-      <c r="Q530" s="41"/>
-      <c r="R530" s="41"/>
-      <c r="S530" s="41"/>
-      <c r="T530" s="41"/>
-      <c r="U530" s="41"/>
-      <c r="V530" s="41"/>
+      <c r="Q530" s="23"/>
+      <c r="R530" s="23"/>
+      <c r="S530" s="23"/>
+      <c r="T530" s="23"/>
+      <c r="U530" s="23"/>
+      <c r="V530" s="23"/>
       <c r="W530" s="41"/>
       <c r="X530" s="41"/>
       <c r="Y530" s="41"/>
@@ -25799,7 +25869,7 @@
       <c r="T533" s="23"/>
       <c r="U533" s="23"/>
       <c r="V533" s="23"/>
-      <c r="W533" s="41"/>
+      <c r="W533" s="23"/>
       <c r="X533" s="41"/>
       <c r="Y533" s="41"/>
       <c r="Z533" s="41"/>
@@ -25817,10 +25887,10 @@
       <c r="W534" s="23"/>
       <c r="X534" s="41"/>
       <c r="Y534" s="41"/>
-      <c r="Z534" s="41"/>
-      <c r="AA534" s="41"/>
-      <c r="AB534" s="41"/>
-      <c r="AC534" s="41"/>
+      <c r="Z534" s="23"/>
+      <c r="AA534" s="23"/>
+      <c r="AB534" s="23"/>
+      <c r="AC534" s="23"/>
     </row>
     <row r="535" spans="17:32" s="21" customFormat="1">
       <c r="Q535" s="23"/>
@@ -25831,11 +25901,13 @@
       <c r="V535" s="23"/>
       <c r="W535" s="23"/>
       <c r="X535" s="41"/>
-      <c r="Y535" s="41"/>
+      <c r="Y535" s="23"/>
       <c r="Z535" s="23"/>
       <c r="AA535" s="23"/>
       <c r="AB535" s="23"/>
       <c r="AC535" s="23"/>
+      <c r="AD535" s="22"/>
+      <c r="AF535" s="22"/>
     </row>
     <row r="536" spans="17:32" s="21" customFormat="1">
       <c r="Q536" s="23"/>
@@ -25846,22 +25918,20 @@
       <c r="V536" s="23"/>
       <c r="W536" s="23"/>
       <c r="X536" s="41"/>
-      <c r="Y536" s="23"/>
-      <c r="Z536" s="23"/>
-      <c r="AA536" s="23"/>
-      <c r="AB536" s="23"/>
-      <c r="AC536" s="23"/>
-      <c r="AD536" s="22"/>
-      <c r="AF536" s="22"/>
+      <c r="Y536" s="41"/>
+      <c r="Z536" s="41"/>
+      <c r="AA536" s="41"/>
+      <c r="AB536" s="41"/>
+      <c r="AC536" s="41"/>
     </row>
     <row r="537" spans="17:32" s="21" customFormat="1">
-      <c r="Q537" s="23"/>
-      <c r="R537" s="23"/>
-      <c r="S537" s="23"/>
-      <c r="T537" s="23"/>
-      <c r="U537" s="23"/>
-      <c r="V537" s="23"/>
-      <c r="W537" s="23"/>
+      <c r="Q537" s="41"/>
+      <c r="R537" s="41"/>
+      <c r="S537" s="41"/>
+      <c r="T537" s="41"/>
+      <c r="U537" s="41"/>
+      <c r="V537" s="41"/>
+      <c r="W537" s="41"/>
       <c r="X537" s="41"/>
       <c r="Y537" s="41"/>
       <c r="Z537" s="41"/>
@@ -25870,45 +25940,45 @@
       <c r="AC537" s="41"/>
     </row>
     <row r="538" spans="17:32" s="21" customFormat="1">
-      <c r="Q538" s="41"/>
-      <c r="R538" s="41"/>
-      <c r="S538" s="41"/>
-      <c r="T538" s="41"/>
-      <c r="U538" s="41"/>
-      <c r="V538" s="41"/>
+      <c r="Q538" s="23"/>
+      <c r="R538" s="23"/>
+      <c r="S538" s="23"/>
+      <c r="T538" s="23"/>
+      <c r="U538" s="23"/>
+      <c r="V538" s="23"/>
       <c r="W538" s="41"/>
-      <c r="X538" s="41"/>
-      <c r="Y538" s="41"/>
-      <c r="Z538" s="41"/>
-      <c r="AA538" s="41"/>
-      <c r="AB538" s="41"/>
-      <c r="AC538" s="41"/>
+      <c r="X538" s="23"/>
+      <c r="Y538" s="23"/>
+      <c r="Z538" s="23"/>
+      <c r="AA538" s="23"/>
+      <c r="AB538" s="23"/>
+      <c r="AC538" s="23"/>
+      <c r="AD538" s="22"/>
+      <c r="AF538" s="22"/>
     </row>
     <row r="539" spans="17:32" s="21" customFormat="1">
-      <c r="Q539" s="23"/>
-      <c r="R539" s="23"/>
-      <c r="S539" s="23"/>
-      <c r="T539" s="23"/>
-      <c r="U539" s="23"/>
-      <c r="V539" s="23"/>
+      <c r="Q539" s="41"/>
+      <c r="R539" s="41"/>
+      <c r="S539" s="41"/>
+      <c r="T539" s="41"/>
+      <c r="U539" s="41"/>
+      <c r="V539" s="41"/>
       <c r="W539" s="41"/>
-      <c r="X539" s="23"/>
-      <c r="Y539" s="23"/>
-      <c r="Z539" s="23"/>
-      <c r="AA539" s="23"/>
-      <c r="AB539" s="23"/>
-      <c r="AC539" s="23"/>
-      <c r="AD539" s="22"/>
-      <c r="AF539" s="22"/>
+      <c r="X539" s="41"/>
+      <c r="Y539" s="41"/>
+      <c r="Z539" s="41"/>
+      <c r="AA539" s="41"/>
+      <c r="AB539" s="41"/>
+      <c r="AC539" s="41"/>
     </row>
     <row r="540" spans="17:32" s="21" customFormat="1">
-      <c r="Q540" s="41"/>
-      <c r="R540" s="41"/>
-      <c r="S540" s="41"/>
-      <c r="T540" s="41"/>
-      <c r="U540" s="41"/>
-      <c r="V540" s="41"/>
-      <c r="W540" s="41"/>
+      <c r="Q540" s="23"/>
+      <c r="R540" s="23"/>
+      <c r="S540" s="23"/>
+      <c r="T540" s="23"/>
+      <c r="U540" s="23"/>
+      <c r="V540" s="23"/>
+      <c r="W540" s="23"/>
       <c r="X540" s="41"/>
       <c r="Y540" s="41"/>
       <c r="Z540" s="41"/>
@@ -25947,27 +26017,29 @@
       <c r="AC542" s="41"/>
     </row>
     <row r="543" spans="17:32" s="21" customFormat="1">
-      <c r="Q543" s="23"/>
-      <c r="R543" s="23"/>
-      <c r="S543" s="23"/>
-      <c r="T543" s="23"/>
-      <c r="U543" s="23"/>
-      <c r="V543" s="23"/>
-      <c r="W543" s="23"/>
-      <c r="X543" s="41"/>
-      <c r="Y543" s="41"/>
-      <c r="Z543" s="41"/>
-      <c r="AA543" s="41"/>
-      <c r="AB543" s="41"/>
-      <c r="AC543" s="41"/>
+      <c r="Q543" s="41"/>
+      <c r="R543" s="41"/>
+      <c r="S543" s="41"/>
+      <c r="T543" s="41"/>
+      <c r="U543" s="41"/>
+      <c r="V543" s="41"/>
+      <c r="W543" s="41"/>
+      <c r="X543" s="23"/>
+      <c r="Y543" s="23"/>
+      <c r="Z543" s="23"/>
+      <c r="AA543" s="23"/>
+      <c r="AB543" s="23"/>
+      <c r="AC543" s="23"/>
+      <c r="AD543" s="22"/>
+      <c r="AF543" s="22"/>
     </row>
     <row r="544" spans="17:32" s="21" customFormat="1">
-      <c r="Q544" s="41"/>
-      <c r="R544" s="41"/>
-      <c r="S544" s="41"/>
-      <c r="T544" s="41"/>
-      <c r="U544" s="41"/>
-      <c r="V544" s="41"/>
+      <c r="Q544" s="23"/>
+      <c r="R544" s="23"/>
+      <c r="S544" s="23"/>
+      <c r="T544" s="23"/>
+      <c r="U544" s="23"/>
+      <c r="V544" s="23"/>
       <c r="W544" s="41"/>
       <c r="X544" s="23"/>
       <c r="Y544" s="23"/>
@@ -25985,15 +26057,13 @@
       <c r="T545" s="23"/>
       <c r="U545" s="23"/>
       <c r="V545" s="23"/>
-      <c r="W545" s="41"/>
-      <c r="X545" s="23"/>
-      <c r="Y545" s="23"/>
+      <c r="W545" s="23"/>
+      <c r="X545" s="41"/>
+      <c r="Y545" s="41"/>
       <c r="Z545" s="23"/>
       <c r="AA545" s="23"/>
       <c r="AB545" s="23"/>
       <c r="AC545" s="23"/>
-      <c r="AD545" s="22"/>
-      <c r="AF545" s="22"/>
     </row>
     <row r="546" spans="9:32" s="21" customFormat="1">
       <c r="Q546" s="23"/>
@@ -26032,13 +26102,13 @@
       <c r="T548" s="23"/>
       <c r="U548" s="23"/>
       <c r="V548" s="23"/>
-      <c r="W548" s="23"/>
+      <c r="W548" s="41"/>
       <c r="X548" s="41"/>
       <c r="Y548" s="41"/>
-      <c r="Z548" s="23"/>
-      <c r="AA548" s="23"/>
-      <c r="AB548" s="23"/>
-      <c r="AC548" s="23"/>
+      <c r="Z548" s="41"/>
+      <c r="AA548" s="41"/>
+      <c r="AB548" s="41"/>
+      <c r="AC548" s="41"/>
     </row>
     <row r="549" spans="9:32" s="21" customFormat="1">
       <c r="Q549" s="23"/>
@@ -26062,40 +26132,43 @@
       <c r="T550" s="23"/>
       <c r="U550" s="23"/>
       <c r="V550" s="23"/>
-      <c r="W550" s="41"/>
+      <c r="W550" s="23"/>
       <c r="X550" s="41"/>
-      <c r="Y550" s="41"/>
-      <c r="Z550" s="41"/>
-      <c r="AA550" s="41"/>
-      <c r="AB550" s="41"/>
-      <c r="AC550" s="41"/>
+      <c r="Y550" s="23"/>
+      <c r="Z550" s="23"/>
+      <c r="AA550" s="23"/>
+      <c r="AB550" s="23"/>
+      <c r="AC550" s="23"/>
+      <c r="AD550" s="22"/>
+      <c r="AF550" s="22"/>
     </row>
     <row r="551" spans="9:32" s="21" customFormat="1">
-      <c r="Q551" s="23"/>
-      <c r="R551" s="23"/>
-      <c r="S551" s="23"/>
-      <c r="T551" s="23"/>
-      <c r="U551" s="23"/>
-      <c r="V551" s="23"/>
-      <c r="W551" s="23"/>
+      <c r="J551" s="37"/>
+      <c r="K551" s="37"/>
+      <c r="Q551" s="41"/>
+      <c r="R551" s="41"/>
+      <c r="S551" s="41"/>
+      <c r="T551" s="41"/>
+      <c r="U551" s="41"/>
+      <c r="V551" s="41"/>
+      <c r="W551" s="41"/>
       <c r="X551" s="41"/>
-      <c r="Y551" s="23"/>
-      <c r="Z551" s="23"/>
-      <c r="AA551" s="23"/>
-      <c r="AB551" s="23"/>
-      <c r="AC551" s="23"/>
-      <c r="AD551" s="22"/>
-      <c r="AF551" s="22"/>
+      <c r="Y551" s="41"/>
+      <c r="Z551" s="41"/>
+      <c r="AA551" s="41"/>
+      <c r="AB551" s="41"/>
+      <c r="AC551" s="41"/>
     </row>
     <row r="552" spans="9:32" s="21" customFormat="1">
-      <c r="J552" s="37"/>
-      <c r="K552" s="37"/>
-      <c r="Q552" s="41"/>
-      <c r="R552" s="41"/>
-      <c r="S552" s="41"/>
-      <c r="T552" s="41"/>
-      <c r="U552" s="41"/>
-      <c r="V552" s="41"/>
+      <c r="I552" s="37"/>
+      <c r="L552" s="37"/>
+      <c r="M552" s="37"/>
+      <c r="Q552" s="23"/>
+      <c r="R552" s="23"/>
+      <c r="S552" s="23"/>
+      <c r="T552" s="23"/>
+      <c r="U552" s="23"/>
+      <c r="V552" s="23"/>
       <c r="W552" s="41"/>
       <c r="X552" s="41"/>
       <c r="Y552" s="41"/>
@@ -26105,15 +26178,12 @@
       <c r="AC552" s="41"/>
     </row>
     <row r="553" spans="9:32" s="21" customFormat="1">
-      <c r="I553" s="37"/>
-      <c r="L553" s="37"/>
-      <c r="M553" s="37"/>
-      <c r="Q553" s="23"/>
-      <c r="R553" s="23"/>
-      <c r="S553" s="23"/>
-      <c r="T553" s="23"/>
-      <c r="U553" s="23"/>
-      <c r="V553" s="23"/>
+      <c r="Q553" s="41"/>
+      <c r="R553" s="41"/>
+      <c r="S553" s="41"/>
+      <c r="T553" s="41"/>
+      <c r="U553" s="41"/>
+      <c r="V553" s="41"/>
       <c r="W553" s="41"/>
       <c r="X553" s="41"/>
       <c r="Y553" s="41"/>
@@ -26123,19 +26193,19 @@
       <c r="AC553" s="41"/>
     </row>
     <row r="554" spans="9:32" s="21" customFormat="1">
-      <c r="Q554" s="41"/>
-      <c r="R554" s="41"/>
-      <c r="S554" s="41"/>
-      <c r="T554" s="41"/>
-      <c r="U554" s="41"/>
-      <c r="V554" s="41"/>
-      <c r="W554" s="41"/>
+      <c r="Q554" s="23"/>
+      <c r="R554" s="23"/>
+      <c r="S554" s="23"/>
+      <c r="T554" s="23"/>
+      <c r="U554" s="23"/>
+      <c r="V554" s="23"/>
+      <c r="W554" s="23"/>
       <c r="X554" s="41"/>
       <c r="Y554" s="41"/>
-      <c r="Z554" s="41"/>
-      <c r="AA554" s="41"/>
-      <c r="AB554" s="41"/>
-      <c r="AC554" s="41"/>
+      <c r="Z554" s="23"/>
+      <c r="AA554" s="23"/>
+      <c r="AB554" s="23"/>
+      <c r="AC554" s="23"/>
     </row>
     <row r="555" spans="9:32" s="21" customFormat="1">
       <c r="Q555" s="23"/>
@@ -26146,36 +26216,36 @@
       <c r="V555" s="23"/>
       <c r="W555" s="23"/>
       <c r="X555" s="41"/>
-      <c r="Y555" s="41"/>
+      <c r="Y555" s="23"/>
       <c r="Z555" s="23"/>
       <c r="AA555" s="23"/>
       <c r="AB555" s="23"/>
       <c r="AC555" s="23"/>
+      <c r="AD555" s="22"/>
+      <c r="AF555" s="22"/>
     </row>
     <row r="556" spans="9:32" s="21" customFormat="1">
-      <c r="Q556" s="23"/>
-      <c r="R556" s="23"/>
-      <c r="S556" s="23"/>
-      <c r="T556" s="23"/>
-      <c r="U556" s="23"/>
-      <c r="V556" s="23"/>
-      <c r="W556" s="23"/>
+      <c r="Q556" s="41"/>
+      <c r="R556" s="41"/>
+      <c r="S556" s="41"/>
+      <c r="T556" s="41"/>
+      <c r="U556" s="41"/>
+      <c r="V556" s="41"/>
+      <c r="W556" s="41"/>
       <c r="X556" s="41"/>
-      <c r="Y556" s="23"/>
-      <c r="Z556" s="23"/>
-      <c r="AA556" s="23"/>
-      <c r="AB556" s="23"/>
-      <c r="AC556" s="23"/>
-      <c r="AD556" s="22"/>
-      <c r="AF556" s="22"/>
+      <c r="Y556" s="41"/>
+      <c r="Z556" s="41"/>
+      <c r="AA556" s="41"/>
+      <c r="AB556" s="41"/>
+      <c r="AC556" s="41"/>
     </row>
     <row r="557" spans="9:32" s="21" customFormat="1">
-      <c r="Q557" s="41"/>
-      <c r="R557" s="41"/>
-      <c r="S557" s="41"/>
-      <c r="T557" s="41"/>
-      <c r="U557" s="41"/>
-      <c r="V557" s="41"/>
+      <c r="Q557" s="23"/>
+      <c r="R557" s="23"/>
+      <c r="S557" s="23"/>
+      <c r="T557" s="23"/>
+      <c r="U557" s="23"/>
+      <c r="V557" s="23"/>
       <c r="W557" s="41"/>
       <c r="X557" s="41"/>
       <c r="Y557" s="41"/>
@@ -26206,7 +26276,7 @@
       <c r="T559" s="23"/>
       <c r="U559" s="23"/>
       <c r="V559" s="23"/>
-      <c r="W559" s="41"/>
+      <c r="W559" s="23"/>
       <c r="X559" s="41"/>
       <c r="Y559" s="41"/>
       <c r="Z559" s="41"/>
@@ -26230,13 +26300,13 @@
       <c r="AC560" s="41"/>
     </row>
     <row r="561" spans="16:32" s="21" customFormat="1">
-      <c r="Q561" s="23"/>
-      <c r="R561" s="23"/>
-      <c r="S561" s="23"/>
-      <c r="T561" s="23"/>
-      <c r="U561" s="23"/>
-      <c r="V561" s="23"/>
-      <c r="W561" s="23"/>
+      <c r="Q561" s="41"/>
+      <c r="R561" s="41"/>
+      <c r="S561" s="41"/>
+      <c r="T561" s="41"/>
+      <c r="U561" s="41"/>
+      <c r="V561" s="41"/>
+      <c r="W561" s="41"/>
       <c r="X561" s="41"/>
       <c r="Y561" s="41"/>
       <c r="Z561" s="41"/>
@@ -26245,19 +26315,21 @@
       <c r="AC561" s="41"/>
     </row>
     <row r="562" spans="16:32" s="21" customFormat="1">
-      <c r="Q562" s="41"/>
-      <c r="R562" s="41"/>
-      <c r="S562" s="41"/>
-      <c r="T562" s="41"/>
-      <c r="U562" s="41"/>
-      <c r="V562" s="41"/>
+      <c r="Q562" s="23"/>
+      <c r="R562" s="23"/>
+      <c r="S562" s="23"/>
+      <c r="T562" s="23"/>
+      <c r="U562" s="23"/>
+      <c r="V562" s="23"/>
       <c r="W562" s="41"/>
-      <c r="X562" s="41"/>
-      <c r="Y562" s="41"/>
-      <c r="Z562" s="41"/>
-      <c r="AA562" s="41"/>
-      <c r="AB562" s="41"/>
-      <c r="AC562" s="41"/>
+      <c r="X562" s="23"/>
+      <c r="Y562" s="23"/>
+      <c r="Z562" s="23"/>
+      <c r="AA562" s="23"/>
+      <c r="AB562" s="23"/>
+      <c r="AC562" s="23"/>
+      <c r="AD562" s="22"/>
+      <c r="AF562" s="22"/>
     </row>
     <row r="563" spans="16:32" s="21" customFormat="1">
       <c r="Q563" s="23"/>
@@ -26266,15 +26338,13 @@
       <c r="T563" s="23"/>
       <c r="U563" s="23"/>
       <c r="V563" s="23"/>
-      <c r="W563" s="41"/>
-      <c r="X563" s="23"/>
-      <c r="Y563" s="23"/>
-      <c r="Z563" s="23"/>
-      <c r="AA563" s="23"/>
-      <c r="AB563" s="23"/>
-      <c r="AC563" s="23"/>
-      <c r="AD563" s="22"/>
-      <c r="AF563" s="22"/>
+      <c r="W563" s="23"/>
+      <c r="X563" s="41"/>
+      <c r="Y563" s="41"/>
+      <c r="Z563" s="41"/>
+      <c r="AA563" s="41"/>
+      <c r="AB563" s="41"/>
+      <c r="AC563" s="41"/>
     </row>
     <row r="564" spans="16:32" s="21" customFormat="1">
       <c r="Q564" s="23"/>
@@ -26307,34 +26377,34 @@
       <c r="AC565" s="41"/>
     </row>
     <row r="566" spans="16:32" s="21" customFormat="1">
+      <c r="P566" s="22"/>
       <c r="Q566" s="23"/>
       <c r="R566" s="23"/>
       <c r="S566" s="23"/>
       <c r="T566" s="23"/>
       <c r="U566" s="23"/>
       <c r="V566" s="23"/>
-      <c r="W566" s="23"/>
+      <c r="W566" s="41"/>
       <c r="X566" s="41"/>
       <c r="Y566" s="41"/>
       <c r="Z566" s="41"/>
       <c r="AA566" s="41"/>
       <c r="AB566" s="41"/>
-      <c r="AC566" s="41"/>
     </row>
     <row r="567" spans="16:32" s="21" customFormat="1">
-      <c r="P567" s="22"/>
       <c r="Q567" s="23"/>
       <c r="R567" s="23"/>
       <c r="S567" s="23"/>
       <c r="T567" s="23"/>
       <c r="U567" s="23"/>
       <c r="V567" s="23"/>
-      <c r="W567" s="41"/>
+      <c r="W567" s="23"/>
       <c r="X567" s="41"/>
       <c r="Y567" s="41"/>
       <c r="Z567" s="41"/>
       <c r="AA567" s="41"/>
       <c r="AB567" s="41"/>
+      <c r="AC567" s="41"/>
     </row>
     <row r="568" spans="16:32" s="21" customFormat="1">
       <c r="Q568" s="23"/>
@@ -26343,7 +26413,7 @@
       <c r="T568" s="23"/>
       <c r="U568" s="23"/>
       <c r="V568" s="23"/>
-      <c r="W568" s="23"/>
+      <c r="W568" s="41"/>
       <c r="X568" s="41"/>
       <c r="Y568" s="41"/>
       <c r="Z568" s="41"/>
@@ -26373,13 +26443,13 @@
       <c r="T570" s="23"/>
       <c r="U570" s="23"/>
       <c r="V570" s="23"/>
-      <c r="W570" s="41"/>
+      <c r="W570" s="23"/>
       <c r="X570" s="41"/>
       <c r="Y570" s="41"/>
-      <c r="Z570" s="41"/>
-      <c r="AA570" s="41"/>
-      <c r="AB570" s="41"/>
-      <c r="AC570" s="41"/>
+      <c r="Z570" s="23"/>
+      <c r="AA570" s="23"/>
+      <c r="AB570" s="23"/>
+      <c r="AC570" s="23"/>
     </row>
     <row r="571" spans="16:32" s="21" customFormat="1">
       <c r="Q571" s="23"/>
@@ -26405,36 +26475,36 @@
       <c r="V572" s="23"/>
       <c r="W572" s="23"/>
       <c r="X572" s="41"/>
-      <c r="Y572" s="41"/>
+      <c r="Y572" s="23"/>
       <c r="Z572" s="23"/>
       <c r="AA572" s="23"/>
       <c r="AB572" s="23"/>
       <c r="AC572" s="23"/>
+      <c r="AD572" s="22"/>
+      <c r="AF572" s="22"/>
     </row>
     <row r="573" spans="16:32" s="21" customFormat="1">
-      <c r="Q573" s="23"/>
-      <c r="R573" s="23"/>
-      <c r="S573" s="23"/>
-      <c r="T573" s="23"/>
-      <c r="U573" s="23"/>
-      <c r="V573" s="23"/>
-      <c r="W573" s="23"/>
+      <c r="Q573" s="41"/>
+      <c r="R573" s="41"/>
+      <c r="S573" s="41"/>
+      <c r="T573" s="41"/>
+      <c r="U573" s="41"/>
+      <c r="V573" s="41"/>
+      <c r="W573" s="41"/>
       <c r="X573" s="41"/>
-      <c r="Y573" s="23"/>
-      <c r="Z573" s="23"/>
-      <c r="AA573" s="23"/>
-      <c r="AB573" s="23"/>
-      <c r="AC573" s="23"/>
-      <c r="AD573" s="22"/>
-      <c r="AF573" s="22"/>
+      <c r="Y573" s="41"/>
+      <c r="Z573" s="41"/>
+      <c r="AA573" s="41"/>
+      <c r="AB573" s="41"/>
+      <c r="AC573" s="41"/>
     </row>
     <row r="574" spans="16:32" s="21" customFormat="1">
-      <c r="Q574" s="41"/>
-      <c r="R574" s="41"/>
-      <c r="S574" s="41"/>
-      <c r="T574" s="41"/>
-      <c r="U574" s="41"/>
-      <c r="V574" s="41"/>
+      <c r="Q574" s="23"/>
+      <c r="R574" s="23"/>
+      <c r="S574" s="23"/>
+      <c r="T574" s="23"/>
+      <c r="U574" s="23"/>
+      <c r="V574" s="23"/>
       <c r="W574" s="41"/>
       <c r="X574" s="41"/>
       <c r="Y574" s="41"/>
@@ -26465,7 +26535,7 @@
       <c r="T576" s="23"/>
       <c r="U576" s="23"/>
       <c r="V576" s="23"/>
-      <c r="W576" s="41"/>
+      <c r="W576" s="23"/>
       <c r="X576" s="41"/>
       <c r="Y576" s="41"/>
       <c r="Z576" s="41"/>
@@ -26489,13 +26559,13 @@
       <c r="AC577" s="41"/>
     </row>
     <row r="578" spans="9:29" s="21" customFormat="1">
-      <c r="Q578" s="23"/>
-      <c r="R578" s="23"/>
-      <c r="S578" s="23"/>
-      <c r="T578" s="23"/>
-      <c r="U578" s="23"/>
-      <c r="V578" s="23"/>
-      <c r="W578" s="23"/>
+      <c r="Q578" s="41"/>
+      <c r="R578" s="41"/>
+      <c r="S578" s="41"/>
+      <c r="T578" s="41"/>
+      <c r="U578" s="41"/>
+      <c r="V578" s="41"/>
+      <c r="W578" s="41"/>
       <c r="X578" s="41"/>
       <c r="Y578" s="41"/>
       <c r="Z578" s="41"/>
@@ -26504,12 +26574,12 @@
       <c r="AC578" s="41"/>
     </row>
     <row r="579" spans="9:29" s="21" customFormat="1">
-      <c r="Q579" s="41"/>
-      <c r="R579" s="41"/>
-      <c r="S579" s="41"/>
-      <c r="T579" s="41"/>
-      <c r="U579" s="41"/>
-      <c r="V579" s="41"/>
+      <c r="Q579" s="23"/>
+      <c r="R579" s="23"/>
+      <c r="S579" s="23"/>
+      <c r="T579" s="23"/>
+      <c r="U579" s="23"/>
+      <c r="V579" s="23"/>
       <c r="W579" s="41"/>
       <c r="X579" s="41"/>
       <c r="Y579" s="41"/>
@@ -26534,6 +26604,8 @@
       <c r="AC580" s="41"/>
     </row>
     <row r="581" spans="9:29" s="21" customFormat="1">
+      <c r="J581" s="1"/>
+      <c r="K581" s="1"/>
       <c r="Q581" s="23"/>
       <c r="R581" s="23"/>
       <c r="S581" s="23"/>
@@ -26548,26 +26620,26 @@
       <c r="AB581" s="41"/>
       <c r="AC581" s="41"/>
     </row>
-    <row r="582" spans="9:29" s="21" customFormat="1">
-      <c r="J582" s="1"/>
-      <c r="K582" s="1"/>
-      <c r="Q582" s="23"/>
-      <c r="R582" s="23"/>
-      <c r="S582" s="23"/>
-      <c r="T582" s="23"/>
-      <c r="U582" s="23"/>
-      <c r="V582" s="23"/>
-      <c r="W582" s="41"/>
-      <c r="X582" s="41"/>
-      <c r="Y582" s="41"/>
-      <c r="Z582" s="41"/>
-      <c r="AA582" s="41"/>
-      <c r="AB582" s="41"/>
-      <c r="AC582" s="41"/>
+    <row r="582" spans="9:29">
+      <c r="J582" s="37"/>
+      <c r="K582" s="37"/>
+      <c r="Q582" s="20"/>
+      <c r="R582" s="20"/>
+      <c r="S582" s="20"/>
+      <c r="T582" s="20"/>
+      <c r="U582" s="20"/>
+      <c r="V582" s="20"/>
+      <c r="W582" s="20"/>
+      <c r="X582" s="15"/>
+      <c r="Y582" s="15"/>
+      <c r="Z582" s="15"/>
+      <c r="AA582" s="15"/>
+      <c r="AB582" s="15"/>
+      <c r="AC582" s="15"/>
     </row>
     <row r="583" spans="9:29">
-      <c r="J583" s="37"/>
-      <c r="K583" s="37"/>
+      <c r="I583" s="37"/>
+      <c r="L583" s="37"/>
       <c r="Q583" s="20"/>
       <c r="R583" s="20"/>
       <c r="S583" s="20"/>
@@ -26583,8 +26655,8 @@
       <c r="AC583" s="15"/>
     </row>
     <row r="584" spans="9:29">
-      <c r="I584" s="37"/>
-      <c r="L584" s="37"/>
+      <c r="J584" s="37"/>
+      <c r="K584" s="37"/>
       <c r="Q584" s="20"/>
       <c r="R584" s="20"/>
       <c r="S584" s="20"/>
@@ -26600,8 +26672,8 @@
       <c r="AC584" s="15"/>
     </row>
     <row r="585" spans="9:29">
-      <c r="J585" s="37"/>
-      <c r="K585" s="37"/>
+      <c r="I585" s="37"/>
+      <c r="L585" s="37"/>
       <c r="Q585" s="20"/>
       <c r="R585" s="20"/>
       <c r="S585" s="20"/>
@@ -26617,15 +26689,13 @@
       <c r="AC585" s="15"/>
     </row>
     <row r="586" spans="9:29">
-      <c r="I586" s="37"/>
-      <c r="L586" s="37"/>
       <c r="Q586" s="20"/>
       <c r="R586" s="20"/>
       <c r="S586" s="20"/>
       <c r="T586" s="20"/>
       <c r="U586" s="20"/>
       <c r="V586" s="20"/>
-      <c r="W586" s="20"/>
+      <c r="W586" s="15"/>
       <c r="X586" s="15"/>
       <c r="Y586" s="15"/>
       <c r="Z586" s="15"/>
@@ -26640,7 +26710,7 @@
       <c r="T587" s="20"/>
       <c r="U587" s="20"/>
       <c r="V587" s="20"/>
-      <c r="W587" s="15"/>
+      <c r="W587" s="20"/>
       <c r="X587" s="15"/>
       <c r="Y587" s="15"/>
       <c r="Z587" s="15"/>
@@ -26655,7 +26725,7 @@
       <c r="T588" s="20"/>
       <c r="U588" s="20"/>
       <c r="V588" s="20"/>
-      <c r="W588" s="20"/>
+      <c r="W588" s="15"/>
       <c r="X588" s="15"/>
       <c r="Y588" s="15"/>
       <c r="Z588" s="15"/>
@@ -26664,6 +26734,7 @@
       <c r="AC588" s="15"/>
     </row>
     <row r="589" spans="9:29">
+      <c r="L589" s="18"/>
       <c r="Q589" s="20"/>
       <c r="R589" s="20"/>
       <c r="S589" s="20"/>
@@ -26679,7 +26750,6 @@
       <c r="AC589" s="15"/>
     </row>
     <row r="590" spans="9:29">
-      <c r="L590" s="18"/>
       <c r="Q590" s="20"/>
       <c r="R590" s="20"/>
       <c r="S590" s="20"/>
@@ -26701,7 +26771,7 @@
       <c r="T591" s="20"/>
       <c r="U591" s="20"/>
       <c r="V591" s="20"/>
-      <c r="W591" s="15"/>
+      <c r="W591" s="20"/>
       <c r="X591" s="15"/>
       <c r="Y591" s="15"/>
       <c r="Z591" s="15"/>
@@ -26716,9 +26786,9 @@
       <c r="T592" s="20"/>
       <c r="U592" s="20"/>
       <c r="V592" s="20"/>
-      <c r="W592" s="20"/>
+      <c r="W592" s="15"/>
       <c r="X592" s="15"/>
-      <c r="Y592" s="15"/>
+      <c r="Y592" s="20"/>
       <c r="Z592" s="15"/>
       <c r="AA592" s="15"/>
       <c r="AB592" s="15"/>
@@ -26733,7 +26803,7 @@
       <c r="V593" s="20"/>
       <c r="W593" s="15"/>
       <c r="X593" s="15"/>
-      <c r="Y593" s="20"/>
+      <c r="Y593" s="15"/>
       <c r="Z593" s="15"/>
       <c r="AA593" s="15"/>
       <c r="AB593" s="15"/>
@@ -26746,7 +26816,7 @@
       <c r="T594" s="20"/>
       <c r="U594" s="20"/>
       <c r="V594" s="20"/>
-      <c r="W594" s="15"/>
+      <c r="W594" s="20"/>
       <c r="X594" s="15"/>
       <c r="Y594" s="15"/>
       <c r="Z594" s="15"/>
@@ -26761,7 +26831,7 @@
       <c r="T595" s="20"/>
       <c r="U595" s="20"/>
       <c r="V595" s="20"/>
-      <c r="W595" s="20"/>
+      <c r="W595" s="15"/>
       <c r="X595" s="15"/>
       <c r="Y595" s="15"/>
       <c r="Z595" s="15"/>
@@ -26770,6 +26840,7 @@
       <c r="AC595" s="15"/>
     </row>
     <row r="596" spans="9:29">
+      <c r="L596" s="18"/>
       <c r="Q596" s="20"/>
       <c r="R596" s="20"/>
       <c r="S596" s="20"/>
@@ -26785,14 +26856,13 @@
       <c r="AC596" s="15"/>
     </row>
     <row r="597" spans="9:29">
-      <c r="L597" s="18"/>
       <c r="Q597" s="20"/>
       <c r="R597" s="20"/>
       <c r="S597" s="20"/>
       <c r="T597" s="20"/>
       <c r="U597" s="20"/>
       <c r="V597" s="20"/>
-      <c r="W597" s="15"/>
+      <c r="W597" s="20"/>
       <c r="X597" s="15"/>
       <c r="Y597" s="15"/>
       <c r="Z597" s="15"/>
@@ -26822,9 +26892,9 @@
       <c r="T599" s="20"/>
       <c r="U599" s="20"/>
       <c r="V599" s="20"/>
-      <c r="W599" s="20"/>
+      <c r="W599" s="15"/>
       <c r="X599" s="15"/>
-      <c r="Y599" s="15"/>
+      <c r="Y599" s="20"/>
       <c r="Z599" s="15"/>
       <c r="AA599" s="15"/>
       <c r="AB599" s="15"/>
@@ -26839,13 +26909,14 @@
       <c r="V600" s="20"/>
       <c r="W600" s="15"/>
       <c r="X600" s="15"/>
-      <c r="Y600" s="20"/>
+      <c r="Y600" s="15"/>
       <c r="Z600" s="15"/>
       <c r="AA600" s="15"/>
       <c r="AB600" s="15"/>
       <c r="AC600" s="15"/>
     </row>
     <row r="601" spans="9:29">
+      <c r="L601" s="18"/>
       <c r="Q601" s="20"/>
       <c r="R601" s="20"/>
       <c r="S601" s="20"/>
@@ -26861,7 +26932,6 @@
       <c r="AC601" s="15"/>
     </row>
     <row r="602" spans="9:29">
-      <c r="L602" s="18"/>
       <c r="Q602" s="20"/>
       <c r="R602" s="20"/>
       <c r="S602" s="20"/>
@@ -26883,7 +26953,7 @@
       <c r="T603" s="20"/>
       <c r="U603" s="20"/>
       <c r="V603" s="20"/>
-      <c r="W603" s="15"/>
+      <c r="W603" s="20"/>
       <c r="X603" s="15"/>
       <c r="Y603" s="15"/>
       <c r="Z603" s="15"/>
@@ -26892,6 +26962,8 @@
       <c r="AC603" s="15"/>
     </row>
     <row r="604" spans="9:29">
+      <c r="J604" s="37"/>
+      <c r="K604" s="37"/>
       <c r="Q604" s="20"/>
       <c r="R604" s="20"/>
       <c r="S604" s="20"/>
@@ -26907,8 +26979,8 @@
       <c r="AC604" s="15"/>
     </row>
     <row r="605" spans="9:29">
-      <c r="J605" s="37"/>
-      <c r="K605" s="37"/>
+      <c r="I605" s="37"/>
+      <c r="L605" s="37"/>
       <c r="Q605" s="20"/>
       <c r="R605" s="20"/>
       <c r="S605" s="20"/>
@@ -26924,15 +26996,13 @@
       <c r="AC605" s="15"/>
     </row>
     <row r="606" spans="9:29">
-      <c r="I606" s="37"/>
-      <c r="L606" s="37"/>
       <c r="Q606" s="20"/>
       <c r="R606" s="20"/>
       <c r="S606" s="20"/>
       <c r="T606" s="20"/>
       <c r="U606" s="20"/>
       <c r="V606" s="20"/>
-      <c r="W606" s="20"/>
+      <c r="W606" s="15"/>
       <c r="X606" s="15"/>
       <c r="Y606" s="15"/>
       <c r="Z606" s="15"/>
@@ -26947,7 +27017,7 @@
       <c r="T607" s="20"/>
       <c r="U607" s="20"/>
       <c r="V607" s="20"/>
-      <c r="W607" s="15"/>
+      <c r="W607" s="20"/>
       <c r="X607" s="15"/>
       <c r="Y607" s="15"/>
       <c r="Z607" s="15"/>
@@ -26956,13 +27026,13 @@
       <c r="AC607" s="15"/>
     </row>
     <row r="608" spans="9:29">
-      <c r="Q608" s="20"/>
-      <c r="R608" s="20"/>
-      <c r="S608" s="20"/>
-      <c r="T608" s="20"/>
-      <c r="U608" s="20"/>
-      <c r="V608" s="20"/>
-      <c r="W608" s="20"/>
+      <c r="Q608" s="15"/>
+      <c r="R608" s="15"/>
+      <c r="S608" s="15"/>
+      <c r="T608" s="15"/>
+      <c r="U608" s="15"/>
+      <c r="V608" s="15"/>
+      <c r="W608" s="15"/>
       <c r="X608" s="15"/>
       <c r="Y608" s="15"/>
       <c r="Z608" s="15"/>
@@ -26971,12 +27041,12 @@
       <c r="AC608" s="15"/>
     </row>
     <row r="609" spans="9:29">
-      <c r="Q609" s="15"/>
-      <c r="R609" s="15"/>
-      <c r="S609" s="15"/>
-      <c r="T609" s="15"/>
-      <c r="U609" s="15"/>
-      <c r="V609" s="15"/>
+      <c r="Q609" s="20"/>
+      <c r="R609" s="20"/>
+      <c r="S609" s="20"/>
+      <c r="T609" s="20"/>
+      <c r="U609" s="20"/>
+      <c r="V609" s="20"/>
       <c r="W609" s="15"/>
       <c r="X609" s="15"/>
       <c r="Y609" s="15"/>
@@ -27022,7 +27092,7 @@
       <c r="T612" s="20"/>
       <c r="U612" s="20"/>
       <c r="V612" s="20"/>
-      <c r="W612" s="15"/>
+      <c r="W612" s="20"/>
       <c r="X612" s="15"/>
       <c r="Y612" s="15"/>
       <c r="Z612" s="15"/>
@@ -27031,6 +27101,8 @@
       <c r="AC612" s="15"/>
     </row>
     <row r="613" spans="9:29">
+      <c r="J613" s="37"/>
+      <c r="K613" s="37"/>
       <c r="Q613" s="20"/>
       <c r="R613" s="20"/>
       <c r="S613" s="20"/>
@@ -27046,8 +27118,8 @@
       <c r="AC613" s="15"/>
     </row>
     <row r="614" spans="9:29">
-      <c r="J614" s="37"/>
-      <c r="K614" s="37"/>
+      <c r="I614" s="37"/>
+      <c r="L614" s="37"/>
       <c r="Q614" s="20"/>
       <c r="R614" s="20"/>
       <c r="S614" s="20"/>
@@ -27063,15 +27135,13 @@
       <c r="AC614" s="15"/>
     </row>
     <row r="615" spans="9:29">
-      <c r="I615" s="37"/>
-      <c r="L615" s="37"/>
       <c r="Q615" s="20"/>
       <c r="R615" s="20"/>
       <c r="S615" s="20"/>
       <c r="T615" s="20"/>
       <c r="U615" s="20"/>
       <c r="V615" s="20"/>
-      <c r="W615" s="20"/>
+      <c r="W615" s="15"/>
       <c r="X615" s="15"/>
       <c r="Y615" s="15"/>
       <c r="Z615" s="15"/>
@@ -27086,7 +27156,7 @@
       <c r="T616" s="20"/>
       <c r="U616" s="20"/>
       <c r="V616" s="20"/>
-      <c r="W616" s="15"/>
+      <c r="W616" s="20"/>
       <c r="X616" s="15"/>
       <c r="Y616" s="15"/>
       <c r="Z616" s="15"/>
@@ -27095,13 +27165,13 @@
       <c r="AC616" s="15"/>
     </row>
     <row r="617" spans="9:29">
-      <c r="Q617" s="20"/>
-      <c r="R617" s="20"/>
-      <c r="S617" s="20"/>
-      <c r="T617" s="20"/>
-      <c r="U617" s="20"/>
-      <c r="V617" s="20"/>
-      <c r="W617" s="20"/>
+      <c r="Q617" s="15"/>
+      <c r="R617" s="15"/>
+      <c r="S617" s="15"/>
+      <c r="T617" s="15"/>
+      <c r="U617" s="15"/>
+      <c r="V617" s="15"/>
+      <c r="W617" s="15"/>
       <c r="X617" s="15"/>
       <c r="Y617" s="15"/>
       <c r="Z617" s="15"/>
@@ -27110,13 +27180,13 @@
       <c r="AC617" s="15"/>
     </row>
     <row r="618" spans="9:29">
-      <c r="Q618" s="15"/>
-      <c r="R618" s="15"/>
-      <c r="S618" s="15"/>
-      <c r="T618" s="15"/>
-      <c r="U618" s="15"/>
-      <c r="V618" s="15"/>
-      <c r="W618" s="15"/>
+      <c r="Q618" s="20"/>
+      <c r="R618" s="20"/>
+      <c r="S618" s="20"/>
+      <c r="T618" s="20"/>
+      <c r="U618" s="20"/>
+      <c r="V618" s="20"/>
+      <c r="W618" s="20"/>
       <c r="X618" s="15"/>
       <c r="Y618" s="15"/>
       <c r="Z618" s="15"/>
@@ -27125,6 +27195,8 @@
       <c r="AC618" s="15"/>
     </row>
     <row r="619" spans="9:29">
+      <c r="J619" s="37"/>
+      <c r="K619" s="37"/>
       <c r="Q619" s="20"/>
       <c r="R619" s="20"/>
       <c r="S619" s="20"/>
@@ -27140,8 +27212,8 @@
       <c r="AC619" s="15"/>
     </row>
     <row r="620" spans="9:29">
-      <c r="J620" s="37"/>
-      <c r="K620" s="37"/>
+      <c r="I620" s="37"/>
+      <c r="L620" s="37"/>
       <c r="Q620" s="20"/>
       <c r="R620" s="20"/>
       <c r="S620" s="20"/>
@@ -27157,8 +27229,6 @@
       <c r="AC620" s="15"/>
     </row>
     <row r="621" spans="9:29">
-      <c r="I621" s="37"/>
-      <c r="L621" s="37"/>
       <c r="Q621" s="20"/>
       <c r="R621" s="20"/>
       <c r="S621" s="20"/>
@@ -27180,7 +27250,7 @@
       <c r="T622" s="20"/>
       <c r="U622" s="20"/>
       <c r="V622" s="20"/>
-      <c r="W622" s="20"/>
+      <c r="W622" s="15"/>
       <c r="X622" s="15"/>
       <c r="Y622" s="15"/>
       <c r="Z622" s="15"/>
@@ -27189,12 +27259,12 @@
       <c r="AC622" s="15"/>
     </row>
     <row r="623" spans="9:29">
-      <c r="Q623" s="20"/>
-      <c r="R623" s="20"/>
-      <c r="S623" s="20"/>
-      <c r="T623" s="20"/>
-      <c r="U623" s="20"/>
-      <c r="V623" s="20"/>
+      <c r="Q623" s="15"/>
+      <c r="R623" s="15"/>
+      <c r="S623" s="15"/>
+      <c r="T623" s="15"/>
+      <c r="U623" s="15"/>
+      <c r="V623" s="15"/>
       <c r="W623" s="15"/>
       <c r="X623" s="15"/>
       <c r="Y623" s="15"/>
@@ -27204,13 +27274,13 @@
       <c r="AC623" s="15"/>
     </row>
     <row r="624" spans="9:29">
-      <c r="Q624" s="15"/>
-      <c r="R624" s="15"/>
-      <c r="S624" s="15"/>
-      <c r="T624" s="15"/>
-      <c r="U624" s="15"/>
-      <c r="V624" s="15"/>
-      <c r="W624" s="15"/>
+      <c r="Q624" s="20"/>
+      <c r="R624" s="20"/>
+      <c r="S624" s="20"/>
+      <c r="T624" s="20"/>
+      <c r="U624" s="20"/>
+      <c r="V624" s="20"/>
+      <c r="W624" s="20"/>
       <c r="X624" s="15"/>
       <c r="Y624" s="15"/>
       <c r="Z624" s="15"/>
@@ -27234,13 +27304,13 @@
       <c r="AC625" s="15"/>
     </row>
     <row r="626" spans="9:29">
-      <c r="Q626" s="20"/>
-      <c r="R626" s="20"/>
-      <c r="S626" s="20"/>
-      <c r="T626" s="20"/>
-      <c r="U626" s="20"/>
-      <c r="V626" s="20"/>
-      <c r="W626" s="20"/>
+      <c r="Q626" s="15"/>
+      <c r="R626" s="15"/>
+      <c r="S626" s="15"/>
+      <c r="T626" s="15"/>
+      <c r="U626" s="15"/>
+      <c r="V626" s="15"/>
+      <c r="W626" s="15"/>
       <c r="X626" s="15"/>
       <c r="Y626" s="15"/>
       <c r="Z626" s="15"/>
@@ -27249,12 +27319,12 @@
       <c r="AC626" s="15"/>
     </row>
     <row r="627" spans="9:29">
-      <c r="Q627" s="15"/>
-      <c r="R627" s="15"/>
-      <c r="S627" s="15"/>
-      <c r="T627" s="15"/>
-      <c r="U627" s="15"/>
-      <c r="V627" s="15"/>
+      <c r="Q627" s="20"/>
+      <c r="R627" s="20"/>
+      <c r="S627" s="20"/>
+      <c r="T627" s="20"/>
+      <c r="U627" s="20"/>
+      <c r="V627" s="20"/>
       <c r="W627" s="15"/>
       <c r="X627" s="15"/>
       <c r="Y627" s="15"/>
@@ -27270,7 +27340,7 @@
       <c r="T628" s="20"/>
       <c r="U628" s="20"/>
       <c r="V628" s="20"/>
-      <c r="W628" s="15"/>
+      <c r="W628" s="20"/>
       <c r="X628" s="15"/>
       <c r="Y628" s="15"/>
       <c r="Z628" s="15"/>
@@ -27330,7 +27400,7 @@
       <c r="T632" s="20"/>
       <c r="U632" s="20"/>
       <c r="V632" s="20"/>
-      <c r="W632" s="20"/>
+      <c r="W632" s="15"/>
       <c r="X632" s="15"/>
       <c r="Y632" s="15"/>
       <c r="Z632" s="15"/>
@@ -27339,13 +27409,15 @@
       <c r="AC632" s="15"/>
     </row>
     <row r="633" spans="9:29">
+      <c r="J633" s="37"/>
+      <c r="K633" s="37"/>
       <c r="Q633" s="20"/>
       <c r="R633" s="20"/>
       <c r="S633" s="20"/>
       <c r="T633" s="20"/>
       <c r="U633" s="20"/>
       <c r="V633" s="20"/>
-      <c r="W633" s="15"/>
+      <c r="W633" s="20"/>
       <c r="X633" s="15"/>
       <c r="Y633" s="15"/>
       <c r="Z633" s="15"/>
@@ -27354,8 +27426,8 @@
       <c r="AC633" s="15"/>
     </row>
     <row r="634" spans="9:29">
-      <c r="J634" s="37"/>
-      <c r="K634" s="37"/>
+      <c r="I634" s="37"/>
+      <c r="L634" s="37"/>
       <c r="Q634" s="20"/>
       <c r="R634" s="20"/>
       <c r="S634" s="20"/>
@@ -27371,8 +27443,8 @@
       <c r="AC634" s="15"/>
     </row>
     <row r="635" spans="9:29">
-      <c r="I635" s="37"/>
-      <c r="L635" s="37"/>
+      <c r="J635" s="37"/>
+      <c r="K635" s="37"/>
       <c r="Q635" s="20"/>
       <c r="R635" s="20"/>
       <c r="S635" s="20"/>
@@ -27388,8 +27460,8 @@
       <c r="AC635" s="15"/>
     </row>
     <row r="636" spans="9:29">
-      <c r="J636" s="37"/>
-      <c r="K636" s="37"/>
+      <c r="I636" s="37"/>
+      <c r="L636" s="37"/>
       <c r="Q636" s="20"/>
       <c r="R636" s="20"/>
       <c r="S636" s="20"/>
@@ -27405,15 +27477,13 @@
       <c r="AC636" s="15"/>
     </row>
     <row r="637" spans="9:29">
-      <c r="I637" s="37"/>
-      <c r="L637" s="37"/>
       <c r="Q637" s="20"/>
       <c r="R637" s="20"/>
       <c r="S637" s="20"/>
       <c r="T637" s="20"/>
       <c r="U637" s="20"/>
       <c r="V637" s="20"/>
-      <c r="W637" s="20"/>
+      <c r="W637" s="15"/>
       <c r="X637" s="15"/>
       <c r="Y637" s="15"/>
       <c r="Z637" s="15"/>
@@ -27458,7 +27528,7 @@
       <c r="T640" s="20"/>
       <c r="U640" s="20"/>
       <c r="V640" s="20"/>
-      <c r="W640" s="15"/>
+      <c r="W640" s="20"/>
       <c r="X640" s="15"/>
       <c r="Y640" s="15"/>
       <c r="Z640" s="15"/>
@@ -27482,13 +27552,13 @@
       <c r="AC641" s="15"/>
     </row>
     <row r="642" spans="9:29">
-      <c r="Q642" s="20"/>
-      <c r="R642" s="20"/>
-      <c r="S642" s="20"/>
-      <c r="T642" s="20"/>
-      <c r="U642" s="20"/>
-      <c r="V642" s="20"/>
-      <c r="W642" s="20"/>
+      <c r="Q642" s="15"/>
+      <c r="R642" s="15"/>
+      <c r="S642" s="15"/>
+      <c r="T642" s="15"/>
+      <c r="U642" s="15"/>
+      <c r="V642" s="15"/>
+      <c r="W642" s="15"/>
       <c r="X642" s="15"/>
       <c r="Y642" s="15"/>
       <c r="Z642" s="15"/>
@@ -27512,14 +27582,15 @@
       <c r="AC643" s="15"/>
     </row>
     <row r="644" spans="9:29">
-      <c r="Q644" s="15"/>
-      <c r="R644" s="15"/>
-      <c r="S644" s="15"/>
-      <c r="T644" s="15"/>
-      <c r="U644" s="15"/>
-      <c r="V644" s="15"/>
-      <c r="W644" s="15"/>
-      <c r="X644" s="15"/>
+      <c r="P644" s="18"/>
+      <c r="Q644" s="20"/>
+      <c r="R644" s="20"/>
+      <c r="S644" s="20"/>
+      <c r="T644" s="20"/>
+      <c r="U644" s="20"/>
+      <c r="V644" s="20"/>
+      <c r="W644" s="20"/>
+      <c r="X644" s="20"/>
       <c r="Y644" s="15"/>
       <c r="Z644" s="15"/>
       <c r="AA644" s="15"/>
@@ -27527,15 +27598,14 @@
       <c r="AC644" s="15"/>
     </row>
     <row r="645" spans="9:29">
-      <c r="P645" s="18"/>
       <c r="Q645" s="20"/>
       <c r="R645" s="20"/>
       <c r="S645" s="20"/>
       <c r="T645" s="20"/>
       <c r="U645" s="20"/>
       <c r="V645" s="20"/>
-      <c r="W645" s="20"/>
-      <c r="X645" s="20"/>
+      <c r="W645" s="15"/>
+      <c r="X645" s="15"/>
       <c r="Y645" s="15"/>
       <c r="Z645" s="15"/>
       <c r="AA645" s="15"/>
@@ -27564,7 +27634,7 @@
       <c r="T647" s="20"/>
       <c r="U647" s="20"/>
       <c r="V647" s="20"/>
-      <c r="W647" s="15"/>
+      <c r="W647" s="20"/>
       <c r="X647" s="15"/>
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
@@ -27573,6 +27643,8 @@
       <c r="AC647" s="15"/>
     </row>
     <row r="648" spans="9:29">
+      <c r="J648" s="37"/>
+      <c r="K648" s="37"/>
       <c r="Q648" s="20"/>
       <c r="R648" s="20"/>
       <c r="S648" s="20"/>
@@ -27588,8 +27660,8 @@
       <c r="AC648" s="15"/>
     </row>
     <row r="649" spans="9:29">
-      <c r="J649" s="37"/>
-      <c r="K649" s="37"/>
+      <c r="I649" s="37"/>
+      <c r="L649" s="37"/>
       <c r="Q649" s="20"/>
       <c r="R649" s="20"/>
       <c r="S649" s="20"/>
@@ -27605,15 +27677,13 @@
       <c r="AC649" s="15"/>
     </row>
     <row r="650" spans="9:29">
-      <c r="I650" s="37"/>
-      <c r="L650" s="37"/>
       <c r="Q650" s="20"/>
       <c r="R650" s="20"/>
       <c r="S650" s="20"/>
       <c r="T650" s="20"/>
       <c r="U650" s="20"/>
       <c r="V650" s="20"/>
-      <c r="W650" s="20"/>
+      <c r="W650" s="15"/>
       <c r="X650" s="15"/>
       <c r="Y650" s="15"/>
       <c r="Z650" s="15"/>
@@ -27628,7 +27698,7 @@
       <c r="T651" s="20"/>
       <c r="U651" s="20"/>
       <c r="V651" s="20"/>
-      <c r="W651" s="15"/>
+      <c r="W651" s="20"/>
       <c r="X651" s="15"/>
       <c r="Y651" s="15"/>
       <c r="Z651" s="15"/>
@@ -27637,13 +27707,13 @@
       <c r="AC651" s="15"/>
     </row>
     <row r="652" spans="9:29">
-      <c r="Q652" s="20"/>
-      <c r="R652" s="20"/>
-      <c r="S652" s="20"/>
-      <c r="T652" s="20"/>
-      <c r="U652" s="20"/>
-      <c r="V652" s="20"/>
-      <c r="W652" s="20"/>
+      <c r="Q652" s="15"/>
+      <c r="R652" s="15"/>
+      <c r="S652" s="15"/>
+      <c r="T652" s="15"/>
+      <c r="U652" s="15"/>
+      <c r="V652" s="15"/>
+      <c r="W652" s="15"/>
       <c r="X652" s="15"/>
       <c r="Y652" s="15"/>
       <c r="Z652" s="15"/>
@@ -27652,14 +27722,15 @@
       <c r="AC652" s="15"/>
     </row>
     <row r="653" spans="9:29">
-      <c r="Q653" s="15"/>
-      <c r="R653" s="15"/>
-      <c r="S653" s="15"/>
-      <c r="T653" s="15"/>
-      <c r="U653" s="15"/>
-      <c r="V653" s="15"/>
-      <c r="W653" s="15"/>
-      <c r="X653" s="15"/>
+      <c r="P653" s="18"/>
+      <c r="Q653" s="20"/>
+      <c r="R653" s="20"/>
+      <c r="S653" s="20"/>
+      <c r="T653" s="20"/>
+      <c r="U653" s="20"/>
+      <c r="V653" s="20"/>
+      <c r="W653" s="20"/>
+      <c r="X653" s="20"/>
       <c r="Y653" s="15"/>
       <c r="Z653" s="15"/>
       <c r="AA653" s="15"/>
@@ -27667,15 +27738,14 @@
       <c r="AC653" s="15"/>
     </row>
     <row r="654" spans="9:29">
-      <c r="P654" s="18"/>
       <c r="Q654" s="20"/>
       <c r="R654" s="20"/>
       <c r="S654" s="20"/>
       <c r="T654" s="20"/>
       <c r="U654" s="20"/>
       <c r="V654" s="20"/>
-      <c r="W654" s="20"/>
-      <c r="X654" s="20"/>
+      <c r="W654" s="15"/>
+      <c r="X654" s="15"/>
       <c r="Y654" s="15"/>
       <c r="Z654" s="15"/>
       <c r="AA654" s="15"/>
@@ -27704,7 +27774,7 @@
       <c r="T656" s="20"/>
       <c r="U656" s="20"/>
       <c r="V656" s="20"/>
-      <c r="W656" s="15"/>
+      <c r="W656" s="20"/>
       <c r="X656" s="15"/>
       <c r="Y656" s="15"/>
       <c r="Z656" s="15"/>
@@ -27734,7 +27804,7 @@
       <c r="T658" s="20"/>
       <c r="U658" s="20"/>
       <c r="V658" s="20"/>
-      <c r="W658" s="20"/>
+      <c r="W658" s="15"/>
       <c r="X658" s="15"/>
       <c r="Y658" s="15"/>
       <c r="Z658" s="15"/>
@@ -27749,7 +27819,7 @@
       <c r="T659" s="20"/>
       <c r="U659" s="20"/>
       <c r="V659" s="20"/>
-      <c r="W659" s="15"/>
+      <c r="W659" s="20"/>
       <c r="X659" s="15"/>
       <c r="Y659" s="15"/>
       <c r="Z659" s="15"/>
@@ -27758,13 +27828,13 @@
       <c r="AC659" s="15"/>
     </row>
     <row r="660" spans="16:29">
-      <c r="Q660" s="20"/>
-      <c r="R660" s="20"/>
-      <c r="S660" s="20"/>
-      <c r="T660" s="20"/>
-      <c r="U660" s="20"/>
-      <c r="V660" s="20"/>
-      <c r="W660" s="20"/>
+      <c r="Q660" s="15"/>
+      <c r="R660" s="15"/>
+      <c r="S660" s="15"/>
+      <c r="T660" s="15"/>
+      <c r="U660" s="15"/>
+      <c r="V660" s="15"/>
+      <c r="W660" s="15"/>
       <c r="X660" s="15"/>
       <c r="Y660" s="15"/>
       <c r="Z660" s="15"/>
@@ -27773,14 +27843,15 @@
       <c r="AC660" s="15"/>
     </row>
     <row r="661" spans="16:29">
-      <c r="Q661" s="15"/>
-      <c r="R661" s="15"/>
-      <c r="S661" s="15"/>
-      <c r="T661" s="15"/>
-      <c r="U661" s="15"/>
-      <c r="V661" s="15"/>
-      <c r="W661" s="15"/>
-      <c r="X661" s="15"/>
+      <c r="P661" s="18"/>
+      <c r="Q661" s="20"/>
+      <c r="R661" s="20"/>
+      <c r="S661" s="20"/>
+      <c r="T661" s="20"/>
+      <c r="U661" s="20"/>
+      <c r="V661" s="20"/>
+      <c r="W661" s="20"/>
+      <c r="X661" s="20"/>
       <c r="Y661" s="15"/>
       <c r="Z661" s="15"/>
       <c r="AA661" s="15"/>
@@ -27788,15 +27859,14 @@
       <c r="AC661" s="15"/>
     </row>
     <row r="662" spans="16:29">
-      <c r="P662" s="18"/>
       <c r="Q662" s="20"/>
       <c r="R662" s="20"/>
       <c r="S662" s="20"/>
       <c r="T662" s="20"/>
       <c r="U662" s="20"/>
       <c r="V662" s="20"/>
-      <c r="W662" s="20"/>
-      <c r="X662" s="20"/>
+      <c r="W662" s="15"/>
+      <c r="X662" s="15"/>
       <c r="Y662" s="15"/>
       <c r="Z662" s="15"/>
       <c r="AA662" s="15"/>
@@ -27810,7 +27880,7 @@
       <c r="T663" s="20"/>
       <c r="U663" s="20"/>
       <c r="V663" s="20"/>
-      <c r="W663" s="15"/>
+      <c r="W663" s="20"/>
       <c r="X663" s="15"/>
       <c r="Y663" s="15"/>
       <c r="Z663" s="15"/>
@@ -27840,7 +27910,7 @@
       <c r="T665" s="20"/>
       <c r="U665" s="20"/>
       <c r="V665" s="20"/>
-      <c r="W665" s="20"/>
+      <c r="W665" s="15"/>
       <c r="X665" s="15"/>
       <c r="Y665" s="15"/>
       <c r="Z665" s="15"/>
@@ -27879,12 +27949,12 @@
       <c r="AC667" s="15"/>
     </row>
     <row r="668" spans="16:29">
-      <c r="Q668" s="20"/>
-      <c r="R668" s="20"/>
-      <c r="S668" s="20"/>
-      <c r="T668" s="20"/>
-      <c r="U668" s="20"/>
-      <c r="V668" s="20"/>
+      <c r="Q668" s="15"/>
+      <c r="R668" s="15"/>
+      <c r="S668" s="15"/>
+      <c r="T668" s="15"/>
+      <c r="U668" s="15"/>
+      <c r="V668" s="15"/>
       <c r="W668" s="15"/>
       <c r="X668" s="15"/>
       <c r="Y668" s="15"/>
@@ -27894,12 +27964,12 @@
       <c r="AC668" s="15"/>
     </row>
     <row r="669" spans="16:29">
-      <c r="Q669" s="15"/>
-      <c r="R669" s="15"/>
-      <c r="S669" s="15"/>
-      <c r="T669" s="15"/>
-      <c r="U669" s="15"/>
-      <c r="V669" s="15"/>
+      <c r="Q669" s="20"/>
+      <c r="R669" s="20"/>
+      <c r="S669" s="20"/>
+      <c r="T669" s="20"/>
+      <c r="U669" s="20"/>
+      <c r="V669" s="20"/>
       <c r="W669" s="15"/>
       <c r="X669" s="15"/>
       <c r="Y669" s="15"/>
@@ -27924,14 +27994,15 @@
       <c r="AC670" s="15"/>
     </row>
     <row r="671" spans="16:29">
+      <c r="P671" s="18"/>
       <c r="Q671" s="20"/>
       <c r="R671" s="20"/>
       <c r="S671" s="20"/>
       <c r="T671" s="20"/>
       <c r="U671" s="20"/>
       <c r="V671" s="20"/>
-      <c r="W671" s="15"/>
-      <c r="X671" s="15"/>
+      <c r="W671" s="20"/>
+      <c r="X671" s="20"/>
       <c r="Y671" s="15"/>
       <c r="Z671" s="15"/>
       <c r="AA671" s="15"/>
@@ -27939,15 +28010,14 @@
       <c r="AC671" s="15"/>
     </row>
     <row r="672" spans="16:29">
-      <c r="P672" s="18"/>
       <c r="Q672" s="20"/>
       <c r="R672" s="20"/>
       <c r="S672" s="20"/>
       <c r="T672" s="20"/>
       <c r="U672" s="20"/>
       <c r="V672" s="20"/>
-      <c r="W672" s="20"/>
-      <c r="X672" s="20"/>
+      <c r="W672" s="15"/>
+      <c r="X672" s="15"/>
       <c r="Y672" s="15"/>
       <c r="Z672" s="15"/>
       <c r="AA672" s="15"/>
@@ -27961,7 +28031,7 @@
       <c r="T673" s="20"/>
       <c r="U673" s="20"/>
       <c r="V673" s="20"/>
-      <c r="W673" s="15"/>
+      <c r="W673" s="20"/>
       <c r="X673" s="15"/>
       <c r="Y673" s="15"/>
       <c r="Z673" s="15"/>
@@ -27976,7 +28046,7 @@
       <c r="T674" s="20"/>
       <c r="U674" s="20"/>
       <c r="V674" s="20"/>
-      <c r="W674" s="20"/>
+      <c r="W674" s="15"/>
       <c r="X674" s="15"/>
       <c r="Y674" s="15"/>
       <c r="Z674" s="15"/>
@@ -28006,7 +28076,7 @@
       <c r="T676" s="20"/>
       <c r="U676" s="20"/>
       <c r="V676" s="20"/>
-      <c r="W676" s="15"/>
+      <c r="W676" s="20"/>
       <c r="X676" s="15"/>
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
@@ -28021,7 +28091,7 @@
       <c r="T677" s="20"/>
       <c r="U677" s="20"/>
       <c r="V677" s="20"/>
-      <c r="W677" s="20"/>
+      <c r="W677" s="15"/>
       <c r="X677" s="15"/>
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
@@ -28030,14 +28100,15 @@
       <c r="AC677" s="15"/>
     </row>
     <row r="678" spans="16:29">
+      <c r="P678" s="18"/>
       <c r="Q678" s="20"/>
       <c r="R678" s="20"/>
       <c r="S678" s="20"/>
       <c r="T678" s="20"/>
       <c r="U678" s="20"/>
       <c r="V678" s="20"/>
-      <c r="W678" s="15"/>
-      <c r="X678" s="15"/>
+      <c r="W678" s="20"/>
+      <c r="X678" s="20"/>
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
       <c r="AA678" s="15"/>
@@ -28045,15 +28116,14 @@
       <c r="AC678" s="15"/>
     </row>
     <row r="679" spans="16:29">
-      <c r="P679" s="18"/>
       <c r="Q679" s="20"/>
       <c r="R679" s="20"/>
       <c r="S679" s="20"/>
       <c r="T679" s="20"/>
       <c r="U679" s="20"/>
       <c r="V679" s="20"/>
-      <c r="W679" s="20"/>
-      <c r="X679" s="20"/>
+      <c r="W679" s="15"/>
+      <c r="X679" s="15"/>
       <c r="Y679" s="15"/>
       <c r="Z679" s="15"/>
       <c r="AA679" s="15"/>
@@ -28067,7 +28137,7 @@
       <c r="T680" s="20"/>
       <c r="U680" s="20"/>
       <c r="V680" s="20"/>
-      <c r="W680" s="15"/>
+      <c r="W680" s="20"/>
       <c r="X680" s="15"/>
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
@@ -28082,7 +28152,7 @@
       <c r="T681" s="20"/>
       <c r="U681" s="20"/>
       <c r="V681" s="20"/>
-      <c r="W681" s="20"/>
+      <c r="W681" s="15"/>
       <c r="X681" s="15"/>
       <c r="Y681" s="15"/>
       <c r="Z681" s="15"/>
@@ -28097,7 +28167,7 @@
       <c r="T682" s="20"/>
       <c r="U682" s="20"/>
       <c r="V682" s="20"/>
-      <c r="W682" s="15"/>
+      <c r="W682" s="20"/>
       <c r="X682" s="15"/>
       <c r="Y682" s="15"/>
       <c r="Z682" s="15"/>
@@ -28112,7 +28182,7 @@
       <c r="T683" s="20"/>
       <c r="U683" s="20"/>
       <c r="V683" s="20"/>
-      <c r="W683" s="20"/>
+      <c r="W683" s="15"/>
       <c r="X683" s="15"/>
       <c r="Y683" s="15"/>
       <c r="Z683" s="15"/>
@@ -28127,7 +28197,7 @@
       <c r="T684" s="20"/>
       <c r="U684" s="20"/>
       <c r="V684" s="20"/>
-      <c r="W684" s="15"/>
+      <c r="W684" s="20"/>
       <c r="X684" s="15"/>
       <c r="Y684" s="15"/>
       <c r="Z684" s="15"/>
@@ -28142,7 +28212,7 @@
       <c r="T685" s="20"/>
       <c r="U685" s="20"/>
       <c r="V685" s="20"/>
-      <c r="W685" s="20"/>
+      <c r="W685" s="15"/>
       <c r="X685" s="15"/>
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
@@ -28166,12 +28236,12 @@
       <c r="AC686" s="15"/>
     </row>
     <row r="687" spans="16:29">
-      <c r="Q687" s="20"/>
-      <c r="R687" s="20"/>
-      <c r="S687" s="20"/>
-      <c r="T687" s="20"/>
-      <c r="U687" s="20"/>
-      <c r="V687" s="20"/>
+      <c r="Q687" s="15"/>
+      <c r="R687" s="15"/>
+      <c r="S687" s="15"/>
+      <c r="T687" s="15"/>
+      <c r="U687" s="15"/>
+      <c r="V687" s="15"/>
       <c r="W687" s="15"/>
       <c r="X687" s="15"/>
       <c r="Y687" s="15"/>
@@ -28181,14 +28251,15 @@
       <c r="AC687" s="15"/>
     </row>
     <row r="688" spans="16:29">
-      <c r="Q688" s="15"/>
-      <c r="R688" s="15"/>
-      <c r="S688" s="15"/>
-      <c r="T688" s="15"/>
-      <c r="U688" s="15"/>
-      <c r="V688" s="15"/>
-      <c r="W688" s="15"/>
-      <c r="X688" s="15"/>
+      <c r="P688" s="18"/>
+      <c r="Q688" s="20"/>
+      <c r="R688" s="20"/>
+      <c r="S688" s="20"/>
+      <c r="T688" s="20"/>
+      <c r="U688" s="20"/>
+      <c r="V688" s="20"/>
+      <c r="W688" s="20"/>
+      <c r="X688" s="20"/>
       <c r="Y688" s="15"/>
       <c r="Z688" s="15"/>
       <c r="AA688" s="15"/>
@@ -28196,15 +28267,14 @@
       <c r="AC688" s="15"/>
     </row>
     <row r="689" spans="16:29">
-      <c r="P689" s="18"/>
       <c r="Q689" s="20"/>
       <c r="R689" s="20"/>
       <c r="S689" s="20"/>
       <c r="T689" s="20"/>
       <c r="U689" s="20"/>
       <c r="V689" s="20"/>
-      <c r="W689" s="20"/>
-      <c r="X689" s="20"/>
+      <c r="W689" s="15"/>
+      <c r="X689" s="15"/>
       <c r="Y689" s="15"/>
       <c r="Z689" s="15"/>
       <c r="AA689" s="15"/>
@@ -28212,14 +28282,15 @@
       <c r="AC689" s="15"/>
     </row>
     <row r="690" spans="16:29">
+      <c r="P690" s="18"/>
       <c r="Q690" s="20"/>
       <c r="R690" s="20"/>
       <c r="S690" s="20"/>
       <c r="T690" s="20"/>
       <c r="U690" s="20"/>
       <c r="V690" s="20"/>
-      <c r="W690" s="15"/>
-      <c r="X690" s="15"/>
+      <c r="W690" s="20"/>
+      <c r="X690" s="20"/>
       <c r="Y690" s="15"/>
       <c r="Z690" s="15"/>
       <c r="AA690" s="15"/>
@@ -28243,15 +28314,14 @@
       <c r="AC691" s="15"/>
     </row>
     <row r="692" spans="16:29">
-      <c r="P692" s="18"/>
       <c r="Q692" s="20"/>
       <c r="R692" s="20"/>
       <c r="S692" s="20"/>
       <c r="T692" s="20"/>
       <c r="U692" s="20"/>
       <c r="V692" s="20"/>
-      <c r="W692" s="20"/>
-      <c r="X692" s="20"/>
+      <c r="W692" s="15"/>
+      <c r="X692" s="15"/>
       <c r="Y692" s="15"/>
       <c r="Z692" s="15"/>
       <c r="AA692" s="15"/>
@@ -28280,7 +28350,7 @@
       <c r="T694" s="20"/>
       <c r="U694" s="20"/>
       <c r="V694" s="20"/>
-      <c r="W694" s="15"/>
+      <c r="W694" s="20"/>
       <c r="X694" s="15"/>
       <c r="Y694" s="15"/>
       <c r="Z694" s="15"/>
@@ -28289,6 +28359,7 @@
       <c r="AC694" s="15"/>
     </row>
     <row r="695" spans="16:29">
+      <c r="P695" s="18"/>
       <c r="Q695" s="20"/>
       <c r="R695" s="20"/>
       <c r="S695" s="20"/>
@@ -28296,7 +28367,7 @@
       <c r="U695" s="20"/>
       <c r="V695" s="20"/>
       <c r="W695" s="20"/>
-      <c r="X695" s="15"/>
+      <c r="X695" s="20"/>
       <c r="Y695" s="15"/>
       <c r="Z695" s="15"/>
       <c r="AA695" s="15"/>
@@ -28320,7 +28391,6 @@
       <c r="AC696" s="15"/>
     </row>
     <row r="697" spans="16:29">
-      <c r="P697" s="18"/>
       <c r="Q697" s="20"/>
       <c r="R697" s="20"/>
       <c r="S697" s="20"/>
@@ -28328,7 +28398,7 @@
       <c r="U697" s="20"/>
       <c r="V697" s="20"/>
       <c r="W697" s="20"/>
-      <c r="X697" s="20"/>
+      <c r="X697" s="15"/>
       <c r="Y697" s="15"/>
       <c r="Z697" s="15"/>
       <c r="AA697" s="15"/>
@@ -28336,6 +28406,7 @@
       <c r="AC697" s="15"/>
     </row>
     <row r="698" spans="16:29">
+      <c r="P698" s="18"/>
       <c r="Q698" s="20"/>
       <c r="R698" s="20"/>
       <c r="S698" s="20"/>
@@ -28343,7 +28414,7 @@
       <c r="U698" s="20"/>
       <c r="V698" s="20"/>
       <c r="W698" s="20"/>
-      <c r="X698" s="15"/>
+      <c r="X698" s="20"/>
       <c r="Y698" s="15"/>
       <c r="Z698" s="15"/>
       <c r="AA698" s="15"/>
@@ -28399,15 +28470,14 @@
       <c r="AC701" s="15"/>
     </row>
     <row r="702" spans="16:29">
-      <c r="P702" s="18"/>
       <c r="Q702" s="20"/>
       <c r="R702" s="20"/>
       <c r="S702" s="20"/>
       <c r="T702" s="20"/>
       <c r="U702" s="20"/>
       <c r="V702" s="20"/>
-      <c r="W702" s="20"/>
-      <c r="X702" s="20"/>
+      <c r="W702" s="15"/>
+      <c r="X702" s="15"/>
       <c r="Y702" s="15"/>
       <c r="Z702" s="15"/>
       <c r="AA702" s="15"/>
@@ -28421,7 +28491,7 @@
       <c r="T703" s="20"/>
       <c r="U703" s="20"/>
       <c r="V703" s="20"/>
-      <c r="W703" s="15"/>
+      <c r="W703" s="20"/>
       <c r="X703" s="15"/>
       <c r="Y703" s="15"/>
       <c r="Z703" s="15"/>
@@ -28436,7 +28506,7 @@
       <c r="T704" s="20"/>
       <c r="U704" s="20"/>
       <c r="V704" s="20"/>
-      <c r="W704" s="20"/>
+      <c r="W704" s="15"/>
       <c r="X704" s="15"/>
       <c r="Y704" s="15"/>
       <c r="Z704" s="15"/>
@@ -28451,7 +28521,7 @@
       <c r="T705" s="20"/>
       <c r="U705" s="20"/>
       <c r="V705" s="20"/>
-      <c r="W705" s="15"/>
+      <c r="W705" s="20"/>
       <c r="X705" s="15"/>
       <c r="Y705" s="15"/>
       <c r="Z705" s="15"/>
@@ -28466,7 +28536,7 @@
       <c r="T706" s="20"/>
       <c r="U706" s="20"/>
       <c r="V706" s="20"/>
-      <c r="W706" s="20"/>
+      <c r="W706" s="15"/>
       <c r="X706" s="15"/>
       <c r="Y706" s="15"/>
       <c r="Z706" s="15"/>
@@ -28475,12 +28545,12 @@
       <c r="AC706" s="15"/>
     </row>
     <row r="707" spans="17:29">
-      <c r="Q707" s="20"/>
-      <c r="R707" s="20"/>
-      <c r="S707" s="20"/>
-      <c r="T707" s="20"/>
-      <c r="U707" s="20"/>
-      <c r="V707" s="20"/>
+      <c r="Q707" s="15"/>
+      <c r="R707" s="15"/>
+      <c r="S707" s="15"/>
+      <c r="T707" s="15"/>
+      <c r="U707" s="15"/>
+      <c r="V707" s="15"/>
       <c r="W707" s="15"/>
       <c r="X707" s="15"/>
       <c r="Y707" s="15"/>
@@ -28490,12 +28560,12 @@
       <c r="AC707" s="15"/>
     </row>
     <row r="708" spans="17:29">
-      <c r="Q708" s="15"/>
-      <c r="R708" s="15"/>
-      <c r="S708" s="15"/>
-      <c r="T708" s="15"/>
-      <c r="U708" s="15"/>
-      <c r="V708" s="15"/>
+      <c r="Q708" s="20"/>
+      <c r="R708" s="20"/>
+      <c r="S708" s="20"/>
+      <c r="T708" s="20"/>
+      <c r="U708" s="20"/>
+      <c r="V708" s="20"/>
       <c r="W708" s="15"/>
       <c r="X708" s="15"/>
       <c r="Y708" s="15"/>
@@ -28526,7 +28596,7 @@
       <c r="T710" s="20"/>
       <c r="U710" s="20"/>
       <c r="V710" s="20"/>
-      <c r="W710" s="15"/>
+      <c r="W710" s="20"/>
       <c r="X710" s="15"/>
       <c r="Y710" s="15"/>
       <c r="Z710" s="15"/>
@@ -28556,7 +28626,7 @@
       <c r="T712" s="20"/>
       <c r="U712" s="20"/>
       <c r="V712" s="20"/>
-      <c r="W712" s="20"/>
+      <c r="W712" s="15"/>
       <c r="X712" s="15"/>
       <c r="Y712" s="15"/>
       <c r="Z712" s="15"/>
@@ -28571,7 +28641,7 @@
       <c r="T713" s="20"/>
       <c r="U713" s="20"/>
       <c r="V713" s="20"/>
-      <c r="W713" s="15"/>
+      <c r="W713" s="20"/>
       <c r="X713" s="15"/>
       <c r="Y713" s="15"/>
       <c r="Z713" s="15"/>
@@ -28586,7 +28656,7 @@
       <c r="T714" s="20"/>
       <c r="U714" s="20"/>
       <c r="V714" s="20"/>
-      <c r="W714" s="20"/>
+      <c r="W714" s="15"/>
       <c r="X714" s="15"/>
       <c r="Y714" s="15"/>
       <c r="Z714" s="15"/>
@@ -28601,7 +28671,7 @@
       <c r="T715" s="20"/>
       <c r="U715" s="20"/>
       <c r="V715" s="20"/>
-      <c r="W715" s="15"/>
+      <c r="W715" s="20"/>
       <c r="X715" s="15"/>
       <c r="Y715" s="15"/>
       <c r="Z715" s="15"/>
@@ -28631,7 +28701,7 @@
       <c r="T717" s="20"/>
       <c r="U717" s="20"/>
       <c r="V717" s="20"/>
-      <c r="W717" s="20"/>
+      <c r="W717" s="15"/>
       <c r="X717" s="15"/>
       <c r="Y717" s="15"/>
       <c r="Z717" s="15"/>
@@ -28655,12 +28725,12 @@
       <c r="AC718" s="15"/>
     </row>
     <row r="719" spans="17:29">
-      <c r="Q719" s="20"/>
-      <c r="R719" s="20"/>
-      <c r="S719" s="20"/>
-      <c r="T719" s="20"/>
-      <c r="U719" s="20"/>
-      <c r="V719" s="20"/>
+      <c r="Q719" s="15"/>
+      <c r="R719" s="15"/>
+      <c r="S719" s="15"/>
+      <c r="T719" s="15"/>
+      <c r="U719" s="15"/>
+      <c r="V719" s="15"/>
       <c r="W719" s="15"/>
       <c r="X719" s="15"/>
       <c r="Y719" s="15"/>
@@ -28670,12 +28740,12 @@
       <c r="AC719" s="15"/>
     </row>
     <row r="720" spans="17:29">
-      <c r="Q720" s="15"/>
-      <c r="R720" s="15"/>
-      <c r="S720" s="15"/>
-      <c r="T720" s="15"/>
-      <c r="U720" s="15"/>
-      <c r="V720" s="15"/>
+      <c r="Q720" s="20"/>
+      <c r="R720" s="20"/>
+      <c r="S720" s="20"/>
+      <c r="T720" s="20"/>
+      <c r="U720" s="20"/>
+      <c r="V720" s="20"/>
       <c r="W720" s="15"/>
       <c r="X720" s="15"/>
       <c r="Y720" s="15"/>
@@ -28706,7 +28776,7 @@
       <c r="T722" s="20"/>
       <c r="U722" s="20"/>
       <c r="V722" s="20"/>
-      <c r="W722" s="15"/>
+      <c r="W722" s="20"/>
       <c r="X722" s="15"/>
       <c r="Y722" s="15"/>
       <c r="Z722" s="15"/>
@@ -28736,7 +28806,7 @@
       <c r="T724" s="20"/>
       <c r="U724" s="20"/>
       <c r="V724" s="20"/>
-      <c r="W724" s="20"/>
+      <c r="W724" s="15"/>
       <c r="X724" s="15"/>
       <c r="Y724" s="15"/>
       <c r="Z724" s="15"/>
@@ -28751,7 +28821,7 @@
       <c r="T725" s="20"/>
       <c r="U725" s="20"/>
       <c r="V725" s="20"/>
-      <c r="W725" s="15"/>
+      <c r="W725" s="20"/>
       <c r="X725" s="15"/>
       <c r="Y725" s="15"/>
       <c r="Z725" s="15"/>
@@ -28766,7 +28836,7 @@
       <c r="T726" s="20"/>
       <c r="U726" s="20"/>
       <c r="V726" s="20"/>
-      <c r="W726" s="20"/>
+      <c r="W726" s="15"/>
       <c r="X726" s="15"/>
       <c r="Y726" s="15"/>
       <c r="Z726" s="15"/>
@@ -28781,7 +28851,7 @@
       <c r="T727" s="20"/>
       <c r="U727" s="20"/>
       <c r="V727" s="20"/>
-      <c r="W727" s="15"/>
+      <c r="W727" s="20"/>
       <c r="X727" s="15"/>
       <c r="Y727" s="15"/>
       <c r="Z727" s="15"/>
@@ -28841,7 +28911,7 @@
       <c r="T731" s="20"/>
       <c r="U731" s="20"/>
       <c r="V731" s="20"/>
-      <c r="W731" s="20"/>
+      <c r="W731" s="15"/>
       <c r="X731" s="15"/>
       <c r="Y731" s="15"/>
       <c r="Z731" s="15"/>
@@ -28856,7 +28926,7 @@
       <c r="T732" s="20"/>
       <c r="U732" s="20"/>
       <c r="V732" s="20"/>
-      <c r="W732" s="15"/>
+      <c r="W732" s="20"/>
       <c r="X732" s="15"/>
       <c r="Y732" s="15"/>
       <c r="Z732" s="15"/>
@@ -28871,7 +28941,7 @@
       <c r="T733" s="20"/>
       <c r="U733" s="20"/>
       <c r="V733" s="20"/>
-      <c r="W733" s="20"/>
+      <c r="W733" s="15"/>
       <c r="X733" s="15"/>
       <c r="Y733" s="15"/>
       <c r="Z733" s="15"/>
@@ -28895,12 +28965,12 @@
       <c r="AC734" s="15"/>
     </row>
     <row r="735" spans="17:29">
-      <c r="Q735" s="20"/>
-      <c r="R735" s="20"/>
-      <c r="S735" s="20"/>
-      <c r="T735" s="20"/>
-      <c r="U735" s="20"/>
-      <c r="V735" s="20"/>
+      <c r="Q735" s="15"/>
+      <c r="R735" s="15"/>
+      <c r="S735" s="15"/>
+      <c r="T735" s="15"/>
+      <c r="U735" s="15"/>
+      <c r="V735" s="15"/>
       <c r="W735" s="15"/>
       <c r="X735" s="15"/>
       <c r="Y735" s="15"/>
@@ -28910,12 +28980,12 @@
       <c r="AC735" s="15"/>
     </row>
     <row r="736" spans="17:29">
-      <c r="Q736" s="15"/>
-      <c r="R736" s="15"/>
-      <c r="S736" s="15"/>
-      <c r="T736" s="15"/>
-      <c r="U736" s="15"/>
-      <c r="V736" s="15"/>
+      <c r="Q736" s="20"/>
+      <c r="R736" s="20"/>
+      <c r="S736" s="20"/>
+      <c r="T736" s="20"/>
+      <c r="U736" s="20"/>
+      <c r="V736" s="20"/>
       <c r="W736" s="15"/>
       <c r="X736" s="15"/>
       <c r="Y736" s="15"/>
@@ -29126,7 +29196,7 @@
       <c r="T750" s="20"/>
       <c r="U750" s="20"/>
       <c r="V750" s="20"/>
-      <c r="W750" s="15"/>
+      <c r="W750" s="20"/>
       <c r="X750" s="15"/>
       <c r="Y750" s="15"/>
       <c r="Z750" s="15"/>
@@ -29141,7 +29211,7 @@
       <c r="T751" s="20"/>
       <c r="U751" s="20"/>
       <c r="V751" s="20"/>
-      <c r="W751" s="20"/>
+      <c r="W751" s="15"/>
       <c r="X751" s="15"/>
       <c r="Y751" s="15"/>
       <c r="Z751" s="15"/>
@@ -29150,12 +29220,12 @@
       <c r="AC751" s="15"/>
     </row>
     <row r="752" spans="17:29">
-      <c r="Q752" s="20"/>
-      <c r="R752" s="20"/>
-      <c r="S752" s="20"/>
-      <c r="T752" s="20"/>
-      <c r="U752" s="20"/>
-      <c r="V752" s="20"/>
+      <c r="Q752" s="15"/>
+      <c r="R752" s="15"/>
+      <c r="S752" s="15"/>
+      <c r="T752" s="15"/>
+      <c r="U752" s="15"/>
+      <c r="V752" s="15"/>
       <c r="W752" s="15"/>
       <c r="X752" s="15"/>
       <c r="Y752" s="15"/>
@@ -29165,12 +29235,12 @@
       <c r="AC752" s="15"/>
     </row>
     <row r="753" spans="17:29">
-      <c r="Q753" s="15"/>
-      <c r="R753" s="15"/>
-      <c r="S753" s="15"/>
-      <c r="T753" s="15"/>
-      <c r="U753" s="15"/>
-      <c r="V753" s="15"/>
+      <c r="Q753" s="20"/>
+      <c r="R753" s="20"/>
+      <c r="S753" s="20"/>
+      <c r="T753" s="20"/>
+      <c r="U753" s="20"/>
+      <c r="V753" s="20"/>
       <c r="W753" s="15"/>
       <c r="X753" s="15"/>
       <c r="Y753" s="15"/>
@@ -29201,7 +29271,7 @@
       <c r="T755" s="20"/>
       <c r="U755" s="20"/>
       <c r="V755" s="20"/>
-      <c r="W755" s="15"/>
+      <c r="W755" s="20"/>
       <c r="X755" s="15"/>
       <c r="Y755" s="15"/>
       <c r="Z755" s="15"/>
@@ -29246,7 +29316,7 @@
       <c r="T758" s="20"/>
       <c r="U758" s="20"/>
       <c r="V758" s="20"/>
-      <c r="W758" s="20"/>
+      <c r="W758" s="15"/>
       <c r="X758" s="15"/>
       <c r="Y758" s="15"/>
       <c r="Z758" s="15"/>
@@ -29255,12 +29325,12 @@
       <c r="AC758" s="15"/>
     </row>
     <row r="759" spans="17:29">
-      <c r="Q759" s="20"/>
-      <c r="R759" s="20"/>
-      <c r="S759" s="20"/>
-      <c r="T759" s="20"/>
-      <c r="U759" s="20"/>
-      <c r="V759" s="20"/>
+      <c r="Q759" s="15"/>
+      <c r="R759" s="15"/>
+      <c r="S759" s="15"/>
+      <c r="T759" s="15"/>
+      <c r="U759" s="15"/>
+      <c r="V759" s="15"/>
       <c r="W759" s="15"/>
       <c r="X759" s="15"/>
       <c r="Y759" s="15"/>
@@ -29270,12 +29340,12 @@
       <c r="AC759" s="15"/>
     </row>
     <row r="760" spans="17:29">
-      <c r="Q760" s="15"/>
-      <c r="R760" s="15"/>
-      <c r="S760" s="15"/>
-      <c r="T760" s="15"/>
-      <c r="U760" s="15"/>
-      <c r="V760" s="15"/>
+      <c r="Q760" s="20"/>
+      <c r="R760" s="20"/>
+      <c r="S760" s="20"/>
+      <c r="T760" s="20"/>
+      <c r="U760" s="20"/>
+      <c r="V760" s="20"/>
       <c r="W760" s="15"/>
       <c r="X760" s="15"/>
       <c r="Y760" s="15"/>
@@ -29315,12 +29385,12 @@
       <c r="AC762" s="15"/>
     </row>
     <row r="763" spans="17:29">
-      <c r="Q763" s="20"/>
-      <c r="R763" s="20"/>
-      <c r="S763" s="20"/>
-      <c r="T763" s="20"/>
-      <c r="U763" s="20"/>
-      <c r="V763" s="20"/>
+      <c r="Q763" s="15"/>
+      <c r="R763" s="15"/>
+      <c r="S763" s="15"/>
+      <c r="T763" s="15"/>
+      <c r="U763" s="15"/>
+      <c r="V763" s="15"/>
       <c r="W763" s="15"/>
       <c r="X763" s="15"/>
       <c r="Y763" s="15"/>
@@ -29330,13 +29400,13 @@
       <c r="AC763" s="15"/>
     </row>
     <row r="764" spans="17:29">
-      <c r="Q764" s="15"/>
-      <c r="R764" s="15"/>
-      <c r="S764" s="15"/>
-      <c r="T764" s="15"/>
-      <c r="U764" s="15"/>
-      <c r="V764" s="15"/>
-      <c r="W764" s="15"/>
+      <c r="Q764" s="20"/>
+      <c r="R764" s="20"/>
+      <c r="S764" s="20"/>
+      <c r="T764" s="20"/>
+      <c r="U764" s="20"/>
+      <c r="V764" s="20"/>
+      <c r="W764" s="20"/>
       <c r="X764" s="15"/>
       <c r="Y764" s="15"/>
       <c r="Z764" s="15"/>
@@ -29351,7 +29421,7 @@
       <c r="T765" s="20"/>
       <c r="U765" s="20"/>
       <c r="V765" s="20"/>
-      <c r="W765" s="20"/>
+      <c r="W765" s="15"/>
       <c r="X765" s="15"/>
       <c r="Y765" s="15"/>
       <c r="Z765" s="15"/>
@@ -29360,12 +29430,12 @@
       <c r="AC765" s="15"/>
     </row>
     <row r="766" spans="17:29">
-      <c r="Q766" s="20"/>
-      <c r="R766" s="20"/>
-      <c r="S766" s="20"/>
-      <c r="T766" s="20"/>
-      <c r="U766" s="20"/>
-      <c r="V766" s="20"/>
+      <c r="Q766" s="15"/>
+      <c r="R766" s="15"/>
+      <c r="S766" s="15"/>
+      <c r="T766" s="15"/>
+      <c r="U766" s="15"/>
+      <c r="V766" s="15"/>
       <c r="W766" s="15"/>
       <c r="X766" s="15"/>
       <c r="Y766" s="15"/>
@@ -29375,12 +29445,12 @@
       <c r="AC766" s="15"/>
     </row>
     <row r="767" spans="17:29">
-      <c r="Q767" s="15"/>
-      <c r="R767" s="15"/>
-      <c r="S767" s="15"/>
-      <c r="T767" s="15"/>
-      <c r="U767" s="15"/>
-      <c r="V767" s="15"/>
+      <c r="Q767" s="20"/>
+      <c r="R767" s="20"/>
+      <c r="S767" s="20"/>
+      <c r="T767" s="20"/>
+      <c r="U767" s="20"/>
+      <c r="V767" s="20"/>
       <c r="W767" s="15"/>
       <c r="X767" s="15"/>
       <c r="Y767" s="15"/>
@@ -29396,7 +29466,7 @@
       <c r="T768" s="20"/>
       <c r="U768" s="20"/>
       <c r="V768" s="20"/>
-      <c r="W768" s="15"/>
+      <c r="W768" s="20"/>
       <c r="X768" s="15"/>
       <c r="Y768" s="15"/>
       <c r="Z768" s="15"/>
@@ -29411,7 +29481,7 @@
       <c r="T769" s="20"/>
       <c r="U769" s="20"/>
       <c r="V769" s="20"/>
-      <c r="W769" s="20"/>
+      <c r="W769" s="15"/>
       <c r="X769" s="15"/>
       <c r="Y769" s="15"/>
       <c r="Z769" s="15"/>
@@ -29426,7 +29496,7 @@
       <c r="T770" s="20"/>
       <c r="U770" s="20"/>
       <c r="V770" s="20"/>
-      <c r="W770" s="15"/>
+      <c r="W770" s="20"/>
       <c r="X770" s="15"/>
       <c r="Y770" s="15"/>
       <c r="Z770" s="15"/>
@@ -29441,7 +29511,7 @@
       <c r="T771" s="20"/>
       <c r="U771" s="20"/>
       <c r="V771" s="20"/>
-      <c r="W771" s="20"/>
+      <c r="W771" s="15"/>
       <c r="X771" s="15"/>
       <c r="Y771" s="15"/>
       <c r="Z771" s="15"/>
@@ -29471,7 +29541,7 @@
       <c r="T773" s="20"/>
       <c r="U773" s="20"/>
       <c r="V773" s="20"/>
-      <c r="W773" s="15"/>
+      <c r="W773" s="20"/>
       <c r="X773" s="15"/>
       <c r="Y773" s="15"/>
       <c r="Z773" s="15"/>
@@ -29480,13 +29550,13 @@
       <c r="AC773" s="15"/>
     </row>
     <row r="774" spans="17:29">
-      <c r="Q774" s="20"/>
-      <c r="R774" s="20"/>
-      <c r="S774" s="20"/>
-      <c r="T774" s="20"/>
-      <c r="U774" s="20"/>
-      <c r="V774" s="20"/>
-      <c r="W774" s="20"/>
+      <c r="Q774" s="15"/>
+      <c r="R774" s="15"/>
+      <c r="S774" s="15"/>
+      <c r="T774" s="15"/>
+      <c r="U774" s="15"/>
+      <c r="V774" s="15"/>
+      <c r="W774" s="15"/>
       <c r="X774" s="15"/>
       <c r="Y774" s="15"/>
       <c r="Z774" s="15"/>
@@ -29495,12 +29565,12 @@
       <c r="AC774" s="15"/>
     </row>
     <row r="775" spans="17:29">
-      <c r="Q775" s="15"/>
-      <c r="R775" s="15"/>
-      <c r="S775" s="15"/>
-      <c r="T775" s="15"/>
-      <c r="U775" s="15"/>
-      <c r="V775" s="15"/>
+      <c r="Q775" s="20"/>
+      <c r="R775" s="20"/>
+      <c r="S775" s="20"/>
+      <c r="T775" s="20"/>
+      <c r="U775" s="20"/>
+      <c r="V775" s="20"/>
       <c r="W775" s="15"/>
       <c r="X775" s="15"/>
       <c r="Y775" s="15"/>
@@ -29510,12 +29580,12 @@
       <c r="AC775" s="15"/>
     </row>
     <row r="776" spans="17:29">
-      <c r="Q776" s="20"/>
-      <c r="R776" s="20"/>
-      <c r="S776" s="20"/>
-      <c r="T776" s="20"/>
-      <c r="U776" s="20"/>
-      <c r="V776" s="20"/>
+      <c r="Q776" s="15"/>
+      <c r="R776" s="15"/>
+      <c r="S776" s="15"/>
+      <c r="T776" s="15"/>
+      <c r="U776" s="15"/>
+      <c r="V776" s="15"/>
       <c r="W776" s="15"/>
       <c r="X776" s="15"/>
       <c r="Y776" s="15"/>
@@ -29525,12 +29595,12 @@
       <c r="AC776" s="15"/>
     </row>
     <row r="777" spans="17:29">
-      <c r="Q777" s="15"/>
-      <c r="R777" s="15"/>
-      <c r="S777" s="15"/>
-      <c r="T777" s="15"/>
-      <c r="U777" s="15"/>
-      <c r="V777" s="15"/>
+      <c r="Q777" s="20"/>
+      <c r="R777" s="20"/>
+      <c r="S777" s="20"/>
+      <c r="T777" s="20"/>
+      <c r="U777" s="20"/>
+      <c r="V777" s="20"/>
       <c r="W777" s="15"/>
       <c r="X777" s="15"/>
       <c r="Y777" s="15"/>
@@ -29570,12 +29640,12 @@
       <c r="AC779" s="15"/>
     </row>
     <row r="780" spans="17:29">
-      <c r="Q780" s="20"/>
-      <c r="R780" s="20"/>
-      <c r="S780" s="20"/>
-      <c r="T780" s="20"/>
-      <c r="U780" s="20"/>
-      <c r="V780" s="20"/>
+      <c r="Q780" s="15"/>
+      <c r="R780" s="15"/>
+      <c r="S780" s="15"/>
+      <c r="T780" s="15"/>
+      <c r="U780" s="15"/>
+      <c r="V780" s="15"/>
       <c r="W780" s="15"/>
       <c r="X780" s="15"/>
       <c r="Y780" s="15"/>
@@ -29585,12 +29655,12 @@
       <c r="AC780" s="15"/>
     </row>
     <row r="781" spans="17:29">
-      <c r="Q781" s="15"/>
-      <c r="R781" s="15"/>
-      <c r="S781" s="15"/>
-      <c r="T781" s="15"/>
-      <c r="U781" s="15"/>
-      <c r="V781" s="15"/>
+      <c r="Q781" s="20"/>
+      <c r="R781" s="20"/>
+      <c r="S781" s="20"/>
+      <c r="T781" s="20"/>
+      <c r="U781" s="20"/>
+      <c r="V781" s="20"/>
       <c r="W781" s="15"/>
       <c r="X781" s="15"/>
       <c r="Y781" s="15"/>
@@ -29630,12 +29700,12 @@
       <c r="AC783" s="15"/>
     </row>
     <row r="784" spans="17:29">
-      <c r="Q784" s="20"/>
-      <c r="R784" s="20"/>
-      <c r="S784" s="20"/>
-      <c r="T784" s="20"/>
-      <c r="U784" s="20"/>
-      <c r="V784" s="20"/>
+      <c r="Q784" s="15"/>
+      <c r="R784" s="15"/>
+      <c r="S784" s="15"/>
+      <c r="T784" s="15"/>
+      <c r="U784" s="15"/>
+      <c r="V784" s="15"/>
       <c r="W784" s="15"/>
       <c r="X784" s="15"/>
       <c r="Y784" s="15"/>
@@ -29660,12 +29730,12 @@
       <c r="AC785" s="15"/>
     </row>
     <row r="786" spans="17:29">
-      <c r="Q786" s="15"/>
-      <c r="R786" s="15"/>
-      <c r="S786" s="15"/>
-      <c r="T786" s="15"/>
-      <c r="U786" s="15"/>
-      <c r="V786" s="15"/>
+      <c r="Q786" s="20"/>
+      <c r="R786" s="20"/>
+      <c r="S786" s="20"/>
+      <c r="T786" s="20"/>
+      <c r="U786" s="20"/>
+      <c r="V786" s="20"/>
       <c r="W786" s="15"/>
       <c r="X786" s="15"/>
       <c r="Y786" s="15"/>
@@ -29705,12 +29775,12 @@
       <c r="AC788" s="15"/>
     </row>
     <row r="789" spans="17:29">
-      <c r="Q789" s="20"/>
-      <c r="R789" s="20"/>
-      <c r="S789" s="20"/>
-      <c r="T789" s="20"/>
-      <c r="U789" s="20"/>
-      <c r="V789" s="20"/>
+      <c r="Q789" s="15"/>
+      <c r="R789" s="15"/>
+      <c r="S789" s="15"/>
+      <c r="T789" s="15"/>
+      <c r="U789" s="15"/>
+      <c r="V789" s="15"/>
       <c r="W789" s="15"/>
       <c r="X789" s="15"/>
       <c r="Y789" s="15"/>
@@ -29720,12 +29790,12 @@
       <c r="AC789" s="15"/>
     </row>
     <row r="790" spans="17:29">
-      <c r="Q790" s="15"/>
-      <c r="R790" s="15"/>
-      <c r="S790" s="15"/>
-      <c r="T790" s="15"/>
-      <c r="U790" s="15"/>
-      <c r="V790" s="15"/>
+      <c r="Q790" s="20"/>
+      <c r="R790" s="20"/>
+      <c r="S790" s="20"/>
+      <c r="T790" s="20"/>
+      <c r="U790" s="20"/>
+      <c r="V790" s="20"/>
       <c r="W790" s="15"/>
       <c r="X790" s="15"/>
       <c r="Y790" s="15"/>
@@ -29756,7 +29826,7 @@
       <c r="T792" s="20"/>
       <c r="U792" s="20"/>
       <c r="V792" s="20"/>
-      <c r="W792" s="15"/>
+      <c r="W792" s="20"/>
       <c r="X792" s="15"/>
       <c r="Y792" s="15"/>
       <c r="Z792" s="15"/>
@@ -29801,7 +29871,7 @@
       <c r="T795" s="20"/>
       <c r="U795" s="20"/>
       <c r="V795" s="20"/>
-      <c r="W795" s="20"/>
+      <c r="W795" s="15"/>
       <c r="X795" s="15"/>
       <c r="Y795" s="15"/>
       <c r="Z795" s="15"/>
@@ -29816,7 +29886,7 @@
       <c r="T796" s="20"/>
       <c r="U796" s="20"/>
       <c r="V796" s="20"/>
-      <c r="W796" s="15"/>
+      <c r="W796" s="20"/>
       <c r="X796" s="15"/>
       <c r="Y796" s="15"/>
       <c r="Z796" s="15"/>
@@ -29825,13 +29895,13 @@
       <c r="AC796" s="15"/>
     </row>
     <row r="797" spans="17:29">
-      <c r="Q797" s="20"/>
-      <c r="R797" s="20"/>
-      <c r="S797" s="20"/>
-      <c r="T797" s="20"/>
-      <c r="U797" s="20"/>
-      <c r="V797" s="20"/>
-      <c r="W797" s="20"/>
+      <c r="Q797" s="15"/>
+      <c r="R797" s="15"/>
+      <c r="S797" s="15"/>
+      <c r="T797" s="15"/>
+      <c r="U797" s="15"/>
+      <c r="V797" s="15"/>
+      <c r="W797" s="15"/>
       <c r="X797" s="15"/>
       <c r="Y797" s="15"/>
       <c r="Z797" s="15"/>
@@ -29870,12 +29940,12 @@
       <c r="AC799" s="15"/>
     </row>
     <row r="800" spans="17:29">
-      <c r="Q800" s="15"/>
-      <c r="R800" s="15"/>
-      <c r="S800" s="15"/>
-      <c r="T800" s="15"/>
-      <c r="U800" s="15"/>
-      <c r="V800" s="15"/>
+      <c r="Q800" s="20"/>
+      <c r="R800" s="20"/>
+      <c r="S800" s="20"/>
+      <c r="T800" s="20"/>
+      <c r="U800" s="20"/>
+      <c r="V800" s="20"/>
       <c r="W800" s="15"/>
       <c r="X800" s="15"/>
       <c r="Y800" s="15"/>
@@ -29900,12 +29970,12 @@
       <c r="AC801" s="15"/>
     </row>
     <row r="802" spans="17:29">
-      <c r="Q802" s="20"/>
-      <c r="R802" s="20"/>
-      <c r="S802" s="20"/>
-      <c r="T802" s="20"/>
-      <c r="U802" s="20"/>
-      <c r="V802" s="20"/>
+      <c r="Q802" s="15"/>
+      <c r="R802" s="15"/>
+      <c r="S802" s="15"/>
+      <c r="T802" s="15"/>
+      <c r="U802" s="15"/>
+      <c r="V802" s="15"/>
       <c r="W802" s="15"/>
       <c r="X802" s="15"/>
       <c r="Y802" s="15"/>
@@ -29915,12 +29985,12 @@
       <c r="AC802" s="15"/>
     </row>
     <row r="803" spans="17:29">
-      <c r="Q803" s="15"/>
-      <c r="R803" s="15"/>
-      <c r="S803" s="15"/>
-      <c r="T803" s="15"/>
-      <c r="U803" s="15"/>
-      <c r="V803" s="15"/>
+      <c r="Q803" s="20"/>
+      <c r="R803" s="20"/>
+      <c r="S803" s="20"/>
+      <c r="T803" s="20"/>
+      <c r="U803" s="20"/>
+      <c r="V803" s="20"/>
       <c r="W803" s="15"/>
       <c r="X803" s="15"/>
       <c r="Y803" s="15"/>
@@ -29960,12 +30030,12 @@
       <c r="AC805" s="15"/>
     </row>
     <row r="806" spans="17:29">
-      <c r="Q806" s="20"/>
-      <c r="R806" s="20"/>
-      <c r="S806" s="20"/>
-      <c r="T806" s="20"/>
-      <c r="U806" s="20"/>
-      <c r="V806" s="20"/>
+      <c r="Q806" s="15"/>
+      <c r="R806" s="15"/>
+      <c r="S806" s="15"/>
+      <c r="T806" s="15"/>
+      <c r="U806" s="15"/>
+      <c r="V806" s="15"/>
       <c r="W806" s="15"/>
       <c r="X806" s="15"/>
       <c r="Y806" s="15"/>
@@ -29975,12 +30045,12 @@
       <c r="AC806" s="15"/>
     </row>
     <row r="807" spans="17:29">
-      <c r="Q807" s="15"/>
-      <c r="R807" s="15"/>
-      <c r="S807" s="15"/>
-      <c r="T807" s="15"/>
-      <c r="U807" s="15"/>
-      <c r="V807" s="15"/>
+      <c r="Q807" s="20"/>
+      <c r="R807" s="20"/>
+      <c r="S807" s="20"/>
+      <c r="T807" s="20"/>
+      <c r="U807" s="20"/>
+      <c r="V807" s="20"/>
       <c r="W807" s="15"/>
       <c r="X807" s="15"/>
       <c r="Y807" s="15"/>
@@ -30020,12 +30090,12 @@
       <c r="AC809" s="15"/>
     </row>
     <row r="810" spans="17:29">
-      <c r="Q810" s="20"/>
-      <c r="R810" s="20"/>
-      <c r="S810" s="20"/>
-      <c r="T810" s="20"/>
-      <c r="U810" s="20"/>
-      <c r="V810" s="20"/>
+      <c r="Q810" s="15"/>
+      <c r="R810" s="15"/>
+      <c r="S810" s="15"/>
+      <c r="T810" s="15"/>
+      <c r="U810" s="15"/>
+      <c r="V810" s="15"/>
       <c r="W810" s="15"/>
       <c r="X810" s="15"/>
       <c r="Y810" s="15"/>
@@ -30110,12 +30180,12 @@
       <c r="AC815" s="15"/>
     </row>
     <row r="816" spans="17:29">
-      <c r="Q816" s="15"/>
-      <c r="R816" s="15"/>
-      <c r="S816" s="15"/>
-      <c r="T816" s="15"/>
-      <c r="U816" s="15"/>
-      <c r="V816" s="15"/>
+      <c r="Q816" s="20"/>
+      <c r="R816" s="20"/>
+      <c r="S816" s="20"/>
+      <c r="T816" s="20"/>
+      <c r="U816" s="20"/>
+      <c r="V816" s="20"/>
       <c r="W816" s="15"/>
       <c r="X816" s="15"/>
       <c r="Y816" s="15"/>
@@ -30155,12 +30225,12 @@
       <c r="AC818" s="15"/>
     </row>
     <row r="819" spans="17:29">
-      <c r="Q819" s="20"/>
-      <c r="R819" s="20"/>
-      <c r="S819" s="20"/>
-      <c r="T819" s="20"/>
-      <c r="U819" s="20"/>
-      <c r="V819" s="20"/>
+      <c r="Q819" s="15"/>
+      <c r="R819" s="15"/>
+      <c r="S819" s="15"/>
+      <c r="T819" s="15"/>
+      <c r="U819" s="15"/>
+      <c r="V819" s="15"/>
       <c r="W819" s="15"/>
       <c r="X819" s="15"/>
       <c r="Y819" s="15"/>
@@ -30185,12 +30255,12 @@
       <c r="AC820" s="15"/>
     </row>
     <row r="821" spans="17:29">
-      <c r="Q821" s="15"/>
-      <c r="R821" s="15"/>
-      <c r="S821" s="15"/>
-      <c r="T821" s="15"/>
-      <c r="U821" s="15"/>
-      <c r="V821" s="15"/>
+      <c r="Q821" s="20"/>
+      <c r="R821" s="20"/>
+      <c r="S821" s="20"/>
+      <c r="T821" s="20"/>
+      <c r="U821" s="20"/>
+      <c r="V821" s="20"/>
       <c r="W821" s="15"/>
       <c r="X821" s="15"/>
       <c r="Y821" s="15"/>
@@ -30215,12 +30285,12 @@
       <c r="AC822" s="15"/>
     </row>
     <row r="823" spans="17:29">
-      <c r="Q823" s="20"/>
-      <c r="R823" s="20"/>
-      <c r="S823" s="20"/>
-      <c r="T823" s="20"/>
-      <c r="U823" s="20"/>
-      <c r="V823" s="20"/>
+      <c r="Q823" s="15"/>
+      <c r="R823" s="15"/>
+      <c r="S823" s="15"/>
+      <c r="T823" s="15"/>
+      <c r="U823" s="15"/>
+      <c r="V823" s="15"/>
       <c r="W823" s="15"/>
       <c r="X823" s="15"/>
       <c r="Y823" s="15"/>
@@ -30230,12 +30300,12 @@
       <c r="AC823" s="15"/>
     </row>
     <row r="824" spans="17:29">
-      <c r="Q824" s="15"/>
-      <c r="R824" s="15"/>
-      <c r="S824" s="15"/>
-      <c r="T824" s="15"/>
-      <c r="U824" s="15"/>
-      <c r="V824" s="15"/>
+      <c r="Q824" s="20"/>
+      <c r="R824" s="20"/>
+      <c r="S824" s="20"/>
+      <c r="T824" s="20"/>
+      <c r="U824" s="20"/>
+      <c r="V824" s="20"/>
       <c r="W824" s="15"/>
       <c r="X824" s="15"/>
       <c r="Y824" s="15"/>
@@ -30245,12 +30315,12 @@
       <c r="AC824" s="15"/>
     </row>
     <row r="825" spans="17:29">
-      <c r="Q825" s="20"/>
-      <c r="R825" s="20"/>
-      <c r="S825" s="20"/>
-      <c r="T825" s="20"/>
-      <c r="U825" s="20"/>
-      <c r="V825" s="20"/>
+      <c r="Q825" s="15"/>
+      <c r="R825" s="15"/>
+      <c r="S825" s="15"/>
+      <c r="T825" s="15"/>
+      <c r="U825" s="15"/>
+      <c r="V825" s="15"/>
       <c r="W825" s="15"/>
       <c r="X825" s="15"/>
       <c r="Y825" s="15"/>
@@ -30275,12 +30345,12 @@
       <c r="AC826" s="15"/>
     </row>
     <row r="827" spans="17:29">
-      <c r="Q827" s="15"/>
-      <c r="R827" s="15"/>
-      <c r="S827" s="15"/>
-      <c r="T827" s="15"/>
-      <c r="U827" s="15"/>
-      <c r="V827" s="15"/>
+      <c r="Q827" s="20"/>
+      <c r="R827" s="20"/>
+      <c r="S827" s="20"/>
+      <c r="T827" s="20"/>
+      <c r="U827" s="20"/>
+      <c r="V827" s="20"/>
       <c r="W827" s="15"/>
       <c r="X827" s="15"/>
       <c r="Y827" s="15"/>
@@ -30290,12 +30360,12 @@
       <c r="AC827" s="15"/>
     </row>
     <row r="828" spans="17:29">
-      <c r="Q828" s="20"/>
-      <c r="R828" s="20"/>
-      <c r="S828" s="20"/>
-      <c r="T828" s="20"/>
-      <c r="U828" s="20"/>
-      <c r="V828" s="20"/>
+      <c r="Q828" s="15"/>
+      <c r="R828" s="15"/>
+      <c r="S828" s="15"/>
+      <c r="T828" s="15"/>
+      <c r="U828" s="15"/>
+      <c r="V828" s="15"/>
       <c r="W828" s="15"/>
       <c r="X828" s="15"/>
       <c r="Y828" s="15"/>
@@ -30335,12 +30405,12 @@
       <c r="AC830" s="15"/>
     </row>
     <row r="831" spans="17:29">
-      <c r="Q831" s="15"/>
-      <c r="R831" s="15"/>
-      <c r="S831" s="15"/>
-      <c r="T831" s="15"/>
-      <c r="U831" s="15"/>
-      <c r="V831" s="15"/>
+      <c r="Q831" s="20"/>
+      <c r="R831" s="20"/>
+      <c r="S831" s="20"/>
+      <c r="T831" s="20"/>
+      <c r="U831" s="20"/>
+      <c r="V831" s="20"/>
       <c r="W831" s="15"/>
       <c r="X831" s="15"/>
       <c r="Y831" s="15"/>
@@ -30365,12 +30435,12 @@
       <c r="AC832" s="15"/>
     </row>
     <row r="833" spans="17:29">
-      <c r="Q833" s="20"/>
-      <c r="R833" s="20"/>
-      <c r="S833" s="20"/>
-      <c r="T833" s="20"/>
-      <c r="U833" s="20"/>
-      <c r="V833" s="20"/>
+      <c r="Q833" s="15"/>
+      <c r="R833" s="15"/>
+      <c r="S833" s="15"/>
+      <c r="T833" s="15"/>
+      <c r="U833" s="15"/>
+      <c r="V833" s="15"/>
       <c r="W833" s="15"/>
       <c r="X833" s="15"/>
       <c r="Y833" s="15"/>
@@ -30380,12 +30450,12 @@
       <c r="AC833" s="15"/>
     </row>
     <row r="834" spans="17:29">
-      <c r="Q834" s="15"/>
-      <c r="R834" s="15"/>
-      <c r="S834" s="15"/>
-      <c r="T834" s="15"/>
-      <c r="U834" s="15"/>
-      <c r="V834" s="15"/>
+      <c r="Q834" s="20"/>
+      <c r="R834" s="20"/>
+      <c r="S834" s="20"/>
+      <c r="T834" s="20"/>
+      <c r="U834" s="20"/>
+      <c r="V834" s="20"/>
       <c r="W834" s="15"/>
       <c r="X834" s="15"/>
       <c r="Y834" s="15"/>
@@ -30395,12 +30465,12 @@
       <c r="AC834" s="15"/>
     </row>
     <row r="835" spans="17:29">
-      <c r="Q835" s="20"/>
-      <c r="R835" s="20"/>
-      <c r="S835" s="20"/>
-      <c r="T835" s="20"/>
-      <c r="U835" s="20"/>
-      <c r="V835" s="20"/>
+      <c r="Q835" s="15"/>
+      <c r="R835" s="15"/>
+      <c r="S835" s="15"/>
+      <c r="T835" s="15"/>
+      <c r="U835" s="15"/>
+      <c r="V835" s="15"/>
       <c r="W835" s="15"/>
       <c r="X835" s="15"/>
       <c r="Y835" s="15"/>
@@ -30425,12 +30495,12 @@
       <c r="AC836" s="15"/>
     </row>
     <row r="837" spans="17:29">
-      <c r="Q837" s="15"/>
-      <c r="R837" s="15"/>
-      <c r="S837" s="15"/>
-      <c r="T837" s="15"/>
-      <c r="U837" s="15"/>
-      <c r="V837" s="15"/>
+      <c r="Q837" s="20"/>
+      <c r="R837" s="20"/>
+      <c r="S837" s="20"/>
+      <c r="T837" s="20"/>
+      <c r="U837" s="20"/>
+      <c r="V837" s="20"/>
       <c r="W837" s="15"/>
       <c r="X837" s="15"/>
       <c r="Y837" s="15"/>
@@ -30440,12 +30510,12 @@
       <c r="AC837" s="15"/>
     </row>
     <row r="838" spans="17:29">
-      <c r="Q838" s="20"/>
-      <c r="R838" s="20"/>
-      <c r="S838" s="20"/>
-      <c r="T838" s="20"/>
-      <c r="U838" s="20"/>
-      <c r="V838" s="20"/>
+      <c r="Q838" s="15"/>
+      <c r="R838" s="15"/>
+      <c r="S838" s="15"/>
+      <c r="T838" s="15"/>
+      <c r="U838" s="15"/>
+      <c r="V838" s="15"/>
       <c r="W838" s="15"/>
       <c r="X838" s="15"/>
       <c r="Y838" s="15"/>
@@ -30455,12 +30525,12 @@
       <c r="AC838" s="15"/>
     </row>
     <row r="839" spans="17:29">
-      <c r="Q839" s="15"/>
-      <c r="R839" s="15"/>
-      <c r="S839" s="15"/>
-      <c r="T839" s="15"/>
-      <c r="U839" s="15"/>
-      <c r="V839" s="15"/>
+      <c r="Q839" s="20"/>
+      <c r="R839" s="20"/>
+      <c r="S839" s="20"/>
+      <c r="T839" s="20"/>
+      <c r="U839" s="20"/>
+      <c r="V839" s="20"/>
       <c r="W839" s="15"/>
       <c r="X839" s="15"/>
       <c r="Y839" s="15"/>
@@ -30470,12 +30540,12 @@
       <c r="AC839" s="15"/>
     </row>
     <row r="840" spans="17:29">
-      <c r="Q840" s="20"/>
-      <c r="R840" s="20"/>
-      <c r="S840" s="20"/>
-      <c r="T840" s="20"/>
-      <c r="U840" s="20"/>
-      <c r="V840" s="20"/>
+      <c r="Q840" s="15"/>
+      <c r="R840" s="15"/>
+      <c r="S840" s="15"/>
+      <c r="T840" s="15"/>
+      <c r="U840" s="15"/>
+      <c r="V840" s="15"/>
       <c r="W840" s="15"/>
       <c r="X840" s="15"/>
       <c r="Y840" s="15"/>
@@ -30485,12 +30555,12 @@
       <c r="AC840" s="15"/>
     </row>
     <row r="841" spans="17:29">
-      <c r="Q841" s="15"/>
-      <c r="R841" s="15"/>
-      <c r="S841" s="15"/>
-      <c r="T841" s="15"/>
-      <c r="U841" s="15"/>
-      <c r="V841" s="15"/>
+      <c r="Q841" s="20"/>
+      <c r="R841" s="20"/>
+      <c r="S841" s="20"/>
+      <c r="T841" s="20"/>
+      <c r="U841" s="20"/>
+      <c r="V841" s="20"/>
       <c r="W841" s="15"/>
       <c r="X841" s="15"/>
       <c r="Y841" s="15"/>
@@ -30560,12 +30630,12 @@
       <c r="AC845" s="15"/>
     </row>
     <row r="846" spans="17:29">
-      <c r="Q846" s="20"/>
-      <c r="R846" s="20"/>
-      <c r="S846" s="20"/>
-      <c r="T846" s="20"/>
-      <c r="U846" s="20"/>
-      <c r="V846" s="20"/>
+      <c r="Q846" s="15"/>
+      <c r="R846" s="15"/>
+      <c r="S846" s="15"/>
+      <c r="T846" s="15"/>
+      <c r="U846" s="15"/>
+      <c r="V846" s="15"/>
       <c r="W846" s="15"/>
       <c r="X846" s="15"/>
       <c r="Y846" s="15"/>
@@ -30575,12 +30645,12 @@
       <c r="AC846" s="15"/>
     </row>
     <row r="847" spans="17:29">
-      <c r="Q847" s="15"/>
-      <c r="R847" s="15"/>
-      <c r="S847" s="15"/>
-      <c r="T847" s="15"/>
-      <c r="U847" s="15"/>
-      <c r="V847" s="15"/>
+      <c r="Q847" s="20"/>
+      <c r="R847" s="20"/>
+      <c r="S847" s="20"/>
+      <c r="T847" s="20"/>
+      <c r="U847" s="20"/>
+      <c r="V847" s="20"/>
       <c r="W847" s="15"/>
       <c r="X847" s="15"/>
       <c r="Y847" s="15"/>
@@ -30590,12 +30660,12 @@
       <c r="AC847" s="15"/>
     </row>
     <row r="848" spans="17:29">
-      <c r="Q848" s="20"/>
-      <c r="R848" s="20"/>
-      <c r="S848" s="20"/>
-      <c r="T848" s="20"/>
-      <c r="U848" s="20"/>
-      <c r="V848" s="20"/>
+      <c r="Q848" s="15"/>
+      <c r="R848" s="15"/>
+      <c r="S848" s="15"/>
+      <c r="T848" s="15"/>
+      <c r="U848" s="15"/>
+      <c r="V848" s="15"/>
       <c r="W848" s="15"/>
       <c r="X848" s="15"/>
       <c r="Y848" s="15"/>
@@ -30605,12 +30675,12 @@
       <c r="AC848" s="15"/>
     </row>
     <row r="849" spans="17:29">
-      <c r="Q849" s="15"/>
-      <c r="R849" s="15"/>
-      <c r="S849" s="15"/>
-      <c r="T849" s="15"/>
-      <c r="U849" s="15"/>
-      <c r="V849" s="15"/>
+      <c r="Q849" s="20"/>
+      <c r="R849" s="20"/>
+      <c r="S849" s="20"/>
+      <c r="T849" s="20"/>
+      <c r="U849" s="20"/>
+      <c r="V849" s="20"/>
       <c r="W849" s="15"/>
       <c r="X849" s="15"/>
       <c r="Y849" s="15"/>
@@ -30635,12 +30705,12 @@
       <c r="AC850" s="15"/>
     </row>
     <row r="851" spans="17:29">
-      <c r="Q851" s="20"/>
-      <c r="R851" s="20"/>
-      <c r="S851" s="20"/>
-      <c r="T851" s="20"/>
-      <c r="U851" s="20"/>
-      <c r="V851" s="20"/>
+      <c r="Q851" s="15"/>
+      <c r="R851" s="15"/>
+      <c r="S851" s="15"/>
+      <c r="T851" s="15"/>
+      <c r="U851" s="15"/>
+      <c r="V851" s="15"/>
       <c r="W851" s="15"/>
       <c r="X851" s="15"/>
       <c r="Y851" s="15"/>
@@ -30665,12 +30735,12 @@
       <c r="AC852" s="15"/>
     </row>
     <row r="853" spans="17:29">
-      <c r="Q853" s="15"/>
-      <c r="R853" s="15"/>
-      <c r="S853" s="15"/>
-      <c r="T853" s="15"/>
-      <c r="U853" s="15"/>
-      <c r="V853" s="15"/>
+      <c r="Q853" s="20"/>
+      <c r="R853" s="20"/>
+      <c r="S853" s="20"/>
+      <c r="T853" s="20"/>
+      <c r="U853" s="20"/>
+      <c r="V853" s="20"/>
       <c r="W853" s="15"/>
       <c r="X853" s="15"/>
       <c r="Y853" s="15"/>
@@ -30680,12 +30750,12 @@
       <c r="AC853" s="15"/>
     </row>
     <row r="854" spans="17:29">
-      <c r="Q854" s="20"/>
-      <c r="R854" s="20"/>
-      <c r="S854" s="20"/>
-      <c r="T854" s="20"/>
-      <c r="U854" s="20"/>
-      <c r="V854" s="20"/>
+      <c r="Q854" s="15"/>
+      <c r="R854" s="15"/>
+      <c r="S854" s="15"/>
+      <c r="T854" s="15"/>
+      <c r="U854" s="15"/>
+      <c r="V854" s="15"/>
       <c r="W854" s="15"/>
       <c r="X854" s="15"/>
       <c r="Y854" s="15"/>
@@ -30725,12 +30795,12 @@
       <c r="AC856" s="15"/>
     </row>
     <row r="857" spans="17:29">
-      <c r="Q857" s="15"/>
-      <c r="R857" s="15"/>
-      <c r="S857" s="15"/>
-      <c r="T857" s="15"/>
-      <c r="U857" s="15"/>
-      <c r="V857" s="15"/>
+      <c r="Q857" s="20"/>
+      <c r="R857" s="20"/>
+      <c r="S857" s="20"/>
+      <c r="T857" s="20"/>
+      <c r="U857" s="20"/>
+      <c r="V857" s="20"/>
       <c r="W857" s="15"/>
       <c r="X857" s="15"/>
       <c r="Y857" s="15"/>
@@ -30770,12 +30840,12 @@
       <c r="AC859" s="15"/>
     </row>
     <row r="860" spans="17:29">
-      <c r="Q860" s="20"/>
-      <c r="R860" s="20"/>
-      <c r="S860" s="20"/>
-      <c r="T860" s="20"/>
-      <c r="U860" s="20"/>
-      <c r="V860" s="20"/>
+      <c r="Q860" s="15"/>
+      <c r="R860" s="15"/>
+      <c r="S860" s="15"/>
+      <c r="T860" s="15"/>
+      <c r="U860" s="15"/>
+      <c r="V860" s="15"/>
       <c r="W860" s="15"/>
       <c r="X860" s="15"/>
       <c r="Y860" s="15"/>
@@ -30785,12 +30855,12 @@
       <c r="AC860" s="15"/>
     </row>
     <row r="861" spans="17:29">
-      <c r="Q861" s="15"/>
-      <c r="R861" s="15"/>
-      <c r="S861" s="15"/>
-      <c r="T861" s="15"/>
-      <c r="U861" s="15"/>
-      <c r="V861" s="15"/>
+      <c r="Q861" s="20"/>
+      <c r="R861" s="20"/>
+      <c r="S861" s="20"/>
+      <c r="T861" s="20"/>
+      <c r="U861" s="20"/>
+      <c r="V861" s="20"/>
       <c r="W861" s="15"/>
       <c r="X861" s="15"/>
       <c r="Y861" s="15"/>
@@ -30800,12 +30870,12 @@
       <c r="AC861" s="15"/>
     </row>
     <row r="862" spans="17:29">
-      <c r="Q862" s="20"/>
-      <c r="R862" s="20"/>
-      <c r="S862" s="20"/>
-      <c r="T862" s="20"/>
-      <c r="U862" s="20"/>
-      <c r="V862" s="20"/>
+      <c r="Q862" s="15"/>
+      <c r="R862" s="15"/>
+      <c r="S862" s="15"/>
+      <c r="T862" s="15"/>
+      <c r="U862" s="15"/>
+      <c r="V862" s="15"/>
       <c r="W862" s="15"/>
       <c r="X862" s="15"/>
       <c r="Y862" s="15"/>
@@ -30830,12 +30900,12 @@
       <c r="AC863" s="15"/>
     </row>
     <row r="864" spans="17:29">
-      <c r="Q864" s="15"/>
-      <c r="R864" s="15"/>
-      <c r="S864" s="15"/>
-      <c r="T864" s="15"/>
-      <c r="U864" s="15"/>
-      <c r="V864" s="15"/>
+      <c r="Q864" s="20"/>
+      <c r="R864" s="20"/>
+      <c r="S864" s="20"/>
+      <c r="T864" s="20"/>
+      <c r="U864" s="20"/>
+      <c r="V864" s="20"/>
       <c r="W864" s="15"/>
       <c r="X864" s="15"/>
       <c r="Y864" s="15"/>
@@ -30845,12 +30915,12 @@
       <c r="AC864" s="15"/>
     </row>
     <row r="865" spans="17:29">
-      <c r="Q865" s="20"/>
-      <c r="R865" s="20"/>
-      <c r="S865" s="20"/>
-      <c r="T865" s="20"/>
-      <c r="U865" s="20"/>
-      <c r="V865" s="20"/>
+      <c r="Q865" s="15"/>
+      <c r="R865" s="15"/>
+      <c r="S865" s="15"/>
+      <c r="T865" s="15"/>
+      <c r="U865" s="15"/>
+      <c r="V865" s="15"/>
       <c r="W865" s="15"/>
       <c r="X865" s="15"/>
       <c r="Y865" s="15"/>
@@ -30860,12 +30930,12 @@
       <c r="AC865" s="15"/>
     </row>
     <row r="866" spans="17:29">
-      <c r="Q866" s="15"/>
-      <c r="R866" s="15"/>
-      <c r="S866" s="15"/>
-      <c r="T866" s="15"/>
-      <c r="U866" s="15"/>
-      <c r="V866" s="15"/>
+      <c r="Q866" s="20"/>
+      <c r="R866" s="20"/>
+      <c r="S866" s="20"/>
+      <c r="T866" s="20"/>
+      <c r="U866" s="20"/>
+      <c r="V866" s="20"/>
       <c r="W866" s="15"/>
       <c r="X866" s="15"/>
       <c r="Y866" s="15"/>
@@ -30905,12 +30975,12 @@
       <c r="AC868" s="15"/>
     </row>
     <row r="869" spans="17:29">
-      <c r="Q869" s="20"/>
-      <c r="R869" s="20"/>
-      <c r="S869" s="20"/>
-      <c r="T869" s="20"/>
-      <c r="U869" s="20"/>
-      <c r="V869" s="20"/>
+      <c r="Q869" s="15"/>
+      <c r="R869" s="15"/>
+      <c r="S869" s="15"/>
+      <c r="T869" s="15"/>
+      <c r="U869" s="15"/>
+      <c r="V869" s="15"/>
       <c r="W869" s="15"/>
       <c r="X869" s="15"/>
       <c r="Y869" s="15"/>
@@ -30920,12 +30990,12 @@
       <c r="AC869" s="15"/>
     </row>
     <row r="870" spans="17:29">
-      <c r="Q870" s="15"/>
-      <c r="R870" s="15"/>
-      <c r="S870" s="15"/>
-      <c r="T870" s="15"/>
-      <c r="U870" s="15"/>
-      <c r="V870" s="15"/>
+      <c r="Q870" s="20"/>
+      <c r="R870" s="20"/>
+      <c r="S870" s="20"/>
+      <c r="T870" s="20"/>
+      <c r="U870" s="20"/>
+      <c r="V870" s="20"/>
       <c r="W870" s="15"/>
       <c r="X870" s="15"/>
       <c r="Y870" s="15"/>
@@ -30935,12 +31005,12 @@
       <c r="AC870" s="15"/>
     </row>
     <row r="871" spans="17:29">
-      <c r="Q871" s="20"/>
-      <c r="R871" s="20"/>
-      <c r="S871" s="20"/>
-      <c r="T871" s="20"/>
-      <c r="U871" s="20"/>
-      <c r="V871" s="20"/>
+      <c r="Q871" s="15"/>
+      <c r="R871" s="15"/>
+      <c r="S871" s="15"/>
+      <c r="T871" s="15"/>
+      <c r="U871" s="15"/>
+      <c r="V871" s="15"/>
       <c r="W871" s="15"/>
       <c r="X871" s="15"/>
       <c r="Y871" s="15"/>
@@ -30995,12 +31065,12 @@
       <c r="AC874" s="15"/>
     </row>
     <row r="875" spans="17:29">
-      <c r="Q875" s="15"/>
-      <c r="R875" s="15"/>
-      <c r="S875" s="15"/>
-      <c r="T875" s="15"/>
-      <c r="U875" s="15"/>
-      <c r="V875" s="15"/>
+      <c r="Q875" s="20"/>
+      <c r="R875" s="20"/>
+      <c r="S875" s="20"/>
+      <c r="T875" s="20"/>
+      <c r="U875" s="20"/>
+      <c r="V875" s="20"/>
       <c r="W875" s="15"/>
       <c r="X875" s="15"/>
       <c r="Y875" s="15"/>
@@ -31010,12 +31080,12 @@
       <c r="AC875" s="15"/>
     </row>
     <row r="876" spans="17:29">
-      <c r="Q876" s="20"/>
-      <c r="R876" s="20"/>
-      <c r="S876" s="20"/>
-      <c r="T876" s="20"/>
-      <c r="U876" s="20"/>
-      <c r="V876" s="20"/>
+      <c r="Q876" s="15"/>
+      <c r="R876" s="15"/>
+      <c r="S876" s="15"/>
+      <c r="T876" s="15"/>
+      <c r="U876" s="15"/>
+      <c r="V876" s="15"/>
       <c r="W876" s="15"/>
       <c r="X876" s="15"/>
       <c r="Y876" s="15"/>
@@ -31145,12 +31215,12 @@
       <c r="AC884" s="15"/>
     </row>
     <row r="885" spans="17:29">
-      <c r="Q885" s="15"/>
-      <c r="R885" s="15"/>
-      <c r="S885" s="15"/>
-      <c r="T885" s="15"/>
-      <c r="U885" s="15"/>
-      <c r="V885" s="15"/>
+      <c r="Q885" s="20"/>
+      <c r="R885" s="20"/>
+      <c r="S885" s="20"/>
+      <c r="T885" s="20"/>
+      <c r="U885" s="20"/>
+      <c r="V885" s="20"/>
       <c r="W885" s="15"/>
       <c r="X885" s="15"/>
       <c r="Y885" s="15"/>
@@ -31190,12 +31260,12 @@
       <c r="AC887" s="15"/>
     </row>
     <row r="888" spans="17:29">
-      <c r="Q888" s="20"/>
-      <c r="R888" s="20"/>
-      <c r="S888" s="20"/>
-      <c r="T888" s="20"/>
-      <c r="U888" s="20"/>
-      <c r="V888" s="20"/>
+      <c r="Q888" s="15"/>
+      <c r="R888" s="15"/>
+      <c r="S888" s="15"/>
+      <c r="T888" s="15"/>
+      <c r="U888" s="15"/>
+      <c r="V888" s="15"/>
       <c r="W888" s="15"/>
       <c r="X888" s="15"/>
       <c r="Y888" s="15"/>
@@ -31205,12 +31275,12 @@
       <c r="AC888" s="15"/>
     </row>
     <row r="889" spans="17:29">
-      <c r="Q889" s="15"/>
-      <c r="R889" s="15"/>
-      <c r="S889" s="15"/>
-      <c r="T889" s="15"/>
-      <c r="U889" s="15"/>
-      <c r="V889" s="15"/>
+      <c r="Q889" s="20"/>
+      <c r="R889" s="20"/>
+      <c r="S889" s="20"/>
+      <c r="T889" s="20"/>
+      <c r="U889" s="20"/>
+      <c r="V889" s="20"/>
       <c r="W889" s="15"/>
       <c r="X889" s="15"/>
       <c r="Y889" s="15"/>
@@ -31220,12 +31290,12 @@
       <c r="AC889" s="15"/>
     </row>
     <row r="890" spans="17:29">
-      <c r="Q890" s="20"/>
-      <c r="R890" s="20"/>
-      <c r="S890" s="20"/>
-      <c r="T890" s="20"/>
-      <c r="U890" s="20"/>
-      <c r="V890" s="20"/>
+      <c r="Q890" s="15"/>
+      <c r="R890" s="15"/>
+      <c r="S890" s="15"/>
+      <c r="T890" s="15"/>
+      <c r="U890" s="15"/>
+      <c r="V890" s="15"/>
       <c r="W890" s="15"/>
       <c r="X890" s="15"/>
       <c r="Y890" s="15"/>
@@ -31250,12 +31320,12 @@
       <c r="AC891" s="15"/>
     </row>
     <row r="892" spans="17:29">
-      <c r="Q892" s="15"/>
-      <c r="R892" s="15"/>
-      <c r="S892" s="15"/>
-      <c r="T892" s="15"/>
-      <c r="U892" s="15"/>
-      <c r="V892" s="15"/>
+      <c r="Q892" s="20"/>
+      <c r="R892" s="20"/>
+      <c r="S892" s="20"/>
+      <c r="T892" s="20"/>
+      <c r="U892" s="20"/>
+      <c r="V892" s="20"/>
       <c r="W892" s="15"/>
       <c r="X892" s="15"/>
       <c r="Y892" s="15"/>
@@ -31265,12 +31335,12 @@
       <c r="AC892" s="15"/>
     </row>
     <row r="893" spans="17:29">
-      <c r="Q893" s="20"/>
-      <c r="R893" s="20"/>
-      <c r="S893" s="20"/>
-      <c r="T893" s="20"/>
-      <c r="U893" s="20"/>
-      <c r="V893" s="20"/>
+      <c r="Q893" s="15"/>
+      <c r="R893" s="15"/>
+      <c r="S893" s="15"/>
+      <c r="T893" s="15"/>
+      <c r="U893" s="15"/>
+      <c r="V893" s="15"/>
       <c r="W893" s="15"/>
       <c r="X893" s="15"/>
       <c r="Y893" s="15"/>
@@ -31310,12 +31380,12 @@
       <c r="AC895" s="15"/>
     </row>
     <row r="896" spans="17:29">
-      <c r="Q896" s="15"/>
-      <c r="R896" s="15"/>
-      <c r="S896" s="15"/>
-      <c r="T896" s="15"/>
-      <c r="U896" s="15"/>
-      <c r="V896" s="15"/>
+      <c r="Q896" s="20"/>
+      <c r="R896" s="20"/>
+      <c r="S896" s="20"/>
+      <c r="T896" s="20"/>
+      <c r="U896" s="20"/>
+      <c r="V896" s="20"/>
       <c r="W896" s="15"/>
       <c r="X896" s="15"/>
       <c r="Y896" s="15"/>
@@ -31355,12 +31425,12 @@
       <c r="AC898" s="15"/>
     </row>
     <row r="899" spans="17:29">
-      <c r="Q899" s="20"/>
-      <c r="R899" s="20"/>
-      <c r="S899" s="20"/>
-      <c r="T899" s="20"/>
-      <c r="U899" s="20"/>
-      <c r="V899" s="20"/>
+      <c r="Q899" s="15"/>
+      <c r="R899" s="15"/>
+      <c r="S899" s="15"/>
+      <c r="T899" s="15"/>
+      <c r="U899" s="15"/>
+      <c r="V899" s="15"/>
       <c r="W899" s="15"/>
       <c r="X899" s="15"/>
       <c r="Y899" s="15"/>
@@ -31460,12 +31530,12 @@
       <c r="AC905" s="15"/>
     </row>
     <row r="906" spans="17:29">
-      <c r="Q906" s="15"/>
-      <c r="R906" s="15"/>
-      <c r="S906" s="15"/>
-      <c r="T906" s="15"/>
-      <c r="U906" s="15"/>
-      <c r="V906" s="15"/>
+      <c r="Q906" s="20"/>
+      <c r="R906" s="20"/>
+      <c r="S906" s="20"/>
+      <c r="T906" s="20"/>
+      <c r="U906" s="20"/>
+      <c r="V906" s="20"/>
       <c r="W906" s="15"/>
       <c r="X906" s="15"/>
       <c r="Y906" s="15"/>
@@ -31490,12 +31560,12 @@
       <c r="AC907" s="15"/>
     </row>
     <row r="908" spans="17:29">
-      <c r="Q908" s="20"/>
-      <c r="R908" s="20"/>
-      <c r="S908" s="20"/>
-      <c r="T908" s="20"/>
-      <c r="U908" s="20"/>
-      <c r="V908" s="20"/>
+      <c r="Q908" s="15"/>
+      <c r="R908" s="15"/>
+      <c r="S908" s="15"/>
+      <c r="T908" s="15"/>
+      <c r="U908" s="15"/>
+      <c r="V908" s="15"/>
       <c r="W908" s="15"/>
       <c r="X908" s="15"/>
       <c r="Y908" s="15"/>
@@ -31640,12 +31710,12 @@
       <c r="AC917" s="15"/>
     </row>
     <row r="918" spans="17:29">
-      <c r="Q918" s="15"/>
-      <c r="R918" s="15"/>
-      <c r="S918" s="15"/>
-      <c r="T918" s="15"/>
-      <c r="U918" s="15"/>
-      <c r="V918" s="15"/>
+      <c r="Q918" s="20"/>
+      <c r="R918" s="20"/>
+      <c r="S918" s="20"/>
+      <c r="T918" s="20"/>
+      <c r="U918" s="20"/>
+      <c r="V918" s="20"/>
       <c r="W918" s="15"/>
       <c r="X918" s="15"/>
       <c r="Y918" s="15"/>
@@ -31655,12 +31725,12 @@
       <c r="AC918" s="15"/>
     </row>
     <row r="919" spans="17:29">
-      <c r="Q919" s="20"/>
-      <c r="R919" s="20"/>
-      <c r="S919" s="20"/>
-      <c r="T919" s="20"/>
-      <c r="U919" s="20"/>
-      <c r="V919" s="20"/>
+      <c r="Q919" s="15"/>
+      <c r="R919" s="15"/>
+      <c r="S919" s="15"/>
+      <c r="T919" s="15"/>
+      <c r="U919" s="15"/>
+      <c r="V919" s="15"/>
       <c r="W919" s="15"/>
       <c r="X919" s="15"/>
       <c r="Y919" s="15"/>
@@ -31745,12 +31815,12 @@
       <c r="AC924" s="15"/>
     </row>
     <row r="925" spans="17:29">
-      <c r="Q925" s="15"/>
-      <c r="R925" s="15"/>
-      <c r="S925" s="15"/>
-      <c r="T925" s="15"/>
-      <c r="U925" s="15"/>
-      <c r="V925" s="15"/>
+      <c r="Q925" s="20"/>
+      <c r="R925" s="20"/>
+      <c r="S925" s="20"/>
+      <c r="T925" s="20"/>
+      <c r="U925" s="20"/>
+      <c r="V925" s="20"/>
       <c r="W925" s="15"/>
       <c r="X925" s="15"/>
       <c r="Y925" s="15"/>
@@ -31790,12 +31860,12 @@
       <c r="AC927" s="15"/>
     </row>
     <row r="928" spans="17:29">
-      <c r="Q928" s="20"/>
-      <c r="R928" s="20"/>
-      <c r="S928" s="20"/>
-      <c r="T928" s="20"/>
-      <c r="U928" s="20"/>
-      <c r="V928" s="20"/>
+      <c r="Q928" s="15"/>
+      <c r="R928" s="15"/>
+      <c r="S928" s="15"/>
+      <c r="T928" s="15"/>
+      <c r="U928" s="15"/>
+      <c r="V928" s="15"/>
       <c r="W928" s="15"/>
       <c r="X928" s="15"/>
       <c r="Y928" s="15"/>
@@ -31865,12 +31935,12 @@
       <c r="AC932" s="15"/>
     </row>
     <row r="933" spans="17:29">
-      <c r="Q933" s="15"/>
-      <c r="R933" s="15"/>
-      <c r="S933" s="15"/>
-      <c r="T933" s="15"/>
-      <c r="U933" s="15"/>
-      <c r="V933" s="15"/>
+      <c r="Q933" s="20"/>
+      <c r="R933" s="20"/>
+      <c r="S933" s="20"/>
+      <c r="T933" s="20"/>
+      <c r="U933" s="20"/>
+      <c r="V933" s="20"/>
       <c r="W933" s="15"/>
       <c r="X933" s="15"/>
       <c r="Y933" s="15"/>
@@ -31880,12 +31950,12 @@
       <c r="AC933" s="15"/>
     </row>
     <row r="934" spans="17:29">
-      <c r="Q934" s="20"/>
-      <c r="R934" s="20"/>
-      <c r="S934" s="20"/>
-      <c r="T934" s="20"/>
-      <c r="U934" s="20"/>
-      <c r="V934" s="20"/>
+      <c r="Q934" s="15"/>
+      <c r="R934" s="15"/>
+      <c r="S934" s="15"/>
+      <c r="T934" s="15"/>
+      <c r="U934" s="15"/>
+      <c r="V934" s="15"/>
       <c r="W934" s="15"/>
       <c r="X934" s="15"/>
       <c r="Y934" s="15"/>
@@ -31940,12 +32010,12 @@
       <c r="AC937" s="15"/>
     </row>
     <row r="938" spans="17:29">
-      <c r="Q938" s="15"/>
-      <c r="R938" s="15"/>
-      <c r="S938" s="15"/>
-      <c r="T938" s="15"/>
-      <c r="U938" s="15"/>
-      <c r="V938" s="15"/>
+      <c r="Q938" s="20"/>
+      <c r="R938" s="20"/>
+      <c r="S938" s="20"/>
+      <c r="T938" s="20"/>
+      <c r="U938" s="20"/>
+      <c r="V938" s="20"/>
       <c r="W938" s="15"/>
       <c r="X938" s="15"/>
       <c r="Y938" s="15"/>
@@ -31970,12 +32040,12 @@
       <c r="AC939" s="15"/>
     </row>
     <row r="940" spans="17:29">
-      <c r="Q940" s="20"/>
-      <c r="R940" s="20"/>
-      <c r="S940" s="20"/>
-      <c r="T940" s="20"/>
-      <c r="U940" s="20"/>
-      <c r="V940" s="20"/>
+      <c r="Q940" s="15"/>
+      <c r="R940" s="15"/>
+      <c r="S940" s="15"/>
+      <c r="T940" s="15"/>
+      <c r="U940" s="15"/>
+      <c r="V940" s="15"/>
       <c r="W940" s="15"/>
       <c r="X940" s="15"/>
       <c r="Y940" s="15"/>
@@ -32060,12 +32130,12 @@
       <c r="AC945" s="15"/>
     </row>
     <row r="946" spans="17:29">
-      <c r="Q946" s="15"/>
-      <c r="R946" s="15"/>
-      <c r="S946" s="15"/>
-      <c r="T946" s="15"/>
-      <c r="U946" s="15"/>
-      <c r="V946" s="15"/>
+      <c r="Q946" s="20"/>
+      <c r="R946" s="20"/>
+      <c r="S946" s="20"/>
+      <c r="T946" s="20"/>
+      <c r="U946" s="20"/>
+      <c r="V946" s="20"/>
       <c r="W946" s="15"/>
       <c r="X946" s="15"/>
       <c r="Y946" s="15"/>
@@ -32120,12 +32190,12 @@
       <c r="AC949" s="15"/>
     </row>
     <row r="950" spans="17:29">
-      <c r="Q950" s="20"/>
-      <c r="R950" s="20"/>
-      <c r="S950" s="20"/>
-      <c r="T950" s="20"/>
-      <c r="U950" s="20"/>
-      <c r="V950" s="20"/>
+      <c r="Q950" s="15"/>
+      <c r="R950" s="15"/>
+      <c r="S950" s="15"/>
+      <c r="T950" s="15"/>
+      <c r="U950" s="15"/>
+      <c r="V950" s="15"/>
       <c r="W950" s="15"/>
       <c r="X950" s="15"/>
       <c r="Y950" s="15"/>
@@ -32135,12 +32205,12 @@
       <c r="AC950" s="15"/>
     </row>
     <row r="951" spans="17:29">
-      <c r="Q951" s="15"/>
-      <c r="R951" s="15"/>
-      <c r="S951" s="15"/>
-      <c r="T951" s="15"/>
-      <c r="U951" s="15"/>
-      <c r="V951" s="15"/>
+      <c r="Q951" s="20"/>
+      <c r="R951" s="20"/>
+      <c r="S951" s="20"/>
+      <c r="T951" s="20"/>
+      <c r="U951" s="20"/>
+      <c r="V951" s="20"/>
       <c r="W951" s="15"/>
       <c r="X951" s="15"/>
       <c r="Y951" s="15"/>
@@ -32195,12 +32265,12 @@
       <c r="AC954" s="15"/>
     </row>
     <row r="955" spans="17:29">
-      <c r="Q955" s="20"/>
-      <c r="R955" s="20"/>
-      <c r="S955" s="20"/>
-      <c r="T955" s="20"/>
-      <c r="U955" s="20"/>
-      <c r="V955" s="20"/>
+      <c r="Q955" s="15"/>
+      <c r="R955" s="15"/>
+      <c r="S955" s="15"/>
+      <c r="T955" s="15"/>
+      <c r="U955" s="15"/>
+      <c r="V955" s="15"/>
       <c r="W955" s="15"/>
       <c r="X955" s="15"/>
       <c r="Y955" s="15"/>
@@ -32210,12 +32280,12 @@
       <c r="AC955" s="15"/>
     </row>
     <row r="956" spans="17:29">
-      <c r="Q956" s="15"/>
-      <c r="R956" s="15"/>
-      <c r="S956" s="15"/>
-      <c r="T956" s="15"/>
-      <c r="U956" s="15"/>
-      <c r="V956" s="15"/>
+      <c r="Q956" s="20"/>
+      <c r="R956" s="20"/>
+      <c r="S956" s="20"/>
+      <c r="T956" s="20"/>
+      <c r="U956" s="20"/>
+      <c r="V956" s="20"/>
       <c r="W956" s="15"/>
       <c r="X956" s="15"/>
       <c r="Y956" s="15"/>
@@ -32270,12 +32340,12 @@
       <c r="AC959" s="15"/>
     </row>
     <row r="960" spans="17:29">
-      <c r="Q960" s="20"/>
-      <c r="R960" s="20"/>
-      <c r="S960" s="20"/>
-      <c r="T960" s="20"/>
-      <c r="U960" s="20"/>
-      <c r="V960" s="20"/>
+      <c r="Q960" s="15"/>
+      <c r="R960" s="15"/>
+      <c r="S960" s="15"/>
+      <c r="T960" s="15"/>
+      <c r="U960" s="15"/>
+      <c r="V960" s="15"/>
       <c r="W960" s="15"/>
       <c r="X960" s="15"/>
       <c r="Y960" s="15"/>
@@ -32480,22 +32550,7 @@
       <c r="AC973" s="15"/>
     </row>
     <row r="974" spans="17:29">
-      <c r="Q974" s="15"/>
-      <c r="R974" s="15"/>
-      <c r="S974" s="15"/>
-      <c r="T974" s="15"/>
-      <c r="U974" s="15"/>
-      <c r="V974" s="15"/>
-      <c r="W974" s="15"/>
-      <c r="X974" s="15"/>
-      <c r="Y974" s="15"/>
-      <c r="Z974" s="15"/>
       <c r="AA974" s="15"/>
-      <c r="AB974" s="15"/>
-      <c r="AC974" s="15"/>
-    </row>
-    <row r="975" spans="17:29">
-      <c r="AA975" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32506,10 +32561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO216"/>
+  <dimension ref="A1:AO217"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -35628,16 +35683,23 @@
       </c>
     </row>
     <row r="150" spans="1:20">
-      <c r="A150" s="10"/>
+      <c r="A150" s="11">
+        <v>2</v>
+      </c>
       <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
+      <c r="C150" s="11">
+        <v>2</v>
+      </c>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="10"/>
+      <c r="H150" s="9">
+        <v>1</v>
+      </c>
+      <c r="J150" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="10"/>
@@ -35655,7 +35717,6 @@
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="10"/>
@@ -35664,7 +35725,6 @@
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="10"/>
@@ -35863,7 +35923,6 @@
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
       <c r="F178" s="10"/>
     </row>
     <row r="179" spans="1:6">
@@ -35938,12 +35997,14 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="F189" s="10"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="F190" s="10"/>
@@ -35988,25 +36049,23 @@
       <c r="A197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
-      <c r="F197" s="10"/>
+      <c r="F197" s="18"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
-      <c r="F198" s="10"/>
+      <c r="F198" s="18"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
-      <c r="F199" s="18"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="F200" s="18"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="10"/>
@@ -36026,6 +36085,7 @@
     <row r="204" spans="1:6">
       <c r="A204" s="10"/>
       <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="10"/>
@@ -36067,6 +36127,9 @@
     </row>
     <row r="216" spans="1:3">
       <c r="C216" s="10"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="C217" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36079,8 +36142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39383,6 +39446,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1">
+        <v>1</v>
+      </c>
+      <c r="H150" s="1">
+        <v>2</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1">
+        <v>1</v>
+      </c>
+      <c r="N150" s="1">
+        <v>1</v>
+      </c>
+      <c r="O150" s="1">
+        <v>2</v>
+      </c>
+      <c r="P150" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>6</v>
+      </c>
+      <c r="R150" s="1">
+        <v>8</v>
+      </c>
+      <c r="S150" s="1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="155" spans="1:19">
       <c r="S155" s="22"/>
     </row>
@@ -39467,10 +39577,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN150"/>
+  <dimension ref="A100:AN151"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41910,9 +42020,44 @@
       </c>
     </row>
     <row r="150" spans="1:19">
+      <c r="A150" s="9">
+        <v>1</v>
+      </c>
       <c r="B150" s="10"/>
-      <c r="F150" s="10"/>
+      <c r="E150" s="11">
+        <v>2</v>
+      </c>
+      <c r="F150" s="11">
+        <v>2</v>
+      </c>
       <c r="H150" s="10"/>
+      <c r="I150" s="9">
+        <v>1</v>
+      </c>
+      <c r="L150" s="16">
+        <v>1</v>
+      </c>
+      <c r="M150" s="16">
+        <v>5</v>
+      </c>
+      <c r="N150" s="16">
+        <v>5</v>
+      </c>
+      <c r="O150" s="16">
+        <v>6</v>
+      </c>
+      <c r="P150" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q150" s="16">
+        <v>9</v>
+      </c>
+      <c r="S150" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="F151" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -41926,7 +42071,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42049,7 +42194,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -42231,10 +42376,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -42270,7 +42415,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
@@ -42295,6 +42440,9 @@
       <c r="I8" s="18">
         <v>21</v>
       </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
       <c r="K8" s="18">
         <v>2</v>
       </c>
@@ -42316,7 +42464,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -42325,7 +42473,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
@@ -42337,13 +42485,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -42363,7 +42511,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -42377,7 +42525,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -42391,19 +42539,19 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="18">
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -42411,7 +42559,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -42421,7 +42569,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA76" sqref="AA76"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5379,7 +5387,7 @@
         <v>7</v>
       </c>
       <c r="P45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="7">
         <v>0</v>
@@ -5758,7 +5766,9 @@
       <c r="I49" s="7">
         <v>2</v>
       </c>
-      <c r="J49" s="7"/>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
       <c r="K49" s="7">
         <v>2</v>
       </c>
@@ -5954,7 +5964,7 @@
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" s="7">
         <v>2</v>
@@ -6163,7 +6173,7 @@
         <v>6</v>
       </c>
       <c r="R53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S53" s="7">
         <v>1</v>
@@ -6172,13 +6182,13 @@
         <v>4</v>
       </c>
       <c r="U53" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V53" s="7">
         <v>0</v>
       </c>
       <c r="W53" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X53" s="7">
         <v>1</v>
@@ -6199,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE53" s="7">
         <v>5</v>
@@ -6207,11 +6217,13 @@
       <c r="AF53" s="7">
         <v>1</v>
       </c>
-      <c r="AG53" s="7"/>
+      <c r="AG53" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:33" s="28" customFormat="1">
       <c r="A54" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="7">
         <v>5</v>
@@ -6315,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" s="7">
         <v>13</v>
@@ -6329,7 +6341,7 @@
         <v>3</v>
       </c>
       <c r="N55" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O55" s="7">
         <v>2</v>
@@ -6370,7 +6382,7 @@
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF55" s="7">
         <v>23</v>
@@ -6382,7 +6394,9 @@
       <c r="B56" s="7">
         <v>0</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
       <c r="D56" s="7">
         <v>0</v>
       </c>
@@ -6420,7 +6434,7 @@
         <v>6</v>
       </c>
       <c r="T56" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="7">
@@ -6443,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
@@ -6471,7 +6485,9 @@
         <v>4</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7">
         <v>1</v>
@@ -6569,13 +6585,13 @@
         <v>17</v>
       </c>
       <c r="Y58" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58" s="7">
         <v>16</v>
       </c>
       <c r="AA58" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB58" s="7">
         <v>2</v>
@@ -6584,7 +6600,7 @@
       <c r="AD58" s="28"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG58" s="7"/>
     </row>
@@ -6618,6 +6634,9 @@
       <c r="Q59" s="7">
         <v>2</v>
       </c>
+      <c r="S59" s="7">
+        <v>0</v>
+      </c>
       <c r="V59" s="7">
         <v>4</v>
       </c>
@@ -6648,7 +6667,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L60" s="7">
         <v>3</v>
@@ -6690,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="26"/>
@@ -6698,7 +6717,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6737,7 +6756,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6758,7 +6777,7 @@
       </c>
       <c r="N62" s="26"/>
       <c r="O62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="26"/>
       <c r="Q62" s="7">
@@ -6773,7 +6792,7 @@
       </c>
       <c r="W62" s="7"/>
       <c r="X62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7">
@@ -6827,7 +6846,9 @@
         <v>12</v>
       </c>
       <c r="AA63" s="26"/>
-      <c r="AB63" s="7"/>
+      <c r="AB63" s="7">
+        <v>0</v>
+      </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
@@ -6900,13 +6921,13 @@
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB65" s="7"/>
       <c r="AD65" s="7"/>
@@ -6954,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -6962,13 +6983,13 @@
       <c r="K67" s="3"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -6986,7 +7007,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="D68" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -7094,7 +7115,38 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="38"/>
     </row>
-    <row r="72" spans="1:33" s="45" customFormat="1"/>
+    <row r="72" spans="1:33" s="45" customFormat="1">
+      <c r="A72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y72" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z72" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC72" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE72" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="73" spans="1:33" s="43" customFormat="1"/>
     <row r="74" spans="1:33" s="47" customFormat="1"/>
     <row r="75" spans="1:33">
@@ -7687,8 +7739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT974"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y157" sqref="Y157"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M156" sqref="M156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -18535,7 +18587,7 @@
       <c r="U138" s="19">
         <v>0</v>
       </c>
-      <c r="V138" s="20">
+      <c r="V138" s="19">
         <v>12</v>
       </c>
       <c r="W138" s="20"/>
@@ -18554,7 +18606,9 @@
       <c r="AB138" s="22">
         <v>8</v>
       </c>
-      <c r="AC138" s="20"/>
+      <c r="AC138" s="19">
+        <v>12</v>
+      </c>
       <c r="AD138" s="20"/>
       <c r="AH138" s="1">
         <v>0</v>
@@ -18820,11 +18874,11 @@
         <v>16</v>
       </c>
       <c r="P141" s="22"/>
-      <c r="Q141" s="20">
+      <c r="Q141" s="19">
         <v>9</v>
       </c>
       <c r="R141" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S141" s="19">
         <v>2</v>
@@ -18851,7 +18905,9 @@
       <c r="AA141" s="19">
         <v>4</v>
       </c>
-      <c r="AB141" s="20"/>
+      <c r="AB141" s="19">
+        <v>9</v>
+      </c>
       <c r="AC141" s="20"/>
       <c r="AD141" s="20"/>
       <c r="AF141" s="41"/>
@@ -19027,7 +19083,7 @@
         <v>5</v>
       </c>
       <c r="S143" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T143" s="19">
         <v>4</v>
@@ -19121,10 +19177,10 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R144" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S144" s="19">
         <v>3</v>
@@ -19133,10 +19189,10 @@
         <v>2</v>
       </c>
       <c r="U144" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V144" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W144" s="20"/>
       <c r="X144" s="22">
@@ -19214,20 +19270,20 @@
       <c r="Q145" s="19">
         <v>2</v>
       </c>
-      <c r="R145" s="20">
+      <c r="R145" s="19">
         <v>5</v>
       </c>
       <c r="S145" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T145" s="19">
         <v>1</v>
       </c>
       <c r="U145" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V145" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W145" s="20"/>
       <c r="X145" s="22">
@@ -19236,7 +19292,9 @@
       <c r="Y145" s="19">
         <v>2</v>
       </c>
-      <c r="Z145" s="20"/>
+      <c r="Z145" s="19">
+        <v>5</v>
+      </c>
       <c r="AA145" s="20"/>
       <c r="AB145" s="20"/>
       <c r="AC145" s="20"/>
@@ -19306,10 +19364,10 @@
       </c>
       <c r="P146" s="22"/>
       <c r="Q146" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R146" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S146" s="19">
         <v>2</v>
@@ -19320,7 +19378,7 @@
       <c r="U146" s="19">
         <v>2</v>
       </c>
-      <c r="V146" s="20">
+      <c r="V146" s="19">
         <v>4</v>
       </c>
       <c r="W146" s="20"/>
@@ -19333,7 +19391,9 @@
       <c r="Z146" s="19">
         <v>2</v>
       </c>
-      <c r="AA146" s="20"/>
+      <c r="AA146" s="19">
+        <v>4</v>
+      </c>
       <c r="AB146" s="20"/>
       <c r="AC146" s="20"/>
       <c r="AD146" s="20"/>
@@ -19402,7 +19462,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19413,7 +19473,7 @@
       <c r="T147" s="19">
         <v>0</v>
       </c>
-      <c r="U147" s="20">
+      <c r="U147" s="19">
         <v>3</v>
       </c>
       <c r="V147" s="19">
@@ -19432,7 +19492,9 @@
       <c r="AA147" s="19">
         <v>2</v>
       </c>
-      <c r="AB147" s="20"/>
+      <c r="AB147" s="19">
+        <v>3</v>
+      </c>
       <c r="AC147" s="20"/>
       <c r="AD147" s="20"/>
       <c r="AF147" s="41"/>
@@ -19503,24 +19565,24 @@
       </c>
       <c r="P148" s="22"/>
       <c r="Q148" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R148" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S148" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T148" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U148" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V148" s="20">
-        <v>2</v>
-      </c>
-      <c r="W148" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="W148" s="20"/>
       <c r="X148" s="20"/>
       <c r="Y148" s="20"/>
       <c r="Z148" s="20"/>
@@ -19592,11 +19654,11 @@
         <v>13</v>
       </c>
       <c r="P149" s="22"/>
-      <c r="Q149" s="20">
+      <c r="Q149" s="19">
         <v>1</v>
       </c>
       <c r="R149" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S149" s="19">
         <v>0</v>
@@ -19605,19 +19667,21 @@
         <v>0</v>
       </c>
       <c r="U149" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V149" s="20">
-        <v>1</v>
-      </c>
-      <c r="W149" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="W149" s="20"/>
       <c r="X149" s="19">
         <v>0</v>
       </c>
       <c r="Y149" s="19">
         <v>0</v>
       </c>
-      <c r="Z149" s="20"/>
+      <c r="Z149" s="19">
+        <v>1</v>
+      </c>
       <c r="AA149" s="20"/>
       <c r="AB149" s="20"/>
       <c r="AC149" s="20"/>
@@ -19687,22 +19751,22 @@
       </c>
       <c r="P150" s="22"/>
       <c r="Q150" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R150" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S150" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U150" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V150" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W150" s="20"/>
       <c r="X150" s="20"/>
@@ -19713,15 +19777,84 @@
       <c r="AC150" s="20"/>
       <c r="AD150" s="20"/>
       <c r="AF150" s="41"/>
+      <c r="AH150" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="21">
+        <v>2</v>
+      </c>
+      <c r="AJ150" s="21">
+        <v>7</v>
+      </c>
+      <c r="AK150" s="21">
+        <v>9</v>
+      </c>
+      <c r="AO150" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP150" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ150" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="151" spans="1:43" s="21" customFormat="1">
+      <c r="A151" s="21">
+        <v>9</v>
+      </c>
+      <c r="B151" s="21">
+        <v>1</v>
+      </c>
+      <c r="C151" s="21">
+        <v>5</v>
+      </c>
+      <c r="D151" s="21">
+        <v>3</v>
+      </c>
+      <c r="E151" s="21">
+        <v>12</v>
+      </c>
+      <c r="F151" s="21">
+        <v>4</v>
+      </c>
+      <c r="I151" s="21">
+        <v>1</v>
+      </c>
+      <c r="J151" s="21">
+        <v>3</v>
+      </c>
+      <c r="K151" s="21">
+        <v>4</v>
+      </c>
+      <c r="L151" s="21">
+        <v>5</v>
+      </c>
+      <c r="M151" s="21">
+        <v>9</v>
+      </c>
+      <c r="N151" s="21">
+        <v>12</v>
+      </c>
       <c r="P151" s="22"/>
-      <c r="Q151" s="20"/>
-      <c r="R151" s="20"/>
-      <c r="S151" s="20"/>
-      <c r="T151" s="20"/>
-      <c r="U151" s="20"/>
-      <c r="V151" s="20"/>
+      <c r="Q151" s="20">
+        <v>0</v>
+      </c>
+      <c r="R151" s="20">
+        <v>0</v>
+      </c>
+      <c r="S151" s="20">
+        <v>0</v>
+      </c>
+      <c r="T151" s="20">
+        <v>0</v>
+      </c>
+      <c r="U151" s="20">
+        <v>0</v>
+      </c>
+      <c r="V151" s="20">
+        <v>0</v>
+      </c>
       <c r="W151" s="20"/>
       <c r="X151" s="20"/>
       <c r="Y151" s="20"/>
@@ -19741,13 +19874,13 @@
       <c r="U152" s="20"/>
       <c r="V152" s="20"/>
       <c r="W152" s="20"/>
-      <c r="X152" s="15"/>
-      <c r="Y152" s="15"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
       <c r="Z152" s="20"/>
       <c r="AA152" s="20"/>
       <c r="AB152" s="20"/>
       <c r="AC152" s="20"/>
-      <c r="AD152" s="15"/>
+      <c r="AD152" s="20"/>
       <c r="AF152" s="41"/>
     </row>
     <row r="153" spans="1:43" s="21" customFormat="1">
@@ -19765,7 +19898,7 @@
       <c r="AA153" s="20"/>
       <c r="AB153" s="20"/>
       <c r="AC153" s="20"/>
-      <c r="AD153" s="15"/>
+      <c r="AD153" s="20"/>
       <c r="AF153" s="41"/>
     </row>
     <row r="154" spans="1:43" s="21" customFormat="1">
@@ -19795,17 +19928,17 @@
       <c r="U155" s="20"/>
       <c r="V155" s="20"/>
       <c r="W155" s="20"/>
-      <c r="X155" s="15"/>
-      <c r="Y155" s="15"/>
-      <c r="Z155" s="15"/>
-      <c r="AA155" s="15"/>
-      <c r="AB155" s="15"/>
-      <c r="AC155" s="15"/>
-      <c r="AD155" s="15"/>
-      <c r="AF155" s="41"/>
-    </row>
-    <row r="156" spans="1:43" s="21" customFormat="1">
-      <c r="P156" s="22"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="20"/>
+      <c r="AF155" s="23"/>
+    </row>
+    <row r="156" spans="1:43">
+      <c r="P156" s="18"/>
       <c r="Q156" s="20"/>
       <c r="R156" s="20"/>
       <c r="S156" s="20"/>
@@ -19819,8 +19952,7 @@
       <c r="AA156" s="20"/>
       <c r="AB156" s="20"/>
       <c r="AC156" s="20"/>
-      <c r="AD156" s="15"/>
-      <c r="AF156" s="41"/>
+      <c r="AD156" s="20"/>
     </row>
     <row r="157" spans="1:43" s="21" customFormat="1">
       <c r="P157" s="22"/>
@@ -19831,7 +19963,7 @@
       <c r="U157" s="20"/>
       <c r="V157" s="20"/>
       <c r="W157" s="20"/>
-      <c r="X157" s="15"/>
+      <c r="X157" s="20"/>
       <c r="Y157" s="20"/>
       <c r="Z157" s="20"/>
       <c r="AA157" s="20"/>
@@ -19849,13 +19981,13 @@
       <c r="U158" s="20"/>
       <c r="V158" s="20"/>
       <c r="W158" s="20"/>
-      <c r="X158" s="15"/>
-      <c r="Y158" s="15"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="20"/>
       <c r="Z158" s="20"/>
       <c r="AA158" s="20"/>
       <c r="AB158" s="20"/>
       <c r="AC158" s="20"/>
-      <c r="AD158" s="15"/>
+      <c r="AD158" s="20"/>
       <c r="AF158" s="41"/>
     </row>
     <row r="159" spans="1:43" s="21" customFormat="1">
@@ -19867,33 +19999,34 @@
       <c r="U159" s="20"/>
       <c r="V159" s="20"/>
       <c r="W159" s="20"/>
-      <c r="X159" s="20"/>
-      <c r="Y159" s="20"/>
-      <c r="Z159" s="20"/>
-      <c r="AA159" s="20"/>
-      <c r="AB159" s="20"/>
-      <c r="AC159" s="20"/>
-      <c r="AD159" s="20"/>
-      <c r="AF159" s="23"/>
-    </row>
-    <row r="160" spans="1:43">
-      <c r="P160" s="18"/>
+      <c r="X159" s="15"/>
+      <c r="Y159" s="15"/>
+      <c r="Z159" s="15"/>
+      <c r="AA159" s="15"/>
+      <c r="AB159" s="15"/>
+      <c r="AC159" s="15"/>
+      <c r="AD159" s="15"/>
+      <c r="AF159" s="41"/>
+    </row>
+    <row r="160" spans="1:43" s="21" customFormat="1">
+      <c r="P160" s="22"/>
       <c r="Q160" s="20"/>
       <c r="R160" s="20"/>
       <c r="S160" s="20"/>
       <c r="T160" s="20"/>
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
-      <c r="W160" s="15"/>
-      <c r="X160" s="20"/>
-      <c r="Y160" s="20"/>
-      <c r="Z160" s="20"/>
-      <c r="AA160" s="20"/>
-      <c r="AB160" s="20"/>
-      <c r="AC160" s="20"/>
-      <c r="AD160" s="20"/>
-    </row>
-    <row r="161" spans="16:32" s="21" customFormat="1">
+      <c r="W160" s="20"/>
+      <c r="X160" s="15"/>
+      <c r="Y160" s="15"/>
+      <c r="Z160" s="15"/>
+      <c r="AA160" s="15"/>
+      <c r="AB160" s="15"/>
+      <c r="AC160" s="15"/>
+      <c r="AD160" s="15"/>
+      <c r="AF160" s="41"/>
+    </row>
+    <row r="161" spans="9:32" s="21" customFormat="1">
       <c r="P161" s="22"/>
       <c r="Q161" s="20"/>
       <c r="R161" s="20"/>
@@ -19902,16 +20035,16 @@
       <c r="U161" s="20"/>
       <c r="V161" s="20"/>
       <c r="W161" s="20"/>
-      <c r="X161" s="20"/>
-      <c r="Y161" s="20"/>
-      <c r="Z161" s="20"/>
-      <c r="AA161" s="20"/>
-      <c r="AB161" s="20"/>
-      <c r="AC161" s="20"/>
+      <c r="X161" s="15"/>
+      <c r="Y161" s="15"/>
+      <c r="Z161" s="15"/>
+      <c r="AA161" s="15"/>
+      <c r="AB161" s="15"/>
+      <c r="AC161" s="15"/>
       <c r="AD161" s="15"/>
       <c r="AF161" s="41"/>
     </row>
-    <row r="162" spans="16:32" s="21" customFormat="1">
+    <row r="162" spans="9:32" s="21" customFormat="1">
       <c r="P162" s="22"/>
       <c r="Q162" s="20"/>
       <c r="R162" s="20"/>
@@ -19919,18 +20052,17 @@
       <c r="T162" s="20"/>
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
-      <c r="W162" s="20"/>
-      <c r="X162" s="20"/>
-      <c r="Y162" s="20"/>
-      <c r="Z162" s="20"/>
-      <c r="AA162" s="20"/>
-      <c r="AB162" s="20"/>
-      <c r="AC162" s="20"/>
-      <c r="AD162" s="20"/>
+      <c r="W162" s="15"/>
+      <c r="X162" s="15"/>
+      <c r="Y162" s="15"/>
+      <c r="Z162" s="15"/>
+      <c r="AA162" s="15"/>
+      <c r="AB162" s="15"/>
+      <c r="AC162" s="15"/>
+      <c r="AD162" s="15"/>
       <c r="AF162" s="41"/>
     </row>
-    <row r="163" spans="16:32" s="21" customFormat="1">
-      <c r="P163" s="22"/>
+    <row r="163" spans="9:32" s="21" customFormat="1">
       <c r="Q163" s="20"/>
       <c r="R163" s="20"/>
       <c r="S163" s="20"/>
@@ -19940,14 +20072,32 @@
       <c r="W163" s="20"/>
       <c r="X163" s="15"/>
       <c r="Y163" s="15"/>
-      <c r="Z163" s="15"/>
-      <c r="AA163" s="15"/>
-      <c r="AB163" s="15"/>
-      <c r="AC163" s="15"/>
+      <c r="Z163" s="20"/>
+      <c r="AA163" s="20"/>
+      <c r="AB163" s="20"/>
+      <c r="AC163" s="20"/>
       <c r="AD163" s="15"/>
       <c r="AF163" s="41"/>
     </row>
-    <row r="164" spans="16:32" s="21" customFormat="1">
+    <row r="164" spans="9:32" s="21" customFormat="1">
+      <c r="I164" s="21">
+        <v>0</v>
+      </c>
+      <c r="J164" s="21">
+        <v>1</v>
+      </c>
+      <c r="K164" s="21">
+        <v>1</v>
+      </c>
+      <c r="L164" s="21">
+        <v>2</v>
+      </c>
+      <c r="M164" s="21">
+        <v>4</v>
+      </c>
+      <c r="N164" s="21">
+        <v>5</v>
+      </c>
       <c r="P164" s="22"/>
       <c r="Q164" s="20"/>
       <c r="R164" s="20"/>
@@ -19955,17 +20105,35 @@
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
       <c r="V164" s="20"/>
-      <c r="W164" s="20"/>
-      <c r="X164" s="15"/>
-      <c r="Y164" s="15"/>
-      <c r="Z164" s="15"/>
-      <c r="AA164" s="15"/>
-      <c r="AB164" s="15"/>
-      <c r="AC164" s="15"/>
+      <c r="W164" s="15"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
       <c r="AD164" s="15"/>
       <c r="AF164" s="41"/>
     </row>
-    <row r="165" spans="16:32" s="21" customFormat="1">
+    <row r="165" spans="9:32" s="21" customFormat="1">
+      <c r="I165" s="21">
+        <v>1</v>
+      </c>
+      <c r="J165" s="21">
+        <v>1</v>
+      </c>
+      <c r="K165" s="21">
+        <v>2</v>
+      </c>
+      <c r="L165" s="21">
+        <v>4</v>
+      </c>
+      <c r="M165" s="21">
+        <v>5</v>
+      </c>
+      <c r="N165" s="21">
+        <v>9</v>
+      </c>
       <c r="P165" s="22"/>
       <c r="Q165" s="20"/>
       <c r="R165" s="20"/>
@@ -19974,16 +20142,16 @@
       <c r="U165" s="20"/>
       <c r="V165" s="20"/>
       <c r="W165" s="20"/>
-      <c r="X165" s="15"/>
-      <c r="Y165" s="15"/>
-      <c r="Z165" s="15"/>
-      <c r="AA165" s="15"/>
-      <c r="AB165" s="15"/>
-      <c r="AC165" s="15"/>
+      <c r="X165" s="20"/>
+      <c r="Y165" s="20"/>
+      <c r="Z165" s="20"/>
+      <c r="AA165" s="20"/>
+      <c r="AB165" s="20"/>
+      <c r="AC165" s="20"/>
       <c r="AD165" s="15"/>
       <c r="AF165" s="41"/>
     </row>
-    <row r="166" spans="16:32" s="21" customFormat="1">
+    <row r="166" spans="9:32" s="21" customFormat="1">
       <c r="P166" s="22"/>
       <c r="Q166" s="20"/>
       <c r="R166" s="20"/>
@@ -20001,7 +20169,26 @@
       <c r="AD166" s="15"/>
       <c r="AF166" s="41"/>
     </row>
-    <row r="167" spans="16:32" s="21" customFormat="1">
+    <row r="167" spans="9:32" s="21" customFormat="1">
+      <c r="I167" s="21">
+        <v>0</v>
+      </c>
+      <c r="J167" s="21">
+        <v>0</v>
+      </c>
+      <c r="K167" s="21">
+        <v>2</v>
+      </c>
+      <c r="L167" s="21">
+        <v>4</v>
+      </c>
+      <c r="M167" s="21">
+        <v>5</v>
+      </c>
+      <c r="N167" s="21">
+        <v>9</v>
+      </c>
+      <c r="P167" s="22"/>
       <c r="Q167" s="20"/>
       <c r="R167" s="20"/>
       <c r="S167" s="20"/>
@@ -20009,8 +20196,8 @@
       <c r="U167" s="20"/>
       <c r="V167" s="20"/>
       <c r="W167" s="20"/>
-      <c r="X167" s="15"/>
-      <c r="Y167" s="15"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
       <c r="Z167" s="20"/>
       <c r="AA167" s="20"/>
       <c r="AB167" s="20"/>
@@ -20018,7 +20205,7 @@
       <c r="AD167" s="15"/>
       <c r="AF167" s="41"/>
     </row>
-    <row r="168" spans="16:32" s="21" customFormat="1">
+    <row r="168" spans="9:32" s="21" customFormat="1">
       <c r="P168" s="22"/>
       <c r="Q168" s="20"/>
       <c r="R168" s="20"/>
@@ -20026,17 +20213,17 @@
       <c r="T168" s="20"/>
       <c r="U168" s="20"/>
       <c r="V168" s="20"/>
-      <c r="W168" s="15"/>
-      <c r="X168" s="15"/>
-      <c r="Y168" s="15"/>
-      <c r="Z168" s="15"/>
-      <c r="AA168" s="15"/>
-      <c r="AB168" s="15"/>
-      <c r="AC168" s="15"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
       <c r="AD168" s="15"/>
       <c r="AF168" s="41"/>
     </row>
-    <row r="169" spans="16:32" s="21" customFormat="1">
+    <row r="169" spans="9:32" s="21" customFormat="1">
       <c r="P169" s="22"/>
       <c r="Q169" s="20"/>
       <c r="R169" s="20"/>
@@ -20045,16 +20232,16 @@
       <c r="U169" s="20"/>
       <c r="V169" s="20"/>
       <c r="W169" s="20"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="20"/>
-      <c r="AB169" s="20"/>
-      <c r="AC169" s="20"/>
+      <c r="X169" s="15"/>
+      <c r="Y169" s="15"/>
+      <c r="Z169" s="15"/>
+      <c r="AA169" s="15"/>
+      <c r="AB169" s="15"/>
+      <c r="AC169" s="15"/>
       <c r="AD169" s="15"/>
       <c r="AF169" s="41"/>
     </row>
-    <row r="170" spans="16:32" s="21" customFormat="1">
+    <row r="170" spans="9:32" s="21" customFormat="1">
       <c r="P170" s="22"/>
       <c r="Q170" s="20"/>
       <c r="R170" s="20"/>
@@ -20062,25 +20249,24 @@
       <c r="T170" s="20"/>
       <c r="U170" s="20"/>
       <c r="V170" s="20"/>
-      <c r="W170" s="20"/>
-      <c r="X170" s="20"/>
-      <c r="Y170" s="20"/>
-      <c r="Z170" s="20"/>
-      <c r="AA170" s="20"/>
-      <c r="AB170" s="20"/>
-      <c r="AC170" s="20"/>
+      <c r="W170" s="15"/>
+      <c r="X170" s="15"/>
+      <c r="Y170" s="15"/>
+      <c r="Z170" s="15"/>
+      <c r="AA170" s="15"/>
+      <c r="AB170" s="15"/>
+      <c r="AC170" s="15"/>
       <c r="AD170" s="15"/>
       <c r="AF170" s="41"/>
     </row>
-    <row r="171" spans="16:32" s="21" customFormat="1">
-      <c r="P171" s="22"/>
+    <row r="171" spans="9:32" s="21" customFormat="1">
       <c r="Q171" s="20"/>
       <c r="R171" s="20"/>
       <c r="S171" s="20"/>
       <c r="T171" s="20"/>
       <c r="U171" s="20"/>
       <c r="V171" s="20"/>
-      <c r="W171" s="20"/>
+      <c r="W171" s="15"/>
       <c r="X171" s="15"/>
       <c r="Y171" s="15"/>
       <c r="Z171" s="15"/>
@@ -20090,7 +20276,25 @@
       <c r="AD171" s="15"/>
       <c r="AF171" s="41"/>
     </row>
-    <row r="172" spans="16:32" s="21" customFormat="1">
+    <row r="172" spans="9:32" s="21" customFormat="1">
+      <c r="I172" s="21">
+        <v>0</v>
+      </c>
+      <c r="J172" s="21">
+        <v>0</v>
+      </c>
+      <c r="K172" s="21">
+        <v>3</v>
+      </c>
+      <c r="L172" s="21">
+        <v>5</v>
+      </c>
+      <c r="M172" s="21">
+        <v>5</v>
+      </c>
+      <c r="N172" s="21">
+        <v>7</v>
+      </c>
       <c r="P172" s="22"/>
       <c r="Q172" s="20"/>
       <c r="R172" s="20"/>
@@ -20098,17 +20302,18 @@
       <c r="T172" s="20"/>
       <c r="U172" s="20"/>
       <c r="V172" s="20"/>
-      <c r="W172" s="15"/>
+      <c r="W172" s="20"/>
       <c r="X172" s="15"/>
       <c r="Y172" s="15"/>
-      <c r="Z172" s="15"/>
-      <c r="AA172" s="15"/>
-      <c r="AB172" s="15"/>
-      <c r="AC172" s="15"/>
+      <c r="Z172" s="20"/>
+      <c r="AA172" s="20"/>
+      <c r="AB172" s="20"/>
+      <c r="AC172" s="20"/>
       <c r="AD172" s="15"/>
       <c r="AF172" s="41"/>
     </row>
-    <row r="173" spans="16:32" s="21" customFormat="1">
+    <row r="173" spans="9:32" s="21" customFormat="1">
+      <c r="P173" s="22"/>
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
       <c r="S173" s="20"/>
@@ -20125,7 +20330,25 @@
       <c r="AD173" s="15"/>
       <c r="AF173" s="41"/>
     </row>
-    <row r="174" spans="16:32" s="21" customFormat="1">
+    <row r="174" spans="9:32" s="21" customFormat="1">
+      <c r="I174" s="21">
+        <v>0</v>
+      </c>
+      <c r="J174" s="21">
+        <v>0</v>
+      </c>
+      <c r="K174" s="21">
+        <v>3</v>
+      </c>
+      <c r="L174" s="21">
+        <v>5</v>
+      </c>
+      <c r="M174" s="21">
+        <v>5</v>
+      </c>
+      <c r="N174" s="21">
+        <v>6</v>
+      </c>
       <c r="P174" s="22"/>
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
@@ -20133,17 +20356,17 @@
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
       <c r="V174" s="20"/>
-      <c r="W174" s="15"/>
-      <c r="X174" s="15"/>
-      <c r="Y174" s="15"/>
-      <c r="Z174" s="15"/>
-      <c r="AA174" s="15"/>
-      <c r="AB174" s="15"/>
-      <c r="AC174" s="15"/>
-      <c r="AD174" s="15"/>
+      <c r="W174" s="20"/>
+      <c r="X174" s="20"/>
+      <c r="Y174" s="20"/>
+      <c r="Z174" s="20"/>
+      <c r="AA174" s="20"/>
+      <c r="AB174" s="20"/>
+      <c r="AC174" s="20"/>
+      <c r="AD174" s="20"/>
       <c r="AF174" s="41"/>
     </row>
-    <row r="175" spans="16:32" s="21" customFormat="1">
+    <row r="175" spans="9:32" s="21" customFormat="1">
       <c r="P175" s="22"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
@@ -20161,7 +20384,7 @@
       <c r="AD175" s="15"/>
       <c r="AF175" s="41"/>
     </row>
-    <row r="176" spans="16:32" s="21" customFormat="1">
+    <row r="176" spans="9:32" s="21" customFormat="1">
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
       <c r="S176" s="20"/>
@@ -32561,10 +32784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO217"/>
+  <dimension ref="A1:AO218"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K153" sqref="K153"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -35703,12 +35926,27 @@
     </row>
     <row r="151" spans="1:20">
       <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
+      <c r="B151" s="9">
+        <v>1</v>
+      </c>
       <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
+      <c r="D151" s="9">
+        <v>1</v>
+      </c>
+      <c r="E151" s="9">
+        <v>1</v>
+      </c>
+      <c r="F151" s="9">
+        <v>1</v>
+      </c>
       <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="J151" s="9">
+        <v>1</v>
+      </c>
+      <c r="M151" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:20">
       <c r="A152" s="10"/>
@@ -35717,6 +35955,10 @@
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="M152" s="10"/>
     </row>
     <row r="153" spans="1:20">
       <c r="A153" s="10"/>
@@ -35725,6 +35967,7 @@
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="10"/>
@@ -35923,6 +36166,7 @@
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
       <c r="F178" s="10"/>
     </row>
     <row r="179" spans="1:6">
@@ -35930,6 +36174,7 @@
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
       <c r="F179" s="10"/>
     </row>
     <row r="180" spans="1:6">
@@ -36011,18 +36256,21 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="F191" s="10"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="F192" s="10"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="F193" s="10"/>
@@ -36049,23 +36297,25 @@
       <c r="A197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
-      <c r="F197" s="18"/>
+      <c r="F197" s="10"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
-      <c r="F198" s="18"/>
+      <c r="F198" s="10"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
+      <c r="F199" s="18"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
+      <c r="F200" s="18"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="10"/>
@@ -36090,30 +36340,37 @@
     <row r="205" spans="1:6">
       <c r="A205" s="10"/>
       <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="10"/>
       <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="10"/>
       <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="10"/>
       <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="10"/>
       <c r="C209" s="10"/>
     </row>
     <row r="210" spans="1:3">
+      <c r="A210" s="10"/>
       <c r="C210" s="10"/>
     </row>
     <row r="211" spans="1:3">
+      <c r="A211" s="10"/>
       <c r="C211" s="10"/>
     </row>
     <row r="212" spans="1:3">
+      <c r="A212" s="10"/>
       <c r="C212" s="10"/>
     </row>
     <row r="213" spans="1:3">
@@ -36130,6 +36387,9 @@
     </row>
     <row r="217" spans="1:3">
       <c r="C217" s="10"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="C218" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36142,8 +36402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39030,7 +39290,7 @@
       <c r="B141" s="1">
         <v>1</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="15">
         <v>4</v>
       </c>
       <c r="F141" s="1">
@@ -39077,7 +39337,7 @@
       <c r="B142" s="1">
         <v>1</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="15">
         <v>5</v>
       </c>
       <c r="F142" s="1">
@@ -39124,7 +39384,7 @@
       <c r="B143" s="1">
         <v>1</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="15">
         <v>3</v>
       </c>
       <c r="F143" s="1">
@@ -39171,7 +39431,7 @@
       <c r="B144" s="1">
         <v>2</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="15">
         <v>2</v>
       </c>
       <c r="F144" s="1">
@@ -39491,6 +39751,53 @@
       </c>
       <c r="S150" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="1">
+        <v>0</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5</v>
+      </c>
+      <c r="F151" s="1">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1">
+        <v>2</v>
+      </c>
+      <c r="N151" s="1">
+        <v>2</v>
+      </c>
+      <c r="O151" s="1">
+        <v>10</v>
+      </c>
+      <c r="P151" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>13</v>
+      </c>
+      <c r="R151" s="1">
+        <v>15</v>
+      </c>
+      <c r="S151" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -39577,10 +39884,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A100:AN151"/>
+  <dimension ref="A100:AN152"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="L158" sqref="L158"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="U157" sqref="U157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41091,7 +41398,7 @@
       <c r="J126" s="9">
         <v>1</v>
       </c>
-      <c r="L126" s="16">
+      <c r="L126" s="15">
         <v>0</v>
       </c>
       <c r="M126" s="16">
@@ -41129,7 +41436,7 @@
       <c r="J127" s="9">
         <v>1</v>
       </c>
-      <c r="L127" s="16">
+      <c r="L127" s="15">
         <v>0</v>
       </c>
       <c r="M127" s="16">
@@ -41171,7 +41478,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="10"/>
-      <c r="L128" s="16">
+      <c r="L128" s="15">
         <v>1</v>
       </c>
       <c r="M128" s="16">
@@ -41215,7 +41522,7 @@
       <c r="J129" s="9">
         <v>1</v>
       </c>
-      <c r="L129" s="16">
+      <c r="L129" s="15">
         <v>0</v>
       </c>
       <c r="M129" s="16">
@@ -41254,7 +41561,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="10"/>
-      <c r="L130" s="16">
+      <c r="L130" s="15">
         <v>1</v>
       </c>
       <c r="M130" s="16">
@@ -41297,7 +41604,7 @@
       <c r="I131" s="9">
         <v>1</v>
       </c>
-      <c r="L131" s="16">
+      <c r="L131" s="15">
         <v>2</v>
       </c>
       <c r="M131" s="16">
@@ -41312,7 +41619,7 @@
       <c r="P131" s="16">
         <v>7</v>
       </c>
-      <c r="Q131" s="16">
+      <c r="Q131" s="15">
         <v>9</v>
       </c>
       <c r="S131" s="16">
@@ -41357,7 +41664,7 @@
       <c r="P132" s="16">
         <v>5</v>
       </c>
-      <c r="Q132" s="16">
+      <c r="Q132" s="15">
         <v>7</v>
       </c>
       <c r="S132" s="16">
@@ -41398,7 +41705,7 @@
       <c r="P133" s="16">
         <v>7</v>
       </c>
-      <c r="Q133" s="16">
+      <c r="Q133" s="15">
         <v>9</v>
       </c>
       <c r="S133" s="16">
@@ -41439,7 +41746,7 @@
       <c r="P134" s="16">
         <v>9</v>
       </c>
-      <c r="Q134" s="16">
+      <c r="Q134" s="15">
         <v>9</v>
       </c>
       <c r="S134" s="16">
@@ -41481,7 +41788,7 @@
       <c r="P135" s="16">
         <v>9</v>
       </c>
-      <c r="Q135" s="16">
+      <c r="Q135" s="15">
         <v>9</v>
       </c>
       <c r="S135" s="16">
@@ -42057,7 +42364,46 @@
       </c>
     </row>
     <row r="151" spans="1:19">
+      <c r="A151" s="10"/>
+      <c r="C151" s="11">
+        <v>2</v>
+      </c>
+      <c r="E151" s="10"/>
       <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="9">
+        <v>1</v>
+      </c>
+      <c r="I151" s="11">
+        <v>2</v>
+      </c>
+      <c r="J151" s="9">
+        <v>1</v>
+      </c>
+      <c r="L151" s="16">
+        <v>0</v>
+      </c>
+      <c r="M151" s="16">
+        <v>3</v>
+      </c>
+      <c r="N151" s="16">
+        <v>3</v>
+      </c>
+      <c r="O151" s="16">
+        <v>8</v>
+      </c>
+      <c r="P151" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q151" s="16">
+        <v>9</v>
+      </c>
+      <c r="S151" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="F152" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -42070,8 +42416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42194,7 +42540,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -42376,10 +42722,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -42415,7 +42761,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
@@ -42441,7 +42787,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="18">
         <v>2</v>
@@ -42464,7 +42810,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="19">
         <v>0</v>
@@ -42473,7 +42819,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
@@ -42485,13 +42831,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -42511,7 +42857,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -42525,7 +42871,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -42539,7 +42885,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -42551,15 +42897,18 @@
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="F13" s="19">
         <v>13</v>
       </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
       <c r="K13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -42569,7 +42918,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -42583,7 +42932,7 @@
   <dimension ref="A2:AG24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/_back/cp/cp.xlsx
+++ b/_back/cp/cp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -416,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,6 +556,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -5479,7 +5488,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="7">
         <v>9</v>
@@ -5760,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" s="7">
         <v>2</v>
@@ -6053,7 +6062,9 @@
         <v>7</v>
       </c>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
       <c r="L52" s="7">
         <v>0</v>
       </c>
@@ -6175,13 +6186,13 @@
         <v>4</v>
       </c>
       <c r="U53" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V53" s="7">
         <v>0</v>
       </c>
       <c r="W53" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X53" s="7">
         <v>1</v>
@@ -6202,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE53" s="7">
         <v>5</v>
@@ -6216,7 +6227,7 @@
     </row>
     <row r="54" spans="1:33" s="27" customFormat="1">
       <c r="A54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="7">
         <v>5</v>
@@ -6299,7 +6310,9 @@
       <c r="AF54" s="7">
         <v>0</v>
       </c>
-      <c r="AG54" s="7"/>
+      <c r="AG54" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:33" s="27" customFormat="1">
       <c r="A55" s="7"/>
@@ -6345,7 +6358,9 @@
       <c r="Q55" s="7">
         <v>2</v>
       </c>
-      <c r="R55" s="7"/>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
       <c r="S55" s="7">
         <v>2</v>
       </c>
@@ -6377,7 +6392,7 @@
       </c>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF55" s="7">
         <v>23</v>
@@ -6390,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="7">
         <v>0</v>
@@ -6404,7 +6419,9 @@
       <c r="G56" s="7">
         <v>5</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
       <c r="I56" s="7">
         <v>1</v>
       </c>
@@ -6417,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="7">
         <v>2</v>
@@ -6431,7 +6448,7 @@
         <v>6</v>
       </c>
       <c r="T56" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="7">
@@ -6483,7 +6500,7 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7">
@@ -6526,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="AC57" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
@@ -6584,13 +6601,13 @@
         <v>17</v>
       </c>
       <c r="Y58" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z58" s="7">
         <v>16</v>
       </c>
       <c r="AA58" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB58" s="7">
         <v>2</v>
@@ -6599,7 +6616,7 @@
       <c r="AD58" s="27"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG58" s="7"/>
     </row>
@@ -6634,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="S59" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V59" s="7">
         <v>4</v>
@@ -6666,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L60" s="7">
         <v>3</v>
@@ -6716,7 +6733,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -6755,7 +6772,7 @@
     <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7">
@@ -6765,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -6778,7 +6795,7 @@
       </c>
       <c r="N62" s="25"/>
       <c r="O62" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62" s="25"/>
       <c r="Q62" s="7">
@@ -6793,7 +6810,7 @@
       </c>
       <c r="W62" s="7"/>
       <c r="X62" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7">
@@ -6889,7 +6906,9 @@
       <c r="Z64" s="4">
         <v>0</v>
       </c>
-      <c r="AB64" s="12"/>
+      <c r="AB64" s="14">
+        <v>0</v>
+      </c>
       <c r="AD64" s="4"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
@@ -6922,13 +6941,13 @@
       <c r="T65" s="3"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB65" s="7"/>
       <c r="AD65" s="7"/>
@@ -6976,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="4"/>
@@ -6990,7 +7009,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
@@ -7016,7 +7035,9 @@
       <c r="I68" s="4"/>
       <c r="K68" s="3"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="Q68" s="37"/>
@@ -7036,7 +7057,7 @@
     </row>
     <row r="69" spans="1:33">
       <c r="D69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -7711,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT974"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
@@ -17969,10 +17990,10 @@
       <c r="AA132" s="22">
         <v>4</v>
       </c>
-      <c r="AB132" s="19">
+      <c r="AB132" s="22">
         <v>6</v>
       </c>
-      <c r="AC132" s="19">
+      <c r="AC132" s="22">
         <v>9</v>
       </c>
       <c r="AD132" s="23"/>
@@ -18071,10 +18092,10 @@
       <c r="AA133" s="19">
         <v>5</v>
       </c>
-      <c r="AB133" s="19">
+      <c r="AB133" s="22">
         <v>6</v>
       </c>
-      <c r="AC133" s="19">
+      <c r="AC133" s="22">
         <v>6</v>
       </c>
       <c r="AD133" s="23"/>
@@ -18170,7 +18191,7 @@
       <c r="AB134" s="22">
         <v>2</v>
       </c>
-      <c r="AC134" s="19">
+      <c r="AC134" s="22">
         <v>5</v>
       </c>
       <c r="AD134" s="23"/>
@@ -18269,10 +18290,10 @@
       <c r="AA135" s="22">
         <v>5</v>
       </c>
-      <c r="AB135" s="19">
+      <c r="AB135" s="22">
         <v>6</v>
       </c>
-      <c r="AC135" s="19">
+      <c r="AC135" s="22">
         <v>13</v>
       </c>
       <c r="AD135" s="23"/>
@@ -18371,10 +18392,10 @@
       <c r="AA136" s="19">
         <v>6</v>
       </c>
-      <c r="AB136" s="19">
+      <c r="AB136" s="22">
         <v>8</v>
       </c>
-      <c r="AC136" s="19">
+      <c r="AC136" s="22">
         <v>12</v>
       </c>
       <c r="AD136" s="23"/>
@@ -18473,7 +18494,7 @@
       <c r="AA137" s="19">
         <v>6</v>
       </c>
-      <c r="AB137" s="19">
+      <c r="AB137" s="22">
         <v>7</v>
       </c>
       <c r="AC137" s="22">
@@ -18578,7 +18599,7 @@
       <c r="AB138" s="22">
         <v>8</v>
       </c>
-      <c r="AC138" s="19">
+      <c r="AC138" s="22">
         <v>12</v>
       </c>
       <c r="AD138" s="20"/>
@@ -18673,10 +18694,10 @@
       <c r="AA139" s="19">
         <v>3</v>
       </c>
-      <c r="AB139" s="19">
-        <v>4</v>
-      </c>
-      <c r="AC139" s="19">
+      <c r="AB139" s="22">
+        <v>4</v>
+      </c>
+      <c r="AC139" s="22">
         <v>6</v>
       </c>
       <c r="AD139" s="20"/>
@@ -18778,10 +18799,10 @@
       <c r="AA140" s="19">
         <v>2</v>
       </c>
-      <c r="AB140" s="19">
-        <v>4</v>
-      </c>
-      <c r="AC140" s="19">
+      <c r="AB140" s="22">
+        <v>4</v>
+      </c>
+      <c r="AC140" s="22">
         <v>9</v>
       </c>
       <c r="AD140" s="20"/>
@@ -18877,10 +18898,10 @@
       <c r="AA141" s="19">
         <v>4</v>
       </c>
-      <c r="AB141" s="19">
+      <c r="AB141" s="22">
         <v>9</v>
       </c>
-      <c r="AC141" s="19">
+      <c r="AC141" s="22">
         <v>10</v>
       </c>
       <c r="AD141" s="20"/>
@@ -18979,10 +19000,10 @@
       <c r="AA142" s="19">
         <v>5</v>
       </c>
-      <c r="AB142" s="19">
-        <v>5</v>
-      </c>
-      <c r="AC142" s="19">
+      <c r="AB142" s="22">
+        <v>5</v>
+      </c>
+      <c r="AC142" s="22">
         <v>7</v>
       </c>
       <c r="AD142" s="20"/>
@@ -19057,7 +19078,7 @@
         <v>5</v>
       </c>
       <c r="S143" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T143" s="19">
         <v>4</v>
@@ -19151,10 +19172,10 @@
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R144" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S144" s="19">
         <v>3</v>
@@ -19163,10 +19184,10 @@
         <v>2</v>
       </c>
       <c r="U144" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V144" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W144" s="20"/>
       <c r="X144" s="22">
@@ -19247,17 +19268,17 @@
       <c r="R145" s="19">
         <v>5</v>
       </c>
-      <c r="S145" s="20">
+      <c r="S145" s="62">
         <v>7</v>
       </c>
       <c r="T145" s="19">
         <v>1</v>
       </c>
       <c r="U145" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V145" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W145" s="20"/>
       <c r="X145" s="22">
@@ -19269,7 +19290,9 @@
       <c r="Z145" s="19">
         <v>5</v>
       </c>
-      <c r="AA145" s="20"/>
+      <c r="AA145" s="19">
+        <v>7</v>
+      </c>
       <c r="AB145" s="20"/>
       <c r="AC145" s="20"/>
       <c r="AD145" s="20"/>
@@ -19337,11 +19360,11 @@
         <v>15</v>
       </c>
       <c r="P146" s="22"/>
-      <c r="Q146" s="20">
+      <c r="Q146" s="62">
         <v>6</v>
       </c>
       <c r="R146" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S146" s="19">
         <v>2</v>
@@ -19368,7 +19391,9 @@
       <c r="AA146" s="19">
         <v>4</v>
       </c>
-      <c r="AB146" s="20"/>
+      <c r="AB146" s="19">
+        <v>6</v>
+      </c>
       <c r="AC146" s="20"/>
       <c r="AD146" s="20"/>
       <c r="AF146" s="40"/>
@@ -19436,7 +19461,7 @@
       </c>
       <c r="P147" s="22"/>
       <c r="Q147" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R147" s="19">
         <v>2</v>
@@ -19541,20 +19566,20 @@
       <c r="Q148" s="19">
         <v>3</v>
       </c>
-      <c r="R148" s="20">
+      <c r="R148" s="62">
         <v>4</v>
       </c>
       <c r="S148" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T148" s="19">
         <v>3</v>
       </c>
       <c r="U148" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V148" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W148" s="20"/>
       <c r="X148" s="19">
@@ -19563,7 +19588,9 @@
       <c r="Y148" s="19">
         <v>3</v>
       </c>
-      <c r="Z148" s="20"/>
+      <c r="Z148" s="19">
+        <v>4</v>
+      </c>
       <c r="AA148" s="20"/>
       <c r="AB148" s="20"/>
       <c r="AC148" s="20"/>
@@ -19645,10 +19672,10 @@
         <v>0</v>
       </c>
       <c r="U149" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V149" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W149" s="20"/>
       <c r="X149" s="19">
@@ -19731,19 +19758,19 @@
       </c>
       <c r="P150" s="22"/>
       <c r="Q150" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R150" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S150" s="19">
         <v>1</v>
       </c>
       <c r="T150" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U150" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V150" s="19">
         <v>1</v>
@@ -19822,26 +19849,30 @@
       </c>
       <c r="P151" s="22"/>
       <c r="Q151" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R151" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S151" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T151" s="20">
-        <v>1</v>
-      </c>
-      <c r="U151" s="20">
-        <v>1</v>
-      </c>
-      <c r="V151" s="20">
+        <v>2</v>
+      </c>
+      <c r="U151" s="62">
+        <v>1</v>
+      </c>
+      <c r="V151" s="62">
         <v>1</v>
       </c>
       <c r="W151" s="20"/>
-      <c r="X151" s="20"/>
-      <c r="Y151" s="20"/>
+      <c r="X151" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y151" s="19">
+        <v>1</v>
+      </c>
       <c r="Z151" s="20"/>
       <c r="AA151" s="20"/>
       <c r="AB151" s="20"/>
@@ -19915,31 +19946,33 @@
       </c>
       <c r="P152" s="22"/>
       <c r="Q152" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R152" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S152" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T152" s="20">
-        <v>0</v>
-      </c>
-      <c r="U152" s="20">
+        <v>1</v>
+      </c>
+      <c r="U152" s="62">
         <v>0</v>
       </c>
       <c r="V152" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W152" s="20"/>
-      <c r="X152" s="15"/>
-      <c r="Y152" s="15"/>
+      <c r="X152" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="20"/>
       <c r="Z152" s="20"/>
       <c r="AA152" s="20"/>
       <c r="AB152" s="20"/>
       <c r="AC152" s="20"/>
-      <c r="AD152" s="15"/>
+      <c r="AD152" s="20"/>
       <c r="AF152" s="40"/>
       <c r="AH152" s="21">
         <v>1</v>
@@ -19964,13 +19997,61 @@
       </c>
     </row>
     <row r="153" spans="1:43" s="21" customFormat="1">
+      <c r="A153" s="21">
+        <v>6</v>
+      </c>
+      <c r="B153" s="21">
+        <v>4</v>
+      </c>
+      <c r="C153" s="21">
+        <v>7</v>
+      </c>
+      <c r="D153" s="21">
+        <v>0</v>
+      </c>
+      <c r="E153" s="21">
+        <v>1</v>
+      </c>
+      <c r="F153" s="21">
+        <v>1</v>
+      </c>
+      <c r="I153" s="21">
+        <v>0</v>
+      </c>
+      <c r="J153" s="21">
+        <v>1</v>
+      </c>
+      <c r="K153" s="21">
+        <v>1</v>
+      </c>
+      <c r="L153" s="21">
+        <v>4</v>
+      </c>
+      <c r="M153" s="21">
+        <v>6</v>
+      </c>
+      <c r="N153" s="21">
+        <v>7</v>
+      </c>
       <c r="P153" s="22"/>
-      <c r="Q153" s="20"/>
-      <c r="R153" s="20"/>
-      <c r="S153" s="20"/>
-      <c r="T153" s="20"/>
-      <c r="U153" s="20"/>
-      <c r="V153" s="20"/>
+      <c r="Q153" s="20">
+        <v>0</v>
+      </c>
+      <c r="R153" s="20">
+        <v>0</v>
+      </c>
+      <c r="S153" s="20">
+        <v>0</v>
+      </c>
+      <c r="T153" s="20">
+        <v>0</v>
+      </c>
+      <c r="U153" s="20">
+        <v>0</v>
+      </c>
+      <c r="V153" s="20">
+        <v>0</v>
+      </c>
       <c r="W153" s="20"/>
       <c r="X153" s="20"/>
       <c r="Y153" s="20"/>
@@ -19979,17 +20060,17 @@
       <c r="AB153" s="20"/>
       <c r="AC153" s="20"/>
       <c r="AD153" s="20"/>
-      <c r="AF153" s="23"/>
-    </row>
-    <row r="154" spans="1:43">
-      <c r="P154" s="18"/>
+      <c r="AF153" s="40"/>
+    </row>
+    <row r="154" spans="1:43" s="21" customFormat="1">
+      <c r="P154" s="22"/>
       <c r="Q154" s="20"/>
       <c r="R154" s="20"/>
       <c r="S154" s="20"/>
       <c r="T154" s="20"/>
       <c r="U154" s="20"/>
       <c r="V154" s="20"/>
-      <c r="W154" s="15"/>
+      <c r="W154" s="20"/>
       <c r="X154" s="20"/>
       <c r="Y154" s="20"/>
       <c r="Z154" s="20"/>
@@ -19997,6 +20078,7 @@
       <c r="AB154" s="20"/>
       <c r="AC154" s="20"/>
       <c r="AD154" s="20"/>
+      <c r="AF154" s="40"/>
     </row>
     <row r="155" spans="1:43" s="21" customFormat="1">
       <c r="P155" s="22"/>
@@ -20007,12 +20089,12 @@
       <c r="U155" s="20"/>
       <c r="V155" s="20"/>
       <c r="W155" s="20"/>
-      <c r="X155" s="20"/>
-      <c r="Y155" s="20"/>
-      <c r="Z155" s="20"/>
-      <c r="AA155" s="20"/>
-      <c r="AB155" s="20"/>
-      <c r="AC155" s="20"/>
+      <c r="X155" s="15"/>
+      <c r="Y155" s="15"/>
+      <c r="Z155" s="15"/>
+      <c r="AA155" s="15"/>
+      <c r="AB155" s="15"/>
+      <c r="AC155" s="15"/>
       <c r="AD155" s="15"/>
       <c r="AF155" s="40"/>
     </row>
@@ -20025,13 +20107,13 @@
       <c r="U156" s="20"/>
       <c r="V156" s="20"/>
       <c r="W156" s="20"/>
-      <c r="X156" s="20"/>
-      <c r="Y156" s="20"/>
-      <c r="Z156" s="20"/>
-      <c r="AA156" s="20"/>
-      <c r="AB156" s="20"/>
-      <c r="AC156" s="20"/>
-      <c r="AD156" s="20"/>
+      <c r="X156" s="15"/>
+      <c r="Y156" s="15"/>
+      <c r="Z156" s="15"/>
+      <c r="AA156" s="15"/>
+      <c r="AB156" s="15"/>
+      <c r="AC156" s="15"/>
+      <c r="AD156" s="15"/>
       <c r="AF156" s="40"/>
     </row>
     <row r="157" spans="1:43" s="21" customFormat="1">
@@ -20060,7 +20142,7 @@
       <c r="T158" s="20"/>
       <c r="U158" s="20"/>
       <c r="V158" s="20"/>
-      <c r="W158" s="20"/>
+      <c r="W158" s="15"/>
       <c r="X158" s="15"/>
       <c r="Y158" s="15"/>
       <c r="Z158" s="15"/>
@@ -20071,7 +20153,6 @@
       <c r="AF158" s="40"/>
     </row>
     <row r="159" spans="1:43" s="21" customFormat="1">
-      <c r="P159" s="22"/>
       <c r="Q159" s="20"/>
       <c r="R159" s="20"/>
       <c r="S159" s="20"/>
@@ -20081,10 +20162,10 @@
       <c r="W159" s="20"/>
       <c r="X159" s="15"/>
       <c r="Y159" s="15"/>
-      <c r="Z159" s="15"/>
-      <c r="AA159" s="15"/>
-      <c r="AB159" s="15"/>
-      <c r="AC159" s="15"/>
+      <c r="Z159" s="20"/>
+      <c r="AA159" s="20"/>
+      <c r="AB159" s="20"/>
+      <c r="AC159" s="20"/>
       <c r="AD159" s="15"/>
       <c r="AF159" s="40"/>
     </row>
@@ -20097,16 +20178,17 @@
       <c r="U160" s="20"/>
       <c r="V160" s="20"/>
       <c r="W160" s="15"/>
-      <c r="X160" s="15"/>
-      <c r="Y160" s="15"/>
-      <c r="Z160" s="15"/>
-      <c r="AA160" s="15"/>
-      <c r="AB160" s="15"/>
-      <c r="AC160" s="15"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="20"/>
+      <c r="AA160" s="20"/>
+      <c r="AB160" s="20"/>
+      <c r="AC160" s="20"/>
       <c r="AD160" s="15"/>
       <c r="AF160" s="40"/>
     </row>
-    <row r="161" spans="9:32" s="21" customFormat="1">
+    <row r="161" spans="9:38" s="21" customFormat="1">
+      <c r="P161" s="22"/>
       <c r="Q161" s="20"/>
       <c r="R161" s="20"/>
       <c r="S161" s="20"/>
@@ -20114,8 +20196,8 @@
       <c r="U161" s="20"/>
       <c r="V161" s="20"/>
       <c r="W161" s="20"/>
-      <c r="X161" s="15"/>
-      <c r="Y161" s="15"/>
+      <c r="X161" s="20"/>
+      <c r="Y161" s="20"/>
       <c r="Z161" s="20"/>
       <c r="AA161" s="20"/>
       <c r="AB161" s="20"/>
@@ -20123,7 +20205,7 @@
       <c r="AD161" s="15"/>
       <c r="AF161" s="40"/>
     </row>
-    <row r="162" spans="9:32" s="21" customFormat="1">
+    <row r="162" spans="9:38" s="21" customFormat="1">
       <c r="P162" s="22"/>
       <c r="Q162" s="20"/>
       <c r="R162" s="20"/>
@@ -20132,16 +20214,16 @@
       <c r="U162" s="20"/>
       <c r="V162" s="20"/>
       <c r="W162" s="15"/>
-      <c r="X162" s="20"/>
-      <c r="Y162" s="20"/>
-      <c r="Z162" s="20"/>
-      <c r="AA162" s="20"/>
-      <c r="AB162" s="20"/>
-      <c r="AC162" s="20"/>
+      <c r="X162" s="15"/>
+      <c r="Y162" s="15"/>
+      <c r="Z162" s="15"/>
+      <c r="AA162" s="15"/>
+      <c r="AB162" s="15"/>
+      <c r="AC162" s="15"/>
       <c r="AD162" s="15"/>
       <c r="AF162" s="40"/>
     </row>
-    <row r="163" spans="9:32" s="21" customFormat="1">
+    <row r="163" spans="9:38" s="21" customFormat="1">
       <c r="P163" s="22"/>
       <c r="Q163" s="20"/>
       <c r="R163" s="20"/>
@@ -20159,7 +20241,7 @@
       <c r="AD163" s="15"/>
       <c r="AF163" s="40"/>
     </row>
-    <row r="164" spans="9:32" s="21" customFormat="1">
+    <row r="164" spans="9:38" s="21" customFormat="1">
       <c r="P164" s="22"/>
       <c r="Q164" s="20"/>
       <c r="R164" s="20"/>
@@ -20167,17 +20249,17 @@
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
       <c r="V164" s="20"/>
-      <c r="W164" s="15"/>
-      <c r="X164" s="15"/>
-      <c r="Y164" s="15"/>
-      <c r="Z164" s="15"/>
-      <c r="AA164" s="15"/>
-      <c r="AB164" s="15"/>
-      <c r="AC164" s="15"/>
+      <c r="W164" s="20"/>
+      <c r="X164" s="20"/>
+      <c r="Y164" s="20"/>
+      <c r="Z164" s="20"/>
+      <c r="AA164" s="20"/>
+      <c r="AB164" s="20"/>
+      <c r="AC164" s="20"/>
       <c r="AD164" s="15"/>
       <c r="AF164" s="40"/>
     </row>
-    <row r="165" spans="9:32" s="21" customFormat="1">
+    <row r="165" spans="9:38" s="21" customFormat="1">
       <c r="P165" s="22"/>
       <c r="Q165" s="20"/>
       <c r="R165" s="20"/>
@@ -20186,16 +20268,16 @@
       <c r="U165" s="20"/>
       <c r="V165" s="20"/>
       <c r="W165" s="20"/>
-      <c r="X165" s="20"/>
-      <c r="Y165" s="20"/>
-      <c r="Z165" s="20"/>
-      <c r="AA165" s="20"/>
-      <c r="AB165" s="20"/>
-      <c r="AC165" s="20"/>
+      <c r="X165" s="15"/>
+      <c r="Y165" s="15"/>
+      <c r="Z165" s="15"/>
+      <c r="AA165" s="15"/>
+      <c r="AB165" s="15"/>
+      <c r="AC165" s="15"/>
       <c r="AD165" s="15"/>
       <c r="AF165" s="40"/>
     </row>
-    <row r="166" spans="9:32" s="21" customFormat="1">
+    <row r="166" spans="9:38" s="21" customFormat="1">
       <c r="P166" s="22"/>
       <c r="Q166" s="20"/>
       <c r="R166" s="20"/>
@@ -20203,25 +20285,24 @@
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
       <c r="V166" s="20"/>
-      <c r="W166" s="20"/>
-      <c r="X166" s="20"/>
-      <c r="Y166" s="20"/>
-      <c r="Z166" s="20"/>
-      <c r="AA166" s="20"/>
-      <c r="AB166" s="20"/>
-      <c r="AC166" s="20"/>
+      <c r="W166" s="15"/>
+      <c r="X166" s="15"/>
+      <c r="Y166" s="15"/>
+      <c r="Z166" s="15"/>
+      <c r="AA166" s="15"/>
+      <c r="AB166" s="15"/>
+      <c r="AC166" s="15"/>
       <c r="AD166" s="15"/>
       <c r="AF166" s="40"/>
     </row>
-    <row r="167" spans="9:32" s="21" customFormat="1">
-      <c r="P167" s="22"/>
+    <row r="167" spans="9:38" s="21" customFormat="1">
       <c r="Q167" s="20"/>
       <c r="R167" s="20"/>
       <c r="S167" s="20"/>
       <c r="T167" s="20"/>
       <c r="U167" s="20"/>
       <c r="V167" s="20"/>
-      <c r="W167" s="20"/>
+      <c r="W167" s="15"/>
       <c r="X167" s="15"/>
       <c r="Y167" s="15"/>
       <c r="Z167" s="15"/>
@@ -20231,8 +20312,26 @@
       <c r="AD167" s="15"/>
       <c r="AF167" s="40"/>
     </row>
-    <row r="168" spans="9:32" s="21" customFormat="1">
-      <c r="P168" s="22"/>
+    <row r="168" spans="9:38">
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0</v>
+      </c>
+      <c r="K168" s="1">
+        <v>1</v>
+      </c>
+      <c r="L168" s="1">
+        <v>5</v>
+      </c>
+      <c r="M168" s="1">
+        <v>6</v>
+      </c>
+      <c r="N168" s="1">
+        <v>8</v>
+      </c>
+      <c r="P168" s="18"/>
       <c r="Q168" s="20"/>
       <c r="R168" s="20"/>
       <c r="S168" s="20"/>
@@ -20240,33 +20339,84 @@
       <c r="U168" s="20"/>
       <c r="V168" s="20"/>
       <c r="W168" s="15"/>
-      <c r="X168" s="15"/>
-      <c r="Y168" s="15"/>
-      <c r="Z168" s="15"/>
-      <c r="AA168" s="15"/>
-      <c r="AB168" s="15"/>
-      <c r="AC168" s="15"/>
-      <c r="AD168" s="15"/>
-      <c r="AF168" s="40"/>
-    </row>
-    <row r="169" spans="9:32" s="21" customFormat="1">
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="20"/>
+      <c r="AH168" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ168" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK168" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL168" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="9:38" s="21" customFormat="1">
+      <c r="I169" s="21">
+        <v>0</v>
+      </c>
+      <c r="J169" s="21">
+        <v>0</v>
+      </c>
+      <c r="K169" s="21">
+        <v>1</v>
+      </c>
+      <c r="L169" s="21">
+        <v>4</v>
+      </c>
+      <c r="M169" s="21">
+        <v>6</v>
+      </c>
+      <c r="N169" s="21">
+        <v>8</v>
+      </c>
+      <c r="P169" s="22"/>
       <c r="Q169" s="20"/>
       <c r="R169" s="20"/>
       <c r="S169" s="20"/>
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
       <c r="V169" s="20"/>
-      <c r="W169" s="15"/>
-      <c r="X169" s="15"/>
-      <c r="Y169" s="15"/>
-      <c r="Z169" s="15"/>
-      <c r="AA169" s="15"/>
-      <c r="AB169" s="15"/>
-      <c r="AC169" s="15"/>
-      <c r="AD169" s="15"/>
-      <c r="AF169" s="40"/>
-    </row>
-    <row r="170" spans="9:32" s="21" customFormat="1">
+      <c r="W169" s="20"/>
+      <c r="X169" s="20"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="20"/>
+      <c r="AA169" s="20"/>
+      <c r="AB169" s="20"/>
+      <c r="AC169" s="20"/>
+      <c r="AD169" s="20"/>
+      <c r="AF169" s="23"/>
+    </row>
+    <row r="170" spans="9:38" s="21" customFormat="1">
+      <c r="I170" s="21">
+        <v>0</v>
+      </c>
+      <c r="J170" s="21">
+        <v>0</v>
+      </c>
+      <c r="K170" s="21">
+        <v>4</v>
+      </c>
+      <c r="L170" s="21">
+        <v>6</v>
+      </c>
+      <c r="M170" s="21">
+        <v>8</v>
+      </c>
+      <c r="N170" s="21">
+        <v>8</v>
+      </c>
       <c r="P170" s="22"/>
       <c r="Q170" s="20"/>
       <c r="R170" s="20"/>
@@ -20284,7 +20434,7 @@
       <c r="AD170" s="15"/>
       <c r="AF170" s="40"/>
     </row>
-    <row r="171" spans="9:32" s="21" customFormat="1">
+    <row r="171" spans="9:38" s="21" customFormat="1">
       <c r="P171" s="22"/>
       <c r="Q171" s="20"/>
       <c r="R171" s="20"/>
@@ -20302,25 +20452,7 @@
       <c r="AD171" s="15"/>
       <c r="AF171" s="40"/>
     </row>
-    <row r="172" spans="9:32" s="21" customFormat="1">
-      <c r="I172" s="21">
-        <v>2</v>
-      </c>
-      <c r="J172" s="21">
-        <v>3</v>
-      </c>
-      <c r="K172" s="21">
-        <v>3</v>
-      </c>
-      <c r="L172" s="21">
-        <v>5</v>
-      </c>
-      <c r="M172" s="21">
-        <v>6</v>
-      </c>
-      <c r="N172" s="21">
-        <v>8</v>
-      </c>
+    <row r="172" spans="9:38" s="21" customFormat="1">
       <c r="P172" s="22"/>
       <c r="Q172" s="20"/>
       <c r="R172" s="20"/>
@@ -20338,7 +20470,7 @@
       <c r="AD172" s="20"/>
       <c r="AF172" s="40"/>
     </row>
-    <row r="173" spans="9:32" s="21" customFormat="1">
+    <row r="173" spans="9:38" s="21" customFormat="1">
       <c r="P173" s="22"/>
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
@@ -20356,25 +20488,7 @@
       <c r="AD173" s="20"/>
       <c r="AF173" s="40"/>
     </row>
-    <row r="174" spans="9:32" s="21" customFormat="1">
-      <c r="I174" s="21">
-        <v>2</v>
-      </c>
-      <c r="J174" s="21">
-        <v>3</v>
-      </c>
-      <c r="K174" s="21">
-        <v>5</v>
-      </c>
-      <c r="L174" s="21">
-        <v>6</v>
-      </c>
-      <c r="M174" s="21">
-        <v>8</v>
-      </c>
-      <c r="N174" s="21">
-        <v>10</v>
-      </c>
+    <row r="174" spans="9:38" s="21" customFormat="1">
       <c r="P174" s="22"/>
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
@@ -20392,7 +20506,7 @@
       <c r="AD174" s="20"/>
       <c r="AF174" s="40"/>
     </row>
-    <row r="175" spans="9:32" s="21" customFormat="1">
+    <row r="175" spans="9:38" s="21" customFormat="1">
       <c r="P175" s="22"/>
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
@@ -20410,7 +20524,7 @@
       <c r="AD175" s="15"/>
       <c r="AF175" s="40"/>
     </row>
-    <row r="176" spans="9:32" s="21" customFormat="1">
+    <row r="176" spans="9:38" s="21" customFormat="1">
       <c r="Q176" s="20"/>
       <c r="R176" s="20"/>
       <c r="S176" s="20"/>
@@ -32810,10 +32924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO220"/>
+  <dimension ref="A1:AO221"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L163" sqref="L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -35993,13 +36107,25 @@
       </c>
     </row>
     <row r="153" spans="1:20">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
+      <c r="A153" s="9">
+        <v>1</v>
+      </c>
+      <c r="B153" s="11">
+        <v>2</v>
+      </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
+      <c r="E153" s="9">
+        <v>1</v>
+      </c>
       <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
+      <c r="G153" s="9">
+        <v>1</v>
+      </c>
+      <c r="H153" s="9">
+        <v>1</v>
+      </c>
+      <c r="I153" s="10"/>
     </row>
     <row r="154" spans="1:20">
       <c r="A154" s="10"/>
@@ -36017,6 +36143,7 @@
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
     </row>
     <row r="156" spans="1:20">
       <c r="A156" s="10"/>
@@ -36025,6 +36152,7 @@
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
     </row>
     <row r="157" spans="1:20">
       <c r="A157" s="10"/>
@@ -36207,6 +36335,7 @@
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
       <c r="F179" s="10"/>
     </row>
     <row r="180" spans="1:6">
@@ -36309,12 +36438,14 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="F194" s="10"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="F195" s="10"/>
@@ -36397,6 +36528,7 @@
     <row r="210" spans="1:4">
       <c r="A210" s="10"/>
       <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="10"/>
@@ -36411,9 +36543,11 @@
       <c r="C213" s="10"/>
     </row>
     <row r="214" spans="1:4">
+      <c r="A214" s="10"/>
       <c r="C214" s="10"/>
     </row>
     <row r="215" spans="1:4">
+      <c r="A215" s="10"/>
       <c r="C215" s="10"/>
     </row>
     <row r="216" spans="1:4">
@@ -36430,6 +36564,9 @@
     </row>
     <row r="220" spans="1:4">
       <c r="C220" s="10"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="C221" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36442,8 +36579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -39887,6 +40024,53 @@
         <v>7</v>
       </c>
     </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1">
+        <v>3</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1">
+        <v>1</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>2</v>
+      </c>
+      <c r="K153" s="1">
+        <v>1</v>
+      </c>
+      <c r="N153" s="1">
+        <v>2</v>
+      </c>
+      <c r="O153" s="1">
+        <v>4</v>
+      </c>
+      <c r="P153" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>5</v>
+      </c>
+      <c r="R153" s="1">
+        <v>6</v>
+      </c>
+      <c r="S153" s="1">
+        <v>12</v>
+      </c>
+    </row>
     <row r="155" spans="1:19">
       <c r="S155" s="22"/>
     </row>
@@ -39973,8 +40157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A100:AN153"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="P156" sqref="P156"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -41485,7 +41669,7 @@
       <c r="J126" s="9">
         <v>1</v>
       </c>
-      <c r="L126" s="15">
+      <c r="L126" s="16">
         <v>0</v>
       </c>
       <c r="M126" s="16">
@@ -41523,7 +41707,7 @@
       <c r="J127" s="9">
         <v>1</v>
       </c>
-      <c r="L127" s="15">
+      <c r="L127" s="16">
         <v>0</v>
       </c>
       <c r="M127" s="16">
@@ -41565,7 +41749,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="10"/>
-      <c r="L128" s="15">
+      <c r="L128" s="16">
         <v>1</v>
       </c>
       <c r="M128" s="16">
@@ -41609,7 +41793,7 @@
       <c r="J129" s="9">
         <v>1</v>
       </c>
-      <c r="L129" s="15">
+      <c r="L129" s="16">
         <v>0</v>
       </c>
       <c r="M129" s="16">
@@ -41648,7 +41832,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="10"/>
-      <c r="L130" s="15">
+      <c r="L130" s="16">
         <v>1</v>
       </c>
       <c r="M130" s="16">
@@ -41691,7 +41875,7 @@
       <c r="I131" s="9">
         <v>1</v>
       </c>
-      <c r="L131" s="15">
+      <c r="L131" s="16">
         <v>2</v>
       </c>
       <c r="M131" s="16">
@@ -42525,7 +42709,37 @@
       </c>
     </row>
     <row r="153" spans="1:19">
+      <c r="A153" s="9">
+        <v>1</v>
+      </c>
+      <c r="C153" s="11">
+        <v>2</v>
+      </c>
       <c r="F153" s="10"/>
+      <c r="H153" s="11">
+        <v>3</v>
+      </c>
+      <c r="L153" s="16">
+        <v>1</v>
+      </c>
+      <c r="M153" s="16">
+        <v>3</v>
+      </c>
+      <c r="N153" s="16">
+        <v>3</v>
+      </c>
+      <c r="O153" s="16">
+        <v>8</v>
+      </c>
+      <c r="P153" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q153" s="16">
+        <v>8</v>
+      </c>
+      <c r="S153" s="16">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -42539,7 +42753,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -42662,7 +42876,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -42844,10 +43058,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -42883,7 +43097,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P7" s="18">
         <v>6</v>
@@ -42941,11 +43155,14 @@
         <v>4</v>
       </c>
       <c r="H9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="18">
         <v>7</v>
       </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
       <c r="K9" s="18">
         <v>12</v>
       </c>
@@ -42953,13 +43170,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N9" s="18">
         <v>28</v>
       </c>
       <c r="P9" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -42967,7 +43184,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -42982,7 +43199,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10" s="18">
         <v>1</v>
@@ -42996,7 +43213,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="18">
         <v>11</v>
@@ -43010,7 +43227,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="C12" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="19">
         <v>9</v>
@@ -43022,7 +43239,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -43030,10 +43247,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -43043,7 +43260,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="F15" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
